--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="552" windowWidth="28092" windowHeight="12108" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 17.10.2020, 00:00 Uhr</t>
+    <t>Datenstand: 18.10.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -35,7 +35,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 17.10.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 18.10.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -126,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -437,94 +438,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -536,18 +537,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.77734375" customWidth="1"/>
+    <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="90">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -588,7 +589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43892</v>
       </c>
@@ -596,7 +597,7 @@
         <v>304</v>
       </c>
       <c r="C2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2">
         <v>318</v>
@@ -605,13 +606,13 @@
         <v>225</v>
       </c>
       <c r="F2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
@@ -619,45 +620,45 @@
         <v>321</v>
       </c>
       <c r="C3">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3">
         <v>261</v>
       </c>
       <c r="F3">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43894</v>
       </c>
       <c r="B4">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E4">
         <v>326</v>
       </c>
       <c r="F4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>43895</v>
       </c>
@@ -665,48 +666,48 @@
         <v>504</v>
       </c>
       <c r="C5">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D5">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E5">
         <v>394</v>
       </c>
       <c r="F5">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G5">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C6">
         <v>736</v>
       </c>
       <c r="D6">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="E6">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G6">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
       </c>
       <c r="I6">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="J6">
         <v>2.34</v>
@@ -715,13 +716,13 @@
         <v>2.34</v>
       </c>
       <c r="L6">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="M6">
         <v>2.39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>43897</v>
       </c>
@@ -729,16 +730,16 @@
         <v>985</v>
       </c>
       <c r="C7">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="D7">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E7">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F7">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G7">
         <v>698</v>
@@ -747,33 +748,33 @@
         <v>2.58</v>
       </c>
       <c r="I7">
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J7">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="K7">
         <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="M7">
         <v>2.61</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C8">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D8">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="E8">
         <v>896</v>
@@ -782,39 +783,39 @@
         <v>871</v>
       </c>
       <c r="G8">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H8">
         <v>2.75</v>
       </c>
       <c r="I8">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="J8">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="K8">
         <v>2.93</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="M8">
         <v>2.98</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C9">
         <v>1982</v>
       </c>
       <c r="D9">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E9">
         <v>1275</v>
@@ -823,7 +824,7 @@
         <v>1245</v>
       </c>
       <c r="G9">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="H9">
         <v>3.23</v>
@@ -832,7 +833,7 @@
         <v>3.14</v>
       </c>
       <c r="J9">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="K9">
         <v>3.13</v>
@@ -841,10 +842,10 @@
         <v>3.08</v>
       </c>
       <c r="M9">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43900</v>
       </c>
@@ -852,25 +853,25 @@
         <v>2571</v>
       </c>
       <c r="C10">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="D10">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E10">
         <v>1728</v>
       </c>
       <c r="F10">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G10">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="J10">
         <v>3.48</v>
@@ -885,7 +886,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>43901</v>
       </c>
@@ -893,19 +894,19 @@
         <v>3236</v>
       </c>
       <c r="C11">
-        <v>3185</v>
+        <v>3194</v>
       </c>
       <c r="D11">
-        <v>3284</v>
+        <v>3276</v>
       </c>
       <c r="E11">
         <v>2291</v>
       </c>
       <c r="F11">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="G11">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="H11">
         <v>3.4</v>
@@ -914,10 +915,10 @@
         <v>3.34</v>
       </c>
       <c r="J11">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="K11">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="L11">
         <v>3.08</v>
@@ -926,33 +927,33 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C12">
-        <v>3558</v>
+        <v>3551</v>
       </c>
       <c r="D12">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="E12">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="F12">
         <v>2814</v>
       </c>
       <c r="G12">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="H12">
         <v>3.19</v>
       </c>
       <c r="I12">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="J12">
         <v>3.24</v>
@@ -967,27 +968,27 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="C13">
-        <v>4297</v>
+        <v>4303</v>
       </c>
       <c r="D13">
-        <v>4416</v>
+        <v>4413</v>
       </c>
       <c r="E13">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="F13">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="G13">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="H13">
         <v>2.7</v>
@@ -1008,33 +1009,33 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4435</v>
+        <v>4437</v>
       </c>
       <c r="C14">
-        <v>4376</v>
+        <v>4381</v>
       </c>
       <c r="D14">
-        <v>4493</v>
+        <v>4486</v>
       </c>
       <c r="E14">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="F14">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="G14">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
       </c>
       <c r="I14">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="J14">
         <v>2.29</v>
@@ -1049,27 +1050,27 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4679</v>
+        <v>4677</v>
       </c>
       <c r="C15">
-        <v>4619</v>
+        <v>4627</v>
       </c>
       <c r="D15">
-        <v>4743</v>
+        <v>4729</v>
       </c>
       <c r="E15">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="F15">
-        <v>4212</v>
+        <v>4215</v>
       </c>
       <c r="G15">
-        <v>4326</v>
+        <v>4320</v>
       </c>
       <c r="H15">
         <v>1.86</v>
@@ -1090,27 +1091,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6019</v>
+        <v>6020</v>
       </c>
       <c r="C16">
-        <v>5957</v>
+        <v>5961</v>
       </c>
       <c r="D16">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="E16">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="F16">
-        <v>4812</v>
+        <v>4818</v>
       </c>
       <c r="G16">
-        <v>4933</v>
+        <v>4927</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1131,27 +1132,27 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5232</v>
+        <v>5234</v>
       </c>
       <c r="C17">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="D17">
-        <v>5285</v>
+        <v>5288</v>
       </c>
       <c r="E17">
-        <v>5091</v>
+        <v>5092</v>
       </c>
       <c r="F17">
-        <v>5033</v>
+        <v>5036</v>
       </c>
       <c r="G17">
-        <v>5151</v>
+        <v>5146</v>
       </c>
       <c r="H17">
         <v>1.48</v>
@@ -1172,27 +1173,27 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="C18">
-        <v>5229</v>
+        <v>5237</v>
       </c>
       <c r="D18">
-        <v>5352</v>
+        <v>5344</v>
       </c>
       <c r="E18">
         <v>5305</v>
       </c>
       <c r="F18">
-        <v>5246</v>
+        <v>5250</v>
       </c>
       <c r="G18">
-        <v>5365</v>
+        <v>5360</v>
       </c>
       <c r="H18">
         <v>1.36</v>
@@ -1213,7 +1214,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>43909</v>
       </c>
@@ -1221,19 +1222,19 @@
         <v>4731</v>
       </c>
       <c r="C19">
-        <v>4676</v>
+        <v>4661</v>
       </c>
       <c r="D19">
-        <v>4788</v>
+        <v>4793</v>
       </c>
       <c r="E19">
-        <v>5318</v>
+        <v>5319</v>
       </c>
       <c r="F19">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="G19">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="H19">
         <v>1.25</v>
@@ -1254,27 +1255,27 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5329</v>
+        <v>5331</v>
       </c>
       <c r="C20">
-        <v>5269</v>
+        <v>5271</v>
       </c>
       <c r="D20">
-        <v>5388</v>
+        <v>5403</v>
       </c>
       <c r="E20">
         <v>5146</v>
       </c>
       <c r="F20">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="G20">
-        <v>5203</v>
+        <v>5207</v>
       </c>
       <c r="H20">
         <v>1.06</v>
@@ -1295,27 +1296,27 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4446</v>
+        <v>4442</v>
       </c>
       <c r="C21">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="D21">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="E21">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="F21">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="G21">
-        <v>5007</v>
+        <v>5010</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1336,7 +1337,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>43912</v>
       </c>
@@ -1344,19 +1345,19 @@
         <v>3809</v>
       </c>
       <c r="C22">
-        <v>3752</v>
+        <v>3756</v>
       </c>
       <c r="D22">
-        <v>3874</v>
+        <v>3861</v>
       </c>
       <c r="E22">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="F22">
-        <v>4520</v>
+        <v>4518</v>
       </c>
       <c r="G22">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="H22">
         <v>0.86</v>
@@ -1377,7 +1378,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>43913</v>
       </c>
@@ -1385,16 +1386,16 @@
         <v>5151</v>
       </c>
       <c r="C23">
-        <v>5092</v>
+        <v>5097</v>
       </c>
       <c r="D23">
-        <v>5215</v>
+        <v>5211</v>
       </c>
       <c r="E23">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="F23">
-        <v>4624</v>
+        <v>4627</v>
       </c>
       <c r="G23">
         <v>4744</v>
@@ -1412,33 +1413,33 @@
         <v>0.92</v>
       </c>
       <c r="L23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M23">
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4072</v>
+        <v>4075</v>
       </c>
       <c r="C24">
-        <v>4020</v>
+        <v>4014</v>
       </c>
       <c r="D24">
-        <v>4140</v>
+        <v>4130</v>
       </c>
       <c r="E24">
         <v>4369</v>
       </c>
       <c r="F24">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="G24">
-        <v>4432</v>
+        <v>4426</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1459,27 +1460,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="C25">
-        <v>4364</v>
+        <v>4360</v>
       </c>
       <c r="D25">
-        <v>4477</v>
+        <v>4474</v>
       </c>
       <c r="E25">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="F25">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="G25">
-        <v>4427</v>
+        <v>4419</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1500,27 +1501,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="C26">
-        <v>3936</v>
+        <v>3927</v>
       </c>
       <c r="D26">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E26">
         <v>4409</v>
       </c>
       <c r="F26">
-        <v>4353</v>
+        <v>4349</v>
       </c>
       <c r="G26">
-        <v>4472</v>
+        <v>4467</v>
       </c>
       <c r="H26">
         <v>0.96</v>
@@ -1541,27 +1542,27 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C27">
-        <v>4072</v>
+        <v>4061</v>
       </c>
       <c r="D27">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="E27">
         <v>4152</v>
       </c>
       <c r="F27">
-        <v>4098</v>
+        <v>4090</v>
       </c>
       <c r="G27">
-        <v>4214</v>
+        <v>4211</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1582,7 +1583,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>43918</v>
       </c>
@@ -1590,19 +1591,19 @@
         <v>3890</v>
       </c>
       <c r="C28">
-        <v>3839</v>
+        <v>3823</v>
       </c>
       <c r="D28">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="E28">
         <v>4106</v>
       </c>
       <c r="F28">
-        <v>4053</v>
+        <v>4042</v>
       </c>
       <c r="G28">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1623,15 +1624,15 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="C29">
-        <v>3208</v>
+        <v>3203</v>
       </c>
       <c r="D29">
         <v>3321</v>
@@ -1640,13 +1641,13 @@
         <v>3817</v>
       </c>
       <c r="F29">
-        <v>3764</v>
+        <v>3753</v>
       </c>
       <c r="G29">
         <v>3876</v>
       </c>
       <c r="H29">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I29">
         <v>0.87</v>
@@ -1664,24 +1665,24 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="C30">
-        <v>4332</v>
+        <v>4326</v>
       </c>
       <c r="D30">
-        <v>4446</v>
+        <v>4448</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3863</v>
+        <v>3853</v>
       </c>
       <c r="G30">
         <v>3974</v>
@@ -1705,27 +1706,27 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3582</v>
+        <v>3579</v>
       </c>
       <c r="C31">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="D31">
-        <v>3641</v>
+        <v>3638</v>
       </c>
       <c r="E31">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="F31">
-        <v>3725</v>
+        <v>3718</v>
       </c>
       <c r="G31">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1746,7 +1747,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
@@ -1754,19 +1755,19 @@
         <v>4037</v>
       </c>
       <c r="C32">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="D32">
-        <v>4101</v>
+        <v>4093</v>
       </c>
       <c r="E32">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="F32">
-        <v>3758</v>
+        <v>3755</v>
       </c>
       <c r="G32">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="H32">
         <v>0.93</v>
@@ -1787,27 +1788,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>43923</v>
       </c>
       <c r="B33">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="C33">
-        <v>3674</v>
+        <v>3668</v>
       </c>
       <c r="D33">
-        <v>3797</v>
+        <v>3789</v>
       </c>
       <c r="E33">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="F33">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="G33">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1828,27 +1829,27 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C34">
-        <v>3674</v>
+        <v>3666</v>
       </c>
       <c r="D34">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="E34">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="F34">
-        <v>3710</v>
+        <v>3707</v>
       </c>
       <c r="G34">
-        <v>3833</v>
+        <v>3828</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1863,33 +1864,33 @@
         <v>0.93</v>
       </c>
       <c r="L34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M34">
         <v>0.94</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="C35">
-        <v>2945</v>
+        <v>2951</v>
       </c>
       <c r="D35">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="E35">
         <v>3625</v>
       </c>
       <c r="F35">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="G35">
-        <v>3689</v>
+        <v>3686</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1910,27 +1911,27 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C36">
         <v>2647</v>
       </c>
       <c r="D36">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="E36">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="F36">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="G36">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1951,27 +1952,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="C37">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="D37">
-        <v>3416</v>
+        <v>3407</v>
       </c>
       <c r="E37">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="F37">
         <v>3138</v>
       </c>
       <c r="G37">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -1992,27 +1993,27 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="C38">
-        <v>2999</v>
+        <v>3006</v>
       </c>
       <c r="D38">
         <v>3116</v>
       </c>
       <c r="E38">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="F38">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="G38">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2033,7 +2034,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>43929</v>
       </c>
@@ -2041,19 +2042,19 @@
         <v>2872</v>
       </c>
       <c r="C39">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="D39">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="E39">
         <v>2993</v>
       </c>
       <c r="F39">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="G39">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="H39">
         <v>0.83</v>
@@ -2062,7 +2063,7 @@
         <v>0.82</v>
       </c>
       <c r="J39">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K39">
         <v>0.85</v>
@@ -2074,21 +2075,21 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="C40">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="D40">
-        <v>2742</v>
+        <v>2748</v>
       </c>
       <c r="E40">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="F40">
         <v>2937</v>
@@ -2112,27 +2113,27 @@
         <v>0.82</v>
       </c>
       <c r="M40">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="C41">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="D41">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="E41">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="F41">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="G41">
         <v>2792</v>
@@ -2141,13 +2142,13 @@
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J41">
         <v>0.87</v>
       </c>
       <c r="K41">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2156,27 +2157,27 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C42">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D42">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E42">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="F42">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="G42">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2197,27 +2198,27 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C43">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="D43">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E43">
         <v>2245</v>
       </c>
       <c r="F43">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="G43">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2238,27 +2239,27 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="C44">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D44">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E44">
         <v>2044</v>
       </c>
       <c r="F44">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G44">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2279,27 +2280,27 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="C45">
-        <v>1886</v>
+        <v>1895</v>
       </c>
       <c r="D45">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="E45">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F45">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="G45">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2320,27 +2321,27 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C46">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="D46">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E46">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F46">
         <v>1883</v>
       </c>
       <c r="G46">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="H46">
         <v>0.78</v>
@@ -2361,27 +2362,27 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C47">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="D47">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="E47">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F47">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G47">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2402,7 +2403,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>43938</v>
       </c>
@@ -2410,25 +2411,25 @@
         <v>1646</v>
       </c>
       <c r="C48">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D48">
         <v>1696</v>
       </c>
       <c r="E48">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F48">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G48">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="H48">
         <v>0.89</v>
       </c>
       <c r="I48">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J48">
         <v>0.91</v>
@@ -2443,27 +2444,27 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C49">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D49">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E49">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F49">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="G49">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2472,7 +2473,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2484,27 +2485,27 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>43940</v>
       </c>
       <c r="B50">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C50">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="D50">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E50">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F50">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="G50">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H50">
         <v>0.79</v>
@@ -2525,27 +2526,27 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>43941</v>
       </c>
       <c r="B51">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="C51">
-        <v>1523</v>
+        <v>1534</v>
       </c>
       <c r="D51">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="E51">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F51">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="G51">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H51">
         <v>0.79</v>
@@ -2566,27 +2567,27 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="C52">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="D52">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="E52">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F52">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="G52">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2595,10 +2596,10 @@
         <v>0.76</v>
       </c>
       <c r="J52">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K52">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L52">
         <v>0.82</v>
@@ -2607,27 +2608,27 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>43943</v>
       </c>
       <c r="B53">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C53">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D53">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="E53">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F53">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G53">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2648,33 +2649,33 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C54">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D54">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="E54">
         <v>1372</v>
       </c>
       <c r="F54">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G54">
         <v>1415</v>
       </c>
       <c r="H54">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J54">
         <v>0.91</v>
@@ -2689,18 +2690,18 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C55">
         <v>1106</v>
       </c>
       <c r="D55">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="E55">
         <v>1265</v>
@@ -2709,7 +2710,7 @@
         <v>1223</v>
       </c>
       <c r="G55">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2730,27 +2731,27 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C56">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="D56">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E56">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F56">
         <v>1140</v>
       </c>
       <c r="G56">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="H56">
         <v>0.83</v>
@@ -2768,10 +2769,10 @@
         <v>0.82</v>
       </c>
       <c r="M56">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>43947</v>
       </c>
@@ -2779,19 +2780,19 @@
         <v>903</v>
       </c>
       <c r="C57">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D57">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E57">
         <v>1081</v>
       </c>
       <c r="F57">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G57">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H57">
         <v>0.78</v>
@@ -2812,27 +2813,27 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="C58">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="D58">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E58">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F58">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="G58">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H58">
         <v>0.76</v>
@@ -2853,12 +2854,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>43949</v>
       </c>
       <c r="B59">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C59">
         <v>905</v>
@@ -2867,13 +2868,13 @@
         <v>991</v>
       </c>
       <c r="E59">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F59">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="G59">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2894,27 +2895,27 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>43950</v>
       </c>
       <c r="B60">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C60">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D60">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="E60">
         <v>953</v>
       </c>
       <c r="F60">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G60">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2935,27 +2936,27 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C61">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D61">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E61">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F61">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G61">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H61">
         <v>0.89</v>
@@ -2964,7 +2965,7 @@
         <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K61">
         <v>0.81</v>
@@ -2973,36 +2974,36 @@
         <v>0.8</v>
       </c>
       <c r="M61">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C62">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D62">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E62">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F62">
         <v>854</v>
       </c>
       <c r="G62">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="H62">
         <v>0.86</v>
       </c>
       <c r="I62">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J62">
         <v>0.88</v>
@@ -3017,18 +3018,18 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C63">
         <v>706</v>
       </c>
       <c r="D63">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E63">
         <v>839</v>
@@ -3037,13 +3038,13 @@
         <v>804</v>
       </c>
       <c r="G63">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H63">
         <v>0.85</v>
       </c>
       <c r="I63">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J63">
         <v>0.87</v>
@@ -3058,7 +3059,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>43954</v>
       </c>
@@ -3066,19 +3067,19 @@
         <v>754</v>
       </c>
       <c r="C64">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D64">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E64">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F64">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="G64">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -3096,30 +3097,30 @@
         <v>0.85</v>
       </c>
       <c r="M64">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C65">
         <v>850</v>
       </c>
       <c r="D65">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E65">
         <v>800</v>
       </c>
       <c r="F65">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G65">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3131,7 +3132,7 @@
         <v>0.86</v>
       </c>
       <c r="K65">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L65">
         <v>0.87</v>
@@ -3140,36 +3141,36 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C66">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D66">
         <v>852</v>
       </c>
       <c r="E66">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F66">
         <v>765</v>
       </c>
       <c r="G66">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H66">
         <v>0.9</v>
       </c>
       <c r="I66">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K66">
         <v>0.9</v>
@@ -3181,36 +3182,36 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C67">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D67">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="E67">
         <v>801</v>
       </c>
       <c r="F67">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G67">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H67">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I67">
         <v>0.93</v>
       </c>
       <c r="J67">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="K67">
         <v>0.89</v>
@@ -3222,18 +3223,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C68">
         <v>670</v>
       </c>
       <c r="D68">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E68">
         <v>788</v>
@@ -3242,7 +3243,7 @@
         <v>753</v>
       </c>
       <c r="G68">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H68">
         <v>0.97</v>
@@ -3254,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L68">
         <v>0.88</v>
@@ -3263,27 +3264,27 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C69">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D69">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E69">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F69">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G69">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H69">
         <v>0.92</v>
@@ -3298,13 +3299,13 @@
         <v>0.89</v>
       </c>
       <c r="L69">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M69">
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>43960</v>
       </c>
@@ -3315,16 +3316,16 @@
         <v>552</v>
       </c>
       <c r="D70">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E70">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F70">
         <v>644</v>
       </c>
       <c r="G70">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H70">
         <v>0.85</v>
@@ -3333,7 +3334,7 @@
         <v>0.82</v>
       </c>
       <c r="J70">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K70">
         <v>0.87</v>
@@ -3345,24 +3346,24 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C71">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D71">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E71">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F71">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G71">
         <v>661</v>
@@ -3380,33 +3381,33 @@
         <v>0.87</v>
       </c>
       <c r="L71">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M71">
         <v>0.88</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C72">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D72">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E72">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F72">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G72">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3418,7 +3419,7 @@
         <v>0.81</v>
       </c>
       <c r="K72">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L72">
         <v>0.84</v>
@@ -3427,36 +3428,36 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>43963</v>
       </c>
       <c r="B73">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C73">
         <v>595</v>
       </c>
       <c r="D73">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E73">
         <v>607</v>
       </c>
       <c r="F73">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G73">
         <v>638</v>
       </c>
       <c r="H73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I73">
         <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K73">
         <v>0.85</v>
@@ -3465,36 +3466,36 @@
         <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C74">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D74">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="E74">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F74">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G74">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H74">
         <v>0.9</v>
       </c>
       <c r="I74">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J74">
         <v>0.93</v>
@@ -3509,18 +3510,18 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>43965</v>
       </c>
       <c r="B75">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C75">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D75">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E75">
         <v>600</v>
@@ -3550,27 +3551,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C76">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D76">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="E76">
         <v>603</v>
       </c>
       <c r="F76">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G76">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3591,27 +3592,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>43967</v>
       </c>
       <c r="B77">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C77">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D77">
         <v>586</v>
       </c>
       <c r="E77">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F77">
         <v>557</v>
       </c>
       <c r="G77">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H77">
         <v>0.97</v>
@@ -3632,7 +3633,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>43968</v>
       </c>
@@ -3640,25 +3641,25 @@
         <v>443</v>
       </c>
       <c r="C78">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D78">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E78">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F78">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G78">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H78">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I78">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J78">
         <v>0.94</v>
@@ -3667,33 +3668,33 @@
         <v>0.96</v>
       </c>
       <c r="L78">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="M78">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>43969</v>
       </c>
       <c r="B79">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C79">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D79">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E79">
         <v>574</v>
       </c>
       <c r="F79">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G79">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H79">
         <v>0.96</v>
@@ -3711,10 +3712,10 @@
         <v>0.9</v>
       </c>
       <c r="M79">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>43970</v>
       </c>
@@ -3722,10 +3723,10 @@
         <v>467</v>
       </c>
       <c r="C80">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D80">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E80">
         <v>521</v>
@@ -3734,16 +3735,16 @@
         <v>491</v>
       </c>
       <c r="G80">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H80">
         <v>0.86</v>
       </c>
       <c r="I80">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J80">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K80">
         <v>0.92</v>
@@ -3752,30 +3753,30 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C81">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D81">
         <v>592</v>
       </c>
       <c r="E81">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F81">
         <v>493</v>
       </c>
       <c r="G81">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H81">
         <v>0.89</v>
@@ -3790,13 +3791,13 @@
         <v>0.91</v>
       </c>
       <c r="L81">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M81">
         <v>0.93</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>43972</v>
       </c>
@@ -3804,28 +3805,28 @@
         <v>390</v>
       </c>
       <c r="C82">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D82">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E82">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F82">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G82">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I82">
         <v>0.89</v>
       </c>
       <c r="J82">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K82">
         <v>0.85</v>
@@ -3834,21 +3835,21 @@
         <v>0.83</v>
       </c>
       <c r="M82">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>43973</v>
       </c>
       <c r="B83">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C83">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D83">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E83">
         <v>451</v>
@@ -3857,13 +3858,13 @@
         <v>424</v>
       </c>
       <c r="G83">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H83">
         <v>0.79</v>
       </c>
       <c r="I83">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="J83">
         <v>0.82</v>
@@ -3872,13 +3873,13 @@
         <v>0.83</v>
       </c>
       <c r="L83">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M83">
         <v>0.85</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>43974</v>
       </c>
@@ -3886,19 +3887,19 @@
         <v>363</v>
       </c>
       <c r="C84">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D84">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E84">
         <v>425</v>
       </c>
       <c r="F84">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G84">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H84">
         <v>0.82</v>
@@ -3919,27 +3920,27 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>43975</v>
       </c>
       <c r="B85">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C85">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D85">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E85">
         <v>377</v>
       </c>
       <c r="F85">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G85">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H85">
         <v>0.72</v>
@@ -3948,7 +3949,7 @@
         <v>0.69</v>
       </c>
       <c r="J85">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K85">
         <v>0.81</v>
@@ -3960,33 +3961,33 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C86">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D86">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E86">
         <v>396</v>
       </c>
       <c r="F86">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G86">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H86">
         <v>0.78</v>
       </c>
       <c r="I86">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J86">
         <v>0.81</v>
@@ -4001,7 +4002,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>43977</v>
       </c>
@@ -4009,19 +4010,19 @@
         <v>434</v>
       </c>
       <c r="C87">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D87">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G87">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H87">
         <v>0.91</v>
@@ -4042,33 +4043,33 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C88">
         <v>429</v>
       </c>
       <c r="D88">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E88">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F88">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G88">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H88">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I88">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J88">
         <v>1.06</v>
@@ -4077,13 +4078,13 @@
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M88">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>43979</v>
       </c>
@@ -4091,28 +4092,28 @@
         <v>378</v>
       </c>
       <c r="C89">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D89">
         <v>404</v>
       </c>
       <c r="E89">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F89">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G89">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H89">
         <v>1.1499999999999999</v>
       </c>
       <c r="I89">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J89">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K89">
         <v>0.94</v>
@@ -4124,27 +4125,27 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>43980</v>
       </c>
       <c r="B90">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C90">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D90">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E90">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F90">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G90">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H90">
         <v>1.02</v>
@@ -4165,18 +4166,18 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>43981</v>
       </c>
       <c r="B91">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C91">
         <v>269</v>
       </c>
       <c r="D91">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E91">
         <v>368</v>
@@ -4185,13 +4186,13 @@
         <v>343</v>
       </c>
       <c r="G91">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H91">
         <v>0.9</v>
       </c>
       <c r="I91">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J91">
         <v>0.94</v>
@@ -4206,27 +4207,27 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D92">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E92">
         <v>321</v>
       </c>
       <c r="F92">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G92">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H92">
         <v>0.74</v>
@@ -4247,27 +4248,27 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>43983</v>
       </c>
       <c r="B93">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C93">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D93">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G93">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4288,33 +4289,33 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>43984</v>
       </c>
       <c r="B94">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C94">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D94">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E94">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F94">
         <v>309</v>
       </c>
       <c r="G94">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H94">
         <v>0.82</v>
       </c>
       <c r="I94">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J94">
         <v>0.86</v>
@@ -4329,7 +4330,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>43985</v>
       </c>
@@ -4337,13 +4338,13 @@
         <v>400</v>
       </c>
       <c r="C95">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D95">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E95">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F95">
         <v>336</v>
@@ -4355,13 +4356,13 @@
         <v>0.98</v>
       </c>
       <c r="I95">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J95">
         <v>1.02</v>
       </c>
       <c r="K95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="L95">
         <v>0.89</v>
@@ -4370,7 +4371,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>43986</v>
       </c>
@@ -4381,28 +4382,28 @@
         <v>319</v>
       </c>
       <c r="D96">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G96">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H96">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I96">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J96">
         <v>1.23</v>
       </c>
       <c r="K96">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L96">
         <v>0.93</v>
@@ -4411,7 +4412,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>43987</v>
       </c>
@@ -4425,13 +4426,13 @@
         <v>348</v>
       </c>
       <c r="E97">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F97">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G97">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H97">
         <v>1.22</v>
@@ -4452,21 +4453,21 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C98">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D98">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E98">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F98">
         <v>318</v>
@@ -4493,36 +4494,36 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>43989</v>
       </c>
       <c r="B99">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C99">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D99">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E99">
         <v>299</v>
       </c>
       <c r="F99">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G99">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H99">
         <v>0.83</v>
       </c>
       <c r="I99">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J99">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K99">
         <v>1.01</v>
@@ -4534,27 +4535,27 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C100">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D100">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E100">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F100">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G100">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H100">
         <v>0.84</v>
@@ -4563,19 +4564,19 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K100">
         <v>1.03</v>
       </c>
       <c r="L100">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1.05</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>43991</v>
       </c>
@@ -4586,25 +4587,25 @@
         <v>419</v>
       </c>
       <c r="D101">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E101">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G101">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H101">
         <v>0.93</v>
       </c>
       <c r="I101">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J101">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K101">
         <v>1.04</v>
@@ -4613,10 +4614,10 @@
         <v>1.01</v>
       </c>
       <c r="M101">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>43992</v>
       </c>
@@ -4624,16 +4625,16 @@
         <v>433</v>
       </c>
       <c r="C102">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D102">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E102">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F102">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G102">
         <v>407</v>
@@ -4648,33 +4649,33 @@
         <v>1.18</v>
       </c>
       <c r="K102">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="L102">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M102">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>43993</v>
       </c>
       <c r="B103">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C103">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D103">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E103">
         <v>415</v>
       </c>
       <c r="F103">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G103">
         <v>440</v>
@@ -4698,36 +4699,36 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>43994</v>
       </c>
       <c r="B104">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C104">
         <v>346</v>
       </c>
       <c r="D104">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E104">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F104">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G104">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H104">
         <v>1.28</v>
       </c>
       <c r="I104">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J104">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="K104">
         <v>1.07</v>
@@ -4739,33 +4740,33 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>43995</v>
       </c>
       <c r="B105">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C105">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D105">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E105">
         <v>385</v>
       </c>
       <c r="F105">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G105">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H105">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I105">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J105">
         <v>1.1599999999999999</v>
@@ -4780,27 +4781,27 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>43996</v>
       </c>
       <c r="B106">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C106">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D106">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E106">
         <v>366</v>
       </c>
       <c r="F106">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G106">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H106">
         <v>0.96</v>
@@ -4809,7 +4810,7 @@
         <v>0.91</v>
       </c>
       <c r="J106">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>1.19</v>
@@ -4821,39 +4822,39 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>43997</v>
       </c>
       <c r="B107">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C107">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D107">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E107">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F107">
         <v>408</v>
       </c>
       <c r="G107">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H107">
         <v>1.05</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J107">
         <v>1.1000000000000001</v>
       </c>
       <c r="K107">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="L107">
         <v>1.39</v>
@@ -4862,48 +4863,48 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C108">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="D108">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E108">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F108">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G108">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H108">
         <v>1.53</v>
       </c>
       <c r="I108">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J108">
         <v>1.59</v>
       </c>
       <c r="K108">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="L108">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M108">
         <v>1.51</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>43999</v>
       </c>
@@ -4911,22 +4912,22 @@
         <v>663</v>
       </c>
       <c r="C109">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D109">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E109">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F109">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G109">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H109">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I109">
         <v>1.74</v>
@@ -4938,30 +4939,30 @@
         <v>1.47</v>
       </c>
       <c r="L109">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M109">
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>44000</v>
       </c>
       <c r="B110">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C110">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D110">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E110">
         <v>739</v>
       </c>
       <c r="F110">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G110">
         <v>772</v>
@@ -4973,7 +4974,7 @@
         <v>1.94</v>
       </c>
       <c r="J110">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K110">
         <v>1.42</v>
@@ -4982,39 +4983,39 @@
         <v>1.39</v>
       </c>
       <c r="M110">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>44001</v>
       </c>
       <c r="B111">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C111">
         <v>539</v>
       </c>
       <c r="D111">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E111">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F111">
         <v>689</v>
       </c>
       <c r="G111">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H111">
         <v>1.66</v>
       </c>
       <c r="I111">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J111">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="K111">
         <v>1.19</v>
@@ -5026,24 +5027,24 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>44002</v>
       </c>
       <c r="B112">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C112">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D112">
         <v>500</v>
       </c>
       <c r="E112">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F112">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G112">
         <v>590</v>
@@ -5067,24 +5068,24 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>44003</v>
       </c>
       <c r="B113">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C113">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D113">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E113">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F113">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G113">
         <v>515</v>
@@ -5099,7 +5100,7 @@
         <v>0.73</v>
       </c>
       <c r="K113">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L113">
         <v>1.02</v>
@@ -5108,7 +5109,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>44004</v>
       </c>
@@ -5116,25 +5117,25 @@
         <v>474</v>
       </c>
       <c r="C114">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D114">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E114">
         <v>470</v>
       </c>
       <c r="F114">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G114">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H114">
         <v>0.64</v>
       </c>
       <c r="I114">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="J114">
         <v>0.66</v>
@@ -5149,30 +5150,30 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C115">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D115">
         <v>461</v>
       </c>
       <c r="E115">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F115">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G115">
         <v>464</v>
       </c>
       <c r="H115">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I115">
         <v>0.57999999999999996</v>
@@ -5190,7 +5191,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>44006</v>
       </c>
@@ -5198,16 +5199,16 @@
         <v>467</v>
       </c>
       <c r="C116">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D116">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E116">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F116">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G116">
         <v>463</v>
@@ -5216,10 +5217,10 @@
         <v>0.78</v>
       </c>
       <c r="I116">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J116">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K116">
         <v>0.73</v>
@@ -5231,18 +5232,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>44007</v>
       </c>
       <c r="B117">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C117">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D117">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E117">
         <v>445</v>
@@ -5257,10 +5258,10 @@
         <v>0.92</v>
       </c>
       <c r="I117">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J117">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5272,68 +5273,68 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C118">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D118">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E118">
         <v>434</v>
       </c>
       <c r="F118">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G118">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J118">
         <v>0.96</v>
       </c>
       <c r="K118">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L118">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="M118">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>44009</v>
       </c>
       <c r="B119">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C119">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E119">
         <v>414</v>
       </c>
       <c r="F119">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G119">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H119">
         <v>0.95</v>
@@ -5354,33 +5355,33 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C120">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D120">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E120">
         <v>376</v>
       </c>
       <c r="F120">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G120">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H120">
         <v>0.86</v>
       </c>
       <c r="I120">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J120">
         <v>0.9</v>
@@ -5395,18 +5396,18 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C121">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D121">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E121">
         <v>380</v>
@@ -5415,7 +5416,7 @@
         <v>356</v>
       </c>
       <c r="G121">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H121">
         <v>0.85</v>
@@ -5430,33 +5431,33 @@
         <v>0.93</v>
       </c>
       <c r="L121">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M121">
         <v>0.95</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>44012</v>
       </c>
       <c r="B122">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C122">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D122">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E122">
         <v>381</v>
       </c>
       <c r="F122">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G122">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H122">
         <v>0.88</v>
@@ -5465,7 +5466,7 @@
         <v>0.84</v>
       </c>
       <c r="J122">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K122">
         <v>0.94</v>
@@ -5474,18 +5475,18 @@
         <v>0.92</v>
       </c>
       <c r="M122">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C123">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D123">
         <v>435</v>
@@ -5497,7 +5498,7 @@
         <v>369</v>
       </c>
       <c r="G123">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5506,19 +5507,19 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M123">
         <v>0.96</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>44014</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>337</v>
       </c>
       <c r="C124">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D124">
         <v>362</v>
@@ -5538,7 +5539,7 @@
         <v>374</v>
       </c>
       <c r="G124">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H124">
         <v>1.06</v>
@@ -5547,19 +5548,19 @@
         <v>1.02</v>
       </c>
       <c r="J124">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K124">
         <v>0.93</v>
       </c>
       <c r="L124">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M124">
         <v>0.95</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>44015</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>347</v>
       </c>
       <c r="C125">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D125">
         <v>374</v>
@@ -5576,31 +5577,31 @@
         <v>381</v>
       </c>
       <c r="F125">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G125">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J125">
         <v>1.05</v>
       </c>
       <c r="K125">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L125">
         <v>0.89</v>
       </c>
       <c r="M125">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>44016</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>298</v>
       </c>
       <c r="C126">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D126">
         <v>320</v>
@@ -5617,10 +5618,10 @@
         <v>347</v>
       </c>
       <c r="F126">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G126">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5641,7 +5642,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>44017</v>
       </c>
@@ -5649,19 +5650,19 @@
         <v>293</v>
       </c>
       <c r="C127">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D127">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E127">
         <v>319</v>
       </c>
       <c r="F127">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G127">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H127">
         <v>0.81</v>
@@ -5679,30 +5680,30 @@
         <v>0.9</v>
       </c>
       <c r="M127">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C128">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D128">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E128">
         <v>329</v>
       </c>
       <c r="F128">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G128">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H128">
         <v>0.82</v>
@@ -5723,33 +5724,33 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>44019</v>
       </c>
       <c r="B129">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C129">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D129">
         <v>396</v>
       </c>
       <c r="E129">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F129">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G129">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H129">
         <v>0.88</v>
       </c>
       <c r="I129">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J129">
         <v>0.92</v>
@@ -5764,15 +5765,15 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C130">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D130">
         <v>382</v>
@@ -5784,16 +5785,16 @@
         <v>326</v>
       </c>
       <c r="G130">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H130">
         <v>1.01</v>
       </c>
       <c r="I130">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J130">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K130">
         <v>0.95</v>
@@ -5805,7 +5806,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>44021</v>
       </c>
@@ -5813,16 +5814,16 @@
         <v>376</v>
       </c>
       <c r="C131">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D131">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E131">
         <v>371</v>
       </c>
       <c r="F131">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G131">
         <v>395</v>
@@ -5834,7 +5835,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J131">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K131">
         <v>1</v>
@@ -5846,33 +5847,33 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C132">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D132">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E132">
         <v>384</v>
       </c>
       <c r="F132">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G132">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H132">
         <v>1.17</v>
       </c>
       <c r="I132">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J132">
         <v>1.22</v>
@@ -5881,24 +5882,24 @@
         <v>1.07</v>
       </c>
       <c r="L132">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M132">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>44023</v>
       </c>
       <c r="B133">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C133">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D133">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E133">
         <v>387</v>
@@ -5907,57 +5908,57 @@
         <v>363</v>
       </c>
       <c r="G133">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H133">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I133">
         <v>1.1000000000000001</v>
       </c>
       <c r="J133">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K133">
         <v>1.1200000000000001</v>
       </c>
       <c r="L133">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M133">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>44024</v>
       </c>
       <c r="B134">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C134">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D134">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E134">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F134">
         <v>364</v>
       </c>
       <c r="G134">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
       </c>
       <c r="I134">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J134">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K134">
         <v>1.17</v>
@@ -5966,30 +5967,30 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M134">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C135">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D135">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E135">
         <v>430</v>
       </c>
       <c r="F135">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G135">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H135">
         <v>1.1599999999999999</v>
@@ -5998,7 +5999,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J135">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K135">
         <v>1.19</v>
@@ -6010,27 +6011,27 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>44026</v>
       </c>
       <c r="B136">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C136">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D136">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E136">
         <v>452</v>
       </c>
       <c r="F136">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G136">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H136">
         <v>1.18</v>
@@ -6039,48 +6040,48 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J136">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K136">
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M136">
         <v>1.25</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C137">
         <v>528</v>
       </c>
       <c r="D137">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E137">
         <v>494</v>
       </c>
       <c r="F137">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G137">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H137">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I137">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J137">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K137">
         <v>1.23</v>
@@ -6092,27 +6093,27 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>44028</v>
       </c>
       <c r="B138">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C138">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D138">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E138">
         <v>521</v>
       </c>
       <c r="F138">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G138">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H138">
         <v>1.34</v>
@@ -6133,7 +6134,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>44029</v>
       </c>
@@ -6141,51 +6142,51 @@
         <v>532</v>
       </c>
       <c r="C139">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D139">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E139">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F139">
         <v>492</v>
       </c>
       <c r="G139">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H139">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I139">
         <v>1.1599999999999999</v>
       </c>
       <c r="J139">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="K139">
         <v>1.17</v>
       </c>
       <c r="L139">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M139">
         <v>1.19</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C140">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D140">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E140">
         <v>512</v>
@@ -6194,7 +6195,7 @@
         <v>485</v>
       </c>
       <c r="G140">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H140">
         <v>1.1299999999999999</v>
@@ -6215,7 +6216,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>44031</v>
       </c>
@@ -6223,19 +6224,19 @@
         <v>517</v>
       </c>
       <c r="C141">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D141">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E141">
         <v>502</v>
       </c>
       <c r="F141">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G141">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H141">
         <v>1.02</v>
@@ -6256,27 +6257,27 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C142">
         <v>657</v>
       </c>
       <c r="D142">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E142">
         <v>558</v>
       </c>
       <c r="F142">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G142">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H142">
         <v>1.07</v>
@@ -6297,7 +6298,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>44033</v>
       </c>
@@ -6308,10 +6309,10 @@
         <v>672</v>
       </c>
       <c r="D143">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E143">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F143">
         <v>570</v>
@@ -6338,18 +6339,18 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C144">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D144">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E144">
         <v>662</v>
@@ -6358,10 +6359,10 @@
         <v>630</v>
       </c>
       <c r="G144">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H144">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I144">
         <v>1.25</v>
@@ -6379,27 +6380,27 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C145">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D145">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E145">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F145">
         <v>671</v>
       </c>
       <c r="G145">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H145">
         <v>1.4</v>
@@ -6408,7 +6409,7 @@
         <v>1.36</v>
       </c>
       <c r="J145">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="K145">
         <v>1.2</v>
@@ -6420,21 +6421,21 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C146">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D146">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E146">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F146">
         <v>672</v>
@@ -6449,7 +6450,7 @@
         <v>1.22</v>
       </c>
       <c r="J146">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K146">
         <v>1.17</v>
@@ -6461,7 +6462,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>44037</v>
       </c>
@@ -6469,16 +6470,16 @@
         <v>614</v>
       </c>
       <c r="C147">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D147">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E147">
         <v>682</v>
       </c>
       <c r="F147">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G147">
         <v>717</v>
@@ -6502,33 +6503,33 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>44038</v>
       </c>
       <c r="B148">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C148">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D148">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="E148">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F148">
         <v>616</v>
       </c>
       <c r="G148">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H148">
         <v>0.98</v>
       </c>
       <c r="I148">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J148">
         <v>1.02</v>
@@ -6540,30 +6541,30 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M148">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C149">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D149">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E149">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F149">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G149">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H149">
         <v>0.97</v>
@@ -6572,7 +6573,7 @@
         <v>0.94</v>
       </c>
       <c r="J149">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>1.0900000000000001</v>
@@ -6584,7 +6585,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>44040</v>
       </c>
@@ -6592,19 +6593,19 @@
         <v>769</v>
       </c>
       <c r="C150">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D150">
         <v>806</v>
       </c>
       <c r="E150">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F150">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G150">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6625,27 +6626,27 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>44041</v>
       </c>
       <c r="B151">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C151">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D151">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E151">
         <v>734</v>
       </c>
       <c r="F151">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G151">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H151">
         <v>1.08</v>
@@ -6666,27 +6667,27 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C152">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D152">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E152">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F152">
         <v>737</v>
       </c>
       <c r="G152">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6695,7 +6696,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J152">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K152">
         <v>1.05</v>
@@ -6707,24 +6708,24 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C153">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="D153">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="E153">
         <v>762</v>
       </c>
       <c r="F153">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G153">
         <v>801</v>
@@ -6748,74 +6749,74 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C154">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D154">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="E154">
         <v>776</v>
       </c>
       <c r="F154">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G154">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H154">
         <v>1.1100000000000001</v>
       </c>
       <c r="I154">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J154">
         <v>1.1499999999999999</v>
       </c>
       <c r="K154">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L154">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M154">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C155">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D155">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E155">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F155">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G155">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="H155">
         <v>1.1100000000000001</v>
       </c>
       <c r="I155">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J155">
         <v>1.1499999999999999</v>
@@ -6830,33 +6831,33 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C156">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D156">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="E156">
         <v>895</v>
       </c>
       <c r="F156">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G156">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
       </c>
       <c r="I156">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J156">
         <v>1.19</v>
@@ -6871,27 +6872,27 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>44047</v>
       </c>
       <c r="B157">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C157">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D157">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E157">
         <v>945</v>
       </c>
       <c r="F157">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G157">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H157">
         <v>1.24</v>
@@ -6900,7 +6901,7 @@
         <v>1.19</v>
       </c>
       <c r="J157">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="K157">
         <v>1.19</v>
@@ -6912,24 +6913,24 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C158">
         <v>942</v>
       </c>
       <c r="D158">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E158">
         <v>986</v>
       </c>
       <c r="F158">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G158">
         <v>1030</v>
@@ -6938,7 +6939,7 @@
         <v>1.27</v>
       </c>
       <c r="I158">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J158">
         <v>1.31</v>
@@ -6953,65 +6954,65 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C159">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="D159">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="E159">
         <v>1012</v>
       </c>
       <c r="F159">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G159">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H159">
         <v>1.24</v>
       </c>
       <c r="I159">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J159">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K159">
         <v>1.17</v>
       </c>
       <c r="L159">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M159">
         <v>1.19</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C160">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D160">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E160">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F160">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G160">
         <v>1051</v>
@@ -7029,13 +7030,13 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L160">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M160">
         <v>1.18</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>44051</v>
       </c>
@@ -7043,19 +7044,19 @@
         <v>1003</v>
       </c>
       <c r="C161">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="D161">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="E161">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F161">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G161">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H161">
         <v>1.07</v>
@@ -7070,33 +7071,33 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L161">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M161">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C162">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D162">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E162">
         <v>1025</v>
       </c>
       <c r="F162">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="G162">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H162">
         <v>1.04</v>
@@ -7117,12 +7118,12 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C163">
         <v>1355</v>
@@ -7134,7 +7135,7 @@
         <v>1125</v>
       </c>
       <c r="F163">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G163">
         <v>1172</v>
@@ -7158,27 +7159,27 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>44054</v>
       </c>
       <c r="B164">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C164">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D164">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="E164">
         <v>1194</v>
       </c>
       <c r="F164">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="G164">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="H164">
         <v>1.19</v>
@@ -7187,19 +7188,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J164">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K164">
         <v>1.1599999999999999</v>
       </c>
       <c r="L164">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M164">
         <v>1.18</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>44055</v>
       </c>
@@ -7207,19 +7208,19 @@
         <v>1319</v>
       </c>
       <c r="C165">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="D165">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E165">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F165">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G165">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="H165">
         <v>1.26</v>
@@ -7228,7 +7229,7 @@
         <v>1.22</v>
       </c>
       <c r="J165">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K165">
         <v>1.19</v>
@@ -7240,27 +7241,27 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C166">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="D166">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="E166">
         <v>1349</v>
       </c>
       <c r="F166">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G166">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H166">
         <v>1.32</v>
@@ -7269,7 +7270,7 @@
         <v>1.28</v>
       </c>
       <c r="J166">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="K166">
         <v>1.17</v>
@@ -7281,7 +7282,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>44057</v>
       </c>
@@ -7292,16 +7293,16 @@
         <v>1263</v>
       </c>
       <c r="D167">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="E167">
         <v>1326</v>
       </c>
       <c r="F167">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G167">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H167">
         <v>1.18</v>
@@ -7319,30 +7320,30 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M167">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C168">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="D168">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E168">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F168">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="G168">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7363,27 +7364,27 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C169">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D169">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E169">
         <v>1262</v>
       </c>
       <c r="F169">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="G169">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="H169">
         <v>0.99</v>
@@ -7404,27 +7405,27 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C170">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="D170">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="E170">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F170">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G170">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="H170">
         <v>0.95</v>
@@ -7433,7 +7434,7 @@
         <v>0.92</v>
       </c>
       <c r="J170">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K170">
         <v>1.06</v>
@@ -7445,33 +7446,33 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C171">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D171">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E171">
         <v>1317</v>
       </c>
       <c r="F171">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G171">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="H171">
         <v>0.99</v>
       </c>
       <c r="I171">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J171">
         <v>1.02</v>
@@ -7486,27 +7487,27 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C172">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D172">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E172">
         <v>1339</v>
       </c>
       <c r="F172">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="G172">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="H172">
         <v>1.03</v>
@@ -7527,36 +7528,36 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C173">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D173">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E173">
         <v>1330</v>
       </c>
       <c r="F173">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="G173">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H173">
         <v>1.05</v>
       </c>
       <c r="I173">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J173">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K173">
         <v>0.97</v>
@@ -7568,33 +7569,33 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="C174">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D174">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="E174">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F174">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G174">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="H174">
         <v>0.99</v>
       </c>
       <c r="I174">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J174">
         <v>1.02</v>
@@ -7609,27 +7610,27 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C175">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D175">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E175">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F175">
         <v>1131</v>
       </c>
       <c r="G175">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="H175">
         <v>0.9</v>
@@ -7650,18 +7651,18 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C176">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D176">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E176">
         <v>1145</v>
@@ -7670,7 +7671,7 @@
         <v>1097</v>
       </c>
       <c r="G176">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H176">
         <v>0.86</v>
@@ -7691,27 +7692,27 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C177">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="D177">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="E177">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F177">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="G177">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="H177">
         <v>0.92</v>
@@ -7732,33 +7733,33 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C178">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D178">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="E178">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F178">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="G178">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I178">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J178">
         <v>1.02</v>
@@ -7773,18 +7774,18 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
         <v>44069</v>
       </c>
       <c r="B179">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C179">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D179">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="E179">
         <v>1283</v>
@@ -7814,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
         <v>44070</v>
       </c>
@@ -7822,25 +7823,25 @@
         <v>1226</v>
       </c>
       <c r="C180">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D180">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E180">
         <v>1299</v>
       </c>
       <c r="F180">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G180">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H180">
         <v>1.1299999999999999</v>
       </c>
       <c r="I180">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J180">
         <v>1.17</v>
@@ -7855,18 +7856,18 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
         <v>44071</v>
       </c>
       <c r="B181">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C181">
         <v>1096</v>
       </c>
       <c r="D181">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="E181">
         <v>1223</v>
@@ -7875,13 +7876,13 @@
         <v>1178</v>
       </c>
       <c r="G181">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J181">
         <v>1.03</v>
@@ -7890,42 +7891,42 @@
         <v>0.98</v>
       </c>
       <c r="L181">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M181">
         <v>0.99</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C182">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D182">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E182">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F182">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G182">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H182">
         <v>0.9</v>
       </c>
       <c r="I182">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J182">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K182">
         <v>0.97</v>
@@ -7937,36 +7938,36 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
         <v>44073</v>
       </c>
       <c r="B183">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C183">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="D183">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E183">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F183">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G183">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H183">
         <v>0.85</v>
       </c>
       <c r="I183">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J183">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K183">
         <v>0.95</v>
@@ -7978,27 +7979,27 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
         <v>44074</v>
       </c>
       <c r="B184">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C184">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D184">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="E184">
         <v>1121</v>
       </c>
       <c r="F184">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G184">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H184">
         <v>0.86</v>
@@ -8019,27 +8020,27 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C185">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="D185">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="E185">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F185">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G185">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="H185">
         <v>0.98</v>
@@ -8060,33 +8061,33 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C186">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="D186">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="E186">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F186">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G186">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="H186">
         <v>1.1399999999999999</v>
       </c>
       <c r="I186">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J186">
         <v>1.17</v>
@@ -8101,7 +8102,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
         <v>44077</v>
       </c>
@@ -8109,19 +8110,19 @@
         <v>1260</v>
       </c>
       <c r="C187">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D187">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="E187">
         <v>1354</v>
       </c>
       <c r="F187">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G187">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H187">
         <v>1.24</v>
@@ -8142,27 +8143,27 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C188">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="D188">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="E188">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F188">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="G188">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H188">
         <v>1.19</v>
@@ -8177,13 +8178,13 @@
         <v>1.06</v>
       </c>
       <c r="L188">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M188">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
         <v>44079</v>
       </c>
@@ -8191,16 +8192,16 @@
         <v>1170</v>
       </c>
       <c r="C189">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="D189">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="E189">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F189">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="G189">
         <v>1304</v>
@@ -8224,36 +8225,36 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="C190">
-        <v>1246</v>
+        <v>1263</v>
       </c>
       <c r="D190">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="E190">
         <v>1251</v>
       </c>
       <c r="F190">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G190">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H190">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I190">
         <v>0.94</v>
       </c>
       <c r="J190">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="K190">
         <v>1.1000000000000001</v>
@@ -8265,27 +8266,27 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C191">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="D191">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="E191">
         <v>1337</v>
       </c>
       <c r="F191">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G191">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H191">
         <v>0.99</v>
@@ -8300,30 +8301,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L191">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M191">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C192">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="D192">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E192">
         <v>1418</v>
       </c>
       <c r="F192">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="G192">
         <v>1469</v>
@@ -8332,13 +8333,13 @@
         <v>1.06</v>
       </c>
       <c r="I192">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J192">
         <v>1.0900000000000001</v>
       </c>
       <c r="K192">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L192">
         <v>1.0900000000000001</v>
@@ -8347,36 +8348,36 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
         <v>44083</v>
       </c>
       <c r="B193">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C193">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="D193">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="E193">
         <v>1530</v>
       </c>
       <c r="F193">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="G193">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H193">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I193">
         <v>1.19</v>
       </c>
       <c r="J193">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K193">
         <v>1.1100000000000001</v>
@@ -8388,24 +8389,24 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13">
       <c r="A194" s="1">
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C194">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="D194">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="E194">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F194">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="G194">
         <v>1669</v>
@@ -8429,27 +8430,27 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13">
       <c r="A195" s="1">
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C195">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="D195">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="E195">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F195">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="G195">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8458,7 +8459,7 @@
         <v>1.19</v>
       </c>
       <c r="J195">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="K195">
         <v>1.1499999999999999</v>
@@ -8470,18 +8471,18 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13">
       <c r="A196" s="1">
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="C196">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="D196">
-        <v>1585</v>
+        <v>1600</v>
       </c>
       <c r="E196">
         <v>1609</v>
@@ -8490,7 +8491,7 @@
         <v>1557</v>
       </c>
       <c r="G196">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="H196">
         <v>1.1299999999999999</v>
@@ -8511,27 +8512,27 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197" s="1">
         <v>44087</v>
       </c>
       <c r="B197">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="C197">
         <v>1538</v>
       </c>
       <c r="D197">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="E197">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="F197">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="G197">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="H197">
         <v>1.05</v>
@@ -8552,27 +8553,27 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198" s="1">
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="C198">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="D198">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E198">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F198">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="G198">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8587,36 +8588,36 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="L198">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M198">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13">
       <c r="A199" s="1">
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C199">
-        <v>1908</v>
+        <v>1918</v>
       </c>
       <c r="D199">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="E199">
         <v>1809</v>
       </c>
       <c r="F199">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G199">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="H199">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I199">
         <v>1.0900000000000001</v>
@@ -8634,7 +8635,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200" s="1">
         <v>44090</v>
       </c>
@@ -8642,19 +8643,19 @@
         <v>1873</v>
       </c>
       <c r="C200">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="D200">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="E200">
         <v>1892</v>
       </c>
       <c r="F200">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="G200">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="H200">
         <v>1.18</v>
@@ -8675,7 +8676,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13">
       <c r="A201" s="1">
         <v>44091</v>
       </c>
@@ -8683,25 +8684,25 @@
         <v>1734</v>
       </c>
       <c r="C201">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D201">
-        <v>1787</v>
+        <v>1794</v>
       </c>
       <c r="E201">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F201">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="G201">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H201">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I201">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J201">
         <v>1.23</v>
@@ -8716,36 +8717,36 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202" s="1">
         <v>44092</v>
       </c>
       <c r="B202">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C202">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D202">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="E202">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F202">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="G202">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="H202">
         <v>1.06</v>
       </c>
       <c r="I202">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J202">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K202">
         <v>1.03</v>
@@ -8754,36 +8755,36 @@
         <v>1.02</v>
       </c>
       <c r="M202">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="1">
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="C203">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="D203">
-        <v>1569</v>
+        <v>1583</v>
       </c>
       <c r="E203">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F203">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="G203">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H203">
         <v>0.95</v>
       </c>
       <c r="I203">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J203">
         <v>0.97</v>
@@ -8798,33 +8799,33 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204" s="1">
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C204">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="D204">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="E204">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="F204">
         <v>1599</v>
       </c>
       <c r="G204">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="H204">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I204">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J204">
         <v>0.9</v>
@@ -8839,27 +8840,27 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13">
       <c r="A205" s="1">
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2183</v>
+        <v>2188</v>
       </c>
       <c r="C205">
-        <v>2124</v>
+        <v>2132</v>
       </c>
       <c r="D205">
         <v>2251</v>
       </c>
       <c r="E205">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="F205">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="G205">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="H205">
         <v>0.92</v>
@@ -8880,36 +8881,36 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206" s="1">
         <v>44096</v>
       </c>
       <c r="B206">
-        <v>2129</v>
+        <v>2139</v>
       </c>
       <c r="C206">
-        <v>2050</v>
+        <v>2074</v>
       </c>
       <c r="D206">
-        <v>2191</v>
+        <v>2206</v>
       </c>
       <c r="E206">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="F206">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="G206">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="H206">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J206">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K206">
         <v>1.04</v>
@@ -8921,30 +8922,30 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13">
       <c r="A207" s="1">
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C207">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="D207">
         <v>2149</v>
       </c>
       <c r="E207">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F207">
-        <v>1946</v>
+        <v>1952</v>
       </c>
       <c r="G207">
-        <v>2073</v>
+        <v>2078</v>
       </c>
       <c r="H207">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I207">
         <v>1.1499999999999999</v>
@@ -8962,27 +8963,27 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13">
       <c r="A208" s="1">
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="C208">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="D208">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="E208">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="F208">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="G208">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="H208">
         <v>1.28</v>
@@ -8991,7 +8992,7 @@
         <v>1.25</v>
       </c>
       <c r="J208">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K208">
         <v>1.0900000000000001</v>
@@ -9003,33 +9004,33 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="C209">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="D209">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="E209">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="F209">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="G209">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="H209">
         <v>1.19</v>
       </c>
       <c r="I209">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J209">
         <v>1.22</v>
@@ -9044,18 +9045,18 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210" s="1">
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C210">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="D210">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="E210">
         <v>2063</v>
@@ -9064,13 +9065,13 @@
         <v>1991</v>
       </c>
       <c r="G210">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="H210">
         <v>1.1000000000000001</v>
       </c>
       <c r="I210">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J210">
         <v>1.1299999999999999</v>
@@ -9082,36 +9083,36 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M210">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1">
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="C211">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="D211">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="E211">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F211">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G211">
-        <v>2098</v>
+        <v>2087</v>
       </c>
       <c r="H211">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J211">
         <v>1.03</v>
@@ -9120,33 +9121,33 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L211">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M211">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212" s="1">
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2655</v>
+        <v>2661</v>
       </c>
       <c r="C212">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="D212">
-        <v>2761</v>
+        <v>2783</v>
       </c>
       <c r="E212">
         <v>2171</v>
       </c>
       <c r="F212">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="G212">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="H212">
         <v>1.03</v>
@@ -9161,33 +9162,33 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L212">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M212">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13">
       <c r="A213" s="1">
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2761</v>
+        <v>2773</v>
       </c>
       <c r="C213">
-        <v>2619</v>
+        <v>2668</v>
       </c>
       <c r="D213">
-        <v>2888</v>
+        <v>2876</v>
       </c>
       <c r="E213">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="F213">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="G213">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="H213">
         <v>1.1000000000000001</v>
@@ -9208,24 +9209,24 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214" s="1">
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2808</v>
+        <v>2799</v>
       </c>
       <c r="C214">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="D214">
-        <v>2923</v>
+        <v>2941</v>
       </c>
       <c r="E214">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="F214">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="G214">
         <v>2644</v>
@@ -9249,36 +9250,36 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215" s="1">
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>2991</v>
+        <v>3003</v>
       </c>
       <c r="C215">
-        <v>2823</v>
+        <v>2866</v>
       </c>
       <c r="D215">
-        <v>3172</v>
+        <v>3130</v>
       </c>
       <c r="E215">
-        <v>2804</v>
+        <v>2809</v>
       </c>
       <c r="F215">
-        <v>2669</v>
+        <v>2691</v>
       </c>
       <c r="G215">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="H215">
         <v>1.39</v>
       </c>
       <c r="I215">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J215">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="K215">
         <v>1.23</v>
@@ -9290,27 +9291,27 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13">
       <c r="A216" s="1">
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3375</v>
+        <v>3364</v>
       </c>
       <c r="C216">
-        <v>3167</v>
+        <v>3188</v>
       </c>
       <c r="D216">
-        <v>3548</v>
+        <v>3541</v>
       </c>
       <c r="E216">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="F216">
-        <v>2821</v>
+        <v>2849</v>
       </c>
       <c r="G216">
-        <v>3133</v>
+        <v>3122</v>
       </c>
       <c r="H216">
         <v>1.37</v>
@@ -9328,30 +9329,30 @@
         <v>1.25</v>
       </c>
       <c r="M216">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="1">
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="C217">
-        <v>3115</v>
+        <v>3183</v>
       </c>
       <c r="D217">
-        <v>3592</v>
+        <v>3503</v>
       </c>
       <c r="E217">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="F217">
-        <v>2945</v>
+        <v>2978</v>
       </c>
       <c r="G217">
-        <v>3309</v>
+        <v>3279</v>
       </c>
       <c r="H217">
         <v>1.35</v>
@@ -9360,7 +9361,7 @@
         <v>1.3</v>
       </c>
       <c r="J217">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K217">
         <v>1.31</v>
@@ -9369,36 +9370,36 @@
         <v>1.29</v>
       </c>
       <c r="M217">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="1">
         <v>44108</v>
       </c>
       <c r="B218">
-        <v>3505</v>
+        <v>3490</v>
       </c>
       <c r="C218">
-        <v>3234</v>
+        <v>3213</v>
       </c>
       <c r="D218">
-        <v>3758</v>
+        <v>3752</v>
       </c>
       <c r="E218">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="F218">
-        <v>3085</v>
+        <v>3112</v>
       </c>
       <c r="G218">
-        <v>3518</v>
+        <v>3482</v>
       </c>
       <c r="H218">
         <v>1.3</v>
       </c>
       <c r="I218">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="J218">
         <v>1.35</v>
@@ -9413,27 +9414,27 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13">
       <c r="A219" s="1">
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4733</v>
+        <v>4695</v>
       </c>
       <c r="C219">
-        <v>4333</v>
+        <v>4353</v>
       </c>
       <c r="D219">
-        <v>5194</v>
+        <v>5075</v>
       </c>
       <c r="E219">
-        <v>3739</v>
+        <v>3722</v>
       </c>
       <c r="F219">
-        <v>3462</v>
+        <v>3484</v>
       </c>
       <c r="G219">
-        <v>4023</v>
+        <v>3968</v>
       </c>
       <c r="H219">
         <v>1.33</v>
@@ -9442,335 +9443,376 @@
         <v>1.27</v>
       </c>
       <c r="J219">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K219">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="L219">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M219">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="1">
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4873</v>
+        <v>4805</v>
       </c>
       <c r="C220">
-        <v>4345</v>
+        <v>4375</v>
       </c>
       <c r="D220">
-        <v>5372</v>
+        <v>5302</v>
       </c>
       <c r="E220">
-        <v>4114</v>
+        <v>4082</v>
       </c>
       <c r="F220">
-        <v>3757</v>
+        <v>3781</v>
       </c>
       <c r="G220">
-        <v>4479</v>
+        <v>4408</v>
       </c>
       <c r="H220">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I220">
         <v>1.3</v>
       </c>
       <c r="J220">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="K220">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L220">
         <v>1.35</v>
       </c>
       <c r="M220">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="1">
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4983</v>
+        <v>4928</v>
       </c>
       <c r="C221">
-        <v>4213</v>
+        <v>4301</v>
       </c>
       <c r="D221">
-        <v>5698</v>
+        <v>5458</v>
       </c>
       <c r="E221">
-        <v>4523</v>
+        <v>4479</v>
       </c>
       <c r="F221">
-        <v>4031</v>
+        <v>4060</v>
       </c>
       <c r="G221">
-        <v>5006</v>
+        <v>4897</v>
       </c>
       <c r="H221">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="I221">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J221">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="K221">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="L221">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M221">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="1">
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>5070</v>
+        <v>5006</v>
       </c>
       <c r="C222">
-        <v>4270</v>
+        <v>4336</v>
       </c>
       <c r="D222">
-        <v>5894</v>
+        <v>5607</v>
       </c>
       <c r="E222">
-        <v>4915</v>
+        <v>4858</v>
       </c>
       <c r="F222">
-        <v>4290</v>
+        <v>4341</v>
       </c>
       <c r="G222">
-        <v>5539</v>
+        <v>5360</v>
       </c>
       <c r="H222">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="I222">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J222">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="K222">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="L222">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M222">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="1">
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5367</v>
+        <v>5381</v>
       </c>
       <c r="C223">
-        <v>4222</v>
+        <v>4596</v>
       </c>
       <c r="D223">
-        <v>6543</v>
+        <v>6270</v>
       </c>
       <c r="E223">
-        <v>5073</v>
+        <v>5030</v>
       </c>
       <c r="F223">
-        <v>4263</v>
+        <v>4402</v>
       </c>
       <c r="G223">
-        <v>5877</v>
+        <v>5659</v>
       </c>
       <c r="H223">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I223">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J223">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="K223">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="L223">
         <v>1.25</v>
       </c>
       <c r="M223">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="1">
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5360</v>
+        <v>5171</v>
       </c>
       <c r="C224">
-        <v>4090</v>
+        <v>4193</v>
       </c>
       <c r="D224">
-        <v>6890</v>
+        <v>6349</v>
       </c>
       <c r="E224">
-        <v>5195</v>
+        <v>5121</v>
       </c>
       <c r="F224">
-        <v>4199</v>
+        <v>4357</v>
       </c>
       <c r="G224">
-        <v>6256</v>
+        <v>5921</v>
       </c>
       <c r="H224">
         <v>1.26</v>
       </c>
       <c r="I224">
-        <v>1.1200000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J224">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="K224">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="L224">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M224">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="1">
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>6119</v>
+        <v>5669</v>
       </c>
       <c r="C225">
-        <v>3874</v>
+        <v>4258</v>
       </c>
       <c r="D225">
-        <v>7793</v>
+        <v>7169</v>
       </c>
       <c r="E225">
-        <v>5479</v>
+        <v>5307</v>
       </c>
       <c r="F225">
-        <v>4114</v>
+        <v>4346</v>
       </c>
       <c r="G225">
-        <v>6780</v>
+        <v>6349</v>
       </c>
       <c r="H225">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="I225">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="J225">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="K225">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="L225">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M225">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="1">
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>8019</v>
+        <v>7604</v>
       </c>
       <c r="C226">
-        <v>5386</v>
+        <v>5198</v>
       </c>
       <c r="D226">
-        <v>10756</v>
+        <v>9978</v>
       </c>
       <c r="E226">
-        <v>6216</v>
+        <v>5956</v>
       </c>
       <c r="F226">
-        <v>4393</v>
+        <v>4561</v>
       </c>
       <c r="G226">
-        <v>7996</v>
+        <v>7441</v>
       </c>
       <c r="H226">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="I226">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J226">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="K226">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="L226">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M226">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="1">
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>8816</v>
+        <v>7733</v>
       </c>
       <c r="C227">
-        <v>5310</v>
+        <v>5235</v>
       </c>
       <c r="D227">
-        <v>13576</v>
+        <v>10494</v>
       </c>
       <c r="E227">
-        <v>7078</v>
+        <v>6544</v>
       </c>
       <c r="F227">
-        <v>4665</v>
+        <v>4721</v>
       </c>
       <c r="G227">
-        <v>9754</v>
+        <v>8497</v>
       </c>
       <c r="H227">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I227">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J227">
+        <v>1.53</v>
+      </c>
+      <c r="K227">
+        <v>1.35</v>
+      </c>
+      <c r="L227">
+        <v>1.19</v>
+      </c>
+      <c r="M227">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="3">
+        <v>44118</v>
+      </c>
+      <c r="B228">
+        <v>8524</v>
+      </c>
+      <c r="C228">
+        <v>4910</v>
+      </c>
+      <c r="D228">
+        <v>12361</v>
+      </c>
+      <c r="E228">
+        <v>7383</v>
+      </c>
+      <c r="F228">
+        <v>4900</v>
+      </c>
+      <c r="G228">
+        <v>10000</v>
+      </c>
+      <c r="H228">
+        <v>1.44</v>
+      </c>
+      <c r="I228">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J227">
-        <v>1.71</v>
+      <c r="J228">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="22215" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 18.10.2020, 00:00 Uhr</t>
+    <t>Datenstand: 19.10.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -35,7 +35,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 18.10.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 19.10.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -126,13 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -537,18 +536,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="13" width="16" customWidth="1"/>
+    <col min="14" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="90">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="135">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -597,16 +598,16 @@
         <v>304</v>
       </c>
       <c r="C2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E2">
         <v>225</v>
       </c>
       <c r="F2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G2">
         <v>238</v>
@@ -617,13 +618,13 @@
         <v>43893</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E3">
         <v>261</v>
@@ -632,7 +633,7 @@
         <v>247</v>
       </c>
       <c r="G3">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -640,22 +641,22 @@
         <v>43894</v>
       </c>
       <c r="B4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C4">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D4">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E4">
         <v>326</v>
       </c>
       <c r="F4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G4">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -663,22 +664,22 @@
         <v>43895</v>
       </c>
       <c r="B5">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D5">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E5">
         <v>394</v>
       </c>
       <c r="F5">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G5">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,37 +687,37 @@
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C6">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D6">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E6">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F6">
         <v>489</v>
       </c>
       <c r="G6">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
       </c>
       <c r="I6">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J6">
         <v>2.34</v>
       </c>
       <c r="K6">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="L6">
-        <v>2.29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M6">
         <v>2.39</v>
@@ -727,16 +728,16 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C7">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D7">
         <v>1013</v>
       </c>
       <c r="E7">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F7">
         <v>653</v>
@@ -745,19 +746,19 @@
         <v>698</v>
       </c>
       <c r="H7">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="I7">
-        <v>2.4900000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J7">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="K7">
         <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.5099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="M7">
         <v>2.61</v>
@@ -768,22 +769,22 @@
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C8">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D8">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="E8">
         <v>896</v>
       </c>
       <c r="F8">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G8">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H8">
         <v>2.75</v>
@@ -798,7 +799,7 @@
         <v>2.93</v>
       </c>
       <c r="L8">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="M8">
         <v>2.98</v>
@@ -809,31 +810,31 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C9">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="D9">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="E9">
         <v>1275</v>
       </c>
       <c r="F9">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G9">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H9">
         <v>3.23</v>
       </c>
       <c r="I9">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="J9">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="K9">
         <v>3.13</v>
@@ -850,40 +851,40 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="C10">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D10">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="E10">
         <v>1728</v>
       </c>
       <c r="F10">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G10">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="J10">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="K10">
         <v>3.21</v>
       </c>
       <c r="L10">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -891,13 +892,13 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C11">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="D11">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="E11">
         <v>2291</v>
@@ -906,16 +907,16 @@
         <v>2252</v>
       </c>
       <c r="G11">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="H11">
         <v>3.4</v>
       </c>
       <c r="I11">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="J11">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="K11">
         <v>3.11</v>
@@ -935,19 +936,19 @@
         <v>3600</v>
       </c>
       <c r="C12">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="D12">
-        <v>3652</v>
+        <v>3664</v>
       </c>
       <c r="E12">
         <v>2857</v>
       </c>
       <c r="F12">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="G12">
-        <v>2899</v>
+        <v>2904</v>
       </c>
       <c r="H12">
         <v>3.19</v>
@@ -962,10 +963,10 @@
         <v>2.84</v>
       </c>
       <c r="L12">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="M12">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -973,13 +974,13 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="C13">
-        <v>4303</v>
+        <v>4309</v>
       </c>
       <c r="D13">
-        <v>4413</v>
+        <v>4414</v>
       </c>
       <c r="E13">
         <v>3442</v>
@@ -988,7 +989,7 @@
         <v>3394</v>
       </c>
       <c r="G13">
-        <v>3488</v>
+        <v>3493</v>
       </c>
       <c r="H13">
         <v>2.7</v>
@@ -997,7 +998,7 @@
         <v>2.66</v>
       </c>
       <c r="J13">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1014,22 +1015,22 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="C14">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="D14">
-        <v>4486</v>
+        <v>4496</v>
       </c>
       <c r="E14">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="F14">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="G14">
-        <v>3956</v>
+        <v>3963</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
@@ -1055,22 +1056,22 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4677</v>
+        <v>4674</v>
       </c>
       <c r="C15">
-        <v>4627</v>
+        <v>4605</v>
       </c>
       <c r="D15">
-        <v>4729</v>
+        <v>4736</v>
       </c>
       <c r="E15">
         <v>4268</v>
       </c>
       <c r="F15">
-        <v>4215</v>
+        <v>4211</v>
       </c>
       <c r="G15">
-        <v>4320</v>
+        <v>4327</v>
       </c>
       <c r="H15">
         <v>1.86</v>
@@ -1079,7 +1080,7 @@
         <v>1.84</v>
       </c>
       <c r="J15">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K15">
         <v>1.99</v>
@@ -1096,22 +1097,22 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6020</v>
+        <v>6023</v>
       </c>
       <c r="C16">
-        <v>5961</v>
+        <v>5958</v>
       </c>
       <c r="D16">
         <v>6081</v>
       </c>
       <c r="E16">
-        <v>4873</v>
+        <v>4874</v>
       </c>
       <c r="F16">
-        <v>4818</v>
+        <v>4814</v>
       </c>
       <c r="G16">
-        <v>4927</v>
+        <v>4932</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1137,28 +1138,28 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="C17">
-        <v>5177</v>
+        <v>5170</v>
       </c>
       <c r="D17">
-        <v>5288</v>
+        <v>5297</v>
       </c>
       <c r="E17">
         <v>5092</v>
       </c>
       <c r="F17">
-        <v>5036</v>
+        <v>5029</v>
       </c>
       <c r="G17">
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="H17">
         <v>1.48</v>
       </c>
       <c r="I17">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J17">
         <v>1.49</v>
@@ -1181,7 +1182,7 @@
         <v>5289</v>
       </c>
       <c r="C18">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="D18">
         <v>5344</v>
@@ -1190,16 +1191,16 @@
         <v>5305</v>
       </c>
       <c r="F18">
-        <v>5250</v>
+        <v>5241</v>
       </c>
       <c r="G18">
-        <v>5360</v>
+        <v>5364</v>
       </c>
       <c r="H18">
         <v>1.36</v>
       </c>
       <c r="I18">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J18">
         <v>1.37</v>
@@ -1219,22 +1220,22 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4731</v>
+        <v>4727</v>
       </c>
       <c r="C19">
-        <v>4661</v>
+        <v>4668</v>
       </c>
       <c r="D19">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="E19">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="F19">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="G19">
-        <v>5376</v>
+        <v>5379</v>
       </c>
       <c r="H19">
         <v>1.25</v>
@@ -1260,19 +1261,19 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5331</v>
+        <v>5325</v>
       </c>
       <c r="C20">
-        <v>5271</v>
+        <v>5265</v>
       </c>
       <c r="D20">
-        <v>5403</v>
+        <v>5392</v>
       </c>
       <c r="E20">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="F20">
-        <v>5086</v>
+        <v>5083</v>
       </c>
       <c r="G20">
         <v>5207</v>
@@ -1284,7 +1285,7 @@
         <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
         <v>1.1299999999999999</v>
@@ -1301,22 +1302,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="C21">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="D21">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="E21">
-        <v>4948</v>
+        <v>4946</v>
       </c>
       <c r="F21">
-        <v>4888</v>
+        <v>4887</v>
       </c>
       <c r="G21">
-        <v>5010</v>
+        <v>5007</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1345,19 +1346,19 @@
         <v>3809</v>
       </c>
       <c r="C22">
-        <v>3756</v>
+        <v>3760</v>
       </c>
       <c r="D22">
-        <v>3861</v>
+        <v>3868</v>
       </c>
       <c r="E22">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="F22">
-        <v>4518</v>
+        <v>4520</v>
       </c>
       <c r="G22">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="H22">
         <v>0.86</v>
@@ -1383,19 +1384,19 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5151</v>
+        <v>5149</v>
       </c>
       <c r="C23">
-        <v>5097</v>
+        <v>5090</v>
       </c>
       <c r="D23">
-        <v>5211</v>
+        <v>5218</v>
       </c>
       <c r="E23">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="F23">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="G23">
         <v>4744</v>
@@ -1413,7 +1414,7 @@
         <v>0.92</v>
       </c>
       <c r="L23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M23">
         <v>0.92</v>
@@ -1424,22 +1425,22 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="C24">
-        <v>4014</v>
+        <v>4008</v>
       </c>
       <c r="D24">
-        <v>4130</v>
+        <v>4136</v>
       </c>
       <c r="E24">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="F24">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="G24">
-        <v>4426</v>
+        <v>4430</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1465,22 +1466,22 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4417</v>
+        <v>4422</v>
       </c>
       <c r="C25">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="D25">
-        <v>4474</v>
+        <v>4488</v>
       </c>
       <c r="E25">
         <v>4363</v>
       </c>
       <c r="F25">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="G25">
-        <v>4419</v>
+        <v>4427</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1506,13 +1507,13 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="C26">
-        <v>3927</v>
+        <v>3937</v>
       </c>
       <c r="D26">
-        <v>4056</v>
+        <v>4062</v>
       </c>
       <c r="E26">
         <v>4409</v>
@@ -1521,7 +1522,7 @@
         <v>4349</v>
       </c>
       <c r="G26">
-        <v>4467</v>
+        <v>4476</v>
       </c>
       <c r="H26">
         <v>0.96</v>
@@ -1547,22 +1548,22 @@
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4124</v>
+        <v>4126</v>
       </c>
       <c r="C27">
-        <v>4061</v>
+        <v>4067</v>
       </c>
       <c r="D27">
-        <v>4183</v>
+        <v>4193</v>
       </c>
       <c r="E27">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="F27">
-        <v>4090</v>
+        <v>4093</v>
       </c>
       <c r="G27">
-        <v>4211</v>
+        <v>4220</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1588,22 +1589,22 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="C28">
-        <v>3823</v>
+        <v>3834</v>
       </c>
       <c r="D28">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="E28">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="F28">
-        <v>4042</v>
+        <v>4050</v>
       </c>
       <c r="G28">
-        <v>4164</v>
+        <v>4171</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1615,7 +1616,7 @@
         <v>0.95</v>
       </c>
       <c r="K28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L28">
         <v>0.9</v>
@@ -1629,31 +1630,31 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="C29">
-        <v>3203</v>
+        <v>3208</v>
       </c>
       <c r="D29">
         <v>3321</v>
       </c>
       <c r="E29">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="F29">
-        <v>3753</v>
+        <v>3761</v>
       </c>
       <c r="G29">
-        <v>3876</v>
+        <v>3879</v>
       </c>
       <c r="H29">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I29">
         <v>0.87</v>
       </c>
       <c r="J29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K29">
         <v>0.9</v>
@@ -1670,22 +1671,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="C30">
-        <v>4326</v>
+        <v>4331</v>
       </c>
       <c r="D30">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3853</v>
+        <v>3860</v>
       </c>
       <c r="G30">
-        <v>3974</v>
+        <v>3976</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1714,19 +1715,19 @@
         <v>3579</v>
       </c>
       <c r="C31">
-        <v>3519</v>
+        <v>3510</v>
       </c>
       <c r="D31">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="E31">
         <v>3780</v>
       </c>
       <c r="F31">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="G31">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1752,22 +1753,22 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="C32">
         <v>3974</v>
       </c>
       <c r="D32">
-        <v>4093</v>
+        <v>4107</v>
       </c>
       <c r="E32">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="F32">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="G32">
-        <v>3875</v>
+        <v>3878</v>
       </c>
       <c r="H32">
         <v>0.93</v>
@@ -1793,22 +1794,22 @@
         <v>43923</v>
       </c>
       <c r="B33">
-        <v>3729</v>
+        <v>3731</v>
       </c>
       <c r="C33">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="D33">
-        <v>3789</v>
+        <v>3797</v>
       </c>
       <c r="E33">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="F33">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="G33">
-        <v>3992</v>
+        <v>3997</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1834,22 +1835,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3727</v>
+        <v>3730</v>
       </c>
       <c r="C34">
-        <v>3666</v>
+        <v>3674</v>
       </c>
       <c r="D34">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="E34">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="F34">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="G34">
-        <v>3828</v>
+        <v>3833</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1864,7 +1865,7 @@
         <v>0.93</v>
       </c>
       <c r="L34">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M34">
         <v>0.94</v>
@@ -1875,22 +1876,22 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="C35">
-        <v>2951</v>
+        <v>2944</v>
       </c>
       <c r="D35">
-        <v>3070</v>
+        <v>3064</v>
       </c>
       <c r="E35">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="F35">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="G35">
-        <v>3686</v>
+        <v>3690</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1916,13 +1917,13 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="C36">
         <v>2647</v>
       </c>
       <c r="D36">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="E36">
         <v>3290</v>
@@ -1931,7 +1932,7 @@
         <v>3233</v>
       </c>
       <c r="G36">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1957,22 +1958,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="C37">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="D37">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="E37">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="F37">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="G37">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -1998,22 +1999,22 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3057</v>
+        <v>3051</v>
       </c>
       <c r="C38">
-        <v>3006</v>
+        <v>2992</v>
       </c>
       <c r="D38">
-        <v>3116</v>
+        <v>3106</v>
       </c>
       <c r="E38">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="F38">
-        <v>2973</v>
+        <v>2968</v>
       </c>
       <c r="G38">
-        <v>3087</v>
+        <v>3080</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2039,28 +2040,28 @@
         <v>43929</v>
       </c>
       <c r="B39">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="C39">
-        <v>2816</v>
+        <v>2822</v>
       </c>
       <c r="D39">
-        <v>2929</v>
+        <v>2934</v>
       </c>
       <c r="E39">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="F39">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="G39">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="H39">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I39">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J39">
         <v>0.83</v>
@@ -2080,22 +2081,22 @@
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="C40">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="D40">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="E40">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="F40">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="G40">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="H40">
         <v>0.91</v>
@@ -2113,7 +2114,7 @@
         <v>0.82</v>
       </c>
       <c r="M40">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2121,28 +2122,28 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C41">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="D41">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="E41">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="F41">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="G41">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="H41">
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.87</v>
@@ -2162,22 +2163,22 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C42">
-        <v>1964</v>
+        <v>1973</v>
       </c>
       <c r="D42">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E42">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="F42">
-        <v>2421</v>
+        <v>2428</v>
       </c>
       <c r="G42">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2203,22 +2204,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C43">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="D43">
         <v>2005</v>
       </c>
       <c r="E43">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="F43">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="G43">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2244,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="C44">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="D44">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E44">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F44">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G44">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2285,22 +2286,22 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C45">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="D45">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="E45">
         <v>1949</v>
       </c>
       <c r="F45">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="G45">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2326,13 +2327,13 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C46">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="D46">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E46">
         <v>1930</v>
@@ -2367,22 +2368,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="C47">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="D47">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="E47">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="F47">
         <v>1830</v>
       </c>
       <c r="G47">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2408,19 +2409,19 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C48">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D48">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="E48">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="F48">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="G48">
         <v>1864</v>
@@ -2449,22 +2450,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C49">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="D49">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="E49">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="F49">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="G49">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2473,7 +2474,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2490,22 +2491,22 @@
         <v>43940</v>
       </c>
       <c r="B50">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C50">
         <v>1261</v>
       </c>
       <c r="D50">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="E50">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F50">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G50">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="H50">
         <v>0.79</v>
@@ -2531,13 +2532,13 @@
         <v>43941</v>
       </c>
       <c r="B51">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C51">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D51">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E51">
         <v>1491</v>
@@ -2546,7 +2547,7 @@
         <v>1447</v>
       </c>
       <c r="G51">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="H51">
         <v>0.79</v>
@@ -2572,13 +2573,13 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C52">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D52">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E52">
         <v>1417</v>
@@ -2587,7 +2588,7 @@
         <v>1373</v>
       </c>
       <c r="G52">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2596,7 +2597,7 @@
         <v>0.76</v>
       </c>
       <c r="J52">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K52">
         <v>0.83</v>
@@ -2616,19 +2617,19 @@
         <v>1296</v>
       </c>
       <c r="C53">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D53">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="E53">
         <v>1382</v>
       </c>
       <c r="F53">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G53">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2654,28 +2655,28 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C54">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D54">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="E54">
         <v>1372</v>
       </c>
       <c r="F54">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G54">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H54">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I54">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J54">
         <v>0.91</v>
@@ -2698,19 +2699,19 @@
         <v>1149</v>
       </c>
       <c r="C55">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="D55">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="E55">
         <v>1265</v>
       </c>
       <c r="F55">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G55">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2736,22 +2737,22 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C56">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D56">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E56">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F56">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="G56">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="H56">
         <v>0.83</v>
@@ -2763,13 +2764,13 @@
         <v>0.85</v>
       </c>
       <c r="K56">
+        <v>0.82</v>
+      </c>
+      <c r="L56">
+        <v>0.81</v>
+      </c>
+      <c r="M56">
         <v>0.83</v>
-      </c>
-      <c r="L56">
-        <v>0.82</v>
-      </c>
-      <c r="M56">
-        <v>0.84</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2777,19 +2778,19 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C57">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D57">
         <v>943</v>
       </c>
       <c r="E57">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F57">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G57">
         <v>1120</v>
@@ -2818,22 +2819,22 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C58">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D58">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E58">
         <v>1040</v>
       </c>
       <c r="F58">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G58">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H58">
         <v>0.76</v>
@@ -2842,7 +2843,7 @@
         <v>0.74</v>
       </c>
       <c r="J58">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -2862,10 +2863,10 @@
         <v>946</v>
       </c>
       <c r="C59">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="D59">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="E59">
         <v>989</v>
@@ -2874,7 +2875,7 @@
         <v>953</v>
       </c>
       <c r="G59">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2900,22 +2901,22 @@
         <v>43950</v>
       </c>
       <c r="B60">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C60">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D60">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E60">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F60">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G60">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2941,13 +2942,13 @@
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C61">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D61">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E61">
         <v>962</v>
@@ -2956,7 +2957,7 @@
         <v>926</v>
       </c>
       <c r="G61">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="H61">
         <v>0.89</v>
@@ -2965,7 +2966,7 @@
         <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K61">
         <v>0.81</v>
@@ -2982,22 +2983,22 @@
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C62">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D62">
+        <v>846</v>
+      </c>
+      <c r="E62">
+        <v>890</v>
+      </c>
+      <c r="F62">
         <v>855</v>
       </c>
-      <c r="E62">
-        <v>891</v>
-      </c>
-      <c r="F62">
-        <v>854</v>
-      </c>
       <c r="G62">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="H62">
         <v>0.86</v>
@@ -3023,28 +3024,28 @@
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C63">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D63">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="E63">
         <v>839</v>
       </c>
       <c r="F63">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G63">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="H63">
         <v>0.85</v>
       </c>
       <c r="I63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J63">
         <v>0.87</v>
@@ -3064,22 +3065,22 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C64">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D64">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E64">
         <v>812</v>
       </c>
       <c r="F64">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G64">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -3088,7 +3089,7 @@
         <v>0.83</v>
       </c>
       <c r="J64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K64">
         <v>0.86</v>
@@ -3108,19 +3109,19 @@
         <v>890</v>
       </c>
       <c r="C65">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D65">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="E65">
         <v>800</v>
       </c>
       <c r="F65">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G65">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3129,10 +3130,10 @@
         <v>0.81</v>
       </c>
       <c r="J65">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K65">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L65">
         <v>0.87</v>
@@ -3146,28 +3147,28 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C66">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D66">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E66">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F66">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G66">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H66">
         <v>0.9</v>
       </c>
       <c r="I66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J66">
         <v>0.93</v>
@@ -3187,22 +3188,22 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C67">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="D67">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="E67">
         <v>801</v>
       </c>
       <c r="F67">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G67">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H67">
         <v>0.96</v>
@@ -3211,7 +3212,7 @@
         <v>0.93</v>
       </c>
       <c r="J67">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="K67">
         <v>0.89</v>
@@ -3228,10 +3229,10 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C68">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D68">
         <v>738</v>
@@ -3249,13 +3250,13 @@
         <v>0.97</v>
       </c>
       <c r="I68">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="L68">
         <v>0.88</v>
@@ -3269,22 +3270,22 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C69">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D69">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E69">
         <v>735</v>
       </c>
       <c r="F69">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G69">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H69">
         <v>0.92</v>
@@ -3310,28 +3311,28 @@
         <v>43960</v>
       </c>
       <c r="B70">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C70">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D70">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E70">
         <v>676</v>
       </c>
       <c r="F70">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G70">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I70">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J70">
         <v>0.87</v>
@@ -3351,22 +3352,22 @@
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C71">
         <v>528</v>
       </c>
       <c r="D71">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E71">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F71">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G71">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3392,22 +3393,22 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C72">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D72">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E72">
         <v>620</v>
       </c>
       <c r="F72">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G72">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3419,7 +3420,7 @@
         <v>0.81</v>
       </c>
       <c r="K72">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L72">
         <v>0.84</v>
@@ -3433,37 +3434,37 @@
         <v>43963</v>
       </c>
       <c r="B73">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C73">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D73">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E73">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F73">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G73">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H73">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I73">
         <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K73">
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M73">
         <v>0.86</v>
@@ -3474,22 +3475,22 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C74">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D74">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E74">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F74">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G74">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H74">
         <v>0.9</v>
@@ -3515,22 +3516,22 @@
         <v>43965</v>
       </c>
       <c r="B75">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C75">
         <v>495</v>
       </c>
       <c r="D75">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E75">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F75">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G75">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H75">
         <v>0.95</v>
@@ -3548,7 +3549,7 @@
         <v>0.87</v>
       </c>
       <c r="M75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3556,22 +3557,22 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C76">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D76">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E76">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F76">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G76">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3580,13 +3581,13 @@
         <v>0.94</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K76">
         <v>0.92</v>
       </c>
       <c r="L76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M76">
         <v>0.94</v>
@@ -3597,22 +3598,22 @@
         <v>43967</v>
       </c>
       <c r="B77">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C77">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D77">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E77">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F77">
         <v>557</v>
       </c>
       <c r="G77">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H77">
         <v>0.97</v>
@@ -3621,7 +3622,7 @@
         <v>0.93</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K77">
         <v>0.93</v>
@@ -3630,7 +3631,7 @@
         <v>0.91</v>
       </c>
       <c r="M77">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3638,28 +3639,28 @@
         <v>43968</v>
       </c>
       <c r="B78">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C78">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D78">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E78">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F78">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G78">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H78">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I78">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J78">
         <v>0.94</v>
@@ -3671,7 +3672,7 @@
         <v>0.94</v>
       </c>
       <c r="M78">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3679,13 +3680,13 @@
         <v>43969</v>
       </c>
       <c r="B79">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C79">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D79">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E79">
         <v>574</v>
@@ -3694,7 +3695,7 @@
         <v>544</v>
       </c>
       <c r="G79">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H79">
         <v>0.96</v>
@@ -3720,31 +3721,31 @@
         <v>43970</v>
       </c>
       <c r="B80">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C80">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D80">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E80">
         <v>521</v>
       </c>
       <c r="F80">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G80">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H80">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I80">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J80">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K80">
         <v>0.92</v>
@@ -3753,7 +3754,7 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3761,13 +3762,13 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C81">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D81">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E81">
         <v>523</v>
@@ -3776,22 +3777,22 @@
         <v>493</v>
       </c>
       <c r="G81">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H81">
         <v>0.89</v>
       </c>
       <c r="I81">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J81">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K81">
         <v>0.91</v>
       </c>
       <c r="L81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M81">
         <v>0.93</v>
@@ -3802,31 +3803,31 @@
         <v>43972</v>
       </c>
       <c r="B82">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C82">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D82">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E82">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F82">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G82">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H82">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I82">
         <v>0.89</v>
       </c>
       <c r="J82">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K82">
         <v>0.85</v>
@@ -3835,7 +3836,7 @@
         <v>0.83</v>
       </c>
       <c r="M82">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3843,28 +3844,28 @@
         <v>43973</v>
       </c>
       <c r="B83">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C83">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D83">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E83">
         <v>451</v>
       </c>
       <c r="F83">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G83">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H83">
         <v>0.79</v>
       </c>
       <c r="I83">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J83">
         <v>0.82</v>
@@ -3873,7 +3874,7 @@
         <v>0.83</v>
       </c>
       <c r="L83">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="M83">
         <v>0.85</v>
@@ -3884,13 +3885,13 @@
         <v>43974</v>
       </c>
       <c r="B84">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C84">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D84">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E84">
         <v>425</v>
@@ -3899,10 +3900,10 @@
         <v>400</v>
       </c>
       <c r="G84">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H84">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="I84">
         <v>0.78</v>
@@ -3917,7 +3918,7 @@
         <v>0.8</v>
       </c>
       <c r="M84">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3928,7 +3929,7 @@
         <v>372</v>
       </c>
       <c r="C85">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D85">
         <v>400</v>
@@ -3966,31 +3967,31 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C86">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D86">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E86">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F86">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G86">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H86">
         <v>0.78</v>
       </c>
       <c r="I86">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J86">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K86">
         <v>0.87</v>
@@ -4007,13 +4008,13 @@
         <v>43977</v>
       </c>
       <c r="B87">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C87">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D87">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E87">
         <v>409</v>
@@ -4022,7 +4023,7 @@
         <v>383</v>
       </c>
       <c r="G87">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H87">
         <v>0.91</v>
@@ -4037,7 +4038,7 @@
         <v>0.89</v>
       </c>
       <c r="L87">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M87">
         <v>0.91</v>
@@ -4048,25 +4049,25 @@
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C88">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D88">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E88">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F88">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G88">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H88">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I88">
         <v>0.98</v>
@@ -4078,10 +4079,10 @@
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M88">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4089,19 +4090,19 @@
         <v>43979</v>
       </c>
       <c r="B89">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C89">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D89">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E89">
         <v>433</v>
       </c>
       <c r="F89">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G89">
         <v>460</v>
@@ -4110,7 +4111,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I89">
-        <v>1.0900000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J89">
         <v>1.2</v>
@@ -4133,28 +4134,28 @@
         <v>347</v>
       </c>
       <c r="C90">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D90">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E90">
         <v>403</v>
       </c>
       <c r="F90">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G90">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H90">
         <v>1.02</v>
       </c>
       <c r="I90">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J90">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K90">
         <v>0.92</v>
@@ -4177,25 +4178,25 @@
         <v>269</v>
       </c>
       <c r="D91">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E91">
         <v>368</v>
       </c>
       <c r="F91">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G91">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H91">
         <v>0.9</v>
       </c>
       <c r="I91">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="J91">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="K91">
         <v>0.92</v>
@@ -4212,22 +4213,22 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C92">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E92">
         <v>321</v>
       </c>
       <c r="F92">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G92">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H92">
         <v>0.74</v>
@@ -4245,7 +4246,7 @@
         <v>0.86</v>
       </c>
       <c r="M92">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4256,16 +4257,16 @@
         <v>328</v>
       </c>
       <c r="C93">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D93">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E93">
         <v>309</v>
       </c>
       <c r="F93">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G93">
         <v>332</v>
@@ -4277,13 +4278,13 @@
         <v>0.68</v>
       </c>
       <c r="J93">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K93">
         <v>0.89</v>
       </c>
       <c r="L93">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M93">
         <v>0.91</v>
@@ -4294,19 +4295,19 @@
         <v>43984</v>
       </c>
       <c r="B94">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C94">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D94">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E94">
         <v>332</v>
       </c>
       <c r="F94">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G94">
         <v>355</v>
@@ -4335,25 +4336,25 @@
         <v>43985</v>
       </c>
       <c r="B95">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C95">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D95">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E95">
         <v>359</v>
       </c>
       <c r="F95">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G95">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H95">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I95">
         <v>0.93</v>
@@ -4362,7 +4363,7 @@
         <v>1.02</v>
       </c>
       <c r="K95">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L95">
         <v>0.89</v>
@@ -4379,31 +4380,31 @@
         <v>341</v>
       </c>
       <c r="C96">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G96">
         <v>402</v>
       </c>
       <c r="H96">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I96">
         <v>1.1200000000000001</v>
       </c>
       <c r="J96">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K96">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L96">
         <v>0.93</v>
@@ -4417,31 +4418,31 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C97">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D97">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E97">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F97">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G97">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H97">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I97">
         <v>1.1599999999999999</v>
       </c>
       <c r="J97">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K97">
         <v>0.96</v>
@@ -4458,22 +4459,22 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C98">
         <v>277</v>
       </c>
       <c r="D98">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E98">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F98">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G98">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H98">
         <v>1.03</v>
@@ -4482,7 +4483,7 @@
         <v>0.98</v>
       </c>
       <c r="J98">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K98">
         <v>0.96</v>
@@ -4499,31 +4500,31 @@
         <v>43989</v>
       </c>
       <c r="B99">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C99">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E99">
         <v>299</v>
       </c>
       <c r="F99">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H99">
         <v>0.83</v>
       </c>
       <c r="I99">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J99">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K99">
         <v>1.01</v>
@@ -4540,37 +4541,37 @@
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C100">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D100">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E100">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F100">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G100">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H100">
         <v>0.84</v>
       </c>
       <c r="I100">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J100">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K100">
         <v>1.03</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M100">
         <v>1.05</v>
@@ -4581,28 +4582,28 @@
         <v>43991</v>
       </c>
       <c r="B101">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C101">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D101">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E101">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F101">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G101">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H101">
         <v>0.93</v>
       </c>
       <c r="I101">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="J101">
         <v>0.97</v>
@@ -4625,34 +4626,34 @@
         <v>433</v>
       </c>
       <c r="C102">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D102">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E102">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F102">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G102">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H102">
         <v>1.1200000000000001</v>
       </c>
       <c r="I102">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J102">
         <v>1.18</v>
       </c>
       <c r="K102">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="L102">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M102">
         <v>1.0900000000000001</v>
@@ -4663,31 +4664,31 @@
         <v>43993</v>
       </c>
       <c r="B103">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C103">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D103">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E103">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F103">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G103">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H103">
         <v>1.39</v>
       </c>
       <c r="I103">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="J103">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="K103">
         <v>1.05</v>
@@ -4704,22 +4705,22 @@
         <v>43994</v>
       </c>
       <c r="B104">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C104">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D104">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E104">
         <v>406</v>
       </c>
       <c r="F104">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G104">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H104">
         <v>1.28</v>
@@ -4728,7 +4729,7 @@
         <v>1.22</v>
       </c>
       <c r="J104">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="K104">
         <v>1.07</v>
@@ -4748,28 +4749,28 @@
         <v>365</v>
       </c>
       <c r="C105">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D105">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E105">
         <v>385</v>
       </c>
       <c r="F105">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G105">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H105">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I105">
         <v>1.05</v>
       </c>
       <c r="J105">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K105">
         <v>1.1100000000000001</v>
@@ -4789,16 +4790,16 @@
         <v>358</v>
       </c>
       <c r="C106">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D106">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E106">
         <v>366</v>
       </c>
       <c r="F106">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G106">
         <v>392</v>
@@ -4807,7 +4808,7 @@
         <v>0.96</v>
       </c>
       <c r="I106">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4827,34 +4828,34 @@
         <v>43997</v>
       </c>
       <c r="B107">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C107">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D107">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E107">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F107">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G107">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H107">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I107">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K107">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="L107">
         <v>1.39</v>
@@ -4871,19 +4872,19 @@
         <v>1116</v>
       </c>
       <c r="C108">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D108">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E108">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F108">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G108">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H108">
         <v>1.53</v>
@@ -4895,7 +4896,7 @@
         <v>1.59</v>
       </c>
       <c r="K108">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="L108">
         <v>1.44</v>
@@ -4912,22 +4913,22 @@
         <v>663</v>
       </c>
       <c r="C109">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D109">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E109">
         <v>695</v>
       </c>
       <c r="F109">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G109">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H109">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I109">
         <v>1.74</v>
@@ -4950,10 +4951,10 @@
         <v>44000</v>
       </c>
       <c r="B110">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C110">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D110">
         <v>568</v>
@@ -4965,7 +4966,7 @@
         <v>707</v>
       </c>
       <c r="G110">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H110">
         <v>2.02</v>
@@ -4974,7 +4975,7 @@
         <v>1.94</v>
       </c>
       <c r="J110">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="K110">
         <v>1.42</v>
@@ -4991,31 +4992,31 @@
         <v>44001</v>
       </c>
       <c r="B111">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C111">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D111">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E111">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F111">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G111">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H111">
         <v>1.66</v>
       </c>
       <c r="I111">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J111">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K111">
         <v>1.19</v>
@@ -5035,16 +5036,16 @@
         <v>470</v>
       </c>
       <c r="C112">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D112">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E112">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F112">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G112">
         <v>590</v>
@@ -5056,7 +5057,7 @@
         <v>0.87</v>
       </c>
       <c r="J112">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K112">
         <v>1.1200000000000001</v>
@@ -5076,7 +5077,7 @@
         <v>368</v>
       </c>
       <c r="C113">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D113">
         <v>396</v>
@@ -5085,7 +5086,7 @@
         <v>485</v>
       </c>
       <c r="F113">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G113">
         <v>515</v>
@@ -5097,16 +5098,16 @@
         <v>0.67</v>
       </c>
       <c r="J113">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="K113">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L113">
         <v>1.02</v>
       </c>
       <c r="M113">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5114,19 +5115,19 @@
         <v>44004</v>
       </c>
       <c r="B114">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C114">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D114">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E114">
         <v>470</v>
       </c>
       <c r="F114">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G114">
         <v>498</v>
@@ -5155,25 +5156,25 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C115">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D115">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E115">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F115">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G115">
         <v>464</v>
       </c>
       <c r="H115">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I115">
         <v>0.57999999999999996</v>
@@ -5196,19 +5197,19 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C116">
         <v>438</v>
       </c>
       <c r="D116">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E116">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F116">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G116">
         <v>463</v>
@@ -5220,7 +5221,7 @@
         <v>0.74</v>
       </c>
       <c r="J116">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K116">
         <v>0.73</v>
@@ -5229,7 +5230,7 @@
         <v>0.72</v>
       </c>
       <c r="M116">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5240,10 +5241,10 @@
         <v>405</v>
       </c>
       <c r="C117">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D117">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E117">
         <v>445</v>
@@ -5252,16 +5253,16 @@
         <v>418</v>
       </c>
       <c r="G117">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H117">
         <v>0.92</v>
       </c>
       <c r="I117">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J117">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5281,25 +5282,25 @@
         <v>431</v>
       </c>
       <c r="C118">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D118">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E118">
         <v>434</v>
       </c>
       <c r="F118">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G118">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J118">
         <v>0.96</v>
@@ -5308,7 +5309,7 @@
         <v>0.84</v>
       </c>
       <c r="L118">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M118">
         <v>0.86</v>
@@ -5319,22 +5320,22 @@
         <v>44009</v>
       </c>
       <c r="B119">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C119">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F119">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G119">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H119">
         <v>0.95</v>
@@ -5360,28 +5361,28 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D120">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E120">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F120">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G120">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H120">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I120">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J120">
         <v>0.9</v>
@@ -5407,22 +5408,22 @@
         <v>396</v>
       </c>
       <c r="D121">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E121">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F121">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G121">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H121">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I121">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J121">
         <v>0.89</v>
@@ -5431,7 +5432,7 @@
         <v>0.93</v>
       </c>
       <c r="L121">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M121">
         <v>0.95</v>
@@ -5442,22 +5443,22 @@
         <v>44012</v>
       </c>
       <c r="B122">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C122">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D122">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E122">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F122">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G122">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H122">
         <v>0.88</v>
@@ -5466,7 +5467,7 @@
         <v>0.84</v>
       </c>
       <c r="J122">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K122">
         <v>0.94</v>
@@ -5483,22 +5484,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C123">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D123">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E123">
         <v>394</v>
       </c>
       <c r="F123">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G123">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5507,13 +5508,13 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M123">
         <v>0.96</v>
@@ -5524,22 +5525,22 @@
         <v>44014</v>
       </c>
       <c r="B124">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C124">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D124">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E124">
         <v>400</v>
       </c>
       <c r="F124">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G124">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H124">
         <v>1.06</v>
@@ -5548,7 +5549,7 @@
         <v>1.02</v>
       </c>
       <c r="J124">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K124">
         <v>0.93</v>
@@ -5565,37 +5566,37 @@
         <v>44015</v>
       </c>
       <c r="B125">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C125">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D125">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E125">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F125">
         <v>357</v>
       </c>
       <c r="G125">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J125">
         <v>1.05</v>
       </c>
       <c r="K125">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L125">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M125">
         <v>0.93</v>
@@ -5606,22 +5607,22 @@
         <v>44016</v>
       </c>
       <c r="B126">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C126">
         <v>278</v>
       </c>
       <c r="D126">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E126">
         <v>347</v>
       </c>
       <c r="F126">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5653,7 +5654,7 @@
         <v>270</v>
       </c>
       <c r="D127">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E127">
         <v>319</v>
@@ -5662,13 +5663,13 @@
         <v>297</v>
       </c>
       <c r="G127">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H127">
         <v>0.81</v>
       </c>
       <c r="I127">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J127">
         <v>0.85</v>
@@ -5680,7 +5681,7 @@
         <v>0.9</v>
       </c>
       <c r="M127">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5688,13 +5689,13 @@
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C128">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E128">
         <v>329</v>
@@ -5703,7 +5704,7 @@
         <v>307</v>
       </c>
       <c r="G128">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H128">
         <v>0.82</v>
@@ -5732,16 +5733,16 @@
         <v>373</v>
       </c>
       <c r="C129">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D129">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E129">
         <v>335</v>
       </c>
       <c r="F129">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G129">
         <v>358</v>
@@ -5770,19 +5771,19 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C130">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D130">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E130">
         <v>350</v>
       </c>
       <c r="F130">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G130">
         <v>373</v>
@@ -5814,16 +5815,16 @@
         <v>376</v>
       </c>
       <c r="C131">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D131">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E131">
         <v>371</v>
       </c>
       <c r="F131">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G131">
         <v>395</v>
@@ -5852,13 +5853,13 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C132">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D132">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E132">
         <v>384</v>
@@ -5873,19 +5874,19 @@
         <v>1.17</v>
       </c>
       <c r="I132">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J132">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K132">
         <v>1.07</v>
       </c>
       <c r="L132">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M132">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5893,10 +5894,10 @@
         <v>44023</v>
       </c>
       <c r="B133">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C133">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D133">
         <v>409</v>
@@ -5905,7 +5906,7 @@
         <v>387</v>
       </c>
       <c r="F133">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G133">
         <v>412</v>
@@ -5914,7 +5915,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I133">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J133">
         <v>1.21</v>
@@ -5923,10 +5924,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L133">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M133">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5934,22 +5935,22 @@
         <v>44024</v>
       </c>
       <c r="B134">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C134">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D134">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E134">
         <v>388</v>
       </c>
       <c r="F134">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G134">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
@@ -5967,7 +5968,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M134">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5975,22 +5976,22 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C135">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D135">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E135">
         <v>430</v>
       </c>
       <c r="F135">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G135">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H135">
         <v>1.1599999999999999</v>
@@ -5999,7 +6000,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J135">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K135">
         <v>1.19</v>
@@ -6008,7 +6009,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M135">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6016,25 +6017,25 @@
         <v>44026</v>
       </c>
       <c r="B136">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C136">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D136">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E136">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F136">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G136">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H136">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I136">
         <v>1.1299999999999999</v>
@@ -6046,7 +6047,7 @@
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M136">
         <v>1.25</v>
@@ -6057,25 +6058,25 @@
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C137">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D137">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E137">
         <v>494</v>
       </c>
       <c r="F137">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G137">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H137">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I137">
         <v>1.22</v>
@@ -6084,13 +6085,13 @@
         <v>1.33</v>
       </c>
       <c r="K137">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="L137">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M137">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6101,10 +6102,10 @@
         <v>470</v>
       </c>
       <c r="C138">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D138">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E138">
         <v>521</v>
@@ -6113,7 +6114,7 @@
         <v>493</v>
       </c>
       <c r="G138">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H138">
         <v>1.34</v>
@@ -6122,7 +6123,7 @@
         <v>1.29</v>
       </c>
       <c r="J138">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K138">
         <v>1.19</v>
@@ -6139,25 +6140,25 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C139">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D139">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E139">
         <v>518</v>
       </c>
       <c r="F139">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G139">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H139">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I139">
         <v>1.1599999999999999</v>
@@ -6169,7 +6170,7 @@
         <v>1.17</v>
       </c>
       <c r="L139">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M139">
         <v>1.19</v>
@@ -6183,28 +6184,28 @@
         <v>490</v>
       </c>
       <c r="C140">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D140">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E140">
         <v>512</v>
       </c>
       <c r="F140">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G140">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H140">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I140">
         <v>1.0900000000000001</v>
       </c>
       <c r="J140">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="K140">
         <v>1.1399999999999999</v>
@@ -6221,22 +6222,22 @@
         <v>44031</v>
       </c>
       <c r="B141">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C141">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D141">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E141">
         <v>502</v>
       </c>
       <c r="F141">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G141">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H141">
         <v>1.02</v>
@@ -6262,22 +6263,22 @@
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C142">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D142">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="E142">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F142">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G142">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H142">
         <v>1.07</v>
@@ -6286,7 +6287,7 @@
         <v>1.03</v>
       </c>
       <c r="J142">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K142">
         <v>1.18</v>
@@ -6303,22 +6304,22 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C143">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D143">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E143">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F143">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G143">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H143">
         <v>1.1599999999999999</v>
@@ -6344,28 +6345,28 @@
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C144">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D144">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E144">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F144">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G144">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H144">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I144">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J144">
         <v>1.34</v>
@@ -6388,25 +6389,25 @@
         <v>687</v>
       </c>
       <c r="C145">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D145">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E145">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F145">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G145">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H145">
         <v>1.4</v>
       </c>
       <c r="I145">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J145">
         <v>1.46</v>
@@ -6426,10 +6427,10 @@
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C146">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D146">
         <v>724</v>
@@ -6438,13 +6439,13 @@
         <v>705</v>
       </c>
       <c r="F146">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G146">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H146">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I146">
         <v>1.22</v>
@@ -6459,7 +6460,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M146">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6467,28 +6468,28 @@
         <v>44037</v>
       </c>
       <c r="B147">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C147">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D147">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E147">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F147">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G147">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
       </c>
       <c r="I147">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J147">
         <v>1.18</v>
@@ -6497,7 +6498,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="L147">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M147">
         <v>1.1599999999999999</v>
@@ -6508,22 +6509,22 @@
         <v>44038</v>
       </c>
       <c r="B148">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C148">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D148">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="E148">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F148">
         <v>616</v>
       </c>
       <c r="G148">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H148">
         <v>0.98</v>
@@ -6535,13 +6536,13 @@
         <v>1.02</v>
       </c>
       <c r="K148">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L148">
         <v>1.0900000000000001</v>
       </c>
       <c r="M148">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6549,31 +6550,31 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C149">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D149">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E149">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F149">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G149">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H149">
         <v>0.97</v>
       </c>
       <c r="I149">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K149">
         <v>1.0900000000000001</v>
@@ -6590,22 +6591,22 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C150">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D150">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E150">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F150">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G150">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6631,22 +6632,22 @@
         <v>44041</v>
       </c>
       <c r="B151">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C151">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D151">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="E151">
         <v>734</v>
       </c>
       <c r="F151">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G151">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="H151">
         <v>1.08</v>
@@ -6672,22 +6673,22 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C152">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D152">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E152">
         <v>773</v>
       </c>
       <c r="F152">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G152">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6696,7 +6697,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J152">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K152">
         <v>1.05</v>
@@ -6713,22 +6714,22 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C153">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D153">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E153">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F153">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G153">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
@@ -6743,7 +6744,7 @@
         <v>1.08</v>
       </c>
       <c r="L153">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M153">
         <v>1.1000000000000001</v>
@@ -6754,25 +6755,25 @@
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C154">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D154">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E154">
         <v>776</v>
       </c>
       <c r="F154">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G154">
         <v>816</v>
       </c>
       <c r="H154">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I154">
         <v>1.07</v>
@@ -6781,13 +6782,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="K154">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L154">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M154">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6795,19 +6796,19 @@
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C155">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D155">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="E155">
         <v>816</v>
       </c>
       <c r="F155">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G155">
         <v>857</v>
@@ -6816,7 +6817,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I155">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J155">
         <v>1.1499999999999999</v>
@@ -6836,31 +6837,31 @@
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C156">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D156">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E156">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F156">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G156">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
       </c>
       <c r="I156">
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J156">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K156">
         <v>1.19</v>
@@ -6880,10 +6881,10 @@
         <v>978</v>
       </c>
       <c r="C157">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D157">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E157">
         <v>945</v>
@@ -6892,16 +6893,16 @@
         <v>902</v>
       </c>
       <c r="G157">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H157">
         <v>1.24</v>
       </c>
       <c r="I157">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J157">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K157">
         <v>1.19</v>
@@ -6918,19 +6919,19 @@
         <v>44048</v>
       </c>
       <c r="B158">
+        <v>984</v>
+      </c>
+      <c r="C158">
+        <v>936</v>
+      </c>
+      <c r="D158">
+        <v>1027</v>
+      </c>
+      <c r="E158">
         <v>985</v>
       </c>
-      <c r="C158">
-        <v>942</v>
-      </c>
-      <c r="D158">
-        <v>1029</v>
-      </c>
-      <c r="E158">
-        <v>986</v>
-      </c>
       <c r="F158">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G158">
         <v>1030</v>
@@ -6939,7 +6940,7 @@
         <v>1.27</v>
       </c>
       <c r="I158">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J158">
         <v>1.31</v>
@@ -6962,19 +6963,19 @@
         <v>1005</v>
       </c>
       <c r="C159">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D159">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E159">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F159">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G159">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H159">
         <v>1.24</v>
@@ -6986,10 +6987,10 @@
         <v>1.28</v>
       </c>
       <c r="K159">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L159">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M159">
         <v>1.19</v>
@@ -7000,28 +7001,28 @@
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C160">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D160">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E160">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F160">
         <v>960</v>
       </c>
       <c r="G160">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H160">
         <v>1.1200000000000001</v>
       </c>
       <c r="I160">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J160">
         <v>1.1599999999999999</v>
@@ -7030,7 +7031,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L160">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M160">
         <v>1.18</v>
@@ -7041,22 +7042,22 @@
         <v>44051</v>
       </c>
       <c r="B161">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="C161">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D161">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E161">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F161">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G161">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H161">
         <v>1.07</v>
@@ -7065,13 +7066,13 @@
         <v>1.04</v>
       </c>
       <c r="J161">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K161">
         <v>1.1299999999999999</v>
       </c>
       <c r="L161">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M161">
         <v>1.1499999999999999</v>
@@ -7082,10 +7083,10 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C162">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="D162">
         <v>1085</v>
@@ -7094,7 +7095,7 @@
         <v>1025</v>
       </c>
       <c r="F162">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G162">
         <v>1071</v>
@@ -7106,7 +7107,7 @@
         <v>1.01</v>
       </c>
       <c r="J162">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K162">
         <v>1.1399999999999999</v>
@@ -7123,19 +7124,19 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C163">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="D163">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E163">
         <v>1125</v>
       </c>
       <c r="F163">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="G163">
         <v>1172</v>
@@ -7153,7 +7154,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="L163">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M163">
         <v>1.1599999999999999</v>
@@ -7167,28 +7168,28 @@
         <v>1326</v>
       </c>
       <c r="C164">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D164">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="E164">
         <v>1194</v>
       </c>
       <c r="F164">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G164">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H164">
         <v>1.19</v>
       </c>
       <c r="I164">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J164">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K164">
         <v>1.1599999999999999</v>
@@ -7205,10 +7206,10 @@
         <v>44055</v>
       </c>
       <c r="B165">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C165">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="D165">
         <v>1371</v>
@@ -7217,7 +7218,7 @@
         <v>1272</v>
       </c>
       <c r="F165">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G165">
         <v>1323</v>
@@ -7246,22 +7247,22 @@
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C166">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="D166">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="E166">
         <v>1349</v>
       </c>
       <c r="F166">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G166">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H166">
         <v>1.32</v>
@@ -7270,13 +7271,13 @@
         <v>1.28</v>
       </c>
       <c r="J166">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="K166">
         <v>1.17</v>
       </c>
       <c r="L166">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M166">
         <v>1.19</v>
@@ -7287,22 +7288,22 @@
         <v>44057</v>
       </c>
       <c r="B167">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C167">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D167">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="E167">
         <v>1326</v>
       </c>
       <c r="F167">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="G167">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H167">
         <v>1.18</v>
@@ -7320,7 +7321,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M167">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7328,13 +7329,13 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C168">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D168">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="E168">
         <v>1298</v>
@@ -7343,7 +7344,7 @@
         <v>1247</v>
       </c>
       <c r="G168">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7369,22 +7370,22 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C169">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D169">
         <v>1220</v>
       </c>
       <c r="E169">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F169">
         <v>1210</v>
       </c>
       <c r="G169">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H169">
         <v>0.99</v>
@@ -7410,22 +7411,22 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C170">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D170">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="E170">
         <v>1279</v>
       </c>
       <c r="F170">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G170">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H170">
         <v>0.95</v>
@@ -7454,19 +7455,19 @@
         <v>1463</v>
       </c>
       <c r="C171">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D171">
-        <v>1517</v>
+        <v>1524</v>
       </c>
       <c r="E171">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F171">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="G171">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H171">
         <v>0.99</v>
@@ -7481,7 +7482,7 @@
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M171">
         <v>1.04</v>
@@ -7492,22 +7493,22 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C172">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="D172">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E172">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F172">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="G172">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="H172">
         <v>1.03</v>
@@ -7522,7 +7523,7 @@
         <v>0.99</v>
       </c>
       <c r="L172">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M172">
         <v>1.01</v>
@@ -7533,22 +7534,22 @@
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="C173">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="D173">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="E173">
         <v>1330</v>
       </c>
       <c r="F173">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G173">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="H173">
         <v>1.05</v>
@@ -7574,10 +7575,10 @@
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C174">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="D174">
         <v>1219</v>
@@ -7586,16 +7587,16 @@
         <v>1267</v>
       </c>
       <c r="F174">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G174">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="H174">
         <v>0.99</v>
       </c>
       <c r="I174">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J174">
         <v>1.02</v>
@@ -7615,22 +7616,22 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C175">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="D175">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="E175">
         <v>1180</v>
       </c>
       <c r="F175">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G175">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="H175">
         <v>0.9</v>
@@ -7656,22 +7657,22 @@
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C176">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D176">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="E176">
         <v>1145</v>
       </c>
       <c r="F176">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G176">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="H176">
         <v>0.86</v>
@@ -7700,19 +7701,19 @@
         <v>1441</v>
       </c>
       <c r="C177">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="D177">
-        <v>1495</v>
+        <v>1503</v>
       </c>
       <c r="E177">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F177">
         <v>1171</v>
       </c>
       <c r="G177">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="H177">
         <v>0.92</v>
@@ -7738,22 +7739,22 @@
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="C178">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D178">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="E178">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F178">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G178">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="H178">
         <v>0.99</v>
@@ -7762,7 +7763,7 @@
         <v>0.97</v>
       </c>
       <c r="J178">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K178">
         <v>0.97</v>
@@ -7779,22 +7780,22 @@
         <v>44069</v>
       </c>
       <c r="B179">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="C179">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="D179">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="E179">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F179">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="G179">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="H179">
         <v>1.0900000000000001</v>
@@ -7820,19 +7821,19 @@
         <v>44070</v>
       </c>
       <c r="B180">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C180">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="D180">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="E180">
         <v>1299</v>
       </c>
       <c r="F180">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="G180">
         <v>1350</v>
@@ -7841,7 +7842,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I180">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J180">
         <v>1.17</v>
@@ -7864,25 +7865,25 @@
         <v>1138</v>
       </c>
       <c r="C181">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="D181">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E181">
         <v>1223</v>
       </c>
       <c r="F181">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G181">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J181">
         <v>1.03</v>
@@ -7902,22 +7903,22 @@
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C182">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D182">
         <v>1007</v>
       </c>
       <c r="E182">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F182">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G182">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H182">
         <v>0.9</v>
@@ -7926,7 +7927,7 @@
         <v>0.88</v>
       </c>
       <c r="J182">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K182">
         <v>0.97</v>
@@ -7946,28 +7947,28 @@
         <v>1026</v>
       </c>
       <c r="C183">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D183">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E183">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F183">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G183">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H183">
         <v>0.85</v>
       </c>
       <c r="I183">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J183">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K183">
         <v>0.95</v>
@@ -7984,22 +7985,22 @@
         <v>44074</v>
       </c>
       <c r="B184">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C184">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="D184">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E184">
         <v>1121</v>
       </c>
       <c r="F184">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G184">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="H184">
         <v>0.86</v>
@@ -8008,7 +8009,7 @@
         <v>0.84</v>
       </c>
       <c r="J184">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K184">
         <v>0.97</v>
@@ -8025,13 +8026,13 @@
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C185">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D185">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="E185">
         <v>1204</v>
@@ -8040,7 +8041,7 @@
         <v>1156</v>
       </c>
       <c r="G185">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="H185">
         <v>0.98</v>
@@ -8049,7 +8050,7 @@
         <v>0.96</v>
       </c>
       <c r="J185">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K185">
         <v>1.01</v>
@@ -8066,31 +8067,31 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C186">
         <v>1283</v>
       </c>
       <c r="D186">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E186">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F186">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G186">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="H186">
         <v>1.1399999999999999</v>
       </c>
       <c r="I186">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J186">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K186">
         <v>1.03</v>
@@ -8107,22 +8108,22 @@
         <v>44077</v>
       </c>
       <c r="B187">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C187">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D187">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E187">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F187">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="G187">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="H187">
         <v>1.24</v>
@@ -8148,19 +8149,19 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="C188">
-        <v>1216</v>
+        <v>1237</v>
       </c>
       <c r="D188">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="E188">
         <v>1334</v>
       </c>
       <c r="F188">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="G188">
         <v>1381</v>
@@ -8172,7 +8173,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J188">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K188">
         <v>1.06</v>
@@ -8189,22 +8190,22 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C189">
         <v>1121</v>
       </c>
       <c r="D189">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E189">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F189">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="G189">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H189">
         <v>1.05</v>
@@ -8213,7 +8214,7 @@
         <v>1.02</v>
       </c>
       <c r="J189">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K189">
         <v>1.08</v>
@@ -8230,13 +8231,13 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C190">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D190">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E190">
         <v>1251</v>
@@ -8245,7 +8246,7 @@
         <v>1203</v>
       </c>
       <c r="G190">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H190">
         <v>0.97</v>
@@ -8271,22 +8272,22 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C191">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D191">
         <v>1653</v>
       </c>
       <c r="E191">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F191">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="G191">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H191">
         <v>0.99</v>
@@ -8301,7 +8302,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L191">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M191">
         <v>1.1100000000000001</v>
@@ -8312,22 +8313,22 @@
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C192">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D192">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="E192">
         <v>1418</v>
       </c>
       <c r="F192">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="G192">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H192">
         <v>1.06</v>
@@ -8356,16 +8357,16 @@
         <v>1618</v>
       </c>
       <c r="C193">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="D193">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="E193">
         <v>1530</v>
       </c>
       <c r="F193">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G193">
         <v>1582</v>
@@ -8380,7 +8381,7 @@
         <v>1.24</v>
       </c>
       <c r="K193">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L193">
         <v>1.1000000000000001</v>
@@ -8394,22 +8395,22 @@
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="C194">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D194">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="E194">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="F194">
         <v>1564</v>
       </c>
       <c r="G194">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H194">
         <v>1.29</v>
@@ -8427,7 +8428,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M194">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8435,22 +8436,22 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C195">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D195">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="E195">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F195">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="G195">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8459,7 +8460,7 @@
         <v>1.19</v>
       </c>
       <c r="J195">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K195">
         <v>1.1499999999999999</v>
@@ -8476,22 +8477,22 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C196">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D196">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="E196">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F196">
         <v>1557</v>
       </c>
       <c r="G196">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H196">
         <v>1.1299999999999999</v>
@@ -8509,7 +8510,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M196">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8517,22 +8518,22 @@
         <v>44087</v>
       </c>
       <c r="B197">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="C197">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="D197">
-        <v>1655</v>
+        <v>1635</v>
       </c>
       <c r="E197">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="F197">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G197">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H197">
         <v>1.05</v>
@@ -8550,7 +8551,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M197">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8558,37 +8559,37 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="C198">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="D198">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="E198">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F198">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="G198">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="H198">
         <v>1.07</v>
       </c>
       <c r="I198">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J198">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K198">
         <v>1.1499999999999999</v>
       </c>
       <c r="L198">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M198">
         <v>1.1599999999999999</v>
@@ -8599,31 +8600,31 @@
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="C199">
         <v>1918</v>
       </c>
       <c r="D199">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="E199">
         <v>1809</v>
       </c>
       <c r="F199">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G199">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="H199">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I199">
         <v>1.0900000000000001</v>
       </c>
       <c r="J199">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K199">
         <v>1.1299999999999999</v>
@@ -8632,7 +8633,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M199">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8640,22 +8641,22 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="C200">
-        <v>1813</v>
+        <v>1828</v>
       </c>
       <c r="D200">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="E200">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F200">
-        <v>1834</v>
+        <v>1840</v>
       </c>
       <c r="G200">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="H200">
         <v>1.18</v>
@@ -8681,28 +8682,28 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C201">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="D201">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E201">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F201">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="G201">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="H201">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I201">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J201">
         <v>1.23</v>
@@ -8725,16 +8726,16 @@
         <v>1723</v>
       </c>
       <c r="C202">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="D202">
         <v>1774</v>
       </c>
       <c r="E202">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F202">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G202">
         <v>1881</v>
@@ -8743,7 +8744,7 @@
         <v>1.06</v>
       </c>
       <c r="I202">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J202">
         <v>1.08</v>
@@ -8763,22 +8764,22 @@
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="C203">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="D203">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="E203">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F203">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="G203">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="H203">
         <v>0.95</v>
@@ -8804,31 +8805,31 @@
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C204">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="D204">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="E204">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F204">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="G204">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H204">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I204">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J204">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K204">
         <v>1.01</v>
@@ -8845,22 +8846,22 @@
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="C205">
-        <v>2132</v>
+        <v>2117</v>
       </c>
       <c r="D205">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="E205">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="F205">
         <v>1712</v>
       </c>
       <c r="G205">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="H205">
         <v>0.92</v>
@@ -8889,25 +8890,25 @@
         <v>2139</v>
       </c>
       <c r="C206">
-        <v>2074</v>
+        <v>2080</v>
       </c>
       <c r="D206">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="E206">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="F206">
         <v>1813</v>
       </c>
       <c r="G206">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="H206">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I206">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J206">
         <v>1.05</v>
@@ -8927,22 +8928,22 @@
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C207">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D207">
-        <v>2149</v>
+        <v>2133</v>
       </c>
       <c r="E207">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F207">
         <v>1952</v>
       </c>
       <c r="G207">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="H207">
         <v>1.18</v>
@@ -8968,22 +8969,22 @@
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="C208">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="D208">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="E208">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F208">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="G208">
-        <v>2181</v>
+        <v>2172</v>
       </c>
       <c r="H208">
         <v>1.28</v>
@@ -8992,7 +8993,7 @@
         <v>1.25</v>
       </c>
       <c r="J208">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="K208">
         <v>1.0900000000000001</v>
@@ -9009,28 +9010,28 @@
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="C209">
-        <v>2099</v>
+        <v>2113</v>
       </c>
       <c r="D209">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="E209">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F209">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G209">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="H209">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I209">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="J209">
         <v>1.22</v>
@@ -9050,31 +9051,31 @@
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="C210">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="D210">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="E210">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="F210">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="G210">
-        <v>2130</v>
+        <v>2118</v>
       </c>
       <c r="H210">
         <v>1.1000000000000001</v>
       </c>
       <c r="I210">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J210">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K210">
         <v>1.1100000000000001</v>
@@ -9091,22 +9092,22 @@
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C211">
-        <v>1826</v>
+        <v>1845</v>
       </c>
       <c r="D211">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="E211">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F211">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="G211">
-        <v>2087</v>
+        <v>2076</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -9115,7 +9116,7 @@
         <v>0.98</v>
       </c>
       <c r="J211">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K211">
         <v>1.1200000000000001</v>
@@ -9124,7 +9125,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M211">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9132,25 +9133,25 @@
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="C212">
-        <v>2556</v>
+        <v>2568</v>
       </c>
       <c r="D212">
-        <v>2783</v>
+        <v>2767</v>
       </c>
       <c r="E212">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="F212">
-        <v>2085</v>
+        <v>2098</v>
       </c>
       <c r="G212">
-        <v>2254</v>
+        <v>2239</v>
       </c>
       <c r="H212">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -9165,7 +9166,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M212">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9173,22 +9174,22 @@
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="C213">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="D213">
-        <v>2876</v>
+        <v>2908</v>
       </c>
       <c r="E213">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="F213">
-        <v>2227</v>
+        <v>2236</v>
       </c>
       <c r="G213">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="H213">
         <v>1.1000000000000001</v>
@@ -9197,7 +9198,7 @@
         <v>1.07</v>
       </c>
       <c r="J213">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K213">
         <v>1.1499999999999999</v>
@@ -9214,22 +9215,22 @@
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2799</v>
+        <v>2806</v>
       </c>
       <c r="C214">
-        <v>2675</v>
+        <v>2690</v>
       </c>
       <c r="D214">
-        <v>2941</v>
+        <v>2925</v>
       </c>
       <c r="E214">
         <v>2536</v>
       </c>
       <c r="F214">
-        <v>2431</v>
+        <v>2442</v>
       </c>
       <c r="G214">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="H214">
         <v>1.23</v>
@@ -9255,22 +9256,22 @@
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>3003</v>
+        <v>2989</v>
       </c>
       <c r="C215">
-        <v>2866</v>
+        <v>2857</v>
       </c>
       <c r="D215">
-        <v>3130</v>
+        <v>3102</v>
       </c>
       <c r="E215">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="F215">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="G215">
-        <v>2933</v>
+        <v>2925</v>
       </c>
       <c r="H215">
         <v>1.39</v>
@@ -9285,10 +9286,10 @@
         <v>1.23</v>
       </c>
       <c r="L215">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M215">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9296,31 +9297,31 @@
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3364</v>
+        <v>3375</v>
       </c>
       <c r="C216">
-        <v>3188</v>
+        <v>3236</v>
       </c>
       <c r="D216">
-        <v>3541</v>
+        <v>3522</v>
       </c>
       <c r="E216">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="F216">
-        <v>2849</v>
+        <v>2862</v>
       </c>
       <c r="G216">
-        <v>3122</v>
+        <v>3114</v>
       </c>
       <c r="H216">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I216">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="J216">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="K216">
         <v>1.27</v>
@@ -9329,7 +9330,7 @@
         <v>1.25</v>
       </c>
       <c r="M216">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9337,31 +9338,31 @@
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3339</v>
+        <v>3343</v>
       </c>
       <c r="C217">
-        <v>3183</v>
+        <v>3148</v>
       </c>
       <c r="D217">
-        <v>3503</v>
+        <v>3543</v>
       </c>
       <c r="E217">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="F217">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="G217">
-        <v>3279</v>
+        <v>3273</v>
       </c>
       <c r="H217">
         <v>1.35</v>
       </c>
       <c r="I217">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="J217">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="K217">
         <v>1.31</v>
@@ -9378,22 +9379,22 @@
         <v>44108</v>
       </c>
       <c r="B218">
-        <v>3490</v>
+        <v>3472</v>
       </c>
       <c r="C218">
-        <v>3213</v>
+        <v>3319</v>
       </c>
       <c r="D218">
-        <v>3752</v>
+        <v>3626</v>
       </c>
       <c r="E218">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="F218">
-        <v>3112</v>
+        <v>3140</v>
       </c>
       <c r="G218">
-        <v>3482</v>
+        <v>3448</v>
       </c>
       <c r="H218">
         <v>1.3</v>
@@ -9402,7 +9403,7 @@
         <v>1.26</v>
       </c>
       <c r="J218">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K218">
         <v>1.36</v>
@@ -9411,7 +9412,7 @@
         <v>1.33</v>
       </c>
       <c r="M218">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9419,31 +9420,31 @@
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="C219">
-        <v>4353</v>
+        <v>4373</v>
       </c>
       <c r="D219">
-        <v>5075</v>
+        <v>4992</v>
       </c>
       <c r="E219">
-        <v>3722</v>
+        <v>3715</v>
       </c>
       <c r="F219">
-        <v>3484</v>
+        <v>3519</v>
       </c>
       <c r="G219">
-        <v>3968</v>
+        <v>3921</v>
       </c>
       <c r="H219">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I219">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J219">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="K219">
         <v>1.38</v>
@@ -9452,7 +9453,7 @@
         <v>1.34</v>
       </c>
       <c r="M219">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9460,40 +9461,40 @@
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4805</v>
+        <v>4770</v>
       </c>
       <c r="C220">
-        <v>4375</v>
+        <v>4464</v>
       </c>
       <c r="D220">
-        <v>5302</v>
+        <v>5100</v>
       </c>
       <c r="E220">
-        <v>4082</v>
+        <v>4064</v>
       </c>
       <c r="F220">
-        <v>3781</v>
+        <v>3826</v>
       </c>
       <c r="G220">
-        <v>4408</v>
+        <v>4315</v>
       </c>
       <c r="H220">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I220">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J220">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="K220">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="L220">
         <v>1.35</v>
       </c>
       <c r="M220">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9501,40 +9502,40 @@
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4928</v>
+        <v>4867</v>
       </c>
       <c r="C221">
-        <v>4301</v>
+        <v>4423</v>
       </c>
       <c r="D221">
-        <v>5458</v>
+        <v>5320</v>
       </c>
       <c r="E221">
-        <v>4479</v>
+        <v>4445</v>
       </c>
       <c r="F221">
-        <v>4060</v>
+        <v>4145</v>
       </c>
       <c r="G221">
-        <v>4897</v>
+        <v>4760</v>
       </c>
       <c r="H221">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I221">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J221">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="K221">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="L221">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M221">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9542,40 +9543,40 @@
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>5006</v>
+        <v>4918</v>
       </c>
       <c r="C222">
-        <v>4336</v>
+        <v>4347</v>
       </c>
       <c r="D222">
-        <v>5607</v>
+        <v>5460</v>
       </c>
       <c r="E222">
-        <v>4858</v>
+        <v>4806</v>
       </c>
       <c r="F222">
-        <v>4341</v>
+        <v>4402</v>
       </c>
       <c r="G222">
-        <v>5360</v>
+        <v>5218</v>
       </c>
       <c r="H222">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I222">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J222">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K222">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="L222">
         <v>1.29</v>
       </c>
       <c r="M222">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9583,40 +9584,40 @@
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5381</v>
+        <v>5273</v>
       </c>
       <c r="C223">
-        <v>4596</v>
+        <v>4461</v>
       </c>
       <c r="D223">
-        <v>6270</v>
+        <v>6084</v>
       </c>
       <c r="E223">
-        <v>5030</v>
+        <v>4957</v>
       </c>
       <c r="F223">
-        <v>4402</v>
+        <v>4424</v>
       </c>
       <c r="G223">
-        <v>5659</v>
+        <v>5491</v>
       </c>
       <c r="H223">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="I223">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J223">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="K223">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="L223">
         <v>1.25</v>
       </c>
       <c r="M223">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9624,40 +9625,40 @@
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5171</v>
+        <v>5113</v>
       </c>
       <c r="C224">
-        <v>4193</v>
+        <v>4318</v>
       </c>
       <c r="D224">
-        <v>6349</v>
+        <v>5817</v>
       </c>
       <c r="E224">
-        <v>5121</v>
+        <v>5043</v>
       </c>
       <c r="F224">
-        <v>4357</v>
+        <v>4387</v>
       </c>
       <c r="G224">
-        <v>5921</v>
+        <v>5670</v>
       </c>
       <c r="H224">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="I224">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J224">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="K224">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="L224">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M224">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9665,40 +9666,40 @@
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>5669</v>
+        <v>5327</v>
       </c>
       <c r="C225">
-        <v>4258</v>
+        <v>4333</v>
       </c>
       <c r="D225">
-        <v>7169</v>
+        <v>6213</v>
       </c>
       <c r="E225">
-        <v>5307</v>
+        <v>5158</v>
       </c>
       <c r="F225">
-        <v>4346</v>
+        <v>4365</v>
       </c>
       <c r="G225">
-        <v>6349</v>
+        <v>5893</v>
       </c>
       <c r="H225">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I225">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J225">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K225">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="L225">
         <v>1.19</v>
       </c>
       <c r="M225">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9706,40 +9707,40 @@
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>7604</v>
+        <v>6763</v>
       </c>
       <c r="C226">
-        <v>5198</v>
+        <v>5267</v>
       </c>
       <c r="D226">
-        <v>9978</v>
+        <v>8363</v>
       </c>
       <c r="E226">
-        <v>5956</v>
+        <v>5619</v>
       </c>
       <c r="F226">
-        <v>4561</v>
+        <v>4595</v>
       </c>
       <c r="G226">
-        <v>7441</v>
+        <v>6619</v>
       </c>
       <c r="H226">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="I226">
         <v>1.06</v>
       </c>
       <c r="J226">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K226">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="L226">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M226">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9747,72 +9748,113 @@
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>7733</v>
+        <v>7001</v>
       </c>
       <c r="C227">
-        <v>5235</v>
+        <v>4396</v>
       </c>
       <c r="D227">
-        <v>10494</v>
+        <v>9536</v>
       </c>
       <c r="E227">
-        <v>6544</v>
+        <v>6051</v>
       </c>
       <c r="F227">
-        <v>4721</v>
+        <v>4578</v>
       </c>
       <c r="G227">
-        <v>8497</v>
+        <v>7482</v>
       </c>
       <c r="H227">
+        <v>1.22</v>
+      </c>
+      <c r="I227">
+        <v>1.06</v>
+      </c>
+      <c r="J227">
+        <v>1.38</v>
+      </c>
+      <c r="K227">
+        <v>1.25</v>
+      </c>
+      <c r="L227">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M227">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B228">
+        <v>7064</v>
+      </c>
+      <c r="C228">
+        <v>4616</v>
+      </c>
+      <c r="D228">
+        <v>9569</v>
+      </c>
+      <c r="E228">
+        <v>6539</v>
+      </c>
+      <c r="F228">
+        <v>4653</v>
+      </c>
+      <c r="G228">
+        <v>8420</v>
+      </c>
+      <c r="H228">
         <v>1.3</v>
       </c>
-      <c r="I227">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J227">
-        <v>1.53</v>
-      </c>
-      <c r="K227">
+      <c r="I228">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J228">
+        <v>1.49</v>
+      </c>
+      <c r="K228">
+        <v>1.25</v>
+      </c>
+      <c r="L228">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M228">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B229">
+        <v>7036</v>
+      </c>
+      <c r="C229">
+        <v>4352</v>
+      </c>
+      <c r="D229">
+        <v>9812</v>
+      </c>
+      <c r="E229">
+        <v>6966</v>
+      </c>
+      <c r="F229">
+        <v>4658</v>
+      </c>
+      <c r="G229">
+        <v>9320</v>
+      </c>
+      <c r="H229">
         <v>1.35</v>
       </c>
-      <c r="L227">
-        <v>1.19</v>
-      </c>
-      <c r="M227">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="3">
-        <v>44118</v>
-      </c>
-      <c r="B228">
-        <v>8524</v>
-      </c>
-      <c r="C228">
-        <v>4910</v>
-      </c>
-      <c r="D228">
-        <v>12361</v>
-      </c>
-      <c r="E228">
-        <v>7383</v>
-      </c>
-      <c r="F228">
-        <v>4900</v>
-      </c>
-      <c r="G228">
-        <v>10000</v>
-      </c>
-      <c r="H228">
-        <v>1.44</v>
-      </c>
-      <c r="I228">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J228">
-        <v>1.75</v>
+      <c r="I229">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J229">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="22215" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 19.10.2020, 00:00 Uhr</t>
+    <t>Datenstand: 21.10.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -35,7 +35,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 19.10.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 21.10.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -126,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -536,20 +537,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="13" width="16" customWidth="1"/>
-    <col min="14" max="18" width="13.140625" customWidth="1"/>
+    <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="135">
+    <row r="1" spans="1:13" ht="90">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -595,13 +594,13 @@
         <v>43892</v>
       </c>
       <c r="B2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2">
         <v>290</v>
       </c>
       <c r="D2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2">
         <v>225</v>
@@ -610,7 +609,7 @@
         <v>213</v>
       </c>
       <c r="G2">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -618,13 +617,13 @@
         <v>43893</v>
       </c>
       <c r="B3">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>261</v>
@@ -633,7 +632,7 @@
         <v>247</v>
       </c>
       <c r="G3">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -641,22 +640,22 @@
         <v>43894</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D4">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E4">
         <v>326</v>
       </c>
       <c r="F4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -667,19 +666,19 @@
         <v>503</v>
       </c>
       <c r="C5">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D5">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E5">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F5">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G5">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -687,22 +686,22 @@
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C6">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D6">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E6">
         <v>508</v>
       </c>
       <c r="F6">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G6">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
@@ -714,10 +713,10 @@
         <v>2.34</v>
       </c>
       <c r="K6">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="L6">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="M6">
         <v>2.39</v>
@@ -728,37 +727,37 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C7">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D7">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E7">
         <v>674</v>
       </c>
       <c r="F7">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G7">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H7">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="I7">
         <v>2.5099999999999998</v>
       </c>
       <c r="J7">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="K7">
         <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="M7">
         <v>2.61</v>
@@ -769,28 +768,28 @@
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C8">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D8">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E8">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F8">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G8">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H8">
         <v>2.75</v>
       </c>
       <c r="I8">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="J8">
         <v>2.83</v>
@@ -799,10 +798,10 @@
         <v>2.93</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="M8">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -810,19 +809,19 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C9">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="D9">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E9">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F9">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G9">
         <v>1306</v>
@@ -831,16 +830,16 @@
         <v>3.23</v>
       </c>
       <c r="I9">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="J9">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="K9">
         <v>3.13</v>
       </c>
       <c r="L9">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="M9">
         <v>3.18</v>
@@ -851,22 +850,22 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C10">
-        <v>2529</v>
+        <v>2520</v>
       </c>
       <c r="D10">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="E10">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F10">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="G10">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H10">
         <v>3.4</v>
@@ -875,16 +874,16 @@
         <v>3.31</v>
       </c>
       <c r="J10">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="K10">
         <v>3.21</v>
       </c>
       <c r="L10">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="M10">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -892,19 +891,19 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="C11">
-        <v>3190</v>
+        <v>3185</v>
       </c>
       <c r="D11">
-        <v>3279</v>
+        <v>3286</v>
       </c>
       <c r="E11">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F11">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="G11">
         <v>2330</v>
@@ -916,7 +915,7 @@
         <v>3.33</v>
       </c>
       <c r="J11">
-        <v>3.47</v>
+        <v>3.46</v>
       </c>
       <c r="K11">
         <v>3.11</v>
@@ -933,22 +932,22 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="C12">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="D12">
-        <v>3664</v>
+        <v>3659</v>
       </c>
       <c r="E12">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="F12">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="G12">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="H12">
         <v>3.19</v>
@@ -963,10 +962,10 @@
         <v>2.84</v>
       </c>
       <c r="L12">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="M12">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -974,31 +973,31 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="C13">
-        <v>4309</v>
+        <v>4303</v>
       </c>
       <c r="D13">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="E13">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="F13">
-        <v>3394</v>
+        <v>3389</v>
       </c>
       <c r="G13">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="H13">
         <v>2.7</v>
       </c>
       <c r="I13">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="J13">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1015,22 +1014,22 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4438</v>
+        <v>4435</v>
       </c>
       <c r="C14">
-        <v>4383</v>
+        <v>4378</v>
       </c>
       <c r="D14">
-        <v>4496</v>
+        <v>4491</v>
       </c>
       <c r="E14">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="F14">
-        <v>3858</v>
+        <v>3853</v>
       </c>
       <c r="G14">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
@@ -1056,22 +1055,22 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4674</v>
+        <v>4679</v>
       </c>
       <c r="C15">
-        <v>4605</v>
+        <v>4623</v>
       </c>
       <c r="D15">
-        <v>4736</v>
+        <v>4740</v>
       </c>
       <c r="E15">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="F15">
-        <v>4211</v>
+        <v>4213</v>
       </c>
       <c r="G15">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="H15">
         <v>1.86</v>
@@ -1089,7 +1088,7 @@
         <v>1.98</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1097,10 +1096,10 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6023</v>
+        <v>6019</v>
       </c>
       <c r="C16">
-        <v>5958</v>
+        <v>5960</v>
       </c>
       <c r="D16">
         <v>6081</v>
@@ -1109,10 +1108,10 @@
         <v>4874</v>
       </c>
       <c r="F16">
-        <v>4814</v>
+        <v>4816</v>
       </c>
       <c r="G16">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1121,7 +1120,7 @@
         <v>1.69</v>
       </c>
       <c r="J16">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="K16">
         <v>1.74</v>
@@ -1138,22 +1137,22 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5233</v>
+        <v>5229</v>
       </c>
       <c r="C17">
-        <v>5170</v>
+        <v>5158</v>
       </c>
       <c r="D17">
-        <v>5297</v>
+        <v>5307</v>
       </c>
       <c r="E17">
-        <v>5092</v>
+        <v>5090</v>
       </c>
       <c r="F17">
-        <v>5029</v>
+        <v>5030</v>
       </c>
       <c r="G17">
-        <v>5152</v>
+        <v>5155</v>
       </c>
       <c r="H17">
         <v>1.48</v>
@@ -1179,28 +1178,28 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5289</v>
+        <v>5290</v>
       </c>
       <c r="C18">
-        <v>5231</v>
+        <v>5218</v>
       </c>
       <c r="D18">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="E18">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="F18">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="G18">
-        <v>5364</v>
+        <v>5367</v>
       </c>
       <c r="H18">
         <v>1.36</v>
       </c>
       <c r="I18">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J18">
         <v>1.37</v>
@@ -1220,28 +1219,28 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="C19">
-        <v>4668</v>
+        <v>4672</v>
       </c>
       <c r="D19">
-        <v>4794</v>
+        <v>4778</v>
       </c>
       <c r="E19">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="F19">
-        <v>5257</v>
+        <v>5252</v>
       </c>
       <c r="G19">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="H19">
         <v>1.25</v>
       </c>
       <c r="I19">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J19">
         <v>1.26</v>
@@ -1261,22 +1260,22 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5325</v>
+        <v>5328</v>
       </c>
       <c r="C20">
-        <v>5265</v>
+        <v>5266</v>
       </c>
       <c r="D20">
-        <v>5392</v>
+        <v>5386</v>
       </c>
       <c r="E20">
         <v>5144</v>
       </c>
       <c r="F20">
-        <v>5083</v>
+        <v>5078</v>
       </c>
       <c r="G20">
-        <v>5207</v>
+        <v>5203</v>
       </c>
       <c r="H20">
         <v>1.06</v>
@@ -1302,22 +1301,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="C21">
-        <v>4387</v>
+        <v>4382</v>
       </c>
       <c r="D21">
-        <v>4498</v>
+        <v>4507</v>
       </c>
       <c r="E21">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="F21">
-        <v>4887</v>
+        <v>4884</v>
       </c>
       <c r="G21">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1343,28 +1342,28 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="C22">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="D22">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="E22">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="F22">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="G22">
-        <v>4638</v>
+        <v>4634</v>
       </c>
       <c r="H22">
         <v>0.86</v>
       </c>
       <c r="I22">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J22">
         <v>0.87</v>
@@ -1384,22 +1383,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5149</v>
+        <v>5153</v>
       </c>
       <c r="C23">
-        <v>5090</v>
+        <v>5093</v>
       </c>
       <c r="D23">
-        <v>5218</v>
+        <v>5214</v>
       </c>
       <c r="E23">
-        <v>4681</v>
+        <v>4684</v>
       </c>
       <c r="F23">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="G23">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1425,19 +1424,19 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="C24">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="D24">
-        <v>4136</v>
+        <v>4133</v>
       </c>
       <c r="E24">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="F24">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="G24">
         <v>4430</v>
@@ -1466,22 +1465,22 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4422</v>
+        <v>4419</v>
       </c>
       <c r="C25">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="D25">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="E25">
         <v>4363</v>
       </c>
       <c r="F25">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="G25">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1507,13 +1506,13 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="C26">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="D26">
-        <v>4062</v>
+        <v>4057</v>
       </c>
       <c r="E26">
         <v>4409</v>
@@ -1522,7 +1521,7 @@
         <v>4349</v>
       </c>
       <c r="G26">
-        <v>4476</v>
+        <v>4472</v>
       </c>
       <c r="H26">
         <v>0.96</v>
@@ -1548,22 +1547,22 @@
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="C27">
-        <v>4067</v>
+        <v>4060</v>
       </c>
       <c r="D27">
-        <v>4193</v>
+        <v>4174</v>
       </c>
       <c r="E27">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="F27">
-        <v>4093</v>
+        <v>4090</v>
       </c>
       <c r="G27">
-        <v>4220</v>
+        <v>4212</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1589,22 +1588,22 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3886</v>
+        <v>3888</v>
       </c>
       <c r="C28">
-        <v>3834</v>
+        <v>3826</v>
       </c>
       <c r="D28">
-        <v>3941</v>
+        <v>3953</v>
       </c>
       <c r="E28">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="F28">
-        <v>4050</v>
+        <v>4045</v>
       </c>
       <c r="G28">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1616,7 +1615,7 @@
         <v>0.95</v>
       </c>
       <c r="K28">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L28">
         <v>0.9</v>
@@ -1630,31 +1629,31 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C29">
-        <v>3208</v>
+        <v>3194</v>
       </c>
       <c r="D29">
-        <v>3321</v>
+        <v>3328</v>
       </c>
       <c r="E29">
         <v>3818</v>
       </c>
       <c r="F29">
-        <v>3761</v>
+        <v>3754</v>
       </c>
       <c r="G29">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="H29">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I29">
         <v>0.87</v>
       </c>
       <c r="J29">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K29">
         <v>0.9</v>
@@ -1671,22 +1670,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="C30">
-        <v>4331</v>
+        <v>4335</v>
       </c>
       <c r="D30">
-        <v>4450</v>
+        <v>4443</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3860</v>
+        <v>3853</v>
       </c>
       <c r="G30">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1712,22 +1711,22 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C31">
-        <v>3510</v>
+        <v>3517</v>
       </c>
       <c r="D31">
-        <v>3636</v>
+        <v>3645</v>
       </c>
       <c r="E31">
         <v>3780</v>
       </c>
       <c r="F31">
-        <v>3721</v>
+        <v>3718</v>
       </c>
       <c r="G31">
-        <v>3837</v>
+        <v>3842</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1753,19 +1752,19 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="C32">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="D32">
-        <v>4107</v>
+        <v>4095</v>
       </c>
       <c r="E32">
         <v>3817</v>
       </c>
       <c r="F32">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="G32">
         <v>3878</v>
@@ -1794,22 +1793,22 @@
         <v>43923</v>
       </c>
       <c r="B33">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="C33">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="D33">
-        <v>3797</v>
+        <v>3792</v>
       </c>
       <c r="E33">
         <v>3934</v>
       </c>
       <c r="F33">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="G33">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1835,22 +1834,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="C34">
-        <v>3674</v>
+        <v>3671</v>
       </c>
       <c r="D34">
-        <v>3791</v>
+        <v>3788</v>
       </c>
       <c r="E34">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="F34">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="G34">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1865,7 +1864,7 @@
         <v>0.93</v>
       </c>
       <c r="L34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M34">
         <v>0.94</v>
@@ -1876,22 +1875,22 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C35">
-        <v>2944</v>
+        <v>2951</v>
       </c>
       <c r="D35">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="E35">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="F35">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="G35">
-        <v>3690</v>
+        <v>3684</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1917,22 +1916,22 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2693</v>
+        <v>2699</v>
       </c>
       <c r="C36">
         <v>2647</v>
       </c>
       <c r="D36">
-        <v>2745</v>
+        <v>2764</v>
       </c>
       <c r="E36">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="F36">
         <v>3233</v>
       </c>
       <c r="G36">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1958,22 +1957,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3345</v>
+        <v>3351</v>
       </c>
       <c r="C37">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="D37">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="E37">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="F37">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="G37">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -1999,22 +1998,22 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="C38">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D38">
-        <v>3106</v>
+        <v>3113</v>
       </c>
       <c r="E38">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="F38">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="G38">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2043,28 +2042,28 @@
         <v>2874</v>
       </c>
       <c r="C39">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D39">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="E39">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="F39">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="G39">
-        <v>3047</v>
+        <v>3053</v>
       </c>
       <c r="H39">
+        <v>0.83</v>
+      </c>
+      <c r="I39">
         <v>0.82</v>
       </c>
-      <c r="I39">
-        <v>0.81</v>
-      </c>
       <c r="J39">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K39">
         <v>0.85</v>
@@ -2081,22 +2080,22 @@
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2694</v>
+        <v>2689</v>
       </c>
       <c r="C40">
-        <v>2648</v>
+        <v>2635</v>
       </c>
       <c r="D40">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="E40">
         <v>2991</v>
       </c>
       <c r="F40">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="G40">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="H40">
         <v>0.91</v>
@@ -2122,19 +2121,19 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="C41">
-        <v>2269</v>
+        <v>2277</v>
       </c>
       <c r="D41">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="E41">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F41">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="G41">
         <v>2788</v>
@@ -2143,13 +2142,13 @@
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J41">
         <v>0.87</v>
       </c>
       <c r="K41">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2166,19 +2165,19 @@
         <v>2013</v>
       </c>
       <c r="C42">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="D42">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E42">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F42">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="G42">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2204,22 +2203,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="C43">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="D43">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E43">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="F43">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="G43">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2245,22 +2244,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="C44">
-        <v>1834</v>
+        <v>1855</v>
       </c>
       <c r="D44">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E44">
         <v>2043</v>
       </c>
       <c r="F44">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G44">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2286,22 +2285,22 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="C45">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="D45">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E45">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F45">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G45">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2327,22 +2326,22 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C46">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="D46">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="E46">
         <v>1930</v>
       </c>
       <c r="F46">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G46">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="H46">
         <v>0.78</v>
@@ -2351,7 +2350,7 @@
         <v>0.77</v>
       </c>
       <c r="J46">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K46">
         <v>0.76</v>
@@ -2368,19 +2367,19 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="C47">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D47">
         <v>1797</v>
       </c>
       <c r="E47">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F47">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G47">
         <v>1926</v>
@@ -2409,22 +2408,22 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="C48">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="D48">
-        <v>1686</v>
+        <v>1704</v>
       </c>
       <c r="E48">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F48">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="G48">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="H48">
         <v>0.89</v>
@@ -2450,22 +2449,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="C49">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="D49">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="E49">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F49">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="G49">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2474,7 +2473,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2491,25 +2490,25 @@
         <v>43940</v>
       </c>
       <c r="B50">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C50">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="D50">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="E50">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F50">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="G50">
-        <v>1575</v>
+        <v>1583</v>
       </c>
       <c r="H50">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
         <v>0.78</v>
@@ -2532,22 +2531,22 @@
         <v>43941</v>
       </c>
       <c r="B51">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C51">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D51">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="E51">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="F51">
-        <v>1447</v>
+        <v>1454</v>
       </c>
       <c r="G51">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="H51">
         <v>0.79</v>
@@ -2573,22 +2572,22 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C52">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="D52">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E52">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="F52">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="G52">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2617,19 +2616,19 @@
         <v>1296</v>
       </c>
       <c r="C53">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D53">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E53">
         <v>1382</v>
       </c>
       <c r="F53">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G53">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2655,22 +2654,22 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="C54">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="D54">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E54">
         <v>1372</v>
       </c>
       <c r="F54">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="G54">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="H54">
         <v>0.89</v>
@@ -2696,22 +2695,22 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C55">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="D55">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="E55">
         <v>1265</v>
       </c>
       <c r="F55">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="G55">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2737,22 +2736,22 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C56">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D56">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E56">
         <v>1178</v>
       </c>
       <c r="F56">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="G56">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="H56">
         <v>0.83</v>
@@ -2770,7 +2769,7 @@
         <v>0.81</v>
       </c>
       <c r="M56">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2778,22 +2777,22 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C57">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D57">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E57">
         <v>1080</v>
       </c>
       <c r="F57">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G57">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H57">
         <v>0.78</v>
@@ -2819,22 +2818,22 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C58">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D58">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E58">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F58">
         <v>1000</v>
       </c>
       <c r="G58">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H58">
         <v>0.76</v>
@@ -2860,22 +2859,22 @@
         <v>43949</v>
       </c>
       <c r="B59">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C59">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D59">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E59">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F59">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G59">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2901,22 +2900,22 @@
         <v>43950</v>
       </c>
       <c r="B60">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C60">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D60">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E60">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F60">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G60">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2942,22 +2941,22 @@
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C61">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D61">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="E61">
         <v>962</v>
       </c>
       <c r="F61">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G61">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="H61">
         <v>0.89</v>
@@ -2966,7 +2965,7 @@
         <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K61">
         <v>0.81</v>
@@ -2983,22 +2982,22 @@
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C62">
         <v>780</v>
       </c>
       <c r="D62">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E62">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F62">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G62">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H62">
         <v>0.86</v>
@@ -3024,28 +3023,28 @@
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C63">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D63">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E63">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F63">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="G63">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="H63">
         <v>0.85</v>
       </c>
       <c r="I63">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J63">
         <v>0.87</v>
@@ -3065,22 +3064,22 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C64">
         <v>722</v>
       </c>
       <c r="D64">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E64">
         <v>812</v>
       </c>
       <c r="F64">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G64">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -3109,19 +3108,19 @@
         <v>890</v>
       </c>
       <c r="C65">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="D65">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E65">
         <v>800</v>
       </c>
       <c r="F65">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G65">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3147,19 +3146,19 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C66">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D66">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E66">
         <v>801</v>
       </c>
       <c r="F66">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G66">
         <v>835</v>
@@ -3168,10 +3167,10 @@
         <v>0.9</v>
       </c>
       <c r="I66">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K66">
         <v>0.9</v>
@@ -3188,25 +3187,25 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C67">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D67">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E67">
         <v>801</v>
       </c>
       <c r="F67">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="G67">
         <v>835</v>
       </c>
       <c r="H67">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I67">
         <v>0.93</v>
@@ -3229,28 +3228,28 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C68">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D68">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E68">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F68">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G68">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H68">
         <v>0.97</v>
       </c>
       <c r="I68">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3270,22 +3269,22 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C69">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D69">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E69">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F69">
         <v>702</v>
       </c>
       <c r="G69">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H69">
         <v>0.92</v>
@@ -3294,13 +3293,13 @@
         <v>0.89</v>
       </c>
       <c r="J69">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K69">
         <v>0.89</v>
       </c>
       <c r="L69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M69">
         <v>0.9</v>
@@ -3317,22 +3316,22 @@
         <v>554</v>
       </c>
       <c r="D70">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E70">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F70">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G70">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H70">
         <v>0.84</v>
       </c>
       <c r="I70">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J70">
         <v>0.87</v>
@@ -3344,7 +3343,7 @@
         <v>0.86</v>
       </c>
       <c r="M70">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3352,13 +3351,13 @@
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C71">
         <v>528</v>
       </c>
       <c r="D71">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E71">
         <v>629</v>
@@ -3367,7 +3366,7 @@
         <v>599</v>
       </c>
       <c r="G71">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3382,7 +3381,7 @@
         <v>0.87</v>
       </c>
       <c r="L71">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M71">
         <v>0.88</v>
@@ -3396,19 +3395,19 @@
         <v>667</v>
       </c>
       <c r="C72">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D72">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E72">
         <v>620</v>
       </c>
       <c r="F72">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G72">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3437,19 +3436,19 @@
         <v>620</v>
       </c>
       <c r="C73">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D73">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E73">
         <v>606</v>
       </c>
       <c r="F73">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G73">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H73">
         <v>0.82</v>
@@ -3475,19 +3474,19 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C74">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D74">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E74">
         <v>607</v>
       </c>
       <c r="F74">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G74">
         <v>637</v>
@@ -3499,7 +3498,7 @@
         <v>0.87</v>
       </c>
       <c r="J74">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K74">
         <v>0.85</v>
@@ -3508,7 +3507,7 @@
         <v>0.83</v>
       </c>
       <c r="M74">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3516,19 +3515,19 @@
         <v>43965</v>
       </c>
       <c r="B75">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C75">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D75">
         <v>555</v>
       </c>
       <c r="E75">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F75">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G75">
         <v>630</v>
@@ -3557,22 +3556,22 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C76">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D76">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E76">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F76">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G76">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3601,28 +3600,28 @@
         <v>558</v>
       </c>
       <c r="C77">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D77">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E77">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F77">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G77">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H77">
         <v>0.97</v>
       </c>
       <c r="I77">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J77">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>0.93</v>
@@ -3642,19 +3641,19 @@
         <v>444</v>
       </c>
       <c r="C78">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D78">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E78">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F78">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G78">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H78">
         <v>0.91</v>
@@ -3683,7 +3682,7 @@
         <v>616</v>
       </c>
       <c r="C79">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D79">
         <v>644</v>
@@ -3692,10 +3691,10 @@
         <v>574</v>
       </c>
       <c r="F79">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G79">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H79">
         <v>0.96</v>
@@ -3721,28 +3720,28 @@
         <v>43970</v>
       </c>
       <c r="B80">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C80">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D80">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E80">
         <v>521</v>
       </c>
       <c r="F80">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G80">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H80">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I80">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J80">
         <v>0.9</v>
@@ -3754,7 +3753,7 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3762,31 +3761,31 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C81">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D81">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E81">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F81">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G81">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H81">
         <v>0.89</v>
       </c>
       <c r="I81">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J81">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K81">
         <v>0.91</v>
@@ -3803,22 +3802,22 @@
         <v>43972</v>
       </c>
       <c r="B82">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C82">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D82">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E82">
         <v>509</v>
       </c>
       <c r="F82">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G82">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H82">
         <v>0.92</v>
@@ -3833,10 +3832,10 @@
         <v>0.85</v>
       </c>
       <c r="L82">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M82">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3850,22 +3849,22 @@
         <v>363</v>
       </c>
       <c r="D83">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E83">
         <v>451</v>
       </c>
       <c r="F83">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G83">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H83">
         <v>0.79</v>
       </c>
       <c r="I83">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="J83">
         <v>0.82</v>
@@ -3874,7 +3873,7 @@
         <v>0.83</v>
       </c>
       <c r="L83">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M83">
         <v>0.85</v>
@@ -3885,28 +3884,28 @@
         <v>43974</v>
       </c>
       <c r="B84">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C84">
         <v>343</v>
       </c>
       <c r="D84">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E84">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F84">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G84">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H84">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="I84">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J84">
         <v>0.85</v>
@@ -3926,28 +3925,28 @@
         <v>43975</v>
       </c>
       <c r="B85">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C85">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D85">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E85">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F85">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G85">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H85">
         <v>0.72</v>
       </c>
       <c r="I85">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="J85">
         <v>0.75</v>
@@ -3956,7 +3955,7 @@
         <v>0.81</v>
       </c>
       <c r="L85">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="M85">
         <v>0.83</v>
@@ -3967,22 +3966,22 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C86">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D86">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E86">
         <v>397</v>
       </c>
       <c r="F86">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G86">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H86">
         <v>0.78</v>
@@ -3991,7 +3990,7 @@
         <v>0.75</v>
       </c>
       <c r="J86">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K86">
         <v>0.87</v>
@@ -4008,19 +4007,19 @@
         <v>43977</v>
       </c>
       <c r="B87">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C87">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D87">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G87">
         <v>435</v>
@@ -4038,7 +4037,7 @@
         <v>0.89</v>
       </c>
       <c r="L87">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M87">
         <v>0.91</v>
@@ -4049,28 +4048,28 @@
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C88">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D88">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E88">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F88">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G88">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H88">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I88">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J88">
         <v>1.06</v>
@@ -4079,10 +4078,10 @@
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M88">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4090,31 +4089,31 @@
         <v>43979</v>
       </c>
       <c r="B89">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C89">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D89">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E89">
         <v>433</v>
       </c>
       <c r="F89">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G89">
         <v>460</v>
       </c>
       <c r="H89">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I89">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J89">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K89">
         <v>0.94</v>
@@ -4123,7 +4122,7 @@
         <v>0.92</v>
       </c>
       <c r="M89">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4131,22 +4130,22 @@
         <v>43980</v>
       </c>
       <c r="B90">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C90">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D90">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E90">
         <v>403</v>
       </c>
       <c r="F90">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G90">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H90">
         <v>1.02</v>
@@ -4175,28 +4174,28 @@
         <v>291</v>
       </c>
       <c r="C91">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E91">
         <v>368</v>
       </c>
       <c r="F91">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G91">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H91">
         <v>0.9</v>
       </c>
       <c r="I91">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J91">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K91">
         <v>0.92</v>
@@ -4216,28 +4215,28 @@
         <v>269</v>
       </c>
       <c r="C92">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D92">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E92">
         <v>321</v>
       </c>
       <c r="F92">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G92">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H92">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="I92">
         <v>0.71</v>
       </c>
       <c r="J92">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K92">
         <v>0.88</v>
@@ -4246,7 +4245,7 @@
         <v>0.86</v>
       </c>
       <c r="M92">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4257,10 +4256,10 @@
         <v>328</v>
       </c>
       <c r="C93">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D93">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E93">
         <v>309</v>
@@ -4269,7 +4268,7 @@
         <v>287</v>
       </c>
       <c r="G93">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4278,13 +4277,13 @@
         <v>0.68</v>
       </c>
       <c r="J93">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K93">
         <v>0.89</v>
       </c>
       <c r="L93">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M93">
         <v>0.91</v>
@@ -4295,19 +4294,19 @@
         <v>43984</v>
       </c>
       <c r="B94">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C94">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D94">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E94">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F94">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G94">
         <v>355</v>
@@ -4336,19 +4335,19 @@
         <v>43985</v>
       </c>
       <c r="B95">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C95">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D95">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E95">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F95">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G95">
         <v>384</v>
@@ -4363,7 +4362,7 @@
         <v>1.02</v>
       </c>
       <c r="K95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="L95">
         <v>0.89</v>
@@ -4377,22 +4376,22 @@
         <v>43986</v>
       </c>
       <c r="B96">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C96">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D96">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G96">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H96">
         <v>1.17</v>
@@ -4401,7 +4400,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J96">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="K96">
         <v>0.95</v>
@@ -4418,28 +4417,28 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D97">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E97">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F97">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G97">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H97">
         <v>1.21</v>
       </c>
       <c r="I97">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J97">
         <v>1.27</v>
@@ -4459,22 +4458,22 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C98">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98">
         <v>322</v>
       </c>
       <c r="E98">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F98">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G98">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H98">
         <v>1.03</v>
@@ -4483,7 +4482,7 @@
         <v>0.98</v>
       </c>
       <c r="J98">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K98">
         <v>0.96</v>
@@ -4503,22 +4502,22 @@
         <v>235</v>
       </c>
       <c r="C99">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D99">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E99">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F99">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G99">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H99">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I99">
         <v>0.79</v>
@@ -4541,28 +4540,28 @@
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C100">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D100">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E100">
         <v>317</v>
       </c>
       <c r="F100">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G100">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H100">
         <v>0.84</v>
       </c>
       <c r="I100">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J100">
         <v>0.88</v>
@@ -4571,10 +4570,10 @@
         <v>1.03</v>
       </c>
       <c r="L100">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4582,28 +4581,28 @@
         <v>43991</v>
       </c>
       <c r="B101">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C101">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D101">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E101">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G101">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H101">
         <v>0.93</v>
       </c>
       <c r="I101">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J101">
         <v>0.97</v>
@@ -4615,7 +4614,7 @@
         <v>1.01</v>
       </c>
       <c r="M101">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4623,19 +4622,19 @@
         <v>43992</v>
       </c>
       <c r="B102">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C102">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D102">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E102">
         <v>382</v>
       </c>
       <c r="F102">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G102">
         <v>406</v>
@@ -4647,7 +4646,7 @@
         <v>1.07</v>
       </c>
       <c r="J102">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K102">
         <v>1.07</v>
@@ -4676,7 +4675,7 @@
         <v>416</v>
       </c>
       <c r="F103">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G103">
         <v>441</v>
@@ -4685,7 +4684,7 @@
         <v>1.39</v>
       </c>
       <c r="I103">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J103">
         <v>1.46</v>
@@ -4705,37 +4704,37 @@
         <v>43994</v>
       </c>
       <c r="B104">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C104">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D104">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E104">
         <v>406</v>
       </c>
       <c r="F104">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G104">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H104">
         <v>1.28</v>
       </c>
       <c r="I104">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J104">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="K104">
         <v>1.07</v>
       </c>
       <c r="L104">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M104">
         <v>1.1000000000000001</v>
@@ -4746,31 +4745,31 @@
         <v>43995</v>
       </c>
       <c r="B105">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C105">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D105">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E105">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F105">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G105">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H105">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I105">
         <v>1.05</v>
       </c>
       <c r="J105">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K105">
         <v>1.1100000000000001</v>
@@ -4787,22 +4786,22 @@
         <v>43996</v>
       </c>
       <c r="B106">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C106">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D106">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E106">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F106">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G106">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H106">
         <v>0.96</v>
@@ -4820,7 +4819,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M106">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4828,31 +4827,31 @@
         <v>43997</v>
       </c>
       <c r="B107">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C107">
         <v>612</v>
       </c>
       <c r="D107">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E107">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F107">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G107">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H107">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K107">
         <v>1.42</v>
@@ -4869,22 +4868,22 @@
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C108">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D108">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E108">
         <v>620</v>
       </c>
       <c r="F108">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G108">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H108">
         <v>1.53</v>
@@ -4893,7 +4892,7 @@
         <v>1.47</v>
       </c>
       <c r="J108">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="K108">
         <v>1.47</v>
@@ -4910,28 +4909,28 @@
         <v>43999</v>
       </c>
       <c r="B109">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C109">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D109">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E109">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F109">
         <v>663</v>
       </c>
       <c r="G109">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H109">
         <v>1.8</v>
       </c>
       <c r="I109">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J109">
         <v>1.87</v>
@@ -4940,7 +4939,7 @@
         <v>1.47</v>
       </c>
       <c r="L109">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M109">
         <v>1.5</v>
@@ -4954,25 +4953,25 @@
         <v>535</v>
       </c>
       <c r="C110">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D110">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E110">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F110">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G110">
         <v>773</v>
       </c>
       <c r="H110">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I110">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J110">
         <v>2.09</v>
@@ -4981,10 +4980,10 @@
         <v>1.42</v>
       </c>
       <c r="L110">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M110">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4995,25 +4994,25 @@
         <v>570</v>
       </c>
       <c r="C111">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D111">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E111">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F111">
         <v>688</v>
       </c>
       <c r="G111">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H111">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I111">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J111">
         <v>1.72</v>
@@ -5033,22 +5032,22 @@
         <v>44002</v>
       </c>
       <c r="B112">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C112">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D112">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E112">
         <v>559</v>
       </c>
       <c r="F112">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G112">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H112">
         <v>0.9</v>
@@ -5057,7 +5056,7 @@
         <v>0.87</v>
       </c>
       <c r="J112">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K112">
         <v>1.1200000000000001</v>
@@ -5077,16 +5076,16 @@
         <v>368</v>
       </c>
       <c r="C113">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D113">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E113">
         <v>485</v>
       </c>
       <c r="F113">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G113">
         <v>515</v>
@@ -5098,7 +5097,7 @@
         <v>0.67</v>
       </c>
       <c r="J113">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K113">
         <v>1.04</v>
@@ -5107,7 +5106,7 @@
         <v>1.02</v>
       </c>
       <c r="M113">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5118,25 +5117,25 @@
         <v>475</v>
       </c>
       <c r="C114">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D114">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E114">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F114">
         <v>442</v>
       </c>
       <c r="G114">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H114">
         <v>0.64</v>
       </c>
       <c r="I114">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="J114">
         <v>0.66</v>
@@ -5159,22 +5158,22 @@
         <v>432</v>
       </c>
       <c r="C115">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D115">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E115">
         <v>436</v>
       </c>
       <c r="F115">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G115">
         <v>464</v>
       </c>
       <c r="H115">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="I115">
         <v>0.57999999999999996</v>
@@ -5197,19 +5196,19 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C116">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D116">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E116">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F116">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G116">
         <v>463</v>
@@ -5227,10 +5226,10 @@
         <v>0.73</v>
       </c>
       <c r="L116">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="M116">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5238,13 +5237,13 @@
         <v>44007</v>
       </c>
       <c r="B117">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C117">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D117">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E117">
         <v>445</v>
@@ -5253,7 +5252,7 @@
         <v>418</v>
       </c>
       <c r="G117">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H117">
         <v>0.92</v>
@@ -5262,7 +5261,7 @@
         <v>0.88</v>
       </c>
       <c r="J117">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5279,22 +5278,22 @@
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C118">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D118">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E118">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F118">
         <v>408</v>
       </c>
       <c r="G118">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H118">
         <v>0.92</v>
@@ -5303,13 +5302,13 @@
         <v>0.88</v>
       </c>
       <c r="J118">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K118">
         <v>0.84</v>
       </c>
       <c r="L118">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="M118">
         <v>0.86</v>
@@ -5320,22 +5319,22 @@
         <v>44009</v>
       </c>
       <c r="B119">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C119">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E119">
         <v>415</v>
       </c>
       <c r="F119">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G119">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H119">
         <v>0.95</v>
@@ -5361,28 +5360,28 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D120">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E120">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F120">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G120">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H120">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I120">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J120">
         <v>0.9</v>
@@ -5402,25 +5401,25 @@
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C121">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D121">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E121">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F121">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G121">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H121">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I121">
         <v>0.82</v>
@@ -5443,22 +5442,22 @@
         <v>44012</v>
       </c>
       <c r="B122">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C122">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D122">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E122">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F122">
         <v>356</v>
       </c>
       <c r="G122">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H122">
         <v>0.88</v>
@@ -5484,22 +5483,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C123">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D123">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E123">
         <v>394</v>
       </c>
       <c r="F123">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G123">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5508,13 +5507,13 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M123">
         <v>0.96</v>
@@ -5537,10 +5536,10 @@
         <v>400</v>
       </c>
       <c r="F124">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G124">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H124">
         <v>1.06</v>
@@ -5552,7 +5551,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="K124">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L124">
         <v>0.9</v>
@@ -5566,22 +5565,22 @@
         <v>44015</v>
       </c>
       <c r="B125">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C125">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D125">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E125">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F125">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G125">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5590,7 +5589,7 @@
         <v>0.96</v>
       </c>
       <c r="J125">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K125">
         <v>0.9</v>
@@ -5610,19 +5609,19 @@
         <v>297</v>
       </c>
       <c r="C126">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D126">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E126">
         <v>347</v>
       </c>
       <c r="F126">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G126">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5637,7 +5636,7 @@
         <v>0.92</v>
       </c>
       <c r="L126">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M126">
         <v>0.94</v>
@@ -5654,7 +5653,7 @@
         <v>270</v>
       </c>
       <c r="D127">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E127">
         <v>319</v>
@@ -5663,7 +5662,7 @@
         <v>297</v>
       </c>
       <c r="G127">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H127">
         <v>0.81</v>
@@ -5681,7 +5680,7 @@
         <v>0.9</v>
       </c>
       <c r="M127">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5689,28 +5688,28 @@
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C128">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128">
         <v>399</v>
       </c>
       <c r="E128">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F128">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G128">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H128">
         <v>0.82</v>
       </c>
       <c r="I128">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J128">
         <v>0.86</v>
@@ -5733,13 +5732,13 @@
         <v>373</v>
       </c>
       <c r="C129">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D129">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E129">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F129">
         <v>313</v>
@@ -5751,7 +5750,7 @@
         <v>0.88</v>
       </c>
       <c r="I129">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J129">
         <v>0.92</v>
@@ -5771,22 +5770,22 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C130">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D130">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E130">
         <v>350</v>
       </c>
       <c r="F130">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G130">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H130">
         <v>1.01</v>
@@ -5795,13 +5794,13 @@
         <v>0.96</v>
       </c>
       <c r="J130">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K130">
         <v>0.95</v>
       </c>
       <c r="L130">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M130">
         <v>0.98</v>
@@ -5815,19 +5814,19 @@
         <v>376</v>
       </c>
       <c r="C131">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D131">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E131">
         <v>371</v>
       </c>
       <c r="F131">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G131">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H131">
         <v>1.1599999999999999</v>
@@ -5839,7 +5838,7 @@
         <v>1.22</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L131">
         <v>0.98</v>
@@ -5853,22 +5852,22 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C132">
         <v>403</v>
       </c>
       <c r="D132">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E132">
         <v>384</v>
       </c>
       <c r="F132">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G132">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H132">
         <v>1.17</v>
@@ -5877,7 +5876,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J132">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="K132">
         <v>1.07</v>
@@ -5897,16 +5896,16 @@
         <v>385</v>
       </c>
       <c r="C133">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D133">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E133">
         <v>387</v>
       </c>
       <c r="F133">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G133">
         <v>412</v>
@@ -5918,7 +5917,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J133">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K133">
         <v>1.1200000000000001</v>
@@ -5927,7 +5926,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M133">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5935,28 +5934,28 @@
         <v>44024</v>
       </c>
       <c r="B134">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C134">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D134">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E134">
         <v>388</v>
       </c>
       <c r="F134">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G134">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
       </c>
       <c r="I134">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J134">
         <v>1.1599999999999999</v>
@@ -5968,7 +5967,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M134">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5976,13 +5975,13 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C135">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D135">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E135">
         <v>430</v>
@@ -6009,7 +6008,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M135">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6020,10 +6019,10 @@
         <v>514</v>
       </c>
       <c r="C136">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D136">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E136">
         <v>451</v>
@@ -6032,13 +6031,13 @@
         <v>424</v>
       </c>
       <c r="G136">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H136">
         <v>1.17</v>
       </c>
       <c r="I136">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J136">
         <v>1.23</v>
@@ -6047,7 +6046,7 @@
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M136">
         <v>1.25</v>
@@ -6058,37 +6057,37 @@
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C137">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D137">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E137">
         <v>494</v>
       </c>
       <c r="F137">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G137">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H137">
         <v>1.28</v>
       </c>
       <c r="I137">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J137">
         <v>1.33</v>
       </c>
       <c r="K137">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="L137">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M137">
         <v>1.25</v>
@@ -6099,13 +6098,13 @@
         <v>44028</v>
       </c>
       <c r="B138">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C138">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D138">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E138">
         <v>521</v>
@@ -6114,13 +6113,13 @@
         <v>493</v>
       </c>
       <c r="G138">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H138">
         <v>1.34</v>
       </c>
       <c r="I138">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J138">
         <v>1.39</v>
@@ -6132,7 +6131,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M138">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6140,19 +6139,19 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C139">
         <v>507</v>
       </c>
       <c r="D139">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E139">
         <v>518</v>
       </c>
       <c r="F139">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G139">
         <v>548</v>
@@ -6181,19 +6180,19 @@
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C140">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D140">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E140">
         <v>512</v>
       </c>
       <c r="F140">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G140">
         <v>541</v>
@@ -6205,7 +6204,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J140">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K140">
         <v>1.1399999999999999</v>
@@ -6222,19 +6221,19 @@
         <v>44031</v>
       </c>
       <c r="B141">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C141">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D141">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E141">
         <v>502</v>
       </c>
       <c r="F141">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G141">
         <v>532</v>
@@ -6246,10 +6245,10 @@
         <v>0.98</v>
       </c>
       <c r="J141">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K141">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L141">
         <v>1.1299999999999999</v>
@@ -6263,28 +6262,28 @@
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C142">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D142">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E142">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F142">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G142">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H142">
         <v>1.07</v>
       </c>
       <c r="I142">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J142">
         <v>1.1100000000000001</v>
@@ -6304,19 +6303,19 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C143">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D143">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E143">
         <v>599</v>
       </c>
       <c r="F143">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G143">
         <v>632</v>
@@ -6325,7 +6324,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I143">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J143">
         <v>1.2</v>
@@ -6348,25 +6347,25 @@
         <v>736</v>
       </c>
       <c r="C144">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D144">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E144">
         <v>661</v>
       </c>
       <c r="F144">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G144">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H144">
         <v>1.29</v>
       </c>
       <c r="I144">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J144">
         <v>1.34</v>
@@ -6378,7 +6377,7 @@
         <v>1.18</v>
       </c>
       <c r="M144">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6386,19 +6385,19 @@
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C145">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D145">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E145">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F145">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G145">
         <v>737</v>
@@ -6410,7 +6409,7 @@
         <v>1.35</v>
       </c>
       <c r="J145">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="K145">
         <v>1.2</v>
@@ -6433,13 +6432,13 @@
         <v>659</v>
       </c>
       <c r="D146">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E146">
         <v>705</v>
       </c>
       <c r="F146">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G146">
         <v>738</v>
@@ -6448,7 +6447,7 @@
         <v>1.27</v>
       </c>
       <c r="I146">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J146">
         <v>1.31</v>
@@ -6457,10 +6456,10 @@
         <v>1.17</v>
       </c>
       <c r="L146">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M146">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6468,22 +6467,22 @@
         <v>44037</v>
       </c>
       <c r="B147">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C147">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D147">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E147">
         <v>683</v>
       </c>
       <c r="F147">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G147">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
@@ -6498,7 +6497,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="L147">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M147">
         <v>1.1599999999999999</v>
@@ -6509,22 +6508,22 @@
         <v>44038</v>
       </c>
       <c r="B148">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C148">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D148">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E148">
         <v>650</v>
       </c>
       <c r="F148">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G148">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H148">
         <v>0.98</v>
@@ -6539,7 +6538,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L148">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M148">
         <v>1.1399999999999999</v>
@@ -6550,31 +6549,31 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C149">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="D149">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E149">
         <v>683</v>
       </c>
       <c r="F149">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G149">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H149">
         <v>0.97</v>
       </c>
       <c r="I149">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J149">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>1.0900000000000001</v>
@@ -6591,22 +6590,22 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C150">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D150">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E150">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F150">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G150">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6632,25 +6631,25 @@
         <v>44041</v>
       </c>
       <c r="B151">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C151">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D151">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E151">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F151">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G151">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H151">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="I151">
         <v>1.04</v>
@@ -6673,22 +6672,22 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C152">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D152">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E152">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F152">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G152">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6714,22 +6713,22 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C153">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D153">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E153">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F153">
         <v>726</v>
       </c>
       <c r="G153">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
@@ -6738,7 +6737,7 @@
         <v>1.08</v>
       </c>
       <c r="J153">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K153">
         <v>1.08</v>
@@ -6747,7 +6746,7 @@
         <v>1.05</v>
       </c>
       <c r="M153">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6755,31 +6754,31 @@
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C154">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D154">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E154">
         <v>776</v>
       </c>
       <c r="F154">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G154">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H154">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I154">
         <v>1.07</v>
       </c>
       <c r="J154">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K154">
         <v>1.1299999999999999</v>
@@ -6796,28 +6795,28 @@
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C155">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D155">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E155">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F155">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G155">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H155">
         <v>1.1100000000000001</v>
       </c>
       <c r="I155">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J155">
         <v>1.1499999999999999</v>
@@ -6840,16 +6839,16 @@
         <v>1078</v>
       </c>
       <c r="C156">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="D156">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="E156">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F156">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G156">
         <v>937</v>
@@ -6858,10 +6857,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I156">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J156">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K156">
         <v>1.19</v>
@@ -6878,22 +6877,22 @@
         <v>44047</v>
       </c>
       <c r="B157">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C157">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D157">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E157">
         <v>945</v>
       </c>
       <c r="F157">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G157">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="H157">
         <v>1.24</v>
@@ -6919,22 +6918,22 @@
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C158">
         <v>936</v>
       </c>
       <c r="D158">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E158">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F158">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G158">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="H158">
         <v>1.27</v>
@@ -6960,22 +6959,22 @@
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C159">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D159">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E159">
         <v>1011</v>
       </c>
       <c r="F159">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G159">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H159">
         <v>1.24</v>
@@ -6987,7 +6986,7 @@
         <v>1.28</v>
       </c>
       <c r="K159">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="L159">
         <v>1.1499999999999999</v>
@@ -7001,22 +7000,22 @@
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C160">
         <v>1003</v>
       </c>
       <c r="D160">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E160">
         <v>1004</v>
       </c>
       <c r="F160">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G160">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H160">
         <v>1.1200000000000001</v>
@@ -7042,28 +7041,28 @@
         <v>44051</v>
       </c>
       <c r="B161">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C161">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D161">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E161">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F161">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G161">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H161">
         <v>1.07</v>
       </c>
       <c r="I161">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J161">
         <v>1.1100000000000001</v>
@@ -7072,7 +7071,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L161">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M161">
         <v>1.1499999999999999</v>
@@ -7083,22 +7082,22 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C162">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="D162">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E162">
         <v>1025</v>
       </c>
       <c r="F162">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G162">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H162">
         <v>1.04</v>
@@ -7107,7 +7106,7 @@
         <v>1.01</v>
       </c>
       <c r="J162">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K162">
         <v>1.1399999999999999</v>
@@ -7124,22 +7123,22 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="C163">
-        <v>1361</v>
+        <v>1343</v>
       </c>
       <c r="D163">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E163">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F163">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G163">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H163">
         <v>1.1100000000000001</v>
@@ -7154,7 +7153,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="L163">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M163">
         <v>1.1599999999999999</v>
@@ -7168,19 +7167,19 @@
         <v>1326</v>
       </c>
       <c r="C164">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="D164">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="E164">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F164">
         <v>1145</v>
       </c>
       <c r="G164">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="H164">
         <v>1.19</v>
@@ -7195,7 +7194,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L164">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M164">
         <v>1.18</v>
@@ -7206,22 +7205,22 @@
         <v>44055</v>
       </c>
       <c r="B165">
+        <v>1317</v>
+      </c>
+      <c r="C165">
+        <v>1269</v>
+      </c>
+      <c r="D165">
+        <v>1373</v>
+      </c>
+      <c r="E165">
+        <v>1271</v>
+      </c>
+      <c r="F165">
+        <v>1222</v>
+      </c>
+      <c r="G165">
         <v>1322</v>
-      </c>
-      <c r="C165">
-        <v>1267</v>
-      </c>
-      <c r="D165">
-        <v>1371</v>
-      </c>
-      <c r="E165">
-        <v>1272</v>
-      </c>
-      <c r="F165">
-        <v>1221</v>
-      </c>
-      <c r="G165">
-        <v>1323</v>
       </c>
       <c r="H165">
         <v>1.26</v>
@@ -7230,7 +7229,7 @@
         <v>1.22</v>
       </c>
       <c r="J165">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K165">
         <v>1.19</v>
@@ -7247,19 +7246,19 @@
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C166">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D166">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="E166">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F166">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G166">
         <v>1401</v>
@@ -7277,7 +7276,7 @@
         <v>1.17</v>
       </c>
       <c r="L166">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M166">
         <v>1.19</v>
@@ -7288,13 +7287,13 @@
         <v>44057</v>
       </c>
       <c r="B167">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C167">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="D167">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="E167">
         <v>1326</v>
@@ -7303,7 +7302,7 @@
         <v>1274</v>
       </c>
       <c r="G167">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="H167">
         <v>1.18</v>
@@ -7312,7 +7311,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J167">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K167">
         <v>1.1499999999999999</v>
@@ -7321,7 +7320,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M167">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7329,22 +7328,22 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C168">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="D168">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="E168">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F168">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G168">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7370,28 +7369,28 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="C169">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D169">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="E169">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="F169">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G169">
-        <v>1309</v>
+        <v>1319</v>
       </c>
       <c r="H169">
         <v>0.99</v>
       </c>
       <c r="I169">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J169">
         <v>1.02</v>
@@ -7411,22 +7410,22 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C170">
         <v>1365</v>
       </c>
       <c r="D170">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E170">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="F170">
         <v>1228</v>
       </c>
       <c r="G170">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="H170">
         <v>0.95</v>
@@ -7435,7 +7434,7 @@
         <v>0.92</v>
       </c>
       <c r="J170">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K170">
         <v>1.06</v>
@@ -7452,28 +7451,28 @@
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C171">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D171">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="E171">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F171">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="G171">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="H171">
         <v>0.99</v>
       </c>
       <c r="I171">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J171">
         <v>1.02</v>
@@ -7482,10 +7481,10 @@
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="M171">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7493,22 +7492,22 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C172">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D172">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E172">
         <v>1337</v>
       </c>
       <c r="F172">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="G172">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="H172">
         <v>1.03</v>
@@ -7534,28 +7533,28 @@
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C173">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D173">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E173">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F173">
         <v>1277</v>
       </c>
       <c r="G173">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H173">
         <v>1.05</v>
       </c>
       <c r="I173">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J173">
         <v>1.08</v>
@@ -7575,22 +7574,22 @@
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C174">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D174">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E174">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F174">
         <v>1214</v>
       </c>
       <c r="G174">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="H174">
         <v>0.99</v>
@@ -7599,13 +7598,13 @@
         <v>0.96</v>
       </c>
       <c r="J174">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K174">
         <v>0.95</v>
       </c>
       <c r="L174">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M174">
         <v>0.96</v>
@@ -7616,25 +7615,25 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C175">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D175">
         <v>1165</v>
       </c>
       <c r="E175">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F175">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G175">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H175">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I175">
         <v>0.87</v>
@@ -7657,13 +7656,13 @@
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C176">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="D176">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="E176">
         <v>1145</v>
@@ -7672,7 +7671,7 @@
         <v>1096</v>
       </c>
       <c r="G176">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H176">
         <v>0.86</v>
@@ -7698,22 +7697,22 @@
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="C177">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="D177">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="E177">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F177">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="G177">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H177">
         <v>0.92</v>
@@ -7722,7 +7721,7 @@
         <v>0.89</v>
       </c>
       <c r="J177">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="K177">
         <v>0.97</v>
@@ -7739,25 +7738,25 @@
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C178">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D178">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="E178">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="F178">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="G178">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="H178">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0.97</v>
@@ -7766,7 +7765,7 @@
         <v>1.03</v>
       </c>
       <c r="K178">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L178">
         <v>0.96</v>
@@ -7783,19 +7782,19 @@
         <v>1208</v>
       </c>
       <c r="C179">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D179">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E179">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F179">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="G179">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="H179">
         <v>1.0900000000000001</v>
@@ -7821,28 +7820,28 @@
         <v>44070</v>
       </c>
       <c r="B180">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C180">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="D180">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E180">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F180">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G180">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H180">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I180">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J180">
         <v>1.17</v>
@@ -7854,7 +7853,7 @@
         <v>0.97</v>
       </c>
       <c r="M180">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7862,28 +7861,28 @@
         <v>44071</v>
       </c>
       <c r="B181">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C181">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D181">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E181">
         <v>1223</v>
       </c>
       <c r="F181">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G181">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J181">
         <v>1.03</v>
@@ -7892,7 +7891,7 @@
         <v>0.98</v>
       </c>
       <c r="L181">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M181">
         <v>0.99</v>
@@ -7903,22 +7902,22 @@
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C182">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D182">
         <v>1007</v>
       </c>
       <c r="E182">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F182">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G182">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H182">
         <v>0.9</v>
@@ -7927,7 +7926,7 @@
         <v>0.88</v>
       </c>
       <c r="J182">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K182">
         <v>0.97</v>
@@ -7944,31 +7943,31 @@
         <v>44073</v>
       </c>
       <c r="B183">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C183">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D183">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="E183">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F183">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G183">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H183">
         <v>0.85</v>
       </c>
       <c r="I183">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J183">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K183">
         <v>0.95</v>
@@ -7985,22 +7984,22 @@
         <v>44074</v>
       </c>
       <c r="B184">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="C184">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="D184">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E184">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F184">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="G184">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H184">
         <v>0.86</v>
@@ -8026,31 +8025,31 @@
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C185">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D185">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E185">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F185">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G185">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H185">
         <v>0.98</v>
       </c>
       <c r="I185">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J185">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K185">
         <v>1.01</v>
@@ -8067,22 +8066,22 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C186">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D186">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="E186">
         <v>1295</v>
       </c>
       <c r="F186">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G186">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="H186">
         <v>1.1399999999999999</v>
@@ -8108,25 +8107,25 @@
         <v>44077</v>
       </c>
       <c r="B187">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C187">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="D187">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="E187">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F187">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G187">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H187">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I187">
         <v>1.21</v>
@@ -8149,31 +8148,31 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C188">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D188">
         <v>1323</v>
       </c>
       <c r="E188">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F188">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G188">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="H188">
         <v>1.19</v>
       </c>
       <c r="I188">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="J188">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K188">
         <v>1.06</v>
@@ -8182,7 +8181,7 @@
         <v>1.05</v>
       </c>
       <c r="M188">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8190,19 +8189,19 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C189">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D189">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="E189">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F189">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G189">
         <v>1305</v>
@@ -8231,19 +8230,19 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C190">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="D190">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="E190">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F190">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="G190">
         <v>1296</v>
@@ -8272,22 +8271,22 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C191">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="D191">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E191">
         <v>1338</v>
       </c>
       <c r="F191">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G191">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H191">
         <v>0.99</v>
@@ -8296,13 +8295,13 @@
         <v>0.96</v>
       </c>
       <c r="J191">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K191">
         <v>1.1000000000000001</v>
       </c>
       <c r="L191">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M191">
         <v>1.1100000000000001</v>
@@ -8316,19 +8315,19 @@
         <v>1599</v>
       </c>
       <c r="C192">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="D192">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="E192">
         <v>1418</v>
       </c>
       <c r="F192">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G192">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H192">
         <v>1.06</v>
@@ -8340,7 +8339,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="K192">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L192">
         <v>1.0900000000000001</v>
@@ -8354,25 +8353,25 @@
         <v>44083</v>
       </c>
       <c r="B193">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C193">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="D193">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="E193">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F193">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G193">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="H193">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I193">
         <v>1.19</v>
@@ -8381,7 +8380,7 @@
         <v>1.24</v>
       </c>
       <c r="K193">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L193">
         <v>1.1000000000000001</v>
@@ -8398,25 +8397,25 @@
         <v>1645</v>
       </c>
       <c r="C194">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="D194">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E194">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F194">
         <v>1564</v>
       </c>
       <c r="G194">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="H194">
         <v>1.29</v>
       </c>
       <c r="I194">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J194">
         <v>1.32</v>
@@ -8428,7 +8427,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M194">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8436,22 +8435,22 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C195">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D195">
-        <v>1687</v>
+        <v>1696</v>
       </c>
       <c r="E195">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="F195">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="G195">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8477,22 +8476,22 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C196">
-        <v>1485</v>
+        <v>1495</v>
       </c>
       <c r="D196">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="E196">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F196">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="G196">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H196">
         <v>1.1299999999999999</v>
@@ -8510,7 +8509,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M196">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8518,28 +8517,28 @@
         <v>44087</v>
       </c>
       <c r="B197">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C197">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D197">
-        <v>1635</v>
+        <v>1654</v>
       </c>
       <c r="E197">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F197">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="G197">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="H197">
         <v>1.05</v>
       </c>
       <c r="I197">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J197">
         <v>1.07</v>
@@ -8559,22 +8558,22 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="C198">
-        <v>2072</v>
+        <v>2080</v>
       </c>
       <c r="D198">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="E198">
         <v>1723</v>
       </c>
       <c r="F198">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="G198">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8583,13 +8582,13 @@
         <v>1.05</v>
       </c>
       <c r="J198">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K198">
         <v>1.1499999999999999</v>
       </c>
       <c r="L198">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M198">
         <v>1.1599999999999999</v>
@@ -8600,22 +8599,22 @@
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C199">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D199">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="E199">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="F199">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="G199">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H199">
         <v>1.1100000000000001</v>
@@ -8624,7 +8623,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J199">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K199">
         <v>1.1299999999999999</v>
@@ -8633,7 +8632,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M199">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8641,25 +8640,25 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="C200">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="D200">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="E200">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="F200">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="G200">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="H200">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I200">
         <v>1.1499999999999999</v>
@@ -8682,25 +8681,25 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="C201">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="D201">
-        <v>1795</v>
+        <v>1781</v>
       </c>
       <c r="E201">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="F201">
         <v>1873</v>
       </c>
       <c r="G201">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="H201">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I201">
         <v>1.18</v>
@@ -8723,22 +8722,22 @@
         <v>44092</v>
       </c>
       <c r="B202">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C202">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D202">
         <v>1774</v>
       </c>
       <c r="E202">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="F202">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G202">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="H202">
         <v>1.06</v>
@@ -8764,31 +8763,31 @@
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C203">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D203">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="E203">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="F203">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G203">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="H203">
         <v>0.95</v>
       </c>
       <c r="I203">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J203">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K203">
         <v>1.02</v>
@@ -8805,22 +8804,22 @@
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C204">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="D204">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="E204">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F204">
         <v>1601</v>
       </c>
       <c r="G204">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="H204">
         <v>0.87</v>
@@ -8838,30 +8837,30 @@
         <v>1</v>
       </c>
       <c r="M204">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="1">
+      <c r="A205" s="3">
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="C205">
-        <v>2117</v>
+        <v>2127</v>
       </c>
       <c r="D205">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="E205">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F205">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="G205">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="H205">
         <v>0.92</v>
@@ -8883,32 +8882,32 @@
       </c>
     </row>
     <row r="206" spans="1:13">
-      <c r="A206" s="1">
+      <c r="A206" s="3">
         <v>44096</v>
       </c>
       <c r="B206">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="C206">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="D206">
-        <v>2196</v>
+        <v>2211</v>
       </c>
       <c r="E206">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F206">
         <v>1813</v>
       </c>
       <c r="G206">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="H206">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J206">
         <v>1.05</v>
@@ -8924,26 +8923,26 @@
       </c>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="1">
+      <c r="A207" s="3">
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="C207">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D207">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="E207">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F207">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="G207">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="H207">
         <v>1.18</v>
@@ -8965,26 +8964,26 @@
       </c>
     </row>
     <row r="208" spans="1:13">
-      <c r="A208" s="1">
+      <c r="A208" s="3">
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2057</v>
+        <v>2062</v>
       </c>
       <c r="C208">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D208">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="E208">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F208">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="G208">
-        <v>2172</v>
+        <v>2180</v>
       </c>
       <c r="H208">
         <v>1.28</v>
@@ -9006,29 +9005,29 @@
       </c>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="1">
+      <c r="A209" s="3">
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="C209">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="D209">
         <v>2239</v>
       </c>
       <c r="E209">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="F209">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="G209">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="H209">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I209">
         <v>1.17</v>
@@ -9047,26 +9046,26 @@
       </c>
     </row>
     <row r="210" spans="1:13">
-      <c r="A210" s="1">
+      <c r="A210" s="3">
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="C210">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="D210">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="E210">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="F210">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="G210">
-        <v>2118</v>
+        <v>2128</v>
       </c>
       <c r="H210">
         <v>1.1000000000000001</v>
@@ -9084,39 +9083,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M210">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="1">
+      <c r="A211" s="3">
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="C211">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D211">
-        <v>1964</v>
+        <v>1978</v>
       </c>
       <c r="E211">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F211">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="G211">
-        <v>2076</v>
+        <v>2088</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I211">
         <v>0.98</v>
       </c>
       <c r="J211">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K211">
         <v>1.1200000000000001</v>
@@ -9129,32 +9128,32 @@
       </c>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="1">
+      <c r="A212" s="3">
         <v>44102</v>
       </c>
       <c r="B212">
         <v>2657</v>
       </c>
       <c r="C212">
-        <v>2568</v>
+        <v>2585</v>
       </c>
       <c r="D212">
-        <v>2767</v>
+        <v>2723</v>
       </c>
       <c r="E212">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="F212">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="G212">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="H212">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J212">
         <v>1.05</v>
@@ -9166,36 +9165,36 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M212">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:13">
-      <c r="A213" s="1">
+      <c r="A213" s="3">
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="C213">
-        <v>2665</v>
+        <v>2678</v>
       </c>
       <c r="D213">
-        <v>2908</v>
+        <v>2863</v>
       </c>
       <c r="E213">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="F213">
-        <v>2236</v>
+        <v>2244</v>
       </c>
       <c r="G213">
-        <v>2407</v>
+        <v>2392</v>
       </c>
       <c r="H213">
         <v>1.1000000000000001</v>
       </c>
       <c r="I213">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J213">
         <v>1.1200000000000001</v>
@@ -9207,30 +9206,30 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M213">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="214" spans="1:13">
-      <c r="A214" s="1">
+      <c r="A214" s="3">
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2806</v>
+        <v>2819</v>
       </c>
       <c r="C214">
-        <v>2690</v>
+        <v>2702</v>
       </c>
       <c r="D214">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="E214">
-        <v>2536</v>
+        <v>2541</v>
       </c>
       <c r="F214">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="G214">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="H214">
         <v>1.23</v>
@@ -9245,36 +9244,36 @@
         <v>1.19</v>
       </c>
       <c r="L214">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M214">
         <v>1.21</v>
       </c>
     </row>
     <row r="215" spans="1:13">
-      <c r="A215" s="1">
+      <c r="A215" s="3">
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>2989</v>
+        <v>3017</v>
       </c>
       <c r="C215">
-        <v>2857</v>
+        <v>2896</v>
       </c>
       <c r="D215">
-        <v>3102</v>
+        <v>3136</v>
       </c>
       <c r="E215">
-        <v>2807</v>
+        <v>2818</v>
       </c>
       <c r="F215">
-        <v>2695</v>
+        <v>2715</v>
       </c>
       <c r="G215">
-        <v>2925</v>
+        <v>2912</v>
       </c>
       <c r="H215">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I215">
         <v>1.36</v>
@@ -9283,77 +9282,77 @@
         <v>1.43</v>
       </c>
       <c r="K215">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="L215">
         <v>1.22</v>
       </c>
       <c r="M215">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="1">
+      <c r="A216" s="3">
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3375</v>
+        <v>3387</v>
       </c>
       <c r="C216">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="D216">
-        <v>3522</v>
+        <v>3513</v>
       </c>
       <c r="E216">
-        <v>2987</v>
+        <v>3000</v>
       </c>
       <c r="F216">
-        <v>2862</v>
+        <v>2877</v>
       </c>
       <c r="G216">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="H216">
         <v>1.38</v>
       </c>
       <c r="I216">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J216">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="K216">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="L216">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M216">
         <v>1.3</v>
       </c>
     </row>
     <row r="217" spans="1:13">
-      <c r="A217" s="1">
+      <c r="A217" s="3">
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3343</v>
+        <v>3354</v>
       </c>
       <c r="C217">
-        <v>3148</v>
+        <v>3192</v>
       </c>
       <c r="D217">
-        <v>3543</v>
+        <v>3512</v>
       </c>
       <c r="E217">
-        <v>3128</v>
+        <v>3144</v>
       </c>
       <c r="F217">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="G217">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="H217">
         <v>1.35</v>
@@ -9365,7 +9364,7 @@
         <v>1.39</v>
       </c>
       <c r="K217">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L217">
         <v>1.29</v>
@@ -9375,26 +9374,26 @@
       </c>
     </row>
     <row r="218" spans="1:13">
-      <c r="A218" s="1">
+      <c r="A218" s="3">
         <v>44108</v>
       </c>
       <c r="B218">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="C218">
-        <v>3319</v>
+        <v>3312</v>
       </c>
       <c r="D218">
-        <v>3626</v>
+        <v>3605</v>
       </c>
       <c r="E218">
-        <v>3295</v>
+        <v>3307</v>
       </c>
       <c r="F218">
-        <v>3140</v>
+        <v>3158</v>
       </c>
       <c r="G218">
-        <v>3448</v>
+        <v>3441</v>
       </c>
       <c r="H218">
         <v>1.3</v>
@@ -9409,33 +9408,33 @@
         <v>1.36</v>
       </c>
       <c r="L218">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M218">
         <v>1.39</v>
       </c>
     </row>
     <row r="219" spans="1:13">
-      <c r="A219" s="1">
+      <c r="A219" s="3">
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4670</v>
+        <v>4690</v>
       </c>
       <c r="C219">
-        <v>4373</v>
+        <v>4484</v>
       </c>
       <c r="D219">
-        <v>4992</v>
+        <v>4957</v>
       </c>
       <c r="E219">
-        <v>3715</v>
+        <v>3726</v>
       </c>
       <c r="F219">
-        <v>3519</v>
+        <v>3555</v>
       </c>
       <c r="G219">
-        <v>3921</v>
+        <v>3897</v>
       </c>
       <c r="H219">
         <v>1.32</v>
@@ -9450,33 +9449,33 @@
         <v>1.38</v>
       </c>
       <c r="L219">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M219">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="220" spans="1:13">
-      <c r="A220" s="1">
+      <c r="A220" s="3">
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4770</v>
+        <v>4768</v>
       </c>
       <c r="C220">
-        <v>4464</v>
+        <v>4495</v>
       </c>
       <c r="D220">
-        <v>5100</v>
+        <v>5024</v>
       </c>
       <c r="E220">
-        <v>4064</v>
+        <v>4071</v>
       </c>
       <c r="F220">
-        <v>3826</v>
+        <v>3871</v>
       </c>
       <c r="G220">
-        <v>4315</v>
+        <v>4274</v>
       </c>
       <c r="H220">
         <v>1.36</v>
@@ -9485,7 +9484,7 @@
         <v>1.31</v>
       </c>
       <c r="J220">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="K220">
         <v>1.38</v>
@@ -9494,367 +9493,449 @@
         <v>1.35</v>
       </c>
       <c r="M220">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="1">
+      <c r="A221" s="3">
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4867</v>
+        <v>4895</v>
       </c>
       <c r="C221">
-        <v>4423</v>
+        <v>4541</v>
       </c>
       <c r="D221">
-        <v>5320</v>
+        <v>5205</v>
       </c>
       <c r="E221">
-        <v>4445</v>
+        <v>4456</v>
       </c>
       <c r="F221">
-        <v>4145</v>
+        <v>4208</v>
       </c>
       <c r="G221">
-        <v>4760</v>
+        <v>4698</v>
       </c>
       <c r="H221">
         <v>1.42</v>
       </c>
       <c r="I221">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J221">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="K221">
         <v>1.37</v>
       </c>
       <c r="L221">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M221">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="1">
+      <c r="A222" s="3">
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>4918</v>
+        <v>4926</v>
       </c>
       <c r="C222">
-        <v>4347</v>
+        <v>4569</v>
       </c>
       <c r="D222">
-        <v>5460</v>
+        <v>5247</v>
       </c>
       <c r="E222">
-        <v>4806</v>
+        <v>4820</v>
       </c>
       <c r="F222">
-        <v>4402</v>
+        <v>4522</v>
       </c>
       <c r="G222">
-        <v>5218</v>
+        <v>5108</v>
       </c>
       <c r="H222">
         <v>1.46</v>
       </c>
       <c r="I222">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J222">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="K222">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="L222">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M222">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="223" spans="1:13">
-      <c r="A223" s="1">
+      <c r="A223" s="3">
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5273</v>
+        <v>5286</v>
       </c>
       <c r="C223">
-        <v>4461</v>
+        <v>4783</v>
       </c>
       <c r="D223">
-        <v>6084</v>
+        <v>5774</v>
       </c>
       <c r="E223">
-        <v>4957</v>
+        <v>4969</v>
       </c>
       <c r="F223">
-        <v>4424</v>
+        <v>4597</v>
       </c>
       <c r="G223">
-        <v>5491</v>
+        <v>5313</v>
       </c>
       <c r="H223">
         <v>1.33</v>
       </c>
       <c r="I223">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="J223">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="K223">
         <v>1.3</v>
       </c>
       <c r="L223">
+        <v>1.27</v>
+      </c>
+      <c r="M223">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="3">
+        <v>44114</v>
+      </c>
+      <c r="B224">
+        <v>5172</v>
+      </c>
+      <c r="C224">
+        <v>4640</v>
+      </c>
+      <c r="D224">
+        <v>5786</v>
+      </c>
+      <c r="E224">
+        <v>5069</v>
+      </c>
+      <c r="F224">
+        <v>4633</v>
+      </c>
+      <c r="G224">
+        <v>5503</v>
+      </c>
+      <c r="H224">
         <v>1.25</v>
       </c>
-      <c r="M223">
+      <c r="I224">
+        <v>1.18</v>
+      </c>
+      <c r="J224">
+        <v>1.31</v>
+      </c>
+      <c r="K224">
+        <v>1.28</v>
+      </c>
+      <c r="L224">
+        <v>1.23</v>
+      </c>
+      <c r="M224">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="3">
+        <v>44115</v>
+      </c>
+      <c r="B225">
+        <v>5461</v>
+      </c>
+      <c r="C225">
+        <v>4675</v>
+      </c>
+      <c r="D225">
+        <v>6168</v>
+      </c>
+      <c r="E225">
+        <v>5211</v>
+      </c>
+      <c r="F225">
+        <v>4667</v>
+      </c>
+      <c r="G225">
+        <v>5744</v>
+      </c>
+      <c r="H225">
+        <v>1.17</v>
+      </c>
+      <c r="I225">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J225">
+        <v>1.24</v>
+      </c>
+      <c r="K225">
+        <v>1.27</v>
+      </c>
+      <c r="L225">
+        <v>1.23</v>
+      </c>
+      <c r="M225">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B226">
+        <v>7066</v>
+      </c>
+      <c r="C226">
+        <v>6119</v>
+      </c>
+      <c r="D226">
+        <v>8127</v>
+      </c>
+      <c r="E226">
+        <v>5746</v>
+      </c>
+      <c r="F226">
+        <v>5054</v>
+      </c>
+      <c r="G226">
+        <v>6464</v>
+      </c>
+      <c r="H226">
+        <v>1.19</v>
+      </c>
+      <c r="I226">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J226">
+        <v>1.28</v>
+      </c>
+      <c r="K226">
+        <v>1.27</v>
+      </c>
+      <c r="L226">
+        <v>1.21</v>
+      </c>
+      <c r="M226">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="3">
+        <v>44117</v>
+      </c>
+      <c r="B227">
+        <v>7173</v>
+      </c>
+      <c r="C227">
+        <v>6045</v>
+      </c>
+      <c r="D227">
+        <v>8481</v>
+      </c>
+      <c r="E227">
+        <v>6218</v>
+      </c>
+      <c r="F227">
+        <v>5370</v>
+      </c>
+      <c r="G227">
+        <v>7140</v>
+      </c>
+      <c r="H227">
+        <v>1.25</v>
+      </c>
+      <c r="I227">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J227">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="1">
-        <v>44114</v>
-      </c>
-      <c r="B224">
-        <v>5113</v>
-      </c>
-      <c r="C224">
-        <v>4318</v>
-      </c>
-      <c r="D224">
-        <v>5817</v>
-      </c>
-      <c r="E224">
-        <v>5043</v>
-      </c>
-      <c r="F224">
-        <v>4387</v>
-      </c>
-      <c r="G224">
-        <v>5670</v>
-      </c>
-      <c r="H224">
+      <c r="K227">
+        <v>1.28</v>
+      </c>
+      <c r="L227">
+        <v>1.2</v>
+      </c>
+      <c r="M227">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="3">
+        <v>44118</v>
+      </c>
+      <c r="B228">
+        <v>7411</v>
+      </c>
+      <c r="C228">
+        <v>5577</v>
+      </c>
+      <c r="D228">
+        <v>8865</v>
+      </c>
+      <c r="E228">
+        <v>6778</v>
+      </c>
+      <c r="F228">
+        <v>5604</v>
+      </c>
+      <c r="G228">
+        <v>7910</v>
+      </c>
+      <c r="H228">
+        <v>1.34</v>
+      </c>
+      <c r="I228">
+        <v>1.19</v>
+      </c>
+      <c r="J228">
+        <v>1.48</v>
+      </c>
+      <c r="K228">
+        <v>1.27</v>
+      </c>
+      <c r="L228">
+        <v>1.19</v>
+      </c>
+      <c r="M228">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="3">
+        <v>44119</v>
+      </c>
+      <c r="B229">
+        <v>7200</v>
+      </c>
+      <c r="C229">
+        <v>5253</v>
+      </c>
+      <c r="D229">
+        <v>9670</v>
+      </c>
+      <c r="E229">
+        <v>7212</v>
+      </c>
+      <c r="F229">
+        <v>5748</v>
+      </c>
+      <c r="G229">
+        <v>8786</v>
+      </c>
+      <c r="H229">
+        <v>1.38</v>
+      </c>
+      <c r="I229">
         <v>1.24</v>
       </c>
-      <c r="I224">
+      <c r="J229">
+        <v>1.56</v>
+      </c>
+      <c r="K229">
+        <v>1.23</v>
+      </c>
+      <c r="L229">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J224">
-        <v>1.34</v>
-      </c>
-      <c r="K224">
-        <v>1.27</v>
-      </c>
-      <c r="L224">
-        <v>1.21</v>
-      </c>
-      <c r="M224">
+      <c r="M229">
         <v>1.33</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="1">
-        <v>44115</v>
-      </c>
-      <c r="B225">
-        <v>5327</v>
-      </c>
-      <c r="C225">
-        <v>4333</v>
-      </c>
-      <c r="D225">
-        <v>6213</v>
-      </c>
-      <c r="E225">
-        <v>5158</v>
-      </c>
-      <c r="F225">
-        <v>4365</v>
-      </c>
-      <c r="G225">
-        <v>5893</v>
-      </c>
-      <c r="H225">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I225">
+    <row r="230" spans="1:13">
+      <c r="A230" s="3">
+        <v>44120</v>
+      </c>
+      <c r="B230">
+        <v>6737</v>
+      </c>
+      <c r="C230">
+        <v>4527</v>
+      </c>
+      <c r="D230">
+        <v>8647</v>
+      </c>
+      <c r="E230">
+        <v>7130</v>
+      </c>
+      <c r="F230">
+        <v>5351</v>
+      </c>
+      <c r="G230">
+        <v>8916</v>
+      </c>
+      <c r="H230">
+        <v>1.24</v>
+      </c>
+      <c r="I230">
+        <v>1.07</v>
+      </c>
+      <c r="J230">
+        <v>1.42</v>
+      </c>
+      <c r="K230">
+        <v>1.17</v>
+      </c>
+      <c r="L230">
         <v>1.06</v>
       </c>
-      <c r="J225">
-        <v>1.27</v>
-      </c>
-      <c r="K225">
-        <v>1.26</v>
-      </c>
-      <c r="L225">
-        <v>1.19</v>
-      </c>
-      <c r="M225">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="1">
-        <v>44116</v>
-      </c>
-      <c r="B226">
-        <v>6763</v>
-      </c>
-      <c r="C226">
-        <v>5267</v>
-      </c>
-      <c r="D226">
-        <v>8363</v>
-      </c>
-      <c r="E226">
-        <v>5619</v>
-      </c>
-      <c r="F226">
-        <v>4595</v>
-      </c>
-      <c r="G226">
-        <v>6619</v>
-      </c>
-      <c r="H226">
-        <v>1.17</v>
-      </c>
-      <c r="I226">
-        <v>1.06</v>
-      </c>
-      <c r="J226">
-        <v>1.3</v>
-      </c>
-      <c r="K226">
-        <v>1.25</v>
-      </c>
-      <c r="L226">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M226">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="1">
-        <v>44117</v>
-      </c>
-      <c r="B227">
-        <v>7001</v>
-      </c>
-      <c r="C227">
-        <v>4396</v>
-      </c>
-      <c r="D227">
-        <v>9536</v>
-      </c>
-      <c r="E227">
-        <v>6051</v>
-      </c>
-      <c r="F227">
-        <v>4578</v>
-      </c>
-      <c r="G227">
-        <v>7482</v>
-      </c>
-      <c r="H227">
-        <v>1.22</v>
-      </c>
-      <c r="I227">
-        <v>1.06</v>
-      </c>
-      <c r="J227">
-        <v>1.38</v>
-      </c>
-      <c r="K227">
-        <v>1.25</v>
-      </c>
-      <c r="L227">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M227">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="1">
-        <v>44118</v>
-      </c>
-      <c r="B228">
-        <v>7064</v>
-      </c>
-      <c r="C228">
-        <v>4616</v>
-      </c>
-      <c r="D228">
-        <v>9569</v>
-      </c>
-      <c r="E228">
-        <v>6539</v>
-      </c>
-      <c r="F228">
-        <v>4653</v>
-      </c>
-      <c r="G228">
-        <v>8420</v>
-      </c>
-      <c r="H228">
-        <v>1.3</v>
-      </c>
-      <c r="I228">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J228">
-        <v>1.49</v>
-      </c>
-      <c r="K228">
-        <v>1.25</v>
-      </c>
-      <c r="L228">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M228">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="1">
-        <v>44119</v>
-      </c>
-      <c r="B229">
-        <v>7036</v>
-      </c>
-      <c r="C229">
-        <v>4352</v>
-      </c>
-      <c r="D229">
-        <v>9812</v>
-      </c>
-      <c r="E229">
-        <v>6966</v>
-      </c>
-      <c r="F229">
-        <v>4658</v>
-      </c>
-      <c r="G229">
-        <v>9320</v>
-      </c>
-      <c r="H229">
-        <v>1.35</v>
-      </c>
-      <c r="I229">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J229">
-        <v>1.64</v>
+      <c r="M230">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="3">
+        <v>44121</v>
+      </c>
+      <c r="B231">
+        <v>5642</v>
+      </c>
+      <c r="C231">
+        <v>3356</v>
+      </c>
+      <c r="D231">
+        <v>7926</v>
+      </c>
+      <c r="E231">
+        <v>6748</v>
+      </c>
+      <c r="F231">
+        <v>4678</v>
+      </c>
+      <c r="G231">
+        <v>8777</v>
+      </c>
+      <c r="H231">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I231">
+        <v>0.92</v>
+      </c>
+      <c r="J231">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-05\Nowcast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A9289-8C82-405F-8670-72E6A317B38D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -26,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 21.10.2020, 00:00 Uhr</t>
+    <t>Datenstand: 05.11.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -35,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 21.10.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 05.11.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -92,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -126,13 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -143,14 +148,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,44 +166,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -223,14 +231,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -258,9 +283,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -269,176 +311,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -536,19 +554,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226:A231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="13" width="19.7109375" customWidth="1"/>
+    <col min="1" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="90">
+    <row r="1" spans="1:13" ht="103.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,13 +612,13 @@
         <v>43892</v>
       </c>
       <c r="B2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2">
         <v>290</v>
       </c>
       <c r="D2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>225</v>
@@ -609,7 +627,7 @@
         <v>213</v>
       </c>
       <c r="G2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -620,10 +638,10 @@
         <v>321</v>
       </c>
       <c r="C3">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E3">
         <v>261</v>
@@ -632,7 +650,7 @@
         <v>247</v>
       </c>
       <c r="G3">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -643,10 +661,10 @@
         <v>449</v>
       </c>
       <c r="C4">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D4">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E4">
         <v>326</v>
@@ -655,7 +673,7 @@
         <v>310</v>
       </c>
       <c r="G4">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -663,22 +681,22 @@
         <v>43895</v>
       </c>
       <c r="B5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C5">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D5">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E5">
         <v>395</v>
       </c>
       <c r="F5">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G5">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,22 +704,22 @@
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C6">
         <v>731</v>
       </c>
       <c r="D6">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E6">
         <v>508</v>
       </c>
       <c r="F6">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G6">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
@@ -727,31 +745,31 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C7">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D7">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E7">
         <v>674</v>
       </c>
       <c r="F7">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G7">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H7">
         <v>2.58</v>
       </c>
       <c r="I7">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="K7">
         <v>2.56</v>
@@ -760,7 +778,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="M7">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -768,22 +786,22 @@
         <v>43898</v>
       </c>
       <c r="B8">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C8">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D8">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E8">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F8">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G8">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H8">
         <v>2.75</v>
@@ -792,7 +810,7 @@
         <v>2.67</v>
       </c>
       <c r="J8">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="K8">
         <v>2.93</v>
@@ -809,19 +827,19 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C9">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="D9">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="E9">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F9">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="G9">
         <v>1306</v>
@@ -830,7 +848,7 @@
         <v>3.23</v>
       </c>
       <c r="I9">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="J9">
         <v>3.32</v>
@@ -839,7 +857,7 @@
         <v>3.13</v>
       </c>
       <c r="L9">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="M9">
         <v>3.18</v>
@@ -850,28 +868,28 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="C10">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="D10">
-        <v>2611</v>
+        <v>2620</v>
       </c>
       <c r="E10">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="F10">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="G10">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="J10">
         <v>3.48</v>
@@ -894,19 +912,19 @@
         <v>3236</v>
       </c>
       <c r="C11">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D11">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E11">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="F11">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="G11">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="H11">
         <v>3.4</v>
@@ -932,28 +950,28 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C12">
-        <v>3548</v>
+        <v>3556</v>
       </c>
       <c r="D12">
-        <v>3659</v>
+        <v>3651</v>
       </c>
       <c r="E12">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="F12">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="G12">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="H12">
         <v>3.19</v>
       </c>
       <c r="I12">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="J12">
         <v>3.24</v>
@@ -973,19 +991,19 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4363</v>
+        <v>4357</v>
       </c>
       <c r="C13">
         <v>4303</v>
       </c>
       <c r="D13">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="E13">
         <v>3441</v>
       </c>
       <c r="F13">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="G13">
         <v>3492</v>
@@ -1014,22 +1032,22 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4435</v>
+        <v>4437</v>
       </c>
       <c r="C14">
-        <v>4378</v>
+        <v>4391</v>
       </c>
       <c r="D14">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="E14">
         <v>3908</v>
       </c>
       <c r="F14">
-        <v>3853</v>
+        <v>3858</v>
       </c>
       <c r="G14">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
@@ -1055,19 +1073,19 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="C15">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="D15">
-        <v>4740</v>
+        <v>4747</v>
       </c>
       <c r="E15">
         <v>4269</v>
       </c>
       <c r="F15">
-        <v>4213</v>
+        <v>4218</v>
       </c>
       <c r="G15">
         <v>4325</v>
@@ -1079,7 +1097,7 @@
         <v>1.84</v>
       </c>
       <c r="J15">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="K15">
         <v>1.99</v>
@@ -1099,19 +1117,19 @@
         <v>6019</v>
       </c>
       <c r="C16">
-        <v>5960</v>
+        <v>5955</v>
       </c>
       <c r="D16">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="E16">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="F16">
-        <v>4816</v>
+        <v>4817</v>
       </c>
       <c r="G16">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1120,7 +1138,7 @@
         <v>1.69</v>
       </c>
       <c r="J16">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K16">
         <v>1.74</v>
@@ -1137,28 +1155,28 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5229</v>
+        <v>5235</v>
       </c>
       <c r="C17">
-        <v>5158</v>
+        <v>5178</v>
       </c>
       <c r="D17">
         <v>5307</v>
       </c>
       <c r="E17">
-        <v>5090</v>
+        <v>5093</v>
       </c>
       <c r="F17">
-        <v>5030</v>
+        <v>5036</v>
       </c>
       <c r="G17">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="H17">
         <v>1.48</v>
       </c>
       <c r="I17">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J17">
         <v>1.49</v>
@@ -1178,28 +1196,28 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5290</v>
+        <v>5286</v>
       </c>
       <c r="C18">
         <v>5218</v>
       </c>
       <c r="D18">
-        <v>5342</v>
+        <v>5351</v>
       </c>
       <c r="E18">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="F18">
-        <v>5240</v>
+        <v>5243</v>
       </c>
       <c r="G18">
-        <v>5367</v>
+        <v>5372</v>
       </c>
       <c r="H18">
         <v>1.36</v>
       </c>
       <c r="I18">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J18">
         <v>1.37</v>
@@ -1219,28 +1237,28 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4728</v>
+        <v>4726</v>
       </c>
       <c r="C19">
-        <v>4672</v>
+        <v>4663</v>
       </c>
       <c r="D19">
-        <v>4778</v>
+        <v>4787</v>
       </c>
       <c r="E19">
-        <v>5316</v>
+        <v>5317</v>
       </c>
       <c r="F19">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="G19">
-        <v>5377</v>
+        <v>5382</v>
       </c>
       <c r="H19">
         <v>1.25</v>
       </c>
       <c r="I19">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J19">
         <v>1.26</v>
@@ -1260,22 +1278,22 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5328</v>
+        <v>5325</v>
       </c>
       <c r="C20">
-        <v>5266</v>
+        <v>5270</v>
       </c>
       <c r="D20">
-        <v>5386</v>
+        <v>5378</v>
       </c>
       <c r="E20">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="F20">
-        <v>5078</v>
+        <v>5082</v>
       </c>
       <c r="G20">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="H20">
         <v>1.06</v>
@@ -1284,7 +1302,7 @@
         <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K20">
         <v>1.1299999999999999</v>
@@ -1301,22 +1319,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="C21">
-        <v>4382</v>
+        <v>4389</v>
       </c>
       <c r="D21">
-        <v>4507</v>
+        <v>4493</v>
       </c>
       <c r="E21">
-        <v>4947</v>
+        <v>4945</v>
       </c>
       <c r="F21">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="G21">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1342,28 +1360,28 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3812</v>
+        <v>3808</v>
       </c>
       <c r="C22">
-        <v>3756</v>
+        <v>3741</v>
       </c>
       <c r="D22">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="E22">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="F22">
-        <v>4519</v>
+        <v>4516</v>
       </c>
       <c r="G22">
-        <v>4634</v>
+        <v>4631</v>
       </c>
       <c r="H22">
         <v>0.86</v>
       </c>
       <c r="I22">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J22">
         <v>0.87</v>
@@ -1383,22 +1401,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="C23">
-        <v>5093</v>
+        <v>5099</v>
       </c>
       <c r="D23">
-        <v>5214</v>
+        <v>5210</v>
       </c>
       <c r="E23">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="F23">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="G23">
-        <v>4743</v>
+        <v>4737</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1424,22 +1442,22 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="C24">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="D24">
-        <v>4133</v>
+        <v>4146</v>
       </c>
       <c r="E24">
         <v>4369</v>
       </c>
       <c r="F24">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="G24">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1465,22 +1483,22 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="C25">
         <v>4360</v>
       </c>
       <c r="D25">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="E25">
         <v>4363</v>
       </c>
       <c r="F25">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="G25">
-        <v>4425</v>
+        <v>4427</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1506,22 +1524,22 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="C26">
         <v>3936</v>
       </c>
       <c r="D26">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="E26">
         <v>4409</v>
       </c>
       <c r="F26">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="G26">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="H26">
         <v>0.96</v>
@@ -1547,22 +1565,22 @@
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="C27">
-        <v>4060</v>
+        <v>4077</v>
       </c>
       <c r="D27">
-        <v>4174</v>
+        <v>4182</v>
       </c>
       <c r="E27">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="F27">
-        <v>4090</v>
+        <v>4094</v>
       </c>
       <c r="G27">
-        <v>4212</v>
+        <v>4217</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1588,19 +1606,19 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3888</v>
+        <v>3890</v>
       </c>
       <c r="C28">
-        <v>3826</v>
+        <v>3838</v>
       </c>
       <c r="D28">
-        <v>3953</v>
+        <v>3946</v>
       </c>
       <c r="E28">
         <v>4106</v>
       </c>
       <c r="F28">
-        <v>4045</v>
+        <v>4053</v>
       </c>
       <c r="G28">
         <v>4167</v>
@@ -1629,22 +1647,22 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="C29">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="D29">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="E29">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="F29">
-        <v>3754</v>
+        <v>3762</v>
       </c>
       <c r="G29">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="H29">
         <v>0.87</v>
@@ -1670,22 +1688,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4390</v>
+        <v>4392</v>
       </c>
       <c r="C30">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="D30">
-        <v>4443</v>
+        <v>4454</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3853</v>
+        <v>3863</v>
       </c>
       <c r="G30">
-        <v>3974</v>
+        <v>3977</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1711,22 +1729,22 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="C31">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="D31">
-        <v>3645</v>
+        <v>3640</v>
       </c>
       <c r="E31">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="F31">
-        <v>3718</v>
+        <v>3722</v>
       </c>
       <c r="G31">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1752,10 +1770,10 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4037</v>
+        <v>4039</v>
       </c>
       <c r="C32">
-        <v>3975</v>
+        <v>3978</v>
       </c>
       <c r="D32">
         <v>4095</v>
@@ -1764,7 +1782,7 @@
         <v>3817</v>
       </c>
       <c r="F32">
-        <v>3755</v>
+        <v>3757</v>
       </c>
       <c r="G32">
         <v>3878</v>
@@ -1793,19 +1811,19 @@
         <v>43923</v>
       </c>
       <c r="B33">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="C33">
-        <v>3665</v>
+        <v>3667</v>
       </c>
       <c r="D33">
-        <v>3792</v>
+        <v>3787</v>
       </c>
       <c r="E33">
         <v>3934</v>
       </c>
       <c r="F33">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="G33">
         <v>3994</v>
@@ -1834,22 +1852,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3728</v>
+        <v>3723</v>
       </c>
       <c r="C34">
-        <v>3671</v>
+        <v>3663</v>
       </c>
       <c r="D34">
-        <v>3788</v>
+        <v>3781</v>
       </c>
       <c r="E34">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="F34">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="G34">
-        <v>3830</v>
+        <v>3825</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1878,19 +1896,19 @@
         <v>3007</v>
       </c>
       <c r="C35">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="D35">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="E35">
         <v>3625</v>
       </c>
       <c r="F35">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="G35">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1916,22 +1934,22 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="C36">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="D36">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="E36">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="F36">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="G36">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1957,22 +1975,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="C37">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D37">
-        <v>3406</v>
+        <v>3412</v>
       </c>
       <c r="E37">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="F37">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="G37">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -1998,22 +2016,22 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3049</v>
+        <v>3058</v>
       </c>
       <c r="C38">
-        <v>2991</v>
+        <v>3003</v>
       </c>
       <c r="D38">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="E38">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="F38">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="G38">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2039,22 +2057,22 @@
         <v>43929</v>
       </c>
       <c r="B39">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C39">
         <v>2820</v>
       </c>
       <c r="D39">
-        <v>2930</v>
+        <v>2924</v>
       </c>
       <c r="E39">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="F39">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="G39">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="H39">
         <v>0.83</v>
@@ -2083,16 +2101,16 @@
         <v>2689</v>
       </c>
       <c r="C40">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="D40">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="E40">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="F40">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="G40">
         <v>3049</v>
@@ -2121,34 +2139,34 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="C41">
-        <v>2277</v>
+        <v>2259</v>
       </c>
       <c r="D41">
-        <v>2365</v>
+        <v>2373</v>
       </c>
       <c r="E41">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="F41">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="G41">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="H41">
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.87</v>
       </c>
       <c r="K41">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2162,22 +2180,22 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C42">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D42">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="E42">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="F42">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="G42">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2203,22 +2221,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="C43">
-        <v>1896</v>
+        <v>1907</v>
       </c>
       <c r="D43">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="E43">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="F43">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="G43">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2230,7 +2248,7 @@
         <v>0.76</v>
       </c>
       <c r="K43">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L43">
         <v>0.78</v>
@@ -2244,22 +2262,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C44">
-        <v>1855</v>
+        <v>1837</v>
       </c>
       <c r="D44">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="E44">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="F44">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="G44">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2285,22 +2303,22 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C45">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="D45">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="E45">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="F45">
         <v>1902</v>
       </c>
       <c r="G45">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2326,13 +2344,13 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="C46">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D46">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E46">
         <v>1930</v>
@@ -2341,7 +2359,7 @@
         <v>1884</v>
       </c>
       <c r="G46">
-        <v>1976</v>
+        <v>1982</v>
       </c>
       <c r="H46">
         <v>0.78</v>
@@ -2350,7 +2368,7 @@
         <v>0.77</v>
       </c>
       <c r="J46">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K46">
         <v>0.76</v>
@@ -2367,22 +2385,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="C47">
-        <v>1695</v>
+        <v>1711</v>
       </c>
       <c r="D47">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="E47">
         <v>1879</v>
       </c>
       <c r="F47">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G47">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2408,28 +2426,28 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C48">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="D48">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="E48">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F48">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="G48">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="H48">
         <v>0.89</v>
       </c>
       <c r="I48">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J48">
         <v>0.91</v>
@@ -2449,22 +2467,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="C49">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="D49">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E49">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="F49">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G49">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2473,7 +2491,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2482,7 +2500,7 @@
         <v>0.8</v>
       </c>
       <c r="M49">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2493,22 +2511,22 @@
         <v>1307</v>
       </c>
       <c r="C50">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="D50">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E50">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F50">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="G50">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I50">
         <v>0.78</v>
@@ -2534,19 +2552,19 @@
         <v>1575</v>
       </c>
       <c r="C51">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D51">
-        <v>1616</v>
+        <v>1623</v>
       </c>
       <c r="E51">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="F51">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="G51">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H51">
         <v>0.79</v>
@@ -2572,22 +2590,22 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C52">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D52">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="E52">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F52">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G52">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2613,22 +2631,22 @@
         <v>43943</v>
       </c>
       <c r="B53">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C53">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="D53">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="E53">
         <v>1382</v>
       </c>
       <c r="F53">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G53">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2654,28 +2672,28 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C54">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="D54">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E54">
         <v>1372</v>
       </c>
       <c r="F54">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="G54">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="H54">
         <v>0.89</v>
       </c>
       <c r="I54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J54">
         <v>0.91</v>
@@ -2695,22 +2713,22 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="C55">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="D55">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="E55">
         <v>1265</v>
       </c>
       <c r="F55">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G55">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2736,22 +2754,22 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C56">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D56">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E56">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F56">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G56">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="H56">
         <v>0.83</v>
@@ -2763,10 +2781,10 @@
         <v>0.85</v>
       </c>
       <c r="K56">
+        <v>0.83</v>
+      </c>
+      <c r="L56">
         <v>0.82</v>
-      </c>
-      <c r="L56">
-        <v>0.81</v>
       </c>
       <c r="M56">
         <v>0.84</v>
@@ -2777,22 +2795,22 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C57">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D57">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E57">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F57">
         <v>1042</v>
       </c>
       <c r="G57">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H57">
         <v>0.78</v>
@@ -2821,19 +2839,19 @@
         <v>1100</v>
       </c>
       <c r="C58">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D58">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E58">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F58">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="G58">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H58">
         <v>0.76</v>
@@ -2842,7 +2860,7 @@
         <v>0.74</v>
       </c>
       <c r="J58">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -2859,22 +2877,22 @@
         <v>43949</v>
       </c>
       <c r="B59">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C59">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D59">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E59">
         <v>988</v>
       </c>
       <c r="F59">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="G59">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2903,19 +2921,19 @@
         <v>864</v>
       </c>
       <c r="C60">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D60">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E60">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F60">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G60">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2944,19 +2962,19 @@
         <v>939</v>
       </c>
       <c r="C61">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D61">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E61">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F61">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G61">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H61">
         <v>0.89</v>
@@ -2985,16 +3003,16 @@
         <v>816</v>
       </c>
       <c r="C62">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D62">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E62">
         <v>891</v>
       </c>
       <c r="F62">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G62">
         <v>927</v>
@@ -3003,7 +3021,7 @@
         <v>0.86</v>
       </c>
       <c r="I62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J62">
         <v>0.88</v>
@@ -3015,7 +3033,7 @@
         <v>0.81</v>
       </c>
       <c r="M62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3029,7 +3047,7 @@
         <v>711</v>
       </c>
       <c r="D63">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E63">
         <v>840</v>
@@ -3038,13 +3056,13 @@
         <v>806</v>
       </c>
       <c r="G63">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H63">
         <v>0.85</v>
       </c>
       <c r="I63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J63">
         <v>0.87</v>
@@ -3056,7 +3074,7 @@
         <v>0.84</v>
       </c>
       <c r="M63">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3064,31 +3082,31 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C64">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D64">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E64">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F64">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G64">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="H64">
         <v>0.85</v>
       </c>
       <c r="I64">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K64">
         <v>0.86</v>
@@ -3105,22 +3123,22 @@
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C65">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="D65">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E65">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F65">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G65">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3129,7 +3147,7 @@
         <v>0.81</v>
       </c>
       <c r="J65">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K65">
         <v>0.89</v>
@@ -3146,22 +3164,22 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C66">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D66">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E66">
         <v>801</v>
       </c>
       <c r="F66">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G66">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H66">
         <v>0.9</v>
@@ -3170,7 +3188,7 @@
         <v>0.87</v>
       </c>
       <c r="J66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K66">
         <v>0.9</v>
@@ -3187,22 +3205,22 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C67">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D67">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E67">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F67">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G67">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H67">
         <v>0.95</v>
@@ -3228,13 +3246,13 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C68">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="D68">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E68">
         <v>789</v>
@@ -3243,7 +3261,7 @@
         <v>755</v>
       </c>
       <c r="G68">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H68">
         <v>0.97</v>
@@ -3269,31 +3287,31 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C69">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D69">
+        <v>710</v>
+      </c>
+      <c r="E69">
+        <v>737</v>
+      </c>
+      <c r="F69">
         <v>706</v>
       </c>
-      <c r="E69">
-        <v>736</v>
-      </c>
-      <c r="F69">
-        <v>702</v>
-      </c>
       <c r="G69">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H69">
         <v>0.92</v>
       </c>
       <c r="I69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J69">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="K69">
         <v>0.89</v>
@@ -3310,25 +3328,25 @@
         <v>43960</v>
       </c>
       <c r="B70">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C70">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D70">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E70">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F70">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G70">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I70">
         <v>0.82</v>
@@ -3343,7 +3361,7 @@
         <v>0.86</v>
       </c>
       <c r="M70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3351,22 +3369,22 @@
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C71">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D71">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E71">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F71">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G71">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3392,22 +3410,22 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C72">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D72">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="E72">
         <v>620</v>
       </c>
       <c r="F72">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G72">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3433,28 +3451,28 @@
         <v>43963</v>
       </c>
       <c r="B73">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C73">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D73">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E73">
         <v>606</v>
       </c>
       <c r="F73">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G73">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H73">
         <v>0.82</v>
       </c>
       <c r="I73">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J73">
         <v>0.85</v>
@@ -3463,10 +3481,10 @@
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3474,22 +3492,22 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C74">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D74">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E74">
         <v>607</v>
       </c>
       <c r="F74">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G74">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H74">
         <v>0.9</v>
@@ -3507,7 +3525,7 @@
         <v>0.83</v>
       </c>
       <c r="M74">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3515,22 +3533,22 @@
         <v>43965</v>
       </c>
       <c r="B75">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C75">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D75">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E75">
         <v>600</v>
       </c>
       <c r="F75">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G75">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H75">
         <v>0.95</v>
@@ -3548,7 +3566,7 @@
         <v>0.87</v>
       </c>
       <c r="M75">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3556,13 +3574,13 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C76">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D76">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E76">
         <v>603</v>
@@ -3571,7 +3589,7 @@
         <v>572</v>
       </c>
       <c r="G76">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3586,7 +3604,7 @@
         <v>0.92</v>
       </c>
       <c r="L76">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M76">
         <v>0.94</v>
@@ -3597,16 +3615,16 @@
         <v>43967</v>
       </c>
       <c r="B77">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C77">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D77">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E77">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F77">
         <v>558</v>
@@ -3618,10 +3636,10 @@
         <v>0.97</v>
       </c>
       <c r="I77">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K77">
         <v>0.93</v>
@@ -3638,22 +3656,22 @@
         <v>43968</v>
       </c>
       <c r="B78">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C78">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D78">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E78">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F78">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G78">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H78">
         <v>0.91</v>
@@ -3671,7 +3689,7 @@
         <v>0.94</v>
       </c>
       <c r="M78">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3682,10 +3700,10 @@
         <v>616</v>
       </c>
       <c r="C79">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D79">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E79">
         <v>574</v>
@@ -3694,7 +3712,7 @@
         <v>545</v>
       </c>
       <c r="G79">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H79">
         <v>0.96</v>
@@ -3720,22 +3738,22 @@
         <v>43970</v>
       </c>
       <c r="B80">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C80">
         <v>441</v>
       </c>
       <c r="D80">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E80">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F80">
         <v>493</v>
       </c>
       <c r="G80">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H80">
         <v>0.86</v>
@@ -3753,7 +3771,7 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3761,22 +3779,22 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C81">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D81">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E81">
         <v>522</v>
       </c>
       <c r="F81">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G81">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H81">
         <v>0.89</v>
@@ -3802,22 +3820,22 @@
         <v>43972</v>
       </c>
       <c r="B82">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C82">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D82">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E82">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F82">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G82">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H82">
         <v>0.92</v>
@@ -3832,7 +3850,7 @@
         <v>0.85</v>
       </c>
       <c r="L82">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M82">
         <v>0.86</v>
@@ -3846,19 +3864,19 @@
         <v>386</v>
       </c>
       <c r="C83">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D83">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E83">
         <v>451</v>
       </c>
       <c r="F83">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G83">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H83">
         <v>0.79</v>
@@ -3867,13 +3885,13 @@
         <v>0.76</v>
       </c>
       <c r="J83">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="K83">
         <v>0.83</v>
       </c>
       <c r="L83">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="M83">
         <v>0.85</v>
@@ -3887,28 +3905,28 @@
         <v>365</v>
       </c>
       <c r="C84">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D84">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E84">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F84">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G84">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H84">
         <v>0.82</v>
       </c>
       <c r="I84">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J84">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K84">
         <v>0.82</v>
@@ -3917,7 +3935,7 @@
         <v>0.8</v>
       </c>
       <c r="M84">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3928,25 +3946,25 @@
         <v>373</v>
       </c>
       <c r="C85">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E85">
         <v>378</v>
       </c>
       <c r="F85">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G85">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H85">
         <v>0.72</v>
       </c>
       <c r="I85">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="J85">
         <v>0.75</v>
@@ -3955,7 +3973,7 @@
         <v>0.81</v>
       </c>
       <c r="L85">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="M85">
         <v>0.83</v>
@@ -3966,22 +3984,22 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C86">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D86">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E86">
         <v>397</v>
       </c>
       <c r="F86">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G86">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H86">
         <v>0.78</v>
@@ -4010,19 +4028,19 @@
         <v>434</v>
       </c>
       <c r="C87">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D87">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G87">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H87">
         <v>0.91</v>
@@ -4031,7 +4049,7 @@
         <v>0.87</v>
       </c>
       <c r="J87">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K87">
         <v>0.89</v>
@@ -4048,28 +4066,28 @@
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C88">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D88">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E88">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F88">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G88">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H88">
         <v>1.01</v>
       </c>
       <c r="I88">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J88">
         <v>1.06</v>
@@ -4089,13 +4107,13 @@
         <v>43979</v>
       </c>
       <c r="B89">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C89">
         <v>356</v>
       </c>
       <c r="D89">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E89">
         <v>433</v>
@@ -4104,25 +4122,25 @@
         <v>408</v>
       </c>
       <c r="G89">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H89">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I89">
         <v>1.1000000000000001</v>
       </c>
       <c r="J89">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K89">
         <v>0.94</v>
       </c>
       <c r="L89">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M89">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4130,13 +4148,13 @@
         <v>43980</v>
       </c>
       <c r="B90">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C90">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D90">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E90">
         <v>403</v>
@@ -4145,7 +4163,7 @@
         <v>379</v>
       </c>
       <c r="G90">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H90">
         <v>1.02</v>
@@ -4174,10 +4192,10 @@
         <v>291</v>
       </c>
       <c r="C91">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D91">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E91">
         <v>368</v>
@@ -4186,7 +4204,7 @@
         <v>344</v>
       </c>
       <c r="G91">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H91">
         <v>0.9</v>
@@ -4218,7 +4236,7 @@
         <v>249</v>
       </c>
       <c r="D92">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E92">
         <v>321</v>
@@ -4227,10 +4245,10 @@
         <v>299</v>
       </c>
       <c r="G92">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H92">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I92">
         <v>0.71</v>
@@ -4256,19 +4274,19 @@
         <v>328</v>
       </c>
       <c r="C93">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D93">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E93">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F93">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G93">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4277,7 +4295,7 @@
         <v>0.68</v>
       </c>
       <c r="J93">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K93">
         <v>0.89</v>
@@ -4297,19 +4315,19 @@
         <v>437</v>
       </c>
       <c r="C94">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D94">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E94">
         <v>331</v>
       </c>
       <c r="F94">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G94">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H94">
         <v>0.82</v>
@@ -4318,7 +4336,7 @@
         <v>0.79</v>
       </c>
       <c r="J94">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K94">
         <v>0.89</v>
@@ -4327,7 +4345,7 @@
         <v>0.87</v>
       </c>
       <c r="M94">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4338,22 +4356,22 @@
         <v>400</v>
       </c>
       <c r="C95">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D95">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E95">
         <v>358</v>
       </c>
       <c r="F95">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G95">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H95">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I95">
         <v>0.93</v>
@@ -4362,13 +4380,13 @@
         <v>1.02</v>
       </c>
       <c r="K95">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L95">
         <v>0.89</v>
       </c>
       <c r="M95">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4376,31 +4394,31 @@
         <v>43986</v>
       </c>
       <c r="B96">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C96">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D96">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G96">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H96">
         <v>1.17</v>
       </c>
       <c r="I96">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J96">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K96">
         <v>0.95</v>
@@ -4417,31 +4435,31 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C97">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D97">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E97">
         <v>375</v>
       </c>
       <c r="F97">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G97">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H97">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I97">
         <v>1.1499999999999999</v>
       </c>
       <c r="J97">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K97">
         <v>0.96</v>
@@ -4458,22 +4476,22 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C98">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D98">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E98">
         <v>341</v>
       </c>
       <c r="F98">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G98">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H98">
         <v>1.03</v>
@@ -4502,28 +4520,28 @@
         <v>235</v>
       </c>
       <c r="C99">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D99">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E99">
         <v>300</v>
       </c>
       <c r="F99">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G99">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H99">
         <v>0.84</v>
       </c>
       <c r="I99">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J99">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K99">
         <v>1.01</v>
@@ -4543,7 +4561,7 @@
         <v>411</v>
       </c>
       <c r="C100">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D100">
         <v>436</v>
@@ -4555,13 +4573,13 @@
         <v>296</v>
       </c>
       <c r="G100">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H100">
         <v>0.84</v>
       </c>
       <c r="I100">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="J100">
         <v>0.88</v>
@@ -4573,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4581,22 +4599,22 @@
         <v>43991</v>
       </c>
       <c r="B101">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C101">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D101">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E101">
         <v>348</v>
       </c>
       <c r="F101">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G101">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H101">
         <v>0.93</v>
@@ -4614,7 +4632,7 @@
         <v>1.01</v>
       </c>
       <c r="M101">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4622,37 +4640,37 @@
         <v>43992</v>
       </c>
       <c r="B102">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C102">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D102">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E102">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F102">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G102">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H102">
         <v>1.1200000000000001</v>
       </c>
       <c r="I102">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J102">
         <v>1.17</v>
       </c>
       <c r="K102">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="L102">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M102">
         <v>1.0900000000000001</v>
@@ -4663,25 +4681,25 @@
         <v>43993</v>
       </c>
       <c r="B103">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C103">
         <v>345</v>
       </c>
       <c r="D103">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E103">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F103">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G103">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H103">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I103">
         <v>1.32</v>
@@ -4707,34 +4725,34 @@
         <v>373</v>
       </c>
       <c r="C104">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D104">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E104">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F104">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G104">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H104">
         <v>1.28</v>
       </c>
       <c r="I104">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J104">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K104">
         <v>1.07</v>
       </c>
       <c r="L104">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M104">
         <v>1.1000000000000001</v>
@@ -4745,31 +4763,31 @@
         <v>43995</v>
       </c>
       <c r="B105">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C105">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D105">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E105">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F105">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G105">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H105">
         <v>1.1100000000000001</v>
       </c>
       <c r="I105">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J105">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K105">
         <v>1.1100000000000001</v>
@@ -4786,22 +4804,22 @@
         <v>43996</v>
       </c>
       <c r="B106">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C106">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D106">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E106">
         <v>367</v>
       </c>
       <c r="F106">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G106">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H106">
         <v>0.96</v>
@@ -4810,7 +4828,7 @@
         <v>0.92</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K106">
         <v>1.19</v>
@@ -4830,19 +4848,19 @@
         <v>644</v>
       </c>
       <c r="C107">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D107">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E107">
         <v>435</v>
       </c>
       <c r="F107">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G107">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H107">
         <v>1.05</v>
@@ -4851,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="J107">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K107">
         <v>1.42</v>
@@ -4860,7 +4878,7 @@
         <v>1.39</v>
       </c>
       <c r="M107">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4868,22 +4886,22 @@
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C108">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D108">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="E108">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F108">
         <v>591</v>
       </c>
       <c r="G108">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="H108">
         <v>1.53</v>
@@ -4892,16 +4910,16 @@
         <v>1.47</v>
       </c>
       <c r="J108">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="K108">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="L108">
         <v>1.44</v>
       </c>
       <c r="M108">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4909,28 +4927,28 @@
         <v>43999</v>
       </c>
       <c r="B109">
+        <v>663</v>
+      </c>
+      <c r="C109">
+        <v>628</v>
+      </c>
+      <c r="D109">
+        <v>694</v>
+      </c>
+      <c r="E109">
+        <v>695</v>
+      </c>
+      <c r="F109">
         <v>661</v>
       </c>
-      <c r="C109">
-        <v>630</v>
-      </c>
-      <c r="D109">
-        <v>701</v>
-      </c>
-      <c r="E109">
-        <v>694</v>
-      </c>
-      <c r="F109">
-        <v>663</v>
-      </c>
       <c r="G109">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H109">
         <v>1.8</v>
       </c>
       <c r="I109">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="J109">
         <v>1.87</v>
@@ -4939,10 +4957,10 @@
         <v>1.47</v>
       </c>
       <c r="L109">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M109">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4950,37 +4968,37 @@
         <v>44000</v>
       </c>
       <c r="B110">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C110">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D110">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E110">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F110">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G110">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H110">
         <v>2.0099999999999998</v>
       </c>
       <c r="I110">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J110">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="K110">
         <v>1.42</v>
       </c>
       <c r="L110">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M110">
         <v>1.45</v>
@@ -4991,28 +5009,28 @@
         <v>44001</v>
       </c>
       <c r="B111">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C111">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D111">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E111">
         <v>720</v>
       </c>
       <c r="F111">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G111">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H111">
         <v>1.65</v>
       </c>
       <c r="I111">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J111">
         <v>1.72</v>
@@ -5032,22 +5050,22 @@
         <v>44002</v>
       </c>
       <c r="B112">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C112">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D112">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E112">
         <v>559</v>
       </c>
       <c r="F112">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G112">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H112">
         <v>0.9</v>
@@ -5056,7 +5074,7 @@
         <v>0.87</v>
       </c>
       <c r="J112">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K112">
         <v>1.1200000000000001</v>
@@ -5076,19 +5094,19 @@
         <v>368</v>
       </c>
       <c r="C113">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D113">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E113">
         <v>485</v>
       </c>
       <c r="F113">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G113">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H113">
         <v>0.7</v>
@@ -5097,10 +5115,10 @@
         <v>0.67</v>
       </c>
       <c r="J113">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="K113">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L113">
         <v>1.02</v>
@@ -5117,19 +5135,19 @@
         <v>475</v>
       </c>
       <c r="C114">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D114">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E114">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F114">
         <v>442</v>
       </c>
       <c r="G114">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H114">
         <v>0.64</v>
@@ -5155,28 +5173,28 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C115">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D115">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E115">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F115">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G115">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H115">
         <v>0.61</v>
       </c>
       <c r="I115">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="J115">
         <v>0.63</v>
@@ -5196,28 +5214,28 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C116">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D116">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E116">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F116">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G116">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H116">
         <v>0.78</v>
       </c>
       <c r="I116">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J116">
         <v>0.81</v>
@@ -5240,19 +5258,19 @@
         <v>406</v>
       </c>
       <c r="C117">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D117">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E117">
         <v>445</v>
       </c>
       <c r="F117">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G117">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H117">
         <v>0.92</v>
@@ -5261,7 +5279,7 @@
         <v>0.88</v>
       </c>
       <c r="J117">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5278,40 +5296,40 @@
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C118">
+        <v>405</v>
+      </c>
+      <c r="D118">
+        <v>459</v>
+      </c>
+      <c r="E118">
+        <v>434</v>
+      </c>
+      <c r="F118">
         <v>406</v>
       </c>
-      <c r="D118">
-        <v>464</v>
-      </c>
-      <c r="E118">
-        <v>435</v>
-      </c>
-      <c r="F118">
-        <v>408</v>
-      </c>
       <c r="G118">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J118">
         <v>0.97</v>
       </c>
       <c r="K118">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L118">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M118">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5319,28 +5337,28 @@
         <v>44009</v>
       </c>
       <c r="B119">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D119">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E119">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F119">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G119">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H119">
         <v>0.95</v>
       </c>
       <c r="I119">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J119">
         <v>0.99</v>
@@ -5360,22 +5378,22 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C120">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D120">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E120">
         <v>376</v>
       </c>
       <c r="F120">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G120">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H120">
         <v>0.86</v>
@@ -5401,22 +5419,22 @@
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C121">
         <v>398</v>
       </c>
       <c r="D121">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E121">
         <v>380</v>
       </c>
       <c r="F121">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G121">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H121">
         <v>0.85</v>
@@ -5425,7 +5443,7 @@
         <v>0.82</v>
       </c>
       <c r="J121">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K121">
         <v>0.93</v>
@@ -5442,22 +5460,22 @@
         <v>44012</v>
       </c>
       <c r="B122">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C122">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D122">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E122">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F122">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G122">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H122">
         <v>0.88</v>
@@ -5466,7 +5484,7 @@
         <v>0.84</v>
       </c>
       <c r="J122">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K122">
         <v>0.94</v>
@@ -5483,22 +5501,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C123">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D123">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E123">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F123">
         <v>370</v>
       </c>
       <c r="G123">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5507,7 +5525,7 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K123">
         <v>0.94</v>
@@ -5524,31 +5542,31 @@
         <v>44014</v>
       </c>
       <c r="B124">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D124">
         <v>361</v>
       </c>
       <c r="E124">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F124">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G124">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H124">
         <v>1.06</v>
       </c>
       <c r="I124">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J124">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K124">
         <v>0.92</v>
@@ -5557,7 +5575,7 @@
         <v>0.9</v>
       </c>
       <c r="M124">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5565,22 +5583,22 @@
         <v>44015</v>
       </c>
       <c r="B125">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C125">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D125">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E125">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F125">
         <v>358</v>
       </c>
       <c r="G125">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5589,7 +5607,7 @@
         <v>0.96</v>
       </c>
       <c r="J125">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K125">
         <v>0.9</v>
@@ -5606,22 +5624,22 @@
         <v>44016</v>
       </c>
       <c r="B126">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C126">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D126">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E126">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F126">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5630,13 +5648,13 @@
         <v>0.87</v>
       </c>
       <c r="J126">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K126">
         <v>0.92</v>
       </c>
       <c r="L126">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M126">
         <v>0.94</v>
@@ -5647,13 +5665,13 @@
         <v>44017</v>
       </c>
       <c r="B127">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C127">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D127">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E127">
         <v>319</v>
@@ -5668,7 +5686,7 @@
         <v>0.81</v>
       </c>
       <c r="I127">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J127">
         <v>0.85</v>
@@ -5680,7 +5698,7 @@
         <v>0.9</v>
       </c>
       <c r="M127">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5688,13 +5706,13 @@
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C128">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D128">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E128">
         <v>328</v>
@@ -5703,13 +5721,13 @@
         <v>306</v>
       </c>
       <c r="G128">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H128">
         <v>0.82</v>
       </c>
       <c r="I128">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J128">
         <v>0.86</v>
@@ -5729,28 +5747,28 @@
         <v>44019</v>
       </c>
       <c r="B129">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C129">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D129">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E129">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F129">
         <v>313</v>
       </c>
       <c r="G129">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H129">
         <v>0.88</v>
       </c>
       <c r="I129">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J129">
         <v>0.92</v>
@@ -5770,13 +5788,13 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C130">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D130">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E130">
         <v>350</v>
@@ -5785,22 +5803,22 @@
         <v>327</v>
       </c>
       <c r="G130">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H130">
         <v>1.01</v>
       </c>
       <c r="I130">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J130">
         <v>1.06</v>
       </c>
       <c r="K130">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L130">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M130">
         <v>0.98</v>
@@ -5814,19 +5832,19 @@
         <v>376</v>
       </c>
       <c r="C131">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D131">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E131">
         <v>371</v>
       </c>
       <c r="F131">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G131">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H131">
         <v>1.1599999999999999</v>
@@ -5852,31 +5870,31 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C132">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D132">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E132">
         <v>384</v>
       </c>
       <c r="F132">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G132">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H132">
         <v>1.17</v>
       </c>
       <c r="I132">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J132">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="K132">
         <v>1.07</v>
@@ -5893,13 +5911,13 @@
         <v>44023</v>
       </c>
       <c r="B133">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C133">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D133">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E133">
         <v>387</v>
@@ -5908,16 +5926,16 @@
         <v>363</v>
       </c>
       <c r="G133">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H133">
         <v>1.1599999999999999</v>
       </c>
       <c r="I133">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J133">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K133">
         <v>1.1200000000000001</v>
@@ -5926,7 +5944,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M133">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5937,16 +5955,16 @@
         <v>362</v>
       </c>
       <c r="C134">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D134">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E134">
         <v>388</v>
       </c>
       <c r="F134">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G134">
         <v>413</v>
@@ -5967,7 +5985,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M134">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5975,19 +5993,19 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C135">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D135">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E135">
         <v>430</v>
       </c>
       <c r="F135">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G135">
         <v>456</v>
@@ -6008,7 +6026,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M135">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6019,28 +6037,28 @@
         <v>514</v>
       </c>
       <c r="C136">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D136">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E136">
         <v>451</v>
       </c>
       <c r="F136">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G136">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H136">
         <v>1.17</v>
       </c>
       <c r="I136">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J136">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K136">
         <v>1.22</v>
@@ -6057,25 +6075,25 @@
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C137">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D137">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E137">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G137">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H137">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I137">
         <v>1.23</v>
@@ -6084,7 +6102,7 @@
         <v>1.33</v>
       </c>
       <c r="K137">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="L137">
         <v>1.2</v>
@@ -6101,34 +6119,34 @@
         <v>471</v>
       </c>
       <c r="C138">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D138">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E138">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F138">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G138">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H138">
         <v>1.34</v>
       </c>
       <c r="I138">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J138">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="K138">
         <v>1.19</v>
       </c>
       <c r="L138">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="M138">
         <v>1.21</v>
@@ -6139,13 +6157,13 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C139">
         <v>507</v>
       </c>
       <c r="D139">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E139">
         <v>518</v>
@@ -6154,13 +6172,13 @@
         <v>492</v>
       </c>
       <c r="G139">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H139">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="I139">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J139">
         <v>1.26</v>
@@ -6169,7 +6187,7 @@
         <v>1.17</v>
       </c>
       <c r="L139">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M139">
         <v>1.19</v>
@@ -6180,37 +6198,37 @@
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C140">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D140">
         <v>517</v>
       </c>
       <c r="E140">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F140">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G140">
         <v>541</v>
       </c>
       <c r="H140">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I140">
         <v>1.0900000000000001</v>
       </c>
       <c r="J140">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K140">
         <v>1.1399999999999999</v>
       </c>
       <c r="L140">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M140">
         <v>1.17</v>
@@ -6224,16 +6242,16 @@
         <v>517</v>
       </c>
       <c r="C141">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D141">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E141">
         <v>502</v>
       </c>
       <c r="F141">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G141">
         <v>532</v>
@@ -6245,10 +6263,10 @@
         <v>0.98</v>
       </c>
       <c r="J141">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K141">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L141">
         <v>1.1299999999999999</v>
@@ -6262,28 +6280,28 @@
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C142">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D142">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E142">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F142">
         <v>530</v>
       </c>
       <c r="G142">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H142">
         <v>1.07</v>
       </c>
       <c r="I142">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J142">
         <v>1.1100000000000001</v>
@@ -6303,13 +6321,13 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C143">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D143">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E143">
         <v>599</v>
@@ -6318,19 +6336,19 @@
         <v>571</v>
       </c>
       <c r="G143">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H143">
         <v>1.1599999999999999</v>
       </c>
       <c r="I143">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J143">
         <v>1.2</v>
       </c>
       <c r="K143">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="L143">
         <v>1.17</v>
@@ -6344,19 +6362,19 @@
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C144">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D144">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E144">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F144">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G144">
         <v>694</v>
@@ -6365,7 +6383,7 @@
         <v>1.29</v>
       </c>
       <c r="I144">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J144">
         <v>1.34</v>
@@ -6377,7 +6395,7 @@
         <v>1.18</v>
       </c>
       <c r="M144">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6388,25 +6406,25 @@
         <v>686</v>
       </c>
       <c r="C145">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D145">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E145">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F145">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G145">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H145">
         <v>1.4</v>
       </c>
       <c r="I145">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J145">
         <v>1.45</v>
@@ -6415,7 +6433,7 @@
         <v>1.2</v>
       </c>
       <c r="L145">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M145">
         <v>1.22</v>
@@ -6426,25 +6444,25 @@
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C146">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D146">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E146">
         <v>705</v>
       </c>
       <c r="F146">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G146">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H146">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I146">
         <v>1.23</v>
@@ -6456,10 +6474,10 @@
         <v>1.17</v>
       </c>
       <c r="L146">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M146">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6467,22 +6485,22 @@
         <v>44037</v>
       </c>
       <c r="B147">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C147">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D147">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E147">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F147">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G147">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
@@ -6491,7 +6509,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J147">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K147">
         <v>1.1399999999999999</v>
@@ -6508,22 +6526,22 @@
         <v>44038</v>
       </c>
       <c r="B148">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C148">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D148">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E148">
         <v>650</v>
       </c>
       <c r="F148">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G148">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H148">
         <v>0.98</v>
@@ -6538,7 +6556,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L148">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M148">
         <v>1.1399999999999999</v>
@@ -6549,22 +6567,22 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C149">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D149">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E149">
         <v>683</v>
       </c>
       <c r="F149">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G149">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H149">
         <v>0.97</v>
@@ -6590,13 +6608,13 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C150">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D150">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E150">
         <v>702</v>
@@ -6605,7 +6623,7 @@
         <v>667</v>
       </c>
       <c r="G150">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6634,25 +6652,25 @@
         <v>743</v>
       </c>
       <c r="C151">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D151">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E151">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F151">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G151">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H151">
         <v>1.07</v>
       </c>
       <c r="I151">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J151">
         <v>1.1100000000000001</v>
@@ -6672,22 +6690,22 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C152">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D152">
         <v>799</v>
       </c>
       <c r="E152">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F152">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G152">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6713,22 +6731,22 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C153">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D153">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="E153">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F153">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G153">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
@@ -6737,13 +6755,13 @@
         <v>1.08</v>
       </c>
       <c r="J153">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K153">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="L153">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M153">
         <v>1.0900000000000001</v>
@@ -6754,22 +6772,22 @@
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C154">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D154">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E154">
         <v>776</v>
       </c>
       <c r="F154">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G154">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H154">
         <v>1.1100000000000001</v>
@@ -6778,7 +6796,7 @@
         <v>1.07</v>
       </c>
       <c r="J154">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K154">
         <v>1.1299999999999999</v>
@@ -6787,7 +6805,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M154">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6795,13 +6813,13 @@
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C155">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D155">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E155">
         <v>815</v>
@@ -6836,22 +6854,22 @@
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C156">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D156">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E156">
         <v>895</v>
       </c>
       <c r="F156">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G156">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
@@ -6877,22 +6895,22 @@
         <v>44047</v>
       </c>
       <c r="B157">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C157">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="D157">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E157">
         <v>945</v>
       </c>
       <c r="F157">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G157">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H157">
         <v>1.24</v>
@@ -6901,7 +6919,7 @@
         <v>1.2</v>
       </c>
       <c r="J157">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K157">
         <v>1.19</v>
@@ -6918,28 +6936,28 @@
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C158">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D158">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E158">
         <v>986</v>
       </c>
       <c r="F158">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G158">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="H158">
         <v>1.27</v>
       </c>
       <c r="I158">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J158">
         <v>1.31</v>
@@ -6959,10 +6977,10 @@
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C159">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D159">
         <v>1047</v>
@@ -6971,28 +6989,28 @@
         <v>1011</v>
       </c>
       <c r="F159">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G159">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H159">
         <v>1.24</v>
       </c>
       <c r="I159">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="J159">
         <v>1.28</v>
       </c>
       <c r="K159">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L159">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M159">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7000,19 +7018,19 @@
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C160">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D160">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="E160">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F160">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G160">
         <v>1049</v>
@@ -7021,7 +7039,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="I160">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J160">
         <v>1.1599999999999999</v>
@@ -7030,10 +7048,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L160">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7044,10 +7062,10 @@
         <v>1006</v>
       </c>
       <c r="C161">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D161">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="E161">
         <v>1011</v>
@@ -7056,16 +7074,16 @@
         <v>965</v>
       </c>
       <c r="G161">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="H161">
         <v>1.07</v>
       </c>
       <c r="I161">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J161">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K161">
         <v>1.1299999999999999</v>
@@ -7082,19 +7100,19 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C162">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D162">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E162">
         <v>1025</v>
       </c>
       <c r="F162">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G162">
         <v>1070</v>
@@ -7123,22 +7141,22 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="C163">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="D163">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="E163">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F163">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="G163">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H163">
         <v>1.1100000000000001</v>
@@ -7147,7 +7165,7 @@
         <v>1.08</v>
       </c>
       <c r="J163">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K163">
         <v>1.1499999999999999</v>
@@ -7156,7 +7174,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M163">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7164,19 +7182,19 @@
         <v>44054</v>
       </c>
       <c r="B164">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C164">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D164">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E164">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F164">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G164">
         <v>1241</v>
@@ -7185,16 +7203,16 @@
         <v>1.19</v>
       </c>
       <c r="I164">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J164">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K164">
         <v>1.1599999999999999</v>
       </c>
       <c r="L164">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M164">
         <v>1.18</v>
@@ -7205,19 +7223,19 @@
         <v>44055</v>
       </c>
       <c r="B165">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C165">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D165">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E165">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F165">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="G165">
         <v>1322</v>
@@ -7229,7 +7247,7 @@
         <v>1.22</v>
       </c>
       <c r="J165">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K165">
         <v>1.19</v>
@@ -7249,16 +7267,16 @@
         <v>1347</v>
       </c>
       <c r="C166">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D166">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="E166">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F166">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="G166">
         <v>1401</v>
@@ -7276,7 +7294,7 @@
         <v>1.17</v>
       </c>
       <c r="L166">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M166">
         <v>1.19</v>
@@ -7287,22 +7305,22 @@
         <v>44057</v>
       </c>
       <c r="B167">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C167">
         <v>1257</v>
       </c>
       <c r="D167">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="E167">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F167">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G167">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="H167">
         <v>1.18</v>
@@ -7311,7 +7329,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J167">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K167">
         <v>1.1499999999999999</v>
@@ -7320,7 +7338,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M167">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7328,22 +7346,22 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C168">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D168">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="E168">
         <v>1299</v>
       </c>
       <c r="F168">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="G168">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7369,28 +7387,28 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C169">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D169">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="E169">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F169">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="G169">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="H169">
         <v>0.99</v>
       </c>
       <c r="I169">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J169">
         <v>1.02</v>
@@ -7410,22 +7428,22 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C170">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="D170">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="E170">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F170">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G170">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="H170">
         <v>0.95</v>
@@ -7451,22 +7469,22 @@
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C171">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D171">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E171">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F171">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G171">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="H171">
         <v>0.99</v>
@@ -7481,10 +7499,10 @@
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M171">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7492,22 +7510,22 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="C172">
         <v>1242</v>
       </c>
       <c r="D172">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E172">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F172">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G172">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="H172">
         <v>1.03</v>
@@ -7522,7 +7540,7 @@
         <v>0.99</v>
       </c>
       <c r="L172">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M172">
         <v>1.01</v>
@@ -7533,22 +7551,22 @@
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C173">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D173">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="E173">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F173">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G173">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="H173">
         <v>1.05</v>
@@ -7574,28 +7592,28 @@
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C174">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="D174">
-        <v>1216</v>
+        <v>1197</v>
       </c>
       <c r="E174">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F174">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="G174">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="H174">
         <v>0.99</v>
       </c>
       <c r="I174">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J174">
         <v>1.01</v>
@@ -7615,22 +7633,22 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C175">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="D175">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E175">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F175">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G175">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="H175">
         <v>0.89</v>
@@ -7645,7 +7663,7 @@
         <v>0.95</v>
       </c>
       <c r="L175">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M175">
         <v>0.96</v>
@@ -7656,25 +7674,25 @@
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C176">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="D176">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="E176">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F176">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G176">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H176">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I176">
         <v>0.83</v>
@@ -7697,34 +7715,34 @@
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C177">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="D177">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E177">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F177">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="G177">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="H177">
         <v>0.92</v>
       </c>
       <c r="I177">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J177">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="K177">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L177">
         <v>0.96</v>
@@ -7738,22 +7756,22 @@
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1323</v>
+        <v>1341</v>
       </c>
       <c r="C178">
-        <v>1272</v>
+        <v>1293</v>
       </c>
       <c r="D178">
-        <v>1372</v>
+        <v>1394</v>
       </c>
       <c r="E178">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="F178">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="G178">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -7779,37 +7797,37 @@
         <v>44069</v>
       </c>
       <c r="B179">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C179">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="D179">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E179">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="F179">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G179">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="H179">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I179">
         <v>1.06</v>
       </c>
       <c r="J179">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K179">
         <v>0.99</v>
       </c>
       <c r="L179">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M179">
         <v>1</v>
@@ -7820,22 +7838,22 @@
         <v>44070</v>
       </c>
       <c r="B180">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="C180">
-        <v>1167</v>
+        <v>1184</v>
       </c>
       <c r="D180">
         <v>1275</v>
       </c>
       <c r="E180">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="F180">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="G180">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="H180">
         <v>1.1399999999999999</v>
@@ -7844,7 +7862,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J180">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K180">
         <v>0.98</v>
@@ -7867,31 +7885,31 @@
         <v>1086</v>
       </c>
       <c r="D181">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E181">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="F181">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="G181">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I181">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J181">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K181">
         <v>0.98</v>
       </c>
       <c r="L181">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M181">
         <v>0.99</v>
@@ -7905,31 +7923,31 @@
         <v>963</v>
       </c>
       <c r="C182">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D182">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E182">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F182">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="G182">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="H182">
         <v>0.9</v>
       </c>
       <c r="I182">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J182">
         <v>0.92</v>
       </c>
       <c r="K182">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L182">
         <v>0.96</v>
@@ -7943,25 +7961,25 @@
         <v>44073</v>
       </c>
       <c r="B183">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C183">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D183">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E183">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F183">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="G183">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H183">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I183">
         <v>0.82</v>
@@ -7987,25 +8005,25 @@
         <v>1356</v>
       </c>
       <c r="C184">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="D184">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="E184">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F184">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G184">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="H184">
         <v>0.86</v>
       </c>
       <c r="I184">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J184">
         <v>0.88</v>
@@ -8025,22 +8043,22 @@
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1468</v>
+        <v>1477</v>
       </c>
       <c r="C185">
-        <v>1416</v>
+        <v>1433</v>
       </c>
       <c r="D185">
-        <v>1521</v>
+        <v>1533</v>
       </c>
       <c r="E185">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="F185">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G185">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="H185">
         <v>0.98</v>
@@ -8052,7 +8070,7 @@
         <v>1.01</v>
       </c>
       <c r="K185">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>0.99</v>
@@ -8066,22 +8084,22 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C186">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D186">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="E186">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="F186">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G186">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="H186">
         <v>1.1399999999999999</v>
@@ -8093,7 +8111,7 @@
         <v>1.18</v>
       </c>
       <c r="K186">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L186">
         <v>1.01</v>
@@ -8107,13 +8125,13 @@
         <v>44077</v>
       </c>
       <c r="B187">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C187">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D187">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E187">
         <v>1354</v>
@@ -8122,10 +8140,10 @@
         <v>1305</v>
       </c>
       <c r="G187">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="H187">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I187">
         <v>1.21</v>
@@ -8137,7 +8155,7 @@
         <v>1.05</v>
       </c>
       <c r="L187">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M187">
         <v>1.07</v>
@@ -8148,40 +8166,40 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C188">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D188">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E188">
         <v>1335</v>
       </c>
       <c r="F188">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="G188">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H188">
         <v>1.19</v>
       </c>
       <c r="I188">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J188">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K188">
         <v>1.06</v>
       </c>
       <c r="L188">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M188">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8189,31 +8207,31 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C189">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D189">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="E189">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F189">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="G189">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H189">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I189">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J189">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K189">
         <v>1.08</v>
@@ -8230,25 +8248,25 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C190">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="D190">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E190">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F190">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="G190">
         <v>1296</v>
       </c>
       <c r="H190">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I190">
         <v>0.94</v>
@@ -8260,7 +8278,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L190">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M190">
         <v>1.1200000000000001</v>
@@ -8271,22 +8289,22 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C191">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D191">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="E191">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="F191">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G191">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H191">
         <v>0.99</v>
@@ -8301,7 +8319,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L191">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M191">
         <v>1.1100000000000001</v>
@@ -8312,31 +8330,31 @@
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C192">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="D192">
-        <v>1651</v>
+        <v>1637</v>
       </c>
       <c r="E192">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="F192">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="G192">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H192">
         <v>1.06</v>
       </c>
       <c r="I192">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J192">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K192">
         <v>1.1000000000000001</v>
@@ -8353,28 +8371,28 @@
         <v>44083</v>
       </c>
       <c r="B193">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C193">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D193">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="E193">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="F193">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="G193">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H193">
         <v>1.21</v>
       </c>
       <c r="I193">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J193">
         <v>1.24</v>
@@ -8386,7 +8404,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M193">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8394,28 +8412,28 @@
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="C194">
-        <v>1599</v>
+        <v>1580</v>
       </c>
       <c r="D194">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="E194">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="F194">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="G194">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="H194">
         <v>1.29</v>
       </c>
       <c r="I194">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J194">
         <v>1.32</v>
@@ -8427,7 +8445,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M194">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8435,22 +8453,22 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C195">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D195">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E195">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="F195">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="G195">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8476,25 +8494,25 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="C196">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D196">
-        <v>1579</v>
+        <v>1599</v>
       </c>
       <c r="E196">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="F196">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="G196">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="H196">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I196">
         <v>1.1100000000000001</v>
@@ -8520,19 +8538,19 @@
         <v>1587</v>
       </c>
       <c r="C197">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D197">
+        <v>1637</v>
+      </c>
+      <c r="E197">
+        <v>1600</v>
+      </c>
+      <c r="F197">
+        <v>1551</v>
+      </c>
+      <c r="G197">
         <v>1654</v>
-      </c>
-      <c r="E197">
-        <v>1602</v>
-      </c>
-      <c r="F197">
-        <v>1555</v>
-      </c>
-      <c r="G197">
-        <v>1656</v>
       </c>
       <c r="H197">
         <v>1.05</v>
@@ -8550,7 +8568,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M197">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8558,22 +8576,22 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="C198">
-        <v>2080</v>
+        <v>2065</v>
       </c>
       <c r="D198">
-        <v>2189</v>
+        <v>2176</v>
       </c>
       <c r="E198">
         <v>1723</v>
       </c>
       <c r="F198">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="G198">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8599,25 +8617,25 @@
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C199">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D199">
-        <v>2034</v>
+        <v>2020</v>
       </c>
       <c r="E199">
         <v>1806</v>
       </c>
       <c r="F199">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="G199">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="H199">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I199">
         <v>1.0900000000000001</v>
@@ -8632,7 +8650,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M199">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8640,25 +8658,25 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="C200">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D200">
-        <v>1921</v>
+        <v>1927</v>
       </c>
       <c r="E200">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F200">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="G200">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="H200">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I200">
         <v>1.1499999999999999</v>
@@ -8673,7 +8691,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M200">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8681,22 +8699,22 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1727</v>
+        <v>1733</v>
       </c>
       <c r="C201">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="D201">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="E201">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="F201">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="G201">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="H201">
         <v>1.2</v>
@@ -8725,19 +8743,19 @@
         <v>1722</v>
       </c>
       <c r="C202">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D202">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="E202">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="F202">
         <v>1772</v>
       </c>
       <c r="G202">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="H202">
         <v>1.06</v>
@@ -8763,40 +8781,40 @@
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="C203">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="D203">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="E203">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F203">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="G203">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="H203">
         <v>0.95</v>
       </c>
       <c r="I203">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J203">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K203">
         <v>1.02</v>
       </c>
       <c r="L203">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M203">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8804,22 +8822,22 @@
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="C204">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="D204">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="E204">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="F204">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="G204">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="H204">
         <v>0.87</v>
@@ -8841,35 +8859,35 @@
       </c>
     </row>
     <row r="205" spans="1:13">
-      <c r="A205" s="3">
+      <c r="A205" s="1">
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2184</v>
+        <v>2175</v>
       </c>
       <c r="C205">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="D205">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="E205">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="F205">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="G205">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="H205">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I205">
         <v>0.9</v>
       </c>
       <c r="J205">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K205">
         <v>1.02</v>
@@ -8882,35 +8900,35 @@
       </c>
     </row>
     <row r="206" spans="1:13">
-      <c r="A206" s="3">
+      <c r="A206" s="1">
         <v>44096</v>
       </c>
       <c r="B206">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="C206">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="D206">
-        <v>2211</v>
+        <v>2194</v>
       </c>
       <c r="E206">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="F206">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="G206">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="H206">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I206">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J206">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K206">
         <v>1.04</v>
@@ -8923,29 +8941,29 @@
       </c>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="3">
+      <c r="A207" s="1">
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2071</v>
+        <v>2077</v>
       </c>
       <c r="C207">
+        <v>2018</v>
+      </c>
+      <c r="D207">
+        <v>2140</v>
+      </c>
+      <c r="E207">
         <v>2005</v>
       </c>
-      <c r="D207">
-        <v>2139</v>
-      </c>
-      <c r="E207">
-        <v>2009</v>
-      </c>
       <c r="F207">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="G207">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="H207">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I207">
         <v>1.1499999999999999</v>
@@ -8964,32 +8982,32 @@
       </c>
     </row>
     <row r="208" spans="1:13">
-      <c r="A208" s="3">
+      <c r="A208" s="1">
         <v>44098</v>
       </c>
       <c r="B208">
+        <v>2075</v>
+      </c>
+      <c r="C208">
+        <v>2020</v>
+      </c>
+      <c r="D208">
+        <v>2126</v>
+      </c>
+      <c r="E208">
+        <v>2114</v>
+      </c>
+      <c r="F208">
         <v>2062</v>
       </c>
-      <c r="C208">
-        <v>1992</v>
-      </c>
-      <c r="D208">
-        <v>2132</v>
-      </c>
-      <c r="E208">
-        <v>2113</v>
-      </c>
-      <c r="F208">
-        <v>2049</v>
-      </c>
       <c r="G208">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="H208">
         <v>1.28</v>
       </c>
       <c r="I208">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="J208">
         <v>1.3</v>
@@ -9005,29 +9023,29 @@
       </c>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="3">
+      <c r="A209" s="1">
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2169</v>
+        <v>2155</v>
       </c>
       <c r="C209">
-        <v>2103</v>
+        <v>2095</v>
       </c>
       <c r="D209">
-        <v>2239</v>
+        <v>2221</v>
       </c>
       <c r="E209">
         <v>2109</v>
       </c>
       <c r="F209">
-        <v>2043</v>
+        <v>2054</v>
       </c>
       <c r="G209">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="H209">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I209">
         <v>1.17</v>
@@ -9046,35 +9064,35 @@
       </c>
     </row>
     <row r="210" spans="1:13">
-      <c r="A210" s="3">
+      <c r="A210" s="1">
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="C210">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="D210">
-        <v>2002</v>
+        <v>1981</v>
       </c>
       <c r="E210">
         <v>2060</v>
       </c>
       <c r="F210">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="G210">
-        <v>2128</v>
+        <v>2117</v>
       </c>
       <c r="H210">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I210">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J210">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K210">
         <v>1.1100000000000001</v>
@@ -9083,39 +9101,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M210">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="3">
+      <c r="A211" s="1">
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1910</v>
+        <v>1885</v>
       </c>
       <c r="C211">
-        <v>1844</v>
+        <v>1827</v>
       </c>
       <c r="D211">
-        <v>1978</v>
+        <v>1943</v>
       </c>
       <c r="E211">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="F211">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="G211">
-        <v>2088</v>
+        <v>2067</v>
       </c>
       <c r="H211">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J211">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K211">
         <v>1.1200000000000001</v>
@@ -9128,35 +9146,35 @@
       </c>
     </row>
     <row r="212" spans="1:13">
-      <c r="A212" s="3">
+      <c r="A212" s="1">
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="C212">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="D212">
-        <v>2723</v>
+        <v>2718</v>
       </c>
       <c r="E212">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="F212">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="G212">
-        <v>2236</v>
+        <v>2216</v>
       </c>
       <c r="H212">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I212">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K212">
         <v>1.1299999999999999</v>
@@ -9165,71 +9183,71 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="M212">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:13">
-      <c r="A213" s="3">
+      <c r="A213" s="1">
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2778</v>
+        <v>2767</v>
       </c>
       <c r="C213">
-        <v>2678</v>
+        <v>2709</v>
       </c>
       <c r="D213">
-        <v>2863</v>
+        <v>2832</v>
       </c>
       <c r="E213">
-        <v>2321</v>
+        <v>2308</v>
       </c>
       <c r="F213">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="G213">
-        <v>2392</v>
+        <v>2368</v>
       </c>
       <c r="H213">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I213">
         <v>1.08</v>
       </c>
       <c r="J213">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K213">
         <v>1.1499999999999999</v>
       </c>
       <c r="L213">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M213">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:13">
-      <c r="A214" s="3">
+      <c r="A214" s="1">
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2819</v>
+        <v>2800</v>
       </c>
       <c r="C214">
-        <v>2702</v>
+        <v>2741</v>
       </c>
       <c r="D214">
-        <v>2926</v>
+        <v>2875</v>
       </c>
       <c r="E214">
-        <v>2541</v>
+        <v>2525</v>
       </c>
       <c r="F214">
-        <v>2452</v>
+        <v>2466</v>
       </c>
       <c r="G214">
-        <v>2623</v>
+        <v>2592</v>
       </c>
       <c r="H214">
         <v>1.23</v>
@@ -9238,7 +9256,7 @@
         <v>1.2</v>
       </c>
       <c r="J214">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K214">
         <v>1.19</v>
@@ -9247,39 +9265,39 @@
         <v>1.18</v>
       </c>
       <c r="M214">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="215" spans="1:13">
-      <c r="A215" s="3">
+      <c r="A215" s="1">
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="C215">
-        <v>2896</v>
+        <v>2941</v>
       </c>
       <c r="D215">
-        <v>3136</v>
+        <v>3099</v>
       </c>
       <c r="E215">
-        <v>2818</v>
+        <v>2807</v>
       </c>
       <c r="F215">
-        <v>2715</v>
+        <v>2745</v>
       </c>
       <c r="G215">
-        <v>2912</v>
+        <v>2881</v>
       </c>
       <c r="H215">
         <v>1.4</v>
       </c>
       <c r="I215">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J215">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="K215">
         <v>1.24</v>
@@ -9288,39 +9306,39 @@
         <v>1.22</v>
       </c>
       <c r="M215">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="3">
+      <c r="A216" s="1">
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C216">
-        <v>3233</v>
+        <v>3311</v>
       </c>
       <c r="D216">
-        <v>3513</v>
+        <v>3471</v>
       </c>
       <c r="E216">
-        <v>3000</v>
+        <v>2992</v>
       </c>
       <c r="F216">
-        <v>2877</v>
+        <v>2925</v>
       </c>
       <c r="G216">
-        <v>3109</v>
+        <v>3069</v>
       </c>
       <c r="H216">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I216">
         <v>1.36</v>
       </c>
       <c r="J216">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="K216">
         <v>1.28</v>
@@ -9329,613 +9347,1228 @@
         <v>1.26</v>
       </c>
       <c r="M216">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="217" spans="1:13">
-      <c r="A217" s="3">
+      <c r="A217" s="1">
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3354</v>
+        <v>3377</v>
       </c>
       <c r="C217">
-        <v>3192</v>
+        <v>3305</v>
       </c>
       <c r="D217">
-        <v>3512</v>
+        <v>3462</v>
       </c>
       <c r="E217">
         <v>3144</v>
       </c>
       <c r="F217">
-        <v>3006</v>
+        <v>3074</v>
       </c>
       <c r="G217">
-        <v>3272</v>
+        <v>3227</v>
       </c>
       <c r="H217">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I217">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="J217">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="K217">
         <v>1.32</v>
       </c>
       <c r="L217">
+        <v>1.31</v>
+      </c>
+      <c r="M217">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
+      <c r="A218" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B218">
+        <v>3460</v>
+      </c>
+      <c r="C218">
+        <v>3389</v>
+      </c>
+      <c r="D218">
+        <v>3529</v>
+      </c>
+      <c r="E218">
+        <v>3309</v>
+      </c>
+      <c r="F218">
+        <v>3236</v>
+      </c>
+      <c r="G218">
+        <v>3390</v>
+      </c>
+      <c r="H218">
+        <v>1.31</v>
+      </c>
+      <c r="I218">
         <v>1.29</v>
       </c>
-      <c r="M217">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="3">
-        <v>44108</v>
-      </c>
-      <c r="B218">
-        <v>3471</v>
-      </c>
-      <c r="C218">
-        <v>3312</v>
-      </c>
-      <c r="D218">
-        <v>3605</v>
-      </c>
-      <c r="E218">
-        <v>3307</v>
-      </c>
-      <c r="F218">
-        <v>3158</v>
-      </c>
-      <c r="G218">
-        <v>3441</v>
-      </c>
-      <c r="H218">
-        <v>1.3</v>
-      </c>
-      <c r="I218">
-        <v>1.26</v>
-      </c>
       <c r="J218">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K218">
+        <v>1.37</v>
+      </c>
+      <c r="L218">
         <v>1.36</v>
       </c>
-      <c r="L218">
-        <v>1.34</v>
-      </c>
       <c r="M218">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B219">
+        <v>4756</v>
+      </c>
+      <c r="C219">
+        <v>4680</v>
+      </c>
+      <c r="D219">
+        <v>4847</v>
+      </c>
+      <c r="E219">
+        <v>3745</v>
+      </c>
+      <c r="F219">
+        <v>3671</v>
+      </c>
+      <c r="G219">
+        <v>3827</v>
+      </c>
+      <c r="H219">
+        <v>1.33</v>
+      </c>
+      <c r="I219">
+        <v>1.32</v>
+      </c>
+      <c r="J219">
+        <v>1.35</v>
+      </c>
+      <c r="K219">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="3">
-        <v>44109</v>
-      </c>
-      <c r="B219">
-        <v>4690</v>
-      </c>
-      <c r="C219">
-        <v>4484</v>
-      </c>
-      <c r="D219">
-        <v>4957</v>
-      </c>
-      <c r="E219">
-        <v>3726</v>
-      </c>
-      <c r="F219">
-        <v>3555</v>
-      </c>
-      <c r="G219">
-        <v>3897</v>
-      </c>
-      <c r="H219">
-        <v>1.32</v>
-      </c>
-      <c r="I219">
-        <v>1.28</v>
-      </c>
-      <c r="J219">
-        <v>1.37</v>
-      </c>
-      <c r="K219">
+      <c r="L219">
         <v>1.38</v>
-      </c>
-      <c r="L219">
-        <v>1.35</v>
       </c>
       <c r="M219">
         <v>1.4</v>
       </c>
     </row>
     <row r="220" spans="1:13">
-      <c r="A220" s="3">
+      <c r="A220" s="1">
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4768</v>
+        <v>4814</v>
       </c>
       <c r="C220">
-        <v>4495</v>
+        <v>4691</v>
       </c>
       <c r="D220">
-        <v>5024</v>
+        <v>4933</v>
       </c>
       <c r="E220">
-        <v>4071</v>
+        <v>4102</v>
       </c>
       <c r="F220">
-        <v>3871</v>
+        <v>4016</v>
       </c>
       <c r="G220">
-        <v>4274</v>
+        <v>4193</v>
       </c>
       <c r="H220">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I220">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="J220">
+        <v>1.39</v>
+      </c>
+      <c r="K220">
         <v>1.4</v>
       </c>
-      <c r="K220">
-        <v>1.38</v>
-      </c>
       <c r="L220">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M220">
         <v>1.41</v>
       </c>
     </row>
     <row r="221" spans="1:13">
-      <c r="A221" s="3">
+      <c r="A221" s="1">
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4895</v>
+        <v>4967</v>
       </c>
       <c r="C221">
-        <v>4541</v>
+        <v>4857</v>
       </c>
       <c r="D221">
-        <v>5205</v>
+        <v>5074</v>
       </c>
       <c r="E221">
-        <v>4456</v>
+        <v>4499</v>
       </c>
       <c r="F221">
-        <v>4208</v>
+        <v>4404</v>
       </c>
       <c r="G221">
-        <v>4698</v>
+        <v>4596</v>
       </c>
       <c r="H221">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I221">
+        <v>1.41</v>
+      </c>
+      <c r="J221">
+        <v>1.45</v>
+      </c>
+      <c r="K221">
+        <v>1.39</v>
+      </c>
+      <c r="L221">
+        <v>1.38</v>
+      </c>
+      <c r="M221">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
+      <c r="A222" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B222">
+        <v>5017</v>
+      </c>
+      <c r="C222">
+        <v>4886</v>
+      </c>
+      <c r="D222">
+        <v>5129</v>
+      </c>
+      <c r="E222">
+        <v>4888</v>
+      </c>
+      <c r="F222">
+        <v>4778</v>
+      </c>
+      <c r="G222">
+        <v>4996</v>
+      </c>
+      <c r="H222">
+        <v>1.48</v>
+      </c>
+      <c r="I222">
+        <v>1.46</v>
+      </c>
+      <c r="J222">
+        <v>1.5</v>
+      </c>
+      <c r="K222">
+        <v>1.35</v>
+      </c>
+      <c r="L222">
+        <v>1.34</v>
+      </c>
+      <c r="M222">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B223">
+        <v>5411</v>
+      </c>
+      <c r="C223">
+        <v>5291</v>
+      </c>
+      <c r="D223">
+        <v>5547</v>
+      </c>
+      <c r="E223">
+        <v>5052</v>
+      </c>
+      <c r="F223">
+        <v>4931</v>
+      </c>
+      <c r="G223">
+        <v>5170</v>
+      </c>
+      <c r="H223">
+        <v>1.35</v>
+      </c>
+      <c r="I223">
+        <v>1.33</v>
+      </c>
+      <c r="J223">
         <v>1.37</v>
       </c>
-      <c r="J221">
-        <v>1.46</v>
-      </c>
-      <c r="K221">
-        <v>1.37</v>
-      </c>
-      <c r="L221">
+      <c r="K223">
+        <v>1.32</v>
+      </c>
+      <c r="L223">
+        <v>1.31</v>
+      </c>
+      <c r="M223">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B224">
+        <v>5341</v>
+      </c>
+      <c r="C224">
+        <v>5242</v>
+      </c>
+      <c r="D224">
+        <v>5437</v>
+      </c>
+      <c r="E224">
+        <v>5184</v>
+      </c>
+      <c r="F224">
+        <v>5069</v>
+      </c>
+      <c r="G224">
+        <v>5297</v>
+      </c>
+      <c r="H224">
+        <v>1.26</v>
+      </c>
+      <c r="I224">
+        <v>1.25</v>
+      </c>
+      <c r="J224">
+        <v>1.28</v>
+      </c>
+      <c r="K224">
+        <v>1.29</v>
+      </c>
+      <c r="L224">
+        <v>1.28</v>
+      </c>
+      <c r="M224">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B225">
+        <v>5559</v>
+      </c>
+      <c r="C225">
+        <v>5414</v>
+      </c>
+      <c r="D225">
+        <v>5687</v>
+      </c>
+      <c r="E225">
+        <v>5332</v>
+      </c>
+      <c r="F225">
+        <v>5208</v>
+      </c>
+      <c r="G225">
+        <v>5450</v>
+      </c>
+      <c r="H225">
+        <v>1.19</v>
+      </c>
+      <c r="I225">
+        <v>1.17</v>
+      </c>
+      <c r="J225">
+        <v>1.2</v>
+      </c>
+      <c r="K225">
+        <v>1.3</v>
+      </c>
+      <c r="L225">
+        <v>1.29</v>
+      </c>
+      <c r="M225">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B226">
+        <v>7517</v>
+      </c>
+      <c r="C226">
+        <v>7356</v>
+      </c>
+      <c r="D226">
+        <v>7668</v>
+      </c>
+      <c r="E226">
+        <v>5957</v>
+      </c>
+      <c r="F226">
+        <v>5826</v>
+      </c>
+      <c r="G226">
+        <v>6085</v>
+      </c>
+      <c r="H226">
+        <v>1.22</v>
+      </c>
+      <c r="I226">
+        <v>1.19</v>
+      </c>
+      <c r="J226">
+        <v>1.24</v>
+      </c>
+      <c r="K226">
+        <v>1.31</v>
+      </c>
+      <c r="L226">
+        <v>1.3</v>
+      </c>
+      <c r="M226">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B227">
+        <v>7937</v>
+      </c>
+      <c r="C227">
+        <v>7738</v>
+      </c>
+      <c r="D227">
+        <v>8125</v>
+      </c>
+      <c r="E227">
+        <v>6588</v>
+      </c>
+      <c r="F227">
+        <v>6437</v>
+      </c>
+      <c r="G227">
+        <v>6729</v>
+      </c>
+      <c r="H227">
+        <v>1.3</v>
+      </c>
+      <c r="I227">
+        <v>1.28</v>
+      </c>
+      <c r="J227">
+        <v>1.32</v>
+      </c>
+      <c r="K227">
         <v>1.34</v>
       </c>
-      <c r="M221">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="3">
-        <v>44112</v>
-      </c>
-      <c r="B222">
-        <v>4926</v>
-      </c>
-      <c r="C222">
-        <v>4569</v>
-      </c>
-      <c r="D222">
-        <v>5247</v>
-      </c>
-      <c r="E222">
-        <v>4820</v>
-      </c>
-      <c r="F222">
-        <v>4522</v>
-      </c>
-      <c r="G222">
-        <v>5108</v>
-      </c>
-      <c r="H222">
-        <v>1.46</v>
-      </c>
-      <c r="I222">
-        <v>1.4</v>
-      </c>
-      <c r="J222">
-        <v>1.52</v>
-      </c>
-      <c r="K222">
+      <c r="L227">
         <v>1.33</v>
-      </c>
-      <c r="L222">
-        <v>1.3</v>
-      </c>
-      <c r="M222">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="3">
-        <v>44113</v>
-      </c>
-      <c r="B223">
-        <v>5286</v>
-      </c>
-      <c r="C223">
-        <v>4783</v>
-      </c>
-      <c r="D223">
-        <v>5774</v>
-      </c>
-      <c r="E223">
-        <v>4969</v>
-      </c>
-      <c r="F223">
-        <v>4597</v>
-      </c>
-      <c r="G223">
-        <v>5313</v>
-      </c>
-      <c r="H223">
-        <v>1.33</v>
-      </c>
-      <c r="I223">
-        <v>1.28</v>
-      </c>
-      <c r="J223">
-        <v>1.39</v>
-      </c>
-      <c r="K223">
-        <v>1.3</v>
-      </c>
-      <c r="L223">
-        <v>1.27</v>
-      </c>
-      <c r="M223">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="3">
-        <v>44114</v>
-      </c>
-      <c r="B224">
-        <v>5172</v>
-      </c>
-      <c r="C224">
-        <v>4640</v>
-      </c>
-      <c r="D224">
-        <v>5786</v>
-      </c>
-      <c r="E224">
-        <v>5069</v>
-      </c>
-      <c r="F224">
-        <v>4633</v>
-      </c>
-      <c r="G224">
-        <v>5503</v>
-      </c>
-      <c r="H224">
-        <v>1.25</v>
-      </c>
-      <c r="I224">
-        <v>1.18</v>
-      </c>
-      <c r="J224">
-        <v>1.31</v>
-      </c>
-      <c r="K224">
-        <v>1.28</v>
-      </c>
-      <c r="L224">
-        <v>1.23</v>
-      </c>
-      <c r="M224">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="3">
-        <v>44115</v>
-      </c>
-      <c r="B225">
-        <v>5461</v>
-      </c>
-      <c r="C225">
-        <v>4675</v>
-      </c>
-      <c r="D225">
-        <v>6168</v>
-      </c>
-      <c r="E225">
-        <v>5211</v>
-      </c>
-      <c r="F225">
-        <v>4667</v>
-      </c>
-      <c r="G225">
-        <v>5744</v>
-      </c>
-      <c r="H225">
-        <v>1.17</v>
-      </c>
-      <c r="I225">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J225">
-        <v>1.24</v>
-      </c>
-      <c r="K225">
-        <v>1.27</v>
-      </c>
-      <c r="L225">
-        <v>1.23</v>
-      </c>
-      <c r="M225">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="3">
-        <v>44116</v>
-      </c>
-      <c r="B226">
-        <v>7066</v>
-      </c>
-      <c r="C226">
-        <v>6119</v>
-      </c>
-      <c r="D226">
-        <v>8127</v>
-      </c>
-      <c r="E226">
-        <v>5746</v>
-      </c>
-      <c r="F226">
-        <v>5054</v>
-      </c>
-      <c r="G226">
-        <v>6464</v>
-      </c>
-      <c r="H226">
-        <v>1.19</v>
-      </c>
-      <c r="I226">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J226">
-        <v>1.28</v>
-      </c>
-      <c r="K226">
-        <v>1.27</v>
-      </c>
-      <c r="L226">
-        <v>1.21</v>
-      </c>
-      <c r="M226">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="3">
-        <v>44117</v>
-      </c>
-      <c r="B227">
-        <v>7173</v>
-      </c>
-      <c r="C227">
-        <v>6045</v>
-      </c>
-      <c r="D227">
-        <v>8481</v>
-      </c>
-      <c r="E227">
-        <v>6218</v>
-      </c>
-      <c r="F227">
-        <v>5370</v>
-      </c>
-      <c r="G227">
-        <v>7140</v>
-      </c>
-      <c r="H227">
-        <v>1.25</v>
-      </c>
-      <c r="I227">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J227">
-        <v>1.36</v>
-      </c>
-      <c r="K227">
-        <v>1.28</v>
-      </c>
-      <c r="L227">
-        <v>1.2</v>
       </c>
       <c r="M227">
         <v>1.36</v>
       </c>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="3">
+      <c r="A228" s="1">
         <v>44118</v>
       </c>
       <c r="B228">
-        <v>7411</v>
+        <v>8567</v>
       </c>
       <c r="C228">
-        <v>5577</v>
+        <v>8405</v>
       </c>
       <c r="D228">
-        <v>8865</v>
+        <v>8745</v>
       </c>
       <c r="E228">
-        <v>6778</v>
+        <v>7395</v>
       </c>
       <c r="F228">
-        <v>5604</v>
+        <v>7228</v>
       </c>
       <c r="G228">
-        <v>7910</v>
+        <v>7556</v>
       </c>
       <c r="H228">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="I228">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="J228">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="K228">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="L228">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="M228">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="3">
+      <c r="A229" s="1">
         <v>44119</v>
       </c>
       <c r="B229">
-        <v>7200</v>
+        <v>8690</v>
       </c>
       <c r="C229">
-        <v>5253</v>
+        <v>8417</v>
       </c>
       <c r="D229">
-        <v>9670</v>
+        <v>8932</v>
       </c>
       <c r="E229">
-        <v>7212</v>
+        <v>8178</v>
       </c>
       <c r="F229">
-        <v>5748</v>
+        <v>7979</v>
       </c>
       <c r="G229">
-        <v>8786</v>
+        <v>8368</v>
       </c>
       <c r="H229">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="I229">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="J229">
         <v>1.56</v>
       </c>
       <c r="K229">
+        <v>1.38</v>
+      </c>
+      <c r="L229">
+        <v>1.36</v>
+      </c>
+      <c r="M229">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B230">
+        <v>9554</v>
+      </c>
+      <c r="C230">
+        <v>9288</v>
+      </c>
+      <c r="D230">
+        <v>9840</v>
+      </c>
+      <c r="E230">
+        <v>8687</v>
+      </c>
+      <c r="F230">
+        <v>8462</v>
+      </c>
+      <c r="G230">
+        <v>8911</v>
+      </c>
+      <c r="H230">
+        <v>1.46</v>
+      </c>
+      <c r="I230">
+        <v>1.43</v>
+      </c>
+      <c r="J230">
+        <v>1.49</v>
+      </c>
+      <c r="K230">
+        <v>1.37</v>
+      </c>
+      <c r="L230">
+        <v>1.35</v>
+      </c>
+      <c r="M230">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B231">
+        <v>9439</v>
+      </c>
+      <c r="C231">
+        <v>9106</v>
+      </c>
+      <c r="D231">
+        <v>9744</v>
+      </c>
+      <c r="E231">
+        <v>9063</v>
+      </c>
+      <c r="F231">
+        <v>8804</v>
+      </c>
+      <c r="G231">
+        <v>9315</v>
+      </c>
+      <c r="H231">
+        <v>1.38</v>
+      </c>
+      <c r="I231">
+        <v>1.35</v>
+      </c>
+      <c r="J231">
+        <v>1.4</v>
+      </c>
+      <c r="K231">
+        <v>1.38</v>
+      </c>
+      <c r="L231">
+        <v>1.36</v>
+      </c>
+      <c r="M231">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="A232" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B232">
+        <v>10667</v>
+      </c>
+      <c r="C232">
+        <v>10261</v>
+      </c>
+      <c r="D232">
+        <v>11065</v>
+      </c>
+      <c r="E232">
+        <v>9588</v>
+      </c>
+      <c r="F232">
+        <v>9268</v>
+      </c>
+      <c r="G232">
+        <v>9896</v>
+      </c>
+      <c r="H232">
+        <v>1.3</v>
+      </c>
+      <c r="I232">
+        <v>1.27</v>
+      </c>
+      <c r="J232">
+        <v>1.32</v>
+      </c>
+      <c r="K232">
+        <v>1.4</v>
+      </c>
+      <c r="L232">
+        <v>1.38</v>
+      </c>
+      <c r="M232">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B233">
+        <v>13897</v>
+      </c>
+      <c r="C233">
+        <v>13152</v>
+      </c>
+      <c r="D233">
+        <v>14556</v>
+      </c>
+      <c r="E233">
+        <v>10889</v>
+      </c>
+      <c r="F233">
+        <v>10452</v>
+      </c>
+      <c r="G233">
+        <v>11301</v>
+      </c>
+      <c r="H233">
+        <v>1.33</v>
+      </c>
+      <c r="I233">
+        <v>1.3</v>
+      </c>
+      <c r="J233">
+        <v>1.36</v>
+      </c>
+      <c r="K233">
+        <v>1.42</v>
+      </c>
+      <c r="L233">
+        <v>1.4</v>
+      </c>
+      <c r="M233">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B234">
+        <v>14900</v>
+      </c>
+      <c r="C234">
+        <v>14162</v>
+      </c>
+      <c r="D234">
+        <v>15681</v>
+      </c>
+      <c r="E234">
+        <v>12226</v>
+      </c>
+      <c r="F234">
+        <v>11671</v>
+      </c>
+      <c r="G234">
+        <v>12762</v>
+      </c>
+      <c r="H234">
+        <v>1.41</v>
+      </c>
+      <c r="I234">
+        <v>1.37</v>
+      </c>
+      <c r="J234">
+        <v>1.44</v>
+      </c>
+      <c r="K234">
+        <v>1.44</v>
+      </c>
+      <c r="L234">
+        <v>1.41</v>
+      </c>
+      <c r="M234">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B235">
+        <v>15383</v>
+      </c>
+      <c r="C235">
+        <v>14547</v>
+      </c>
+      <c r="D235">
+        <v>16234</v>
+      </c>
+      <c r="E235">
+        <v>13712</v>
+      </c>
+      <c r="F235">
+        <v>13031</v>
+      </c>
+      <c r="G235">
+        <v>14384</v>
+      </c>
+      <c r="H235">
+        <v>1.51</v>
+      </c>
+      <c r="I235">
+        <v>1.47</v>
+      </c>
+      <c r="J235">
+        <v>1.56</v>
+      </c>
+      <c r="K235">
+        <v>1.42</v>
+      </c>
+      <c r="L235">
+        <v>1.4</v>
+      </c>
+      <c r="M235">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B236">
+        <v>14978</v>
+      </c>
+      <c r="C236">
+        <v>13937</v>
+      </c>
+      <c r="D236">
+        <v>15884</v>
+      </c>
+      <c r="E236">
+        <v>14789</v>
+      </c>
+      <c r="F236">
+        <v>13950</v>
+      </c>
+      <c r="G236">
+        <v>15589</v>
+      </c>
+      <c r="H236">
+        <v>1.54</v>
+      </c>
+      <c r="I236">
+        <v>1.5</v>
+      </c>
+      <c r="J236">
+        <v>1.6</v>
+      </c>
+      <c r="K236">
+        <v>1.38</v>
+      </c>
+      <c r="L236">
+        <v>1.35</v>
+      </c>
+      <c r="M236">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B237">
+        <v>15733</v>
+      </c>
+      <c r="C237">
+        <v>14513</v>
+      </c>
+      <c r="D237">
+        <v>17127</v>
+      </c>
+      <c r="E237">
+        <v>15248</v>
+      </c>
+      <c r="F237">
+        <v>14290</v>
+      </c>
+      <c r="G237">
+        <v>16232</v>
+      </c>
+      <c r="H237">
+        <v>1.4</v>
+      </c>
+      <c r="I237">
+        <v>1.34</v>
+      </c>
+      <c r="J237">
+        <v>1.46</v>
+      </c>
+      <c r="K237">
+        <v>1.33</v>
+      </c>
+      <c r="L237">
+        <v>1.3</v>
+      </c>
+      <c r="M237">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B238">
+        <v>14985</v>
+      </c>
+      <c r="C238">
+        <v>13537</v>
+      </c>
+      <c r="D238">
+        <v>16356</v>
+      </c>
+      <c r="E238">
+        <v>15270</v>
+      </c>
+      <c r="F238">
+        <v>14134</v>
+      </c>
+      <c r="G238">
+        <v>16400</v>
+      </c>
+      <c r="H238">
+        <v>1.25</v>
+      </c>
+      <c r="I238">
+        <v>1.2</v>
+      </c>
+      <c r="J238">
+        <v>1.31</v>
+      </c>
+      <c r="K238">
+        <v>1.28</v>
+      </c>
+      <c r="L238">
+        <v>1.24</v>
+      </c>
+      <c r="M238">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B239">
+        <v>15472</v>
+      </c>
+      <c r="C239">
+        <v>13528</v>
+      </c>
+      <c r="D239">
+        <v>17660</v>
+      </c>
+      <c r="E239">
+        <v>15292</v>
+      </c>
+      <c r="F239">
+        <v>13879</v>
+      </c>
+      <c r="G239">
+        <v>16757</v>
+      </c>
+      <c r="H239">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I239">
+        <v>1.06</v>
+      </c>
+      <c r="J239">
+        <v>1.19</v>
+      </c>
+      <c r="K239">
         <v>1.23</v>
       </c>
-      <c r="L229">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M229">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="3">
-        <v>44120</v>
-      </c>
-      <c r="B230">
-        <v>6737</v>
-      </c>
-      <c r="C230">
-        <v>4527</v>
-      </c>
-      <c r="D230">
-        <v>8647</v>
-      </c>
-      <c r="E230">
-        <v>7130</v>
-      </c>
-      <c r="F230">
-        <v>5351</v>
-      </c>
-      <c r="G230">
-        <v>8916</v>
-      </c>
-      <c r="H230">
+      <c r="L239">
+        <v>1.19</v>
+      </c>
+      <c r="M239">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B240">
+        <v>18117</v>
+      </c>
+      <c r="C240">
+        <v>15866</v>
+      </c>
+      <c r="D240">
+        <v>20426</v>
+      </c>
+      <c r="E240">
+        <v>16077</v>
+      </c>
+      <c r="F240">
+        <v>14361</v>
+      </c>
+      <c r="G240">
+        <v>17892</v>
+      </c>
+      <c r="H240">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I240">
+        <v>1.02</v>
+      </c>
+      <c r="J240">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K240">
+        <v>1.18</v>
+      </c>
+      <c r="L240">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M240">
         <v>1.24</v>
       </c>
-      <c r="I230">
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B241">
+        <v>17661</v>
+      </c>
+      <c r="C241">
+        <v>15006</v>
+      </c>
+      <c r="D241">
+        <v>20662</v>
+      </c>
+      <c r="E241">
+        <v>16559</v>
+      </c>
+      <c r="F241">
+        <v>14484</v>
+      </c>
+      <c r="G241">
+        <v>18776</v>
+      </c>
+      <c r="H241">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1.17</v>
+      </c>
+      <c r="K241">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L241">
         <v>1.07</v>
       </c>
-      <c r="J230">
-        <v>1.42</v>
-      </c>
-      <c r="K230">
-        <v>1.17</v>
-      </c>
-      <c r="L230">
-        <v>1.06</v>
-      </c>
-      <c r="M230">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231" s="3">
-        <v>44121</v>
-      </c>
-      <c r="B231">
-        <v>5642</v>
-      </c>
-      <c r="C231">
-        <v>3356</v>
-      </c>
-      <c r="D231">
-        <v>7926</v>
-      </c>
-      <c r="E231">
-        <v>6748</v>
-      </c>
-      <c r="F231">
-        <v>4678</v>
-      </c>
-      <c r="G231">
-        <v>8777</v>
-      </c>
-      <c r="H231">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I231">
-        <v>0.92</v>
-      </c>
-      <c r="J231">
-        <v>1.29</v>
+      <c r="M241">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B242">
+        <v>16746</v>
+      </c>
+      <c r="C242">
+        <v>13242</v>
+      </c>
+      <c r="D242">
+        <v>19923</v>
+      </c>
+      <c r="E242">
+        <v>16999</v>
+      </c>
+      <c r="F242">
+        <v>14410</v>
+      </c>
+      <c r="G242">
+        <v>19668</v>
+      </c>
+      <c r="H242">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I242">
+        <v>1.01</v>
+      </c>
+      <c r="J242">
+        <v>1.21</v>
+      </c>
+      <c r="K242">
+        <v>1.08</v>
+      </c>
+      <c r="L242">
+        <v>1.02</v>
+      </c>
+      <c r="M242">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B243">
+        <v>15383</v>
+      </c>
+      <c r="C243">
+        <v>11736</v>
+      </c>
+      <c r="D243">
+        <v>18959</v>
+      </c>
+      <c r="E243">
+        <v>16977</v>
+      </c>
+      <c r="F243">
+        <v>13963</v>
+      </c>
+      <c r="G243">
+        <v>19992</v>
+      </c>
+      <c r="H243">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1.24</v>
+      </c>
+      <c r="K243">
+        <v>1.02</v>
+      </c>
+      <c r="L243">
+        <v>0.96</v>
+      </c>
+      <c r="M243">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B244">
+        <v>13791</v>
+      </c>
+      <c r="C244">
+        <v>9806</v>
+      </c>
+      <c r="D244">
+        <v>17739</v>
+      </c>
+      <c r="E244">
+        <v>15895</v>
+      </c>
+      <c r="F244">
+        <v>12447</v>
+      </c>
+      <c r="G244">
+        <v>19321</v>
+      </c>
+      <c r="H244">
+        <v>0.99</v>
+      </c>
+      <c r="I244">
+        <v>0.87</v>
+      </c>
+      <c r="J244">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K244">
+        <v>0.96</v>
+      </c>
+      <c r="L244">
+        <v>0.9</v>
+      </c>
+      <c r="M244">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B245">
+        <v>11073</v>
+      </c>
+      <c r="C245">
+        <v>7549</v>
+      </c>
+      <c r="D245">
+        <v>15165</v>
+      </c>
+      <c r="E245">
+        <v>14248</v>
+      </c>
+      <c r="F245">
+        <v>10583</v>
+      </c>
+      <c r="G245">
+        <v>17946</v>
+      </c>
+      <c r="H245">
+        <v>0.86</v>
+      </c>
+      <c r="I245">
+        <v>0.72</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>0.93</v>
+      </c>
+      <c r="L245">
+        <v>0.85</v>
+      </c>
+      <c r="M245">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B246">
+        <v>13329</v>
+      </c>
+      <c r="C246">
+        <v>6984</v>
+      </c>
+      <c r="D246">
+        <v>20675</v>
+      </c>
+      <c r="E246">
+        <v>13394</v>
+      </c>
+      <c r="F246">
+        <v>9019</v>
+      </c>
+      <c r="G246">
+        <v>18135</v>
+      </c>
+      <c r="H246">
+        <v>0.79</v>
+      </c>
+      <c r="I246">
+        <v>0.65</v>
+      </c>
+      <c r="J246">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>

--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-05\Nowcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-15\Nowcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A9289-8C82-405F-8670-72E6A317B38D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6597CC-7B43-42B0-A531-29CACE7D658B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 05.11.2020, 00:00 Uhr</t>
+    <t>Datenstand: 15.11.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 05.11.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 15.11.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -99,10 +99,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,10 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -566,17 +574,17 @@
     <col min="1" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="103.2" customHeight="1">
+    <row r="1" spans="1:13" ht="86.4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -618,13 +626,13 @@
         <v>290</v>
       </c>
       <c r="D2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E2">
         <v>225</v>
       </c>
       <c r="F2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>238</v>
@@ -635,7 +643,7 @@
         <v>43893</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3">
         <v>306</v>
@@ -647,7 +655,7 @@
         <v>261</v>
       </c>
       <c r="F3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G3">
         <v>276</v>
@@ -661,7 +669,7 @@
         <v>449</v>
       </c>
       <c r="C4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D4">
         <v>470</v>
@@ -670,7 +678,7 @@
         <v>326</v>
       </c>
       <c r="F4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G4">
         <v>343</v>
@@ -681,22 +689,22 @@
         <v>43895</v>
       </c>
       <c r="B5">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C5">
         <v>484</v>
       </c>
       <c r="D5">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E5">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F5">
         <v>378</v>
       </c>
       <c r="G5">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -707,19 +715,19 @@
         <v>759</v>
       </c>
       <c r="C6">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D6">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E6">
         <v>508</v>
       </c>
       <c r="F6">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G6">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H6">
         <v>2.2599999999999998</v>
@@ -728,13 +736,13 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J6">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="K6">
         <v>2.34</v>
       </c>
       <c r="L6">
-        <v>2.29</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M6">
         <v>2.39</v>
@@ -745,40 +753,40 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C7">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D7">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E7">
         <v>674</v>
       </c>
       <c r="F7">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G7">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H7">
         <v>2.58</v>
       </c>
       <c r="I7">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J7">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="K7">
         <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.5099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="M7">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -789,34 +797,34 @@
         <v>1336</v>
       </c>
       <c r="C8">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D8">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E8">
         <v>896</v>
       </c>
       <c r="F8">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G8">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H8">
         <v>2.75</v>
       </c>
       <c r="I8">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="J8">
         <v>2.84</v>
       </c>
       <c r="K8">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="L8">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="M8">
         <v>2.99</v>
@@ -827,37 +835,37 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C9">
         <v>1988</v>
       </c>
       <c r="D9">
-        <v>2053</v>
+        <v>2059</v>
       </c>
       <c r="E9">
         <v>1275</v>
       </c>
       <c r="F9">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G9">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H9">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="I9">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="J9">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="K9">
         <v>3.13</v>
       </c>
       <c r="L9">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="M9">
         <v>3.18</v>
@@ -868,28 +876,28 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C10">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="D10">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="E10">
         <v>1728</v>
       </c>
       <c r="F10">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="G10">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H10">
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="J10">
         <v>3.48</v>
@@ -898,10 +906,10 @@
         <v>3.21</v>
       </c>
       <c r="L10">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -909,19 +917,19 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="C11">
-        <v>3184</v>
+        <v>3197</v>
       </c>
       <c r="D11">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E11">
         <v>2291</v>
       </c>
       <c r="F11">
-        <v>2249</v>
+        <v>2254</v>
       </c>
       <c r="G11">
         <v>2331</v>
@@ -939,7 +947,7 @@
         <v>3.11</v>
       </c>
       <c r="L11">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="M11">
         <v>3.15</v>
@@ -950,28 +958,28 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="C12">
         <v>3556</v>
       </c>
       <c r="D12">
-        <v>3651</v>
+        <v>3647</v>
       </c>
       <c r="E12">
         <v>2857</v>
       </c>
       <c r="F12">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="G12">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="H12">
         <v>3.19</v>
       </c>
       <c r="I12">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="J12">
         <v>3.24</v>
@@ -991,28 +999,28 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4357</v>
+        <v>4360</v>
       </c>
       <c r="C13">
-        <v>4303</v>
+        <v>4309</v>
       </c>
       <c r="D13">
-        <v>4411</v>
+        <v>4415</v>
       </c>
       <c r="E13">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="F13">
-        <v>3391</v>
+        <v>3397</v>
       </c>
       <c r="G13">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="H13">
         <v>2.7</v>
       </c>
       <c r="I13">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="J13">
         <v>2.74</v>
@@ -1032,22 +1040,22 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4437</v>
+        <v>4434</v>
       </c>
       <c r="C14">
-        <v>4391</v>
+        <v>4376</v>
       </c>
       <c r="D14">
-        <v>4492</v>
+        <v>4488</v>
       </c>
       <c r="E14">
         <v>3908</v>
       </c>
       <c r="F14">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="G14">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
@@ -1062,7 +1070,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="L14">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="M14">
         <v>2.2000000000000002</v>
@@ -1073,22 +1081,22 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4680</v>
+        <v>4677</v>
       </c>
       <c r="C15">
-        <v>4622</v>
+        <v>4617</v>
       </c>
       <c r="D15">
-        <v>4747</v>
+        <v>4734</v>
       </c>
       <c r="E15">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="F15">
-        <v>4218</v>
+        <v>4214</v>
       </c>
       <c r="G15">
-        <v>4325</v>
+        <v>4321</v>
       </c>
       <c r="H15">
         <v>1.86</v>
@@ -1114,10 +1122,10 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="C16">
-        <v>5955</v>
+        <v>5966</v>
       </c>
       <c r="D16">
         <v>6082</v>
@@ -1129,7 +1137,7 @@
         <v>4817</v>
       </c>
       <c r="G16">
-        <v>4933</v>
+        <v>4930</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1155,28 +1163,28 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5235</v>
+        <v>5232</v>
       </c>
       <c r="C17">
-        <v>5178</v>
+        <v>5172</v>
       </c>
       <c r="D17">
-        <v>5307</v>
+        <v>5300</v>
       </c>
       <c r="E17">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="F17">
-        <v>5036</v>
+        <v>5033</v>
       </c>
       <c r="G17">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="H17">
         <v>1.48</v>
       </c>
       <c r="I17">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J17">
         <v>1.49</v>
@@ -1196,22 +1204,22 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5286</v>
+        <v>5291</v>
       </c>
       <c r="C18">
-        <v>5218</v>
+        <v>5236</v>
       </c>
       <c r="D18">
-        <v>5351</v>
+        <v>5356</v>
       </c>
       <c r="E18">
         <v>5305</v>
       </c>
       <c r="F18">
-        <v>5243</v>
+        <v>5248</v>
       </c>
       <c r="G18">
-        <v>5372</v>
+        <v>5368</v>
       </c>
       <c r="H18">
         <v>1.36</v>
@@ -1237,28 +1245,28 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4726</v>
+        <v>4723</v>
       </c>
       <c r="C19">
         <v>4663</v>
       </c>
       <c r="D19">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="E19">
         <v>5317</v>
       </c>
       <c r="F19">
-        <v>5253</v>
+        <v>5259</v>
       </c>
       <c r="G19">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="H19">
         <v>1.25</v>
       </c>
       <c r="I19">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J19">
         <v>1.26</v>
@@ -1281,10 +1289,10 @@
         <v>5325</v>
       </c>
       <c r="C20">
-        <v>5270</v>
+        <v>5256</v>
       </c>
       <c r="D20">
-        <v>5378</v>
+        <v>5387</v>
       </c>
       <c r="E20">
         <v>5143</v>
@@ -1293,7 +1301,7 @@
         <v>5082</v>
       </c>
       <c r="G20">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="H20">
         <v>1.06</v>
@@ -1302,7 +1310,7 @@
         <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
         <v>1.1299999999999999</v>
@@ -1319,22 +1327,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4444</v>
+        <v>4446</v>
       </c>
       <c r="C21">
-        <v>4389</v>
+        <v>4394</v>
       </c>
       <c r="D21">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="E21">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="F21">
-        <v>4885</v>
+        <v>4887</v>
       </c>
       <c r="G21">
-        <v>5002</v>
+        <v>5007</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1360,10 +1368,10 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="C22">
-        <v>3741</v>
+        <v>3758</v>
       </c>
       <c r="D22">
         <v>3867</v>
@@ -1372,10 +1380,10 @@
         <v>4576</v>
       </c>
       <c r="F22">
-        <v>4516</v>
+        <v>4518</v>
       </c>
       <c r="G22">
-        <v>4631</v>
+        <v>4635</v>
       </c>
       <c r="H22">
         <v>0.86</v>
@@ -1401,22 +1409,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="C23">
-        <v>5099</v>
+        <v>5096</v>
       </c>
       <c r="D23">
-        <v>5210</v>
+        <v>5217</v>
       </c>
       <c r="E23">
-        <v>4683</v>
+        <v>4685</v>
       </c>
       <c r="F23">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="G23">
-        <v>4737</v>
+        <v>4743</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1431,7 +1439,7 @@
         <v>0.92</v>
       </c>
       <c r="L23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M23">
         <v>0.92</v>
@@ -1442,19 +1450,19 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4070</v>
+        <v>4076</v>
       </c>
       <c r="C24">
-        <v>4005</v>
+        <v>4024</v>
       </c>
       <c r="D24">
-        <v>4146</v>
+        <v>4134</v>
       </c>
       <c r="E24">
-        <v>4369</v>
+        <v>4372</v>
       </c>
       <c r="F24">
-        <v>4308</v>
+        <v>4318</v>
       </c>
       <c r="G24">
         <v>4429</v>
@@ -1483,22 +1491,22 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4418</v>
+        <v>4422</v>
       </c>
       <c r="C25">
-        <v>4360</v>
+        <v>4347</v>
       </c>
       <c r="D25">
-        <v>4484</v>
+        <v>4488</v>
       </c>
       <c r="E25">
-        <v>4363</v>
+        <v>4367</v>
       </c>
       <c r="F25">
-        <v>4301</v>
+        <v>4306</v>
       </c>
       <c r="G25">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1524,28 +1532,28 @@
         <v>43916</v>
       </c>
       <c r="B26">
-        <v>3994</v>
+        <v>4000</v>
       </c>
       <c r="C26">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="D26">
-        <v>4055</v>
+        <v>4070</v>
       </c>
       <c r="E26">
-        <v>4409</v>
+        <v>4414</v>
       </c>
       <c r="F26">
         <v>4350</v>
       </c>
       <c r="G26">
-        <v>4474</v>
+        <v>4477</v>
       </c>
       <c r="H26">
         <v>0.96</v>
       </c>
       <c r="I26">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J26">
         <v>0.97</v>
@@ -1568,19 +1576,19 @@
         <v>4123</v>
       </c>
       <c r="C27">
-        <v>4077</v>
+        <v>4057</v>
       </c>
       <c r="D27">
-        <v>4182</v>
+        <v>4187</v>
       </c>
       <c r="E27">
-        <v>4151</v>
+        <v>4155</v>
       </c>
       <c r="F27">
-        <v>4094</v>
+        <v>4091</v>
       </c>
       <c r="G27">
-        <v>4217</v>
+        <v>4219</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1589,7 +1597,7 @@
         <v>0.88</v>
       </c>
       <c r="J27">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K27">
         <v>0.9</v>
@@ -1606,22 +1614,22 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="C28">
-        <v>3838</v>
+        <v>3824</v>
       </c>
       <c r="D28">
-        <v>3946</v>
+        <v>3955</v>
       </c>
       <c r="E28">
-        <v>4106</v>
+        <v>4108</v>
       </c>
       <c r="F28">
-        <v>4053</v>
+        <v>4041</v>
       </c>
       <c r="G28">
-        <v>4167</v>
+        <v>4175</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1633,7 +1641,7 @@
         <v>0.95</v>
       </c>
       <c r="K28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L28">
         <v>0.9</v>
@@ -1647,28 +1655,28 @@
         <v>43919</v>
       </c>
       <c r="B29">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="C29">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="D29">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="E29">
-        <v>3816</v>
+        <v>3818</v>
       </c>
       <c r="F29">
-        <v>3762</v>
+        <v>3754</v>
       </c>
       <c r="G29">
-        <v>3877</v>
+        <v>3883</v>
       </c>
       <c r="H29">
         <v>0.87</v>
       </c>
       <c r="I29">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J29">
         <v>0.88</v>
@@ -1691,19 +1699,19 @@
         <v>4392</v>
       </c>
       <c r="C30">
-        <v>4338</v>
+        <v>4331</v>
       </c>
       <c r="D30">
-        <v>4454</v>
+        <v>4463</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3863</v>
+        <v>3853</v>
       </c>
       <c r="G30">
-        <v>3977</v>
+        <v>3982</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1729,22 +1737,22 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C31">
-        <v>3516</v>
+        <v>3520</v>
       </c>
       <c r="D31">
-        <v>3640</v>
+        <v>3630</v>
       </c>
       <c r="E31">
-        <v>3779</v>
+        <v>3781</v>
       </c>
       <c r="F31">
-        <v>3722</v>
+        <v>3719</v>
       </c>
       <c r="G31">
-        <v>3841</v>
+        <v>3843</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1773,19 +1781,19 @@
         <v>4039</v>
       </c>
       <c r="C32">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="D32">
-        <v>4095</v>
+        <v>4103</v>
       </c>
       <c r="E32">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="F32">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="G32">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="H32">
         <v>0.93</v>
@@ -1814,19 +1822,19 @@
         <v>3730</v>
       </c>
       <c r="C33">
-        <v>3667</v>
+        <v>3663</v>
       </c>
       <c r="D33">
         <v>3787</v>
       </c>
       <c r="E33">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="F33">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="G33">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1852,22 +1860,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3723</v>
+        <v>3730</v>
       </c>
       <c r="C34">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="D34">
-        <v>3781</v>
+        <v>3791</v>
       </c>
       <c r="E34">
-        <v>3767</v>
+        <v>3770</v>
       </c>
       <c r="F34">
         <v>3706</v>
       </c>
       <c r="G34">
-        <v>3825</v>
+        <v>3828</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1893,22 +1901,22 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="C35">
-        <v>2949</v>
+        <v>2956</v>
       </c>
       <c r="D35">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="E35">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="F35">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="G35">
-        <v>3682</v>
+        <v>3686</v>
       </c>
       <c r="H35">
         <v>0.96</v>
@@ -1934,22 +1942,22 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="C36">
-        <v>2637</v>
+        <v>2655</v>
       </c>
       <c r="D36">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="E36">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="F36">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="G36">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="H36">
         <v>0.86</v>
@@ -1975,22 +1983,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="C37">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="D37">
-        <v>3412</v>
+        <v>3418</v>
       </c>
       <c r="E37">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="F37">
-        <v>3136</v>
+        <v>3142</v>
       </c>
       <c r="G37">
-        <v>3253</v>
+        <v>3256</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -2016,19 +2024,19 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C38">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="D38">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="E38">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="F38">
-        <v>2971</v>
+        <v>2977</v>
       </c>
       <c r="G38">
         <v>3087</v>
@@ -2057,22 +2065,22 @@
         <v>43929</v>
       </c>
       <c r="B39">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="C39">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="D39">
-        <v>2924</v>
+        <v>2937</v>
       </c>
       <c r="E39">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="F39">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="G39">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="H39">
         <v>0.83</v>
@@ -2087,7 +2095,7 @@
         <v>0.85</v>
       </c>
       <c r="L39">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M39">
         <v>0.86</v>
@@ -2098,22 +2106,22 @@
         <v>43930</v>
       </c>
       <c r="B40">
-        <v>2689</v>
+        <v>2696</v>
       </c>
       <c r="C40">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="D40">
-        <v>2743</v>
+        <v>2751</v>
       </c>
       <c r="E40">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="F40">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="G40">
-        <v>3049</v>
+        <v>3054</v>
       </c>
       <c r="H40">
         <v>0.91</v>
@@ -2131,7 +2139,7 @@
         <v>0.82</v>
       </c>
       <c r="M40">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2139,28 +2147,28 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="C41">
-        <v>2259</v>
+        <v>2277</v>
       </c>
       <c r="D41">
-        <v>2373</v>
+        <v>2381</v>
       </c>
       <c r="E41">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="F41">
-        <v>2679</v>
+        <v>2685</v>
       </c>
       <c r="G41">
-        <v>2789</v>
+        <v>2795</v>
       </c>
       <c r="H41">
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J41">
         <v>0.87</v>
@@ -2180,22 +2188,22 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C42">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="D42">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="E42">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="F42">
-        <v>2420</v>
+        <v>2427</v>
       </c>
       <c r="G42">
-        <v>2527</v>
+        <v>2536</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2221,22 +2229,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C43">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="D43">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E43">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="F43">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="G43">
-        <v>2296</v>
+        <v>2303</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2248,7 +2256,7 @@
         <v>0.76</v>
       </c>
       <c r="K43">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L43">
         <v>0.78</v>
@@ -2262,22 +2270,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="C44">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D44">
         <v>1939</v>
       </c>
       <c r="E44">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F44">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G44">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2303,22 +2311,22 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="C45">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="D45">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E45">
         <v>1950</v>
       </c>
       <c r="F45">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G45">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2344,10 +2352,10 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C46">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D46">
         <v>1986</v>
@@ -2356,7 +2364,7 @@
         <v>1930</v>
       </c>
       <c r="F46">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="G46">
         <v>1982</v>
@@ -2385,22 +2393,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="C47">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D47">
-        <v>1788</v>
+        <v>1806</v>
       </c>
       <c r="E47">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="F47">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="G47">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2426,28 +2434,28 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C48">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D48">
-        <v>1691</v>
+        <v>1700</v>
       </c>
       <c r="E48">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="F48">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="G48">
-        <v>1867</v>
+        <v>1872</v>
       </c>
       <c r="H48">
         <v>0.89</v>
       </c>
       <c r="I48">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J48">
         <v>0.91</v>
@@ -2467,22 +2475,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C49">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D49">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="E49">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="F49">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G49">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2491,7 +2499,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2508,25 +2516,25 @@
         <v>43940</v>
       </c>
       <c r="B50">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C50">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="D50">
-        <v>1351</v>
+        <v>1361</v>
       </c>
       <c r="E50">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="F50">
         <v>1490</v>
       </c>
       <c r="G50">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="H50">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
         <v>0.78</v>
@@ -2552,25 +2560,25 @@
         <v>1575</v>
       </c>
       <c r="C51">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D51">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="E51">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F51">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G51">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="H51">
         <v>0.79</v>
       </c>
       <c r="I51">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J51">
         <v>0.81</v>
@@ -2590,13 +2598,13 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C52">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D52">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E52">
         <v>1416</v>
@@ -2605,7 +2613,7 @@
         <v>1373</v>
       </c>
       <c r="G52">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2631,19 +2639,19 @@
         <v>43943</v>
       </c>
       <c r="B53">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C53">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D53">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="E53">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F53">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G53">
         <v>1427</v>
@@ -2672,28 +2680,28 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C54">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="D54">
         <v>1307</v>
       </c>
       <c r="E54">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F54">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="G54">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H54">
         <v>0.89</v>
       </c>
       <c r="I54">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J54">
         <v>0.91</v>
@@ -2713,22 +2721,22 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C55">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D55">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E55">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F55">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G55">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2737,7 +2745,7 @@
         <v>0.83</v>
       </c>
       <c r="J55">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K55">
         <v>0.81</v>
@@ -2754,19 +2762,19 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C56">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D56">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E56">
         <v>1179</v>
       </c>
       <c r="F56">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="G56">
         <v>1219</v>
@@ -2781,13 +2789,13 @@
         <v>0.85</v>
       </c>
       <c r="K56">
+        <v>0.82</v>
+      </c>
+      <c r="L56">
+        <v>0.81</v>
+      </c>
+      <c r="M56">
         <v>0.83</v>
-      </c>
-      <c r="L56">
-        <v>0.82</v>
-      </c>
-      <c r="M56">
-        <v>0.84</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2795,28 +2803,28 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C57">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D57">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E57">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F57">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="G57">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H57">
         <v>0.78</v>
       </c>
       <c r="I57">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J57">
         <v>0.8</v>
@@ -2836,31 +2844,31 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C58">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="D58">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E58">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F58">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G58">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H58">
         <v>0.76</v>
       </c>
       <c r="I58">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J58">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -2880,19 +2888,19 @@
         <v>943</v>
       </c>
       <c r="C59">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D59">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E59">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F59">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G59">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H59">
         <v>0.78</v>
@@ -2921,19 +2929,19 @@
         <v>864</v>
       </c>
       <c r="C60">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D60">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E60">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F60">
         <v>918</v>
       </c>
       <c r="G60">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2962,19 +2970,19 @@
         <v>939</v>
       </c>
       <c r="C61">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D61">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="E61">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F61">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G61">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H61">
         <v>0.89</v>
@@ -2986,7 +2994,7 @@
         <v>0.91</v>
       </c>
       <c r="K61">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="L61">
         <v>0.8</v>
@@ -3003,7 +3011,7 @@
         <v>816</v>
       </c>
       <c r="C62">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D62">
         <v>853</v>
@@ -3012,7 +3020,7 @@
         <v>891</v>
       </c>
       <c r="F62">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G62">
         <v>927</v>
@@ -3021,7 +3029,7 @@
         <v>0.86</v>
       </c>
       <c r="I62">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J62">
         <v>0.88</v>
@@ -3033,7 +3041,7 @@
         <v>0.81</v>
       </c>
       <c r="M62">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3044,19 +3052,19 @@
         <v>741</v>
       </c>
       <c r="C63">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D63">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E63">
         <v>840</v>
       </c>
       <c r="F63">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G63">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H63">
         <v>0.85</v>
@@ -3082,28 +3090,28 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C64">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D64">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E64">
         <v>813</v>
       </c>
       <c r="F64">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G64">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="H64">
         <v>0.85</v>
       </c>
       <c r="I64">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J64">
         <v>0.88</v>
@@ -3123,10 +3131,10 @@
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C65">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D65">
         <v>924</v>
@@ -3135,10 +3143,10 @@
         <v>801</v>
       </c>
       <c r="F65">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G65">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3164,22 +3172,22 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C66">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D66">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E66">
         <v>801</v>
       </c>
       <c r="F66">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G66">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H66">
         <v>0.9</v>
@@ -3205,28 +3213,28 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C67">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="D67">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E67">
         <v>802</v>
       </c>
       <c r="F67">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G67">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H67">
         <v>0.95</v>
       </c>
       <c r="I67">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J67">
         <v>0.98</v>
@@ -3246,19 +3254,19 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C68">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D68">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E68">
         <v>789</v>
       </c>
       <c r="F68">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G68">
         <v>823</v>
@@ -3290,25 +3298,25 @@
         <v>679</v>
       </c>
       <c r="C69">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D69">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E69">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F69">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G69">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H69">
         <v>0.92</v>
       </c>
       <c r="I69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J69">
         <v>0.95</v>
@@ -3317,7 +3325,7 @@
         <v>0.89</v>
       </c>
       <c r="L69">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M69">
         <v>0.9</v>
@@ -3331,22 +3339,22 @@
         <v>581</v>
       </c>
       <c r="C70">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D70">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E70">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F70">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G70">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I70">
         <v>0.82</v>
@@ -3369,22 +3377,22 @@
         <v>43961</v>
       </c>
       <c r="B71">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C71">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D71">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E71">
         <v>630</v>
       </c>
       <c r="F71">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G71">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3410,22 +3418,22 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C72">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D72">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E72">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F72">
         <v>590</v>
       </c>
       <c r="G72">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H72">
         <v>0.79</v>
@@ -3454,10 +3462,10 @@
         <v>623</v>
       </c>
       <c r="C73">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D73">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E73">
         <v>606</v>
@@ -3481,10 +3489,10 @@
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M73">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3492,22 +3500,22 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C74">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D74">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E74">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F74">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G74">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H74">
         <v>0.9</v>
@@ -3516,7 +3524,7 @@
         <v>0.87</v>
       </c>
       <c r="J74">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K74">
         <v>0.85</v>
@@ -3536,10 +3544,10 @@
         <v>526</v>
       </c>
       <c r="C75">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D75">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E75">
         <v>600</v>
@@ -3548,7 +3556,7 @@
         <v>569</v>
       </c>
       <c r="G75">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H75">
         <v>0.95</v>
@@ -3566,7 +3574,7 @@
         <v>0.87</v>
       </c>
       <c r="M75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3574,10 +3582,10 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C76">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D76">
         <v>711</v>
@@ -3589,7 +3597,7 @@
         <v>572</v>
       </c>
       <c r="G76">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3615,19 +3623,19 @@
         <v>43967</v>
       </c>
       <c r="B77">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C77">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D77">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E77">
         <v>587</v>
       </c>
       <c r="F77">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G77">
         <v>618</v>
@@ -3636,10 +3644,10 @@
         <v>0.97</v>
       </c>
       <c r="I77">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J77">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>0.93</v>
@@ -3656,22 +3664,22 @@
         <v>43968</v>
       </c>
       <c r="B78">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C78">
         <v>413</v>
       </c>
       <c r="D78">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E78">
         <v>551</v>
       </c>
       <c r="F78">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G78">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H78">
         <v>0.91</v>
@@ -3689,7 +3697,7 @@
         <v>0.94</v>
       </c>
       <c r="M78">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3697,25 +3705,25 @@
         <v>43969</v>
       </c>
       <c r="B79">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C79">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D79">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E79">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F79">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G79">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H79">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I79">
         <v>0.92</v>
@@ -3738,22 +3746,22 @@
         <v>43970</v>
       </c>
       <c r="B80">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C80">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D80">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E80">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F80">
         <v>493</v>
       </c>
       <c r="G80">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H80">
         <v>0.86</v>
@@ -3779,22 +3787,22 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C81">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D81">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E81">
         <v>522</v>
       </c>
       <c r="F81">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G81">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H81">
         <v>0.89</v>
@@ -3820,22 +3828,22 @@
         <v>43972</v>
       </c>
       <c r="B82">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C82">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D82">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E82">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F82">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G82">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H82">
         <v>0.92</v>
@@ -3853,7 +3861,7 @@
         <v>0.83</v>
       </c>
       <c r="M82">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3864,19 +3872,19 @@
         <v>386</v>
       </c>
       <c r="C83">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D83">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E83">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F83">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G83">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H83">
         <v>0.79</v>
@@ -3885,7 +3893,7 @@
         <v>0.76</v>
       </c>
       <c r="J83">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K83">
         <v>0.83</v>
@@ -3902,31 +3910,31 @@
         <v>43974</v>
       </c>
       <c r="B84">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C84">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D84">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E84">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F84">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G84">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H84">
         <v>0.82</v>
       </c>
       <c r="I84">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J84">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K84">
         <v>0.82</v>
@@ -3943,31 +3951,31 @@
         <v>43975</v>
       </c>
       <c r="B85">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C85">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D85">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E85">
         <v>378</v>
       </c>
       <c r="F85">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G85">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H85">
         <v>0.72</v>
       </c>
       <c r="I85">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="J85">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K85">
         <v>0.81</v>
@@ -3984,22 +3992,22 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C86">
         <v>441</v>
       </c>
       <c r="D86">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E86">
         <v>397</v>
       </c>
       <c r="F86">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G86">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H86">
         <v>0.78</v>
@@ -4028,19 +4036,19 @@
         <v>434</v>
       </c>
       <c r="C87">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D87">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G87">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H87">
         <v>0.91</v>
@@ -4066,28 +4074,28 @@
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C88">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D88">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E88">
         <v>432</v>
       </c>
       <c r="F88">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G88">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H88">
         <v>1.01</v>
       </c>
       <c r="I88">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J88">
         <v>1.06</v>
@@ -4096,7 +4104,7 @@
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M88">
         <v>0.92</v>
@@ -4107,22 +4115,22 @@
         <v>43979</v>
       </c>
       <c r="B89">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C89">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D89">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E89">
         <v>433</v>
       </c>
       <c r="F89">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G89">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H89">
         <v>1.1499999999999999</v>
@@ -4131,7 +4139,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J89">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K89">
         <v>0.94</v>
@@ -4148,13 +4156,13 @@
         <v>43980</v>
       </c>
       <c r="B90">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C90">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D90">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E90">
         <v>403</v>
@@ -4163,7 +4171,7 @@
         <v>379</v>
       </c>
       <c r="G90">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H90">
         <v>1.02</v>
@@ -4172,7 +4180,7 @@
         <v>0.97</v>
       </c>
       <c r="J90">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K90">
         <v>0.92</v>
@@ -4189,22 +4197,22 @@
         <v>43981</v>
       </c>
       <c r="B91">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C91">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E91">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F91">
         <v>344</v>
       </c>
       <c r="G91">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H91">
         <v>0.9</v>
@@ -4213,7 +4221,7 @@
         <v>0.86</v>
       </c>
       <c r="J91">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K91">
         <v>0.92</v>
@@ -4230,22 +4238,22 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92">
         <v>249</v>
       </c>
       <c r="D92">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E92">
         <v>321</v>
       </c>
       <c r="F92">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G92">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H92">
         <v>0.74</v>
@@ -4254,16 +4262,16 @@
         <v>0.71</v>
       </c>
       <c r="J92">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K92">
         <v>0.88</v>
       </c>
       <c r="L92">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M92">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4274,19 +4282,19 @@
         <v>328</v>
       </c>
       <c r="C93">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D93">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93">
         <v>308</v>
       </c>
       <c r="F93">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G93">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4295,7 +4303,7 @@
         <v>0.68</v>
       </c>
       <c r="J93">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K93">
         <v>0.89</v>
@@ -4312,13 +4320,13 @@
         <v>43984</v>
       </c>
       <c r="B94">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C94">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D94">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E94">
         <v>331</v>
@@ -4327,7 +4335,7 @@
         <v>308</v>
       </c>
       <c r="G94">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H94">
         <v>0.82</v>
@@ -4336,7 +4344,7 @@
         <v>0.79</v>
       </c>
       <c r="J94">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="K94">
         <v>0.89</v>
@@ -4345,7 +4353,7 @@
         <v>0.87</v>
       </c>
       <c r="M94">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4353,28 +4361,28 @@
         <v>43985</v>
       </c>
       <c r="B95">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C95">
         <v>378</v>
       </c>
       <c r="D95">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E95">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F95">
         <v>335</v>
       </c>
       <c r="G95">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H95">
         <v>0.98</v>
       </c>
       <c r="I95">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J95">
         <v>1.02</v>
@@ -4394,28 +4402,28 @@
         <v>43986</v>
       </c>
       <c r="B96">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C96">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D96">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G96">
         <v>402</v>
       </c>
       <c r="H96">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I96">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J96">
         <v>1.23</v>
@@ -4435,28 +4443,28 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C97">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D97">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E97">
         <v>375</v>
       </c>
       <c r="F97">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G97">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H97">
         <v>1.22</v>
       </c>
       <c r="I97">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J97">
         <v>1.28</v>
@@ -4476,22 +4484,22 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C98">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D98">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E98">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F98">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G98">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H98">
         <v>1.03</v>
@@ -4520,25 +4528,25 @@
         <v>235</v>
       </c>
       <c r="C99">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D99">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E99">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F99">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H99">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I99">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J99">
         <v>0.87</v>
@@ -4558,10 +4566,10 @@
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C100">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D100">
         <v>436</v>
@@ -4570,16 +4578,16 @@
         <v>317</v>
       </c>
       <c r="F100">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G100">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H100">
         <v>0.84</v>
       </c>
       <c r="I100">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="J100">
         <v>0.88</v>
@@ -4599,22 +4607,22 @@
         <v>43991</v>
       </c>
       <c r="B101">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C101">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D101">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E101">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F101">
         <v>326</v>
       </c>
       <c r="G101">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H101">
         <v>0.93</v>
@@ -4623,7 +4631,7 @@
         <v>0.89</v>
       </c>
       <c r="J101">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K101">
         <v>1.04</v>
@@ -4643,34 +4651,34 @@
         <v>432</v>
       </c>
       <c r="C102">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D102">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E102">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F102">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G102">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H102">
         <v>1.1200000000000001</v>
       </c>
       <c r="I102">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J102">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K102">
         <v>1.06</v>
       </c>
       <c r="L102">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M102">
         <v>1.0900000000000001</v>
@@ -4681,13 +4689,13 @@
         <v>43993</v>
       </c>
       <c r="B103">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C103">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D103">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E103">
         <v>415</v>
@@ -4696,13 +4704,13 @@
         <v>390</v>
       </c>
       <c r="G103">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H103">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I103">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="J103">
         <v>1.46</v>
@@ -4722,28 +4730,28 @@
         <v>43994</v>
       </c>
       <c r="B104">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C104">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D104">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E104">
         <v>405</v>
       </c>
       <c r="F104">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G104">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H104">
         <v>1.28</v>
       </c>
       <c r="I104">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J104">
         <v>1.34</v>
@@ -4763,25 +4771,25 @@
         <v>43995</v>
       </c>
       <c r="B105">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C105">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D105">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E105">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G105">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H105">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I105">
         <v>1.06</v>
@@ -4796,7 +4804,7 @@
         <v>1.08</v>
       </c>
       <c r="M105">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4804,22 +4812,22 @@
         <v>43996</v>
       </c>
       <c r="B106">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C106">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D106">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E106">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F106">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G106">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H106">
         <v>0.96</v>
@@ -4828,7 +4836,7 @@
         <v>0.92</v>
       </c>
       <c r="J106">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>1.19</v>
@@ -4837,7 +4845,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M106">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4845,28 +4853,28 @@
         <v>43997</v>
       </c>
       <c r="B107">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C107">
         <v>613</v>
       </c>
       <c r="D107">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E107">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F107">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G107">
         <v>462</v>
       </c>
       <c r="H107">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J107">
         <v>1.0900000000000001</v>
@@ -4886,40 +4894,40 @@
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C108">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="D108">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="E108">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F108">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="G108">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H108">
         <v>1.53</v>
       </c>
       <c r="I108">
+        <v>1.48</v>
+      </c>
+      <c r="J108">
+        <v>1.58</v>
+      </c>
+      <c r="K108">
         <v>1.47</v>
-      </c>
-      <c r="J108">
-        <v>1.59</v>
-      </c>
-      <c r="K108">
-        <v>1.48</v>
       </c>
       <c r="L108">
         <v>1.44</v>
       </c>
       <c r="M108">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4927,31 +4935,31 @@
         <v>43999</v>
       </c>
       <c r="B109">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C109">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D109">
+        <v>697</v>
+      </c>
+      <c r="E109">
         <v>694</v>
       </c>
-      <c r="E109">
-        <v>695</v>
-      </c>
       <c r="F109">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G109">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H109">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I109">
         <v>1.74</v>
       </c>
       <c r="J109">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K109">
         <v>1.47</v>
@@ -4968,40 +4976,40 @@
         <v>44000</v>
       </c>
       <c r="B110">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C110">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D110">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E110">
         <v>739</v>
       </c>
       <c r="F110">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G110">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H110">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="I110">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J110">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K110">
         <v>1.42</v>
       </c>
       <c r="L110">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M110">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5009,28 +5017,28 @@
         <v>44001</v>
       </c>
       <c r="B111">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C111">
         <v>537</v>
       </c>
       <c r="D111">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E111">
         <v>720</v>
       </c>
       <c r="F111">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G111">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H111">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I111">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J111">
         <v>1.72</v>
@@ -5042,7 +5050,7 @@
         <v>1.17</v>
       </c>
       <c r="M111">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5053,19 +5061,19 @@
         <v>471</v>
       </c>
       <c r="C112">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D112">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E112">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F112">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G112">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H112">
         <v>0.9</v>
@@ -5091,40 +5099,40 @@
         <v>44003</v>
       </c>
       <c r="B113">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C113">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D113">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E113">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F113">
         <v>456</v>
       </c>
       <c r="G113">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H113">
         <v>0.7</v>
       </c>
       <c r="I113">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="J113">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K113">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L113">
         <v>1.02</v>
       </c>
       <c r="M113">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5138,16 +5146,16 @@
         <v>447</v>
       </c>
       <c r="D114">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E114">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F114">
         <v>442</v>
       </c>
       <c r="G114">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H114">
         <v>0.64</v>
@@ -5165,7 +5173,7 @@
         <v>0.81</v>
       </c>
       <c r="M114">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5173,22 +5181,22 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C115">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D115">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E115">
         <v>437</v>
       </c>
       <c r="F115">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G115">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H115">
         <v>0.61</v>
@@ -5214,22 +5222,22 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C116">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D116">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E116">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F116">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G116">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H116">
         <v>0.78</v>
@@ -5244,10 +5252,10 @@
         <v>0.73</v>
       </c>
       <c r="L116">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="M116">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5255,22 +5263,22 @@
         <v>44007</v>
       </c>
       <c r="B117">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D117">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E117">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F117">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G117">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H117">
         <v>0.92</v>
@@ -5296,28 +5304,28 @@
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C118">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D118">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E118">
         <v>434</v>
       </c>
       <c r="F118">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G118">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J118">
         <v>0.97</v>
@@ -5340,16 +5348,16 @@
         <v>353</v>
       </c>
       <c r="C119">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E119">
         <v>414</v>
       </c>
       <c r="F119">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G119">
         <v>441</v>
@@ -5378,28 +5386,28 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D120">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E120">
         <v>376</v>
       </c>
       <c r="F120">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G120">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H120">
         <v>0.86</v>
       </c>
       <c r="I120">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J120">
         <v>0.9</v>
@@ -5408,7 +5416,7 @@
         <v>0.89</v>
       </c>
       <c r="L120">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M120">
         <v>0.91</v>
@@ -5419,31 +5427,31 @@
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C121">
         <v>398</v>
       </c>
       <c r="D121">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E121">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F121">
         <v>355</v>
       </c>
       <c r="G121">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H121">
         <v>0.85</v>
       </c>
       <c r="I121">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J121">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K121">
         <v>0.93</v>
@@ -5452,7 +5460,7 @@
         <v>0.91</v>
       </c>
       <c r="M121">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5463,10 +5471,10 @@
         <v>434</v>
       </c>
       <c r="C122">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D122">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E122">
         <v>381</v>
@@ -5475,7 +5483,7 @@
         <v>357</v>
       </c>
       <c r="G122">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H122">
         <v>0.88</v>
@@ -5484,7 +5492,7 @@
         <v>0.84</v>
       </c>
       <c r="J122">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K122">
         <v>0.94</v>
@@ -5493,7 +5501,7 @@
         <v>0.92</v>
       </c>
       <c r="M122">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5501,22 +5509,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C123">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D123">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E123">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F123">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G123">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5525,13 +5533,13 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M123">
         <v>0.96</v>
@@ -5542,10 +5550,10 @@
         <v>44014</v>
       </c>
       <c r="B124">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C124">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D124">
         <v>361</v>
@@ -5554,19 +5562,19 @@
         <v>399</v>
       </c>
       <c r="F124">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G124">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H124">
         <v>1.06</v>
       </c>
       <c r="I124">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J124">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K124">
         <v>0.92</v>
@@ -5586,19 +5594,19 @@
         <v>347</v>
       </c>
       <c r="C125">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D125">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E125">
         <v>380</v>
       </c>
       <c r="F125">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G125">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5624,22 +5632,22 @@
         <v>44016</v>
       </c>
       <c r="B126">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C126">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D126">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E126">
         <v>346</v>
       </c>
       <c r="F126">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G126">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5665,16 +5673,16 @@
         <v>44017</v>
       </c>
       <c r="B127">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C127">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D127">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E127">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F127">
         <v>297</v>
@@ -5689,7 +5697,7 @@
         <v>0.77</v>
       </c>
       <c r="J127">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K127">
         <v>0.92</v>
@@ -5706,28 +5714,28 @@
         <v>44018</v>
       </c>
       <c r="B128">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C128">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D128">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E128">
         <v>328</v>
       </c>
       <c r="F128">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G128">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H128">
         <v>0.82</v>
       </c>
       <c r="I128">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J128">
         <v>0.86</v>
@@ -5747,22 +5755,22 @@
         <v>44019</v>
       </c>
       <c r="B129">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C129">
         <v>351</v>
       </c>
       <c r="D129">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E129">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F129">
         <v>313</v>
       </c>
       <c r="G129">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H129">
         <v>0.88</v>
@@ -5777,7 +5785,7 @@
         <v>0.93</v>
       </c>
       <c r="L129">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M129">
         <v>0.95</v>
@@ -5788,34 +5796,34 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D130">
         <v>380</v>
       </c>
       <c r="E130">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F130">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G130">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H130">
         <v>1.01</v>
       </c>
       <c r="I130">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J130">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K130">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L130">
         <v>0.93</v>
@@ -5835,22 +5843,22 @@
         <v>351</v>
       </c>
       <c r="D131">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E131">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F131">
         <v>347</v>
       </c>
       <c r="G131">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H131">
         <v>1.1599999999999999</v>
       </c>
       <c r="I131">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J131">
         <v>1.22</v>
@@ -5870,22 +5878,22 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C132">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D132">
         <v>454</v>
       </c>
       <c r="E132">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F132">
         <v>361</v>
       </c>
       <c r="G132">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H132">
         <v>1.17</v>
@@ -5894,7 +5902,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J132">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K132">
         <v>1.07</v>
@@ -5903,7 +5911,7 @@
         <v>1.04</v>
       </c>
       <c r="M132">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5911,31 +5919,31 @@
         <v>44023</v>
       </c>
       <c r="B133">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C133">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D133">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E133">
         <v>387</v>
       </c>
       <c r="F133">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G133">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H133">
         <v>1.1599999999999999</v>
       </c>
       <c r="I133">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J133">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K133">
         <v>1.1200000000000001</v>
@@ -5952,22 +5960,22 @@
         <v>44024</v>
       </c>
       <c r="B134">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C134">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D134">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E134">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F134">
         <v>364</v>
       </c>
       <c r="G134">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
@@ -5976,7 +5984,7 @@
         <v>1.06</v>
       </c>
       <c r="J134">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K134">
         <v>1.17</v>
@@ -5993,19 +6001,19 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C135">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D135">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E135">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F135">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G135">
         <v>456</v>
@@ -6014,7 +6022,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I135">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J135">
         <v>1.21</v>
@@ -6026,7 +6034,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="M135">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6034,37 +6042,37 @@
         <v>44026</v>
       </c>
       <c r="B136">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C136">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D136">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E136">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F136">
         <v>426</v>
       </c>
       <c r="G136">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H136">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I136">
         <v>1.1299999999999999</v>
       </c>
       <c r="J136">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K136">
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M136">
         <v>1.25</v>
@@ -6075,40 +6083,40 @@
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C137">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D137">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E137">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F137">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G137">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H137">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I137">
         <v>1.23</v>
       </c>
       <c r="J137">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="K137">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="L137">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M137">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6119,25 +6127,25 @@
         <v>471</v>
       </c>
       <c r="C138">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D138">
         <v>502</v>
       </c>
       <c r="E138">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F138">
         <v>494</v>
       </c>
       <c r="G138">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H138">
         <v>1.34</v>
       </c>
       <c r="I138">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J138">
         <v>1.41</v>
@@ -6146,10 +6154,10 @@
         <v>1.19</v>
       </c>
       <c r="L138">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M138">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6157,37 +6165,37 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C139">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D139">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E139">
         <v>518</v>
       </c>
       <c r="F139">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G139">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H139">
         <v>1.2</v>
       </c>
       <c r="I139">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J139">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K139">
         <v>1.17</v>
       </c>
       <c r="L139">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M139">
         <v>1.19</v>
@@ -6198,22 +6206,22 @@
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C140">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D140">
         <v>517</v>
       </c>
       <c r="E140">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F140">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G140">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H140">
         <v>1.1299999999999999</v>
@@ -6222,13 +6230,13 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J140">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K140">
         <v>1.1399999999999999</v>
       </c>
       <c r="L140">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M140">
         <v>1.17</v>
@@ -6242,19 +6250,19 @@
         <v>517</v>
       </c>
       <c r="C141">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D141">
         <v>543</v>
       </c>
       <c r="E141">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F141">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G141">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H141">
         <v>1.02</v>
@@ -6283,19 +6291,19 @@
         <v>692</v>
       </c>
       <c r="C142">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D142">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E142">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F142">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G142">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H142">
         <v>1.07</v>
@@ -6321,34 +6329,34 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C143">
         <v>670</v>
       </c>
       <c r="D143">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E143">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F143">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G143">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H143">
         <v>1.1599999999999999</v>
       </c>
       <c r="I143">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J143">
         <v>1.2</v>
       </c>
       <c r="K143">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="L143">
         <v>1.17</v>
@@ -6362,28 +6370,28 @@
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C144">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D144">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E144">
         <v>662</v>
       </c>
       <c r="F144">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G144">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H144">
         <v>1.29</v>
       </c>
       <c r="I144">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J144">
         <v>1.34</v>
@@ -6403,31 +6411,31 @@
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C145">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D145">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E145">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F145">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G145">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H145">
         <v>1.4</v>
       </c>
       <c r="I145">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J145">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="K145">
         <v>1.2</v>
@@ -6447,28 +6455,28 @@
         <v>694</v>
       </c>
       <c r="C146">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D146">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E146">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F146">
         <v>671</v>
       </c>
       <c r="G146">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H146">
         <v>1.26</v>
       </c>
       <c r="I146">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J146">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="K146">
         <v>1.17</v>
@@ -6488,19 +6496,19 @@
         <v>616</v>
       </c>
       <c r="C147">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D147">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E147">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F147">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G147">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
@@ -6509,7 +6517,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J147">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K147">
         <v>1.1399999999999999</v>
@@ -6529,16 +6537,16 @@
         <v>603</v>
       </c>
       <c r="C148">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D148">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="E148">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F148">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G148">
         <v>683</v>
@@ -6556,10 +6564,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L148">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M148">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6567,22 +6575,22 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C149">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="D149">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E149">
         <v>683</v>
       </c>
       <c r="F149">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G149">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H149">
         <v>0.97</v>
@@ -6591,7 +6599,7 @@
         <v>0.94</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K149">
         <v>1.0900000000000001</v>
@@ -6608,28 +6616,28 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C150">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D150">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E150">
         <v>702</v>
       </c>
       <c r="F150">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G150">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J150">
         <v>1.03</v>
@@ -6652,10 +6660,10 @@
         <v>743</v>
       </c>
       <c r="C151">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D151">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E151">
         <v>734</v>
@@ -6664,13 +6672,13 @@
         <v>699</v>
       </c>
       <c r="G151">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H151">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I151">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J151">
         <v>1.1100000000000001</v>
@@ -6690,22 +6698,22 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C152">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D152">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E152">
         <v>773</v>
       </c>
       <c r="F152">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G152">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H152">
         <v>1.19</v>
@@ -6731,22 +6739,22 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C153">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D153">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E153">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F153">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G153">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
@@ -6758,13 +6766,13 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K153">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="L153">
         <v>1.06</v>
       </c>
       <c r="M153">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6775,28 +6783,28 @@
         <v>820</v>
       </c>
       <c r="C154">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D154">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E154">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F154">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G154">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H154">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I154">
         <v>1.07</v>
       </c>
       <c r="J154">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K154">
         <v>1.1299999999999999</v>
@@ -6805,7 +6813,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="M154">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6813,28 +6821,28 @@
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C155">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D155">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E155">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F155">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G155">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H155">
         <v>1.1100000000000001</v>
       </c>
       <c r="I155">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J155">
         <v>1.1499999999999999</v>
@@ -6854,22 +6862,22 @@
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C156">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D156">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E156">
         <v>895</v>
       </c>
       <c r="F156">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G156">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
@@ -6878,7 +6886,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J156">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K156">
         <v>1.19</v>
@@ -6895,22 +6903,22 @@
         <v>44047</v>
       </c>
       <c r="B157">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C157">
+        <v>929</v>
+      </c>
+      <c r="D157">
+        <v>1019</v>
+      </c>
+      <c r="E157">
         <v>944</v>
       </c>
-      <c r="D157">
-        <v>1021</v>
-      </c>
-      <c r="E157">
-        <v>945</v>
-      </c>
       <c r="F157">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G157">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H157">
         <v>1.24</v>
@@ -6919,7 +6927,7 @@
         <v>1.2</v>
       </c>
       <c r="J157">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K157">
         <v>1.19</v>
@@ -6928,7 +6936,7 @@
         <v>1.17</v>
       </c>
       <c r="M157">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6936,31 +6944,31 @@
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C158">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="D158">
+        <v>1026</v>
+      </c>
+      <c r="E158">
+        <v>985</v>
+      </c>
+      <c r="F158">
+        <v>942</v>
+      </c>
+      <c r="G158">
         <v>1028</v>
-      </c>
-      <c r="E158">
-        <v>986</v>
-      </c>
-      <c r="F158">
-        <v>943</v>
-      </c>
-      <c r="G158">
-        <v>1030</v>
       </c>
       <c r="H158">
         <v>1.27</v>
       </c>
       <c r="I158">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="J158">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="K158">
         <v>1.17</v>
@@ -6977,13 +6985,13 @@
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C159">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D159">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E159">
         <v>1011</v>
@@ -6992,13 +7000,13 @@
         <v>968</v>
       </c>
       <c r="G159">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H159">
         <v>1.24</v>
       </c>
       <c r="I159">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J159">
         <v>1.28</v>
@@ -7010,7 +7018,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M159">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7018,28 +7026,28 @@
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C160">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D160">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E160">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F160">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G160">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H160">
         <v>1.1200000000000001</v>
       </c>
       <c r="I160">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J160">
         <v>1.1599999999999999</v>
@@ -7048,10 +7056,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L160">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M160">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7059,37 +7067,37 @@
         <v>44051</v>
       </c>
       <c r="B161">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C161">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D161">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E161">
         <v>1011</v>
       </c>
       <c r="F161">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G161">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H161">
         <v>1.07</v>
       </c>
       <c r="I161">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J161">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K161">
         <v>1.1299999999999999</v>
       </c>
       <c r="L161">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M161">
         <v>1.1499999999999999</v>
@@ -7100,22 +7108,22 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C162">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D162">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E162">
         <v>1025</v>
       </c>
       <c r="F162">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G162">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H162">
         <v>1.04</v>
@@ -7141,19 +7149,19 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C163">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D163">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E163">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F163">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G163">
         <v>1173</v>
@@ -7174,7 +7182,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M163">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7185,25 +7193,25 @@
         <v>1327</v>
       </c>
       <c r="C164">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D164">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E164">
         <v>1194</v>
       </c>
       <c r="F164">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G164">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H164">
         <v>1.19</v>
       </c>
       <c r="I164">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J164">
         <v>1.23</v>
@@ -7212,7 +7220,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="L164">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M164">
         <v>1.18</v>
@@ -7226,28 +7234,28 @@
         <v>1320</v>
       </c>
       <c r="C165">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D165">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="E165">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F165">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G165">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H165">
         <v>1.26</v>
       </c>
       <c r="I165">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J165">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K165">
         <v>1.19</v>
@@ -7264,22 +7272,22 @@
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C166">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="D166">
         <v>1399</v>
       </c>
       <c r="E166">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F166">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G166">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H166">
         <v>1.32</v>
@@ -7305,19 +7313,19 @@
         <v>44057</v>
       </c>
       <c r="B167">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="C167">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="D167">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="E167">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F167">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G167">
         <v>1377</v>
@@ -7326,10 +7334,10 @@
         <v>1.18</v>
       </c>
       <c r="I167">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J167">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K167">
         <v>1.1499999999999999</v>
@@ -7346,13 +7354,13 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C168">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="D168">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E168">
         <v>1299</v>
@@ -7387,28 +7395,28 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C169">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D169">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E169">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F169">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G169">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H169">
         <v>0.99</v>
       </c>
       <c r="I169">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J169">
         <v>1.02</v>
@@ -7428,31 +7436,31 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="C170">
-        <v>1358</v>
+        <v>1374</v>
       </c>
       <c r="D170">
-        <v>1463</v>
+        <v>1471</v>
       </c>
       <c r="E170">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F170">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="G170">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="H170">
         <v>0.95</v>
       </c>
       <c r="I170">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J170">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K170">
         <v>1.06</v>
@@ -7469,22 +7477,22 @@
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C171">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="D171">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="E171">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F171">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="G171">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H171">
         <v>0.99</v>
@@ -7499,7 +7507,7 @@
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="M171">
         <v>1.04</v>
@@ -7510,19 +7518,19 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C172">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D172">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E172">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F172">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="G172">
         <v>1387</v>
@@ -7531,7 +7539,7 @@
         <v>1.03</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J172">
         <v>1.06</v>
@@ -7554,16 +7562,16 @@
         <v>1135</v>
       </c>
       <c r="C173">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D173">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E173">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F173">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="G173">
         <v>1376</v>
@@ -7584,7 +7592,7 @@
         <v>0.96</v>
       </c>
       <c r="M173">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7592,28 +7600,28 @@
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C174">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="D174">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E174">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F174">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="G174">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H174">
         <v>0.99</v>
       </c>
       <c r="I174">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J174">
         <v>1.01</v>
@@ -7633,22 +7641,22 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C175">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D175">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="E175">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F175">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G175">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H175">
         <v>0.89</v>
@@ -7674,22 +7682,22 @@
         <v>44066</v>
       </c>
       <c r="B176">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C176">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="D176">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="E176">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F176">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="G176">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H176">
         <v>0.85</v>
@@ -7698,7 +7706,7 @@
         <v>0.83</v>
       </c>
       <c r="J176">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K176">
         <v>0.97</v>
@@ -7715,22 +7723,22 @@
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C177">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="D177">
-        <v>1495</v>
+        <v>1506</v>
       </c>
       <c r="E177">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F177">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="G177">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H177">
         <v>0.92</v>
@@ -7745,7 +7753,7 @@
         <v>0.98</v>
       </c>
       <c r="L177">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M177">
         <v>0.99</v>
@@ -7759,25 +7767,25 @@
         <v>1341</v>
       </c>
       <c r="C178">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D178">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E178">
         <v>1264</v>
       </c>
       <c r="F178">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="G178">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J178">
         <v>1.03</v>
@@ -7797,28 +7805,28 @@
         <v>44069</v>
       </c>
       <c r="B179">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C179">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="D179">
         <v>1255</v>
       </c>
       <c r="E179">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F179">
         <v>1241</v>
       </c>
       <c r="G179">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H179">
         <v>1.1000000000000001</v>
       </c>
       <c r="I179">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J179">
         <v>1.1299999999999999</v>
@@ -7838,28 +7846,28 @@
         <v>44070</v>
       </c>
       <c r="B180">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C180">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D180">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E180">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F180">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G180">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H180">
         <v>1.1399999999999999</v>
       </c>
       <c r="I180">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J180">
         <v>1.18</v>
@@ -7879,22 +7887,22 @@
         <v>44071</v>
       </c>
       <c r="B181">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C181">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D181">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E181">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F181">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G181">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H181">
         <v>1.01</v>
@@ -7912,7 +7920,7 @@
         <v>0.97</v>
       </c>
       <c r="M181">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7920,22 +7928,22 @@
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C182">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D182">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="E182">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F182">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G182">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="H182">
         <v>0.9</v>
@@ -7947,7 +7955,7 @@
         <v>0.92</v>
       </c>
       <c r="K182">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L182">
         <v>0.96</v>
@@ -7961,22 +7969,22 @@
         <v>44073</v>
       </c>
       <c r="B183">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C183">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D183">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E183">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F183">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G183">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H183">
         <v>0.84</v>
@@ -8002,28 +8010,28 @@
         <v>44074</v>
       </c>
       <c r="B184">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C184">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="D184">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="E184">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F184">
         <v>1073</v>
       </c>
       <c r="G184">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="H184">
         <v>0.86</v>
       </c>
       <c r="I184">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J184">
         <v>0.88</v>
@@ -8043,13 +8051,13 @@
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="C185">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D185">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E185">
         <v>1206</v>
@@ -8058,13 +8066,13 @@
         <v>1160</v>
       </c>
       <c r="G185">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="H185">
         <v>0.98</v>
       </c>
       <c r="I185">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J185">
         <v>1.01</v>
@@ -8084,25 +8092,25 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C186">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D186">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="E186">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F186">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G186">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H186">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I186">
         <v>1.1100000000000001</v>
@@ -8125,37 +8133,37 @@
         <v>44077</v>
       </c>
       <c r="B187">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C187">
         <v>1206</v>
       </c>
       <c r="D187">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E187">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F187">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="G187">
         <v>1406</v>
       </c>
       <c r="H187">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I187">
         <v>1.21</v>
       </c>
       <c r="J187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="K187">
         <v>1.05</v>
       </c>
       <c r="L187">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M187">
         <v>1.07</v>
@@ -8166,22 +8174,22 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C188">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D188">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E188">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F188">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G188">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="H188">
         <v>1.19</v>
@@ -8190,7 +8198,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J188">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K188">
         <v>1.06</v>
@@ -8207,34 +8215,34 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C189">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="D189">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E189">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F189">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G189">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="H189">
         <v>1.04</v>
       </c>
       <c r="I189">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J189">
         <v>1.07</v>
       </c>
       <c r="K189">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="L189">
         <v>1.06</v>
@@ -8248,19 +8256,19 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="C190">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D190">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E190">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F190">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G190">
         <v>1296</v>
@@ -8269,7 +8277,7 @@
         <v>0.96</v>
       </c>
       <c r="I190">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J190">
         <v>0.99</v>
@@ -8278,10 +8286,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L190">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M190">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8289,31 +8297,31 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="C191">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="D191">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="E191">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F191">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="G191">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H191">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I191">
         <v>0.96</v>
       </c>
       <c r="J191">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K191">
         <v>1.1000000000000001</v>
@@ -8330,22 +8338,22 @@
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C192">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D192">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="E192">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F192">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="G192">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H192">
         <v>1.06</v>
@@ -8354,13 +8362,13 @@
         <v>1.03</v>
       </c>
       <c r="J192">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K192">
         <v>1.1000000000000001</v>
       </c>
       <c r="L192">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="M192">
         <v>1.1200000000000001</v>
@@ -8374,25 +8382,25 @@
         <v>1611</v>
       </c>
       <c r="C193">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="D193">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="E193">
         <v>1524</v>
       </c>
       <c r="F193">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="G193">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H193">
         <v>1.21</v>
       </c>
       <c r="I193">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J193">
         <v>1.24</v>
@@ -8404,7 +8412,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M193">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8412,22 +8420,22 @@
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C194">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="D194">
         <v>1684</v>
       </c>
       <c r="E194">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="F194">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="G194">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H194">
         <v>1.29</v>
@@ -8442,7 +8450,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L194">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M194">
         <v>1.1299999999999999</v>
@@ -8453,13 +8461,13 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C195">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D195">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E195">
         <v>1619</v>
@@ -8468,7 +8476,7 @@
         <v>1567</v>
       </c>
       <c r="G195">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="H195">
         <v>1.21</v>
@@ -8494,22 +8502,22 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C196">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="D196">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="E196">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F196">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="G196">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="H196">
         <v>1.1399999999999999</v>
@@ -8518,7 +8526,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J196">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K196">
         <v>1.1399999999999999</v>
@@ -8535,22 +8543,22 @@
         <v>44087</v>
       </c>
       <c r="B197">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C197">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D197">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E197">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F197">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G197">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="H197">
         <v>1.05</v>
@@ -8576,22 +8584,22 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="C198">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="D198">
-        <v>2176</v>
+        <v>2187</v>
       </c>
       <c r="E198">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F198">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G198">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8617,22 +8625,22 @@
         <v>44089</v>
       </c>
       <c r="B199">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C199">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="D199">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="E199">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F199">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="G199">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="H199">
         <v>1.1200000000000001</v>
@@ -8658,22 +8666,22 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C200">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D200">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="E200">
         <v>1889</v>
       </c>
       <c r="F200">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="G200">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="H200">
         <v>1.18</v>
@@ -8691,7 +8699,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M200">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8699,22 +8707,22 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="C201">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="D201">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="E201">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F201">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="G201">
-        <v>1976</v>
+        <v>1982</v>
       </c>
       <c r="H201">
         <v>1.2</v>
@@ -8740,28 +8748,28 @@
         <v>44092</v>
       </c>
       <c r="B202">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="C202">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="D202">
+        <v>1772</v>
+      </c>
+      <c r="E202">
+        <v>1821</v>
+      </c>
+      <c r="F202">
         <v>1770</v>
       </c>
-      <c r="E202">
-        <v>1825</v>
-      </c>
-      <c r="F202">
-        <v>1772</v>
-      </c>
       <c r="G202">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="H202">
         <v>1.06</v>
       </c>
       <c r="I202">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J202">
         <v>1.08</v>
@@ -8781,31 +8789,31 @@
         <v>44093</v>
       </c>
       <c r="B203">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C203">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="D203">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E203">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="F203">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="G203">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H203">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I203">
         <v>0.93</v>
       </c>
       <c r="J203">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K203">
         <v>1.02</v>
@@ -8828,13 +8836,13 @@
         <v>1585</v>
       </c>
       <c r="D204">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="E204">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="F204">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G204">
         <v>1697</v>
@@ -8843,7 +8851,7 @@
         <v>0.87</v>
       </c>
       <c r="I204">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J204">
         <v>0.89</v>
@@ -8863,28 +8871,28 @@
         <v>44095</v>
       </c>
       <c r="B205">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C205">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="D205">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="E205">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="F205">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="G205">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H205">
         <v>0.91</v>
       </c>
       <c r="I205">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J205">
         <v>0.93</v>
@@ -8904,22 +8912,22 @@
         <v>44096</v>
       </c>
       <c r="B206">
-        <v>2130</v>
+        <v>2139</v>
       </c>
       <c r="C206">
-        <v>2082</v>
+        <v>2087</v>
       </c>
       <c r="D206">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="E206">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="F206">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G206">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="H206">
         <v>1.02</v>
@@ -8948,22 +8956,22 @@
         <v>2077</v>
       </c>
       <c r="C207">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="D207">
-        <v>2140</v>
+        <v>2150</v>
       </c>
       <c r="E207">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F207">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="G207">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H207">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I207">
         <v>1.1499999999999999</v>
@@ -8986,31 +8994,31 @@
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C208">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D208">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="E208">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="F208">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="G208">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="H208">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I208">
         <v>1.26</v>
       </c>
       <c r="J208">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K208">
         <v>1.0900000000000001</v>
@@ -9027,31 +9035,31 @@
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2155</v>
+        <v>2164</v>
       </c>
       <c r="C209">
-        <v>2095</v>
+        <v>2106</v>
       </c>
       <c r="D209">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="E209">
-        <v>2109</v>
+        <v>2114</v>
       </c>
       <c r="F209">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="G209">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H209">
         <v>1.2</v>
       </c>
       <c r="I209">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J209">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K209">
         <v>1.1100000000000001</v>
@@ -9068,28 +9076,28 @@
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="C210">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="D210">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E210">
         <v>2060</v>
       </c>
       <c r="F210">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="G210">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="H210">
         <v>1.1100000000000001</v>
       </c>
       <c r="I210">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J210">
         <v>1.1299999999999999</v>
@@ -9109,28 +9117,28 @@
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C211">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="D211">
-        <v>1943</v>
+        <v>1949</v>
       </c>
       <c r="E211">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F211">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="G211">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J211">
         <v>1.02</v>
@@ -9150,22 +9158,22 @@
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2650</v>
+        <v>2656</v>
       </c>
       <c r="C212">
-        <v>2589</v>
+        <v>2596</v>
       </c>
       <c r="D212">
-        <v>2718</v>
+        <v>2726</v>
       </c>
       <c r="E212">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="F212">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="G212">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="H212">
         <v>1.02</v>
@@ -9191,28 +9199,28 @@
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C213">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="D213">
-        <v>2832</v>
+        <v>2839</v>
       </c>
       <c r="E213">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F213">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="G213">
-        <v>2368</v>
+        <v>2374</v>
       </c>
       <c r="H213">
         <v>1.0900000000000001</v>
       </c>
       <c r="I213">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J213">
         <v>1.1100000000000001</v>
@@ -9221,7 +9229,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="L213">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M213">
         <v>1.1599999999999999</v>
@@ -9232,22 +9240,22 @@
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="C214">
-        <v>2741</v>
+        <v>2732</v>
       </c>
       <c r="D214">
-        <v>2875</v>
+        <v>2866</v>
       </c>
       <c r="E214">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="F214">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="G214">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="H214">
         <v>1.23</v>
@@ -9273,22 +9281,22 @@
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C215">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="D215">
-        <v>3099</v>
+        <v>3081</v>
       </c>
       <c r="E215">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="F215">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="G215">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="H215">
         <v>1.4</v>
@@ -9300,7 +9308,7 @@
         <v>1.42</v>
       </c>
       <c r="K215">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="L215">
         <v>1.22</v>
@@ -9314,22 +9322,22 @@
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3389</v>
+        <v>3385</v>
       </c>
       <c r="C216">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="D216">
-        <v>3471</v>
+        <v>3459</v>
       </c>
       <c r="E216">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="F216">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="G216">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="H216">
         <v>1.39</v>
@@ -9355,13 +9363,13 @@
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3377</v>
+        <v>3384</v>
       </c>
       <c r="C217">
-        <v>3305</v>
+        <v>3317</v>
       </c>
       <c r="D217">
-        <v>3462</v>
+        <v>3467</v>
       </c>
       <c r="E217">
         <v>3144</v>
@@ -9370,7 +9378,7 @@
         <v>3074</v>
       </c>
       <c r="G217">
-        <v>3227</v>
+        <v>3218</v>
       </c>
       <c r="H217">
         <v>1.36</v>
@@ -9379,7 +9387,7 @@
         <v>1.34</v>
       </c>
       <c r="J217">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="K217">
         <v>1.32</v>
@@ -9396,22 +9404,22 @@
         <v>44108</v>
       </c>
       <c r="B218">
-        <v>3460</v>
+        <v>3454</v>
       </c>
       <c r="C218">
-        <v>3389</v>
+        <v>3374</v>
       </c>
       <c r="D218">
-        <v>3529</v>
+        <v>3534</v>
       </c>
       <c r="E218">
         <v>3309</v>
       </c>
       <c r="F218">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G218">
-        <v>3390</v>
+        <v>3385</v>
       </c>
       <c r="H218">
         <v>1.31</v>
@@ -9437,31 +9445,31 @@
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4756</v>
+        <v>4758</v>
       </c>
       <c r="C219">
-        <v>4680</v>
+        <v>4676</v>
       </c>
       <c r="D219">
-        <v>4847</v>
+        <v>4859</v>
       </c>
       <c r="E219">
         <v>3745</v>
       </c>
       <c r="F219">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="G219">
-        <v>3827</v>
+        <v>3830</v>
       </c>
       <c r="H219">
         <v>1.33</v>
       </c>
       <c r="I219">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J219">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="K219">
         <v>1.39</v>
@@ -9478,22 +9486,22 @@
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4814</v>
+        <v>4808</v>
       </c>
       <c r="C220">
-        <v>4691</v>
+        <v>4721</v>
       </c>
       <c r="D220">
-        <v>4933</v>
+        <v>4897</v>
       </c>
       <c r="E220">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="F220">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="G220">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="H220">
         <v>1.37</v>
@@ -9505,10 +9513,10 @@
         <v>1.39</v>
       </c>
       <c r="K220">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="L220">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M220">
         <v>1.41</v>
@@ -9519,22 +9527,22 @@
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4967</v>
+        <v>4925</v>
       </c>
       <c r="C221">
-        <v>4857</v>
+        <v>4841</v>
       </c>
       <c r="D221">
-        <v>5074</v>
+        <v>5016</v>
       </c>
       <c r="E221">
-        <v>4499</v>
+        <v>4487</v>
       </c>
       <c r="F221">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="G221">
-        <v>4596</v>
+        <v>4576</v>
       </c>
       <c r="H221">
         <v>1.43</v>
@@ -9549,7 +9557,7 @@
         <v>1.39</v>
       </c>
       <c r="L221">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M221">
         <v>1.4</v>
@@ -9560,28 +9568,28 @@
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="C222">
-        <v>4886</v>
+        <v>4920</v>
       </c>
       <c r="D222">
-        <v>5129</v>
+        <v>5104</v>
       </c>
       <c r="E222">
-        <v>4888</v>
+        <v>4876</v>
       </c>
       <c r="F222">
-        <v>4778</v>
+        <v>4789</v>
       </c>
       <c r="G222">
-        <v>4996</v>
+        <v>4969</v>
       </c>
       <c r="H222">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I222">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J222">
         <v>1.5</v>
@@ -9601,22 +9609,22 @@
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5411</v>
+        <v>5409</v>
       </c>
       <c r="C223">
-        <v>5291</v>
+        <v>5297</v>
       </c>
       <c r="D223">
-        <v>5547</v>
+        <v>5508</v>
       </c>
       <c r="E223">
-        <v>5052</v>
+        <v>5038</v>
       </c>
       <c r="F223">
-        <v>4931</v>
+        <v>4945</v>
       </c>
       <c r="G223">
-        <v>5170</v>
+        <v>5131</v>
       </c>
       <c r="H223">
         <v>1.35</v>
@@ -9642,22 +9650,22 @@
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5341</v>
+        <v>5348</v>
       </c>
       <c r="C224">
-        <v>5242</v>
+        <v>5245</v>
       </c>
       <c r="D224">
-        <v>5437</v>
+        <v>5456</v>
       </c>
       <c r="E224">
-        <v>5184</v>
+        <v>5173</v>
       </c>
       <c r="F224">
-        <v>5069</v>
+        <v>5076</v>
       </c>
       <c r="G224">
-        <v>5297</v>
+        <v>5271</v>
       </c>
       <c r="H224">
         <v>1.26</v>
@@ -9683,22 +9691,22 @@
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>5559</v>
+        <v>5541</v>
       </c>
       <c r="C225">
-        <v>5414</v>
+        <v>5428</v>
       </c>
       <c r="D225">
-        <v>5687</v>
+        <v>5639</v>
       </c>
       <c r="E225">
-        <v>5332</v>
+        <v>5327</v>
       </c>
       <c r="F225">
-        <v>5208</v>
+        <v>5223</v>
       </c>
       <c r="G225">
-        <v>5450</v>
+        <v>5427</v>
       </c>
       <c r="H225">
         <v>1.19</v>
@@ -9724,28 +9732,28 @@
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>7517</v>
+        <v>7529</v>
       </c>
       <c r="C226">
-        <v>7356</v>
+        <v>7415</v>
       </c>
       <c r="D226">
-        <v>7668</v>
+        <v>7638</v>
       </c>
       <c r="E226">
         <v>5957</v>
       </c>
       <c r="F226">
-        <v>5826</v>
+        <v>5846</v>
       </c>
       <c r="G226">
-        <v>6085</v>
+        <v>6060</v>
       </c>
       <c r="H226">
         <v>1.22</v>
       </c>
       <c r="I226">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J226">
         <v>1.24</v>
@@ -9765,31 +9773,31 @@
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>7937</v>
+        <v>7935</v>
       </c>
       <c r="C227">
-        <v>7738</v>
+        <v>7802</v>
       </c>
       <c r="D227">
-        <v>8125</v>
+        <v>8037</v>
       </c>
       <c r="E227">
         <v>6588</v>
       </c>
       <c r="F227">
-        <v>6437</v>
+        <v>6472</v>
       </c>
       <c r="G227">
-        <v>6729</v>
+        <v>6692</v>
       </c>
       <c r="H227">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I227">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J227">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="K227">
         <v>1.34</v>
@@ -9798,7 +9806,7 @@
         <v>1.33</v>
       </c>
       <c r="M227">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9806,37 +9814,37 @@
         <v>44118</v>
       </c>
       <c r="B228">
-        <v>8567</v>
+        <v>8506</v>
       </c>
       <c r="C228">
-        <v>8405</v>
+        <v>8385</v>
       </c>
       <c r="D228">
-        <v>8745</v>
+        <v>8647</v>
       </c>
       <c r="E228">
-        <v>7395</v>
+        <v>7378</v>
       </c>
       <c r="F228">
-        <v>7228</v>
+        <v>7257</v>
       </c>
       <c r="G228">
-        <v>7556</v>
+        <v>7490</v>
       </c>
       <c r="H228">
         <v>1.43</v>
       </c>
       <c r="I228">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J228">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K228">
         <v>1.37</v>
       </c>
       <c r="L228">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M228">
         <v>1.38</v>
@@ -9847,28 +9855,28 @@
         <v>44119</v>
       </c>
       <c r="B229">
-        <v>8690</v>
+        <v>8735</v>
       </c>
       <c r="C229">
-        <v>8417</v>
+        <v>8596</v>
       </c>
       <c r="D229">
-        <v>8932</v>
+        <v>8870</v>
       </c>
       <c r="E229">
-        <v>8178</v>
+        <v>8176</v>
       </c>
       <c r="F229">
-        <v>7979</v>
+        <v>8049</v>
       </c>
       <c r="G229">
-        <v>8368</v>
+        <v>8298</v>
       </c>
       <c r="H229">
         <v>1.53</v>
       </c>
       <c r="I229">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J229">
         <v>1.56</v>
@@ -9877,7 +9885,7 @@
         <v>1.38</v>
       </c>
       <c r="L229">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M229">
         <v>1.39</v>
@@ -9888,37 +9896,37 @@
         <v>44120</v>
       </c>
       <c r="B230">
-        <v>9554</v>
+        <v>9612</v>
       </c>
       <c r="C230">
-        <v>9288</v>
+        <v>9400</v>
       </c>
       <c r="D230">
-        <v>9840</v>
+        <v>9811</v>
       </c>
       <c r="E230">
-        <v>8687</v>
+        <v>8697</v>
       </c>
       <c r="F230">
-        <v>8462</v>
+        <v>8546</v>
       </c>
       <c r="G230">
-        <v>8911</v>
+        <v>8841</v>
       </c>
       <c r="H230">
         <v>1.46</v>
       </c>
       <c r="I230">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J230">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="K230">
+        <v>1.38</v>
+      </c>
+      <c r="L230">
         <v>1.37</v>
-      </c>
-      <c r="L230">
-        <v>1.35</v>
       </c>
       <c r="M230">
         <v>1.39</v>
@@ -9929,28 +9937,28 @@
         <v>44121</v>
       </c>
       <c r="B231">
-        <v>9439</v>
+        <v>9526</v>
       </c>
       <c r="C231">
-        <v>9106</v>
+        <v>9322</v>
       </c>
       <c r="D231">
-        <v>9744</v>
+        <v>9726</v>
       </c>
       <c r="E231">
-        <v>9063</v>
+        <v>9095</v>
       </c>
       <c r="F231">
-        <v>8804</v>
+        <v>8926</v>
       </c>
       <c r="G231">
-        <v>9315</v>
+        <v>9263</v>
       </c>
       <c r="H231">
         <v>1.38</v>
       </c>
       <c r="I231">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J231">
         <v>1.4</v>
@@ -9959,7 +9967,7 @@
         <v>1.38</v>
       </c>
       <c r="L231">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M231">
         <v>1.39</v>
@@ -9970,37 +9978,37 @@
         <v>44122</v>
       </c>
       <c r="B232">
-        <v>10667</v>
+        <v>10657</v>
       </c>
       <c r="C232">
-        <v>10261</v>
+        <v>10418</v>
       </c>
       <c r="D232">
-        <v>11065</v>
+        <v>10872</v>
       </c>
       <c r="E232">
-        <v>9588</v>
+        <v>9632</v>
       </c>
       <c r="F232">
-        <v>9268</v>
+        <v>9434</v>
       </c>
       <c r="G232">
-        <v>9896</v>
+        <v>9820</v>
       </c>
       <c r="H232">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I232">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="J232">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="K232">
+        <v>1.41</v>
+      </c>
+      <c r="L232">
         <v>1.4</v>
-      </c>
-      <c r="L232">
-        <v>1.38</v>
       </c>
       <c r="M232">
         <v>1.42</v>
@@ -10011,40 +10019,40 @@
         <v>44123</v>
       </c>
       <c r="B233">
-        <v>13897</v>
+        <v>13952</v>
       </c>
       <c r="C233">
-        <v>13152</v>
+        <v>13672</v>
       </c>
       <c r="D233">
-        <v>14556</v>
+        <v>14203</v>
       </c>
       <c r="E233">
-        <v>10889</v>
+        <v>10937</v>
       </c>
       <c r="F233">
-        <v>10452</v>
+        <v>10703</v>
       </c>
       <c r="G233">
-        <v>11301</v>
+        <v>11153</v>
       </c>
       <c r="H233">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I233">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="J233">
         <v>1.36</v>
       </c>
       <c r="K233">
+        <v>1.43</v>
+      </c>
+      <c r="L233">
         <v>1.42</v>
       </c>
-      <c r="L233">
-        <v>1.4</v>
-      </c>
       <c r="M233">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10052,40 +10060,40 @@
         <v>44124</v>
       </c>
       <c r="B234">
-        <v>14900</v>
+        <v>15013</v>
       </c>
       <c r="C234">
-        <v>14162</v>
+        <v>14750</v>
       </c>
       <c r="D234">
-        <v>15681</v>
+        <v>15303</v>
       </c>
       <c r="E234">
-        <v>12226</v>
+        <v>12287</v>
       </c>
       <c r="F234">
-        <v>11671</v>
+        <v>12040</v>
       </c>
       <c r="G234">
-        <v>12762</v>
+        <v>12526</v>
       </c>
       <c r="H234">
         <v>1.41</v>
       </c>
       <c r="I234">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="J234">
+        <v>1.43</v>
+      </c>
+      <c r="K234">
+        <v>1.45</v>
+      </c>
+      <c r="L234">
         <v>1.44</v>
       </c>
-      <c r="K234">
-        <v>1.44</v>
-      </c>
-      <c r="L234">
-        <v>1.41</v>
-      </c>
       <c r="M234">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10093,40 +10101,40 @@
         <v>44125</v>
       </c>
       <c r="B235">
-        <v>15383</v>
+        <v>15595</v>
       </c>
       <c r="C235">
-        <v>14547</v>
+        <v>15263</v>
       </c>
       <c r="D235">
-        <v>16234</v>
+        <v>15998</v>
       </c>
       <c r="E235">
-        <v>13712</v>
+        <v>13804</v>
       </c>
       <c r="F235">
-        <v>13031</v>
+        <v>13526</v>
       </c>
       <c r="G235">
-        <v>14384</v>
+        <v>14094</v>
       </c>
       <c r="H235">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I235">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J235">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="K235">
+        <v>1.43</v>
+      </c>
+      <c r="L235">
         <v>1.42</v>
       </c>
-      <c r="L235">
-        <v>1.4</v>
-      </c>
       <c r="M235">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10134,40 +10142,40 @@
         <v>44126</v>
       </c>
       <c r="B236">
-        <v>14978</v>
+        <v>15130</v>
       </c>
       <c r="C236">
-        <v>13937</v>
+        <v>14823</v>
       </c>
       <c r="D236">
-        <v>15884</v>
+        <v>15498</v>
       </c>
       <c r="E236">
-        <v>14789</v>
+        <v>14923</v>
       </c>
       <c r="F236">
-        <v>13950</v>
+        <v>14627</v>
       </c>
       <c r="G236">
-        <v>15589</v>
+        <v>15250</v>
       </c>
       <c r="H236">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I236">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J236">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K236">
+        <v>1.39</v>
+      </c>
+      <c r="L236">
         <v>1.38</v>
       </c>
-      <c r="L236">
-        <v>1.35</v>
-      </c>
       <c r="M236">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10175,40 +10183,40 @@
         <v>44127</v>
       </c>
       <c r="B237">
-        <v>15733</v>
+        <v>15913</v>
       </c>
       <c r="C237">
-        <v>14513</v>
+        <v>15477</v>
       </c>
       <c r="D237">
-        <v>17127</v>
+        <v>16297</v>
       </c>
       <c r="E237">
-        <v>15248</v>
+        <v>15413</v>
       </c>
       <c r="F237">
-        <v>14290</v>
+        <v>15078</v>
       </c>
       <c r="G237">
-        <v>16232</v>
+        <v>15774</v>
       </c>
       <c r="H237">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I237">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="J237">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="K237">
         <v>1.33</v>
       </c>
       <c r="L237">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M237">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10216,40 +10224,40 @@
         <v>44128</v>
       </c>
       <c r="B238">
-        <v>14985</v>
+        <v>15063</v>
       </c>
       <c r="C238">
-        <v>13537</v>
+        <v>14591</v>
       </c>
       <c r="D238">
-        <v>16356</v>
+        <v>15534</v>
       </c>
       <c r="E238">
-        <v>15270</v>
+        <v>15425</v>
       </c>
       <c r="F238">
-        <v>14134</v>
+        <v>15038</v>
       </c>
       <c r="G238">
-        <v>16400</v>
+        <v>15832</v>
       </c>
       <c r="H238">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I238">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="J238">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="K238">
         <v>1.28</v>
       </c>
       <c r="L238">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M238">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10257,40 +10265,40 @@
         <v>44129</v>
       </c>
       <c r="B239">
-        <v>15472</v>
+        <v>15814</v>
       </c>
       <c r="C239">
-        <v>13528</v>
+        <v>15359</v>
       </c>
       <c r="D239">
-        <v>17660</v>
+        <v>16396</v>
       </c>
       <c r="E239">
-        <v>15292</v>
+        <v>15480</v>
       </c>
       <c r="F239">
-        <v>13879</v>
+        <v>15062</v>
       </c>
       <c r="G239">
-        <v>16757</v>
+        <v>15931</v>
       </c>
       <c r="H239">
         <v>1.1200000000000001</v>
       </c>
       <c r="I239">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J239">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K239">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="L239">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M239">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10298,40 +10306,40 @@
         <v>44130</v>
       </c>
       <c r="B240">
-        <v>18117</v>
+        <v>19099</v>
       </c>
       <c r="C240">
-        <v>15866</v>
+        <v>18436</v>
       </c>
       <c r="D240">
-        <v>20426</v>
+        <v>19714</v>
       </c>
       <c r="E240">
-        <v>16077</v>
+        <v>16472</v>
       </c>
       <c r="F240">
-        <v>14361</v>
+        <v>15966</v>
       </c>
       <c r="G240">
-        <v>17892</v>
+        <v>16985</v>
       </c>
       <c r="H240">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I240">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="J240">
-        <v>1.1499999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K240">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="L240">
-        <v>1.1299999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="M240">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10339,40 +10347,40 @@
         <v>44131</v>
       </c>
       <c r="B241">
-        <v>17661</v>
+        <v>18474</v>
       </c>
       <c r="C241">
-        <v>15006</v>
+        <v>17789</v>
       </c>
       <c r="D241">
-        <v>20662</v>
+        <v>19112</v>
       </c>
       <c r="E241">
-        <v>16559</v>
+        <v>17113</v>
       </c>
       <c r="F241">
-        <v>14484</v>
+        <v>16544</v>
       </c>
       <c r="G241">
-        <v>18776</v>
+        <v>17689</v>
       </c>
       <c r="H241">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I241">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I241">
-        <v>1</v>
-      </c>
       <c r="J241">
-        <v>1.17</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K241">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L241">
-        <v>1.07</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M241">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10380,40 +10388,40 @@
         <v>44132</v>
       </c>
       <c r="B242">
-        <v>16746</v>
+        <v>18162</v>
       </c>
       <c r="C242">
-        <v>13242</v>
+        <v>17430</v>
       </c>
       <c r="D242">
-        <v>19923</v>
+        <v>18864</v>
       </c>
       <c r="E242">
-        <v>16999</v>
+        <v>17887</v>
       </c>
       <c r="F242">
-        <v>14410</v>
+        <v>17253</v>
       </c>
       <c r="G242">
-        <v>19668</v>
+        <v>18521</v>
       </c>
       <c r="H242">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I242">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J242">
+        <v>1.19</v>
+      </c>
+      <c r="K242">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L242">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I242">
-        <v>1.01</v>
-      </c>
-      <c r="J242">
-        <v>1.21</v>
-      </c>
-      <c r="K242">
-        <v>1.08</v>
-      </c>
-      <c r="L242">
-        <v>1.02</v>
-      </c>
       <c r="M242">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10421,37 +10429,37 @@
         <v>44133</v>
       </c>
       <c r="B243">
-        <v>15383</v>
+        <v>17088</v>
       </c>
       <c r="C243">
-        <v>11736</v>
+        <v>16365</v>
       </c>
       <c r="D243">
-        <v>18959</v>
+        <v>17825</v>
       </c>
       <c r="E243">
-        <v>16977</v>
+        <v>18206</v>
       </c>
       <c r="F243">
-        <v>13963</v>
+        <v>17505</v>
       </c>
       <c r="G243">
-        <v>19992</v>
+        <v>18879</v>
       </c>
       <c r="H243">
-        <v>1.1100000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J243">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="K243">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="L243">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="M243">
         <v>1.1000000000000001</v>
@@ -10462,40 +10470,40 @@
         <v>44134</v>
       </c>
       <c r="B244">
-        <v>13791</v>
+        <v>17371</v>
       </c>
       <c r="C244">
-        <v>9806</v>
+        <v>16513</v>
       </c>
       <c r="D244">
-        <v>17739</v>
+        <v>18103</v>
       </c>
       <c r="E244">
-        <v>15895</v>
+        <v>17774</v>
       </c>
       <c r="F244">
-        <v>12447</v>
+        <v>17024</v>
       </c>
       <c r="G244">
-        <v>19321</v>
+        <v>18476</v>
       </c>
       <c r="H244">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="I244">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="J244">
-        <v>1.1299999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K244">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="L244">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="M244">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10503,40 +10511,40 @@
         <v>44135</v>
       </c>
       <c r="B245">
-        <v>11073</v>
+        <v>16130</v>
       </c>
       <c r="C245">
-        <v>7549</v>
+        <v>15256</v>
       </c>
       <c r="D245">
-        <v>15165</v>
+        <v>17092</v>
       </c>
       <c r="E245">
-        <v>14248</v>
+        <v>17188</v>
       </c>
       <c r="F245">
-        <v>10583</v>
+        <v>16391</v>
       </c>
       <c r="G245">
-        <v>17946</v>
+        <v>17971</v>
       </c>
       <c r="H245">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="K245">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="L245">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="M245">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10544,31 +10552,441 @@
         <v>44136</v>
       </c>
       <c r="B246">
-        <v>13329</v>
+        <v>17132</v>
       </c>
       <c r="C246">
-        <v>6984</v>
+        <v>15741</v>
       </c>
       <c r="D246">
-        <v>20675</v>
+        <v>18656</v>
       </c>
       <c r="E246">
-        <v>13394</v>
+        <v>16930</v>
       </c>
       <c r="F246">
-        <v>9019</v>
+        <v>15969</v>
       </c>
       <c r="G246">
-        <v>18135</v>
+        <v>17919</v>
       </c>
       <c r="H246">
+        <v>0.95</v>
+      </c>
+      <c r="I246">
+        <v>0.92</v>
+      </c>
+      <c r="J246">
+        <v>0.98</v>
+      </c>
+      <c r="K246">
+        <v>1.05</v>
+      </c>
+      <c r="L246">
+        <v>1.03</v>
+      </c>
+      <c r="M246">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B247">
+        <v>21029</v>
+      </c>
+      <c r="C247">
+        <v>19162</v>
+      </c>
+      <c r="D247">
+        <v>22530</v>
+      </c>
+      <c r="E247">
+        <v>17915</v>
+      </c>
+      <c r="F247">
+        <v>16668</v>
+      </c>
+      <c r="G247">
+        <v>19095</v>
+      </c>
+      <c r="H247">
+        <v>0.98</v>
+      </c>
+      <c r="I247">
+        <v>0.94</v>
+      </c>
+      <c r="J247">
+        <v>1.03</v>
+      </c>
+      <c r="K247">
+        <v>1.04</v>
+      </c>
+      <c r="L247">
+        <v>1.02</v>
+      </c>
+      <c r="M247">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B248">
+        <v>19582</v>
+      </c>
+      <c r="C248">
+        <v>17522</v>
+      </c>
+      <c r="D248">
+        <v>21481</v>
+      </c>
+      <c r="E248">
+        <v>18468</v>
+      </c>
+      <c r="F248">
+        <v>16920</v>
+      </c>
+      <c r="G248">
+        <v>19940</v>
+      </c>
+      <c r="H248">
+        <v>1.04</v>
+      </c>
+      <c r="I248">
+        <v>0.98</v>
+      </c>
+      <c r="J248">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K248">
+        <v>1.04</v>
+      </c>
+      <c r="L248">
+        <v>1.01</v>
+      </c>
+      <c r="M248">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B249">
+        <v>18651</v>
+      </c>
+      <c r="C249">
+        <v>16262</v>
+      </c>
+      <c r="D249">
+        <v>20550</v>
+      </c>
+      <c r="E249">
+        <v>19098</v>
+      </c>
+      <c r="F249">
+        <v>17172</v>
+      </c>
+      <c r="G249">
+        <v>20804</v>
+      </c>
+      <c r="H249">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I249">
+        <v>1.04</v>
+      </c>
+      <c r="J249">
+        <v>1.17</v>
+      </c>
+      <c r="K249">
+        <v>1.03</v>
+      </c>
+      <c r="L249">
+        <v>0.99</v>
+      </c>
+      <c r="M249">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B250">
+        <v>17136</v>
+      </c>
+      <c r="C250">
+        <v>14939</v>
+      </c>
+      <c r="D250">
+        <v>19419</v>
+      </c>
+      <c r="E250">
+        <v>19100</v>
+      </c>
+      <c r="F250">
+        <v>16971</v>
+      </c>
+      <c r="G250">
+        <v>20995</v>
+      </c>
+      <c r="H250">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I250">
+        <v>1.06</v>
+      </c>
+      <c r="J250">
+        <v>1.18</v>
+      </c>
+      <c r="K250">
+        <v>1.01</v>
+      </c>
+      <c r="L250">
+        <v>0.97</v>
+      </c>
+      <c r="M250">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B251">
+        <v>16562</v>
+      </c>
+      <c r="C251">
+        <v>13634</v>
+      </c>
+      <c r="D251">
+        <v>19178</v>
+      </c>
+      <c r="E251">
+        <v>17983</v>
+      </c>
+      <c r="F251">
+        <v>15589</v>
+      </c>
+      <c r="G251">
+        <v>20157</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0.94</v>
+      </c>
+      <c r="J251">
+        <v>1.07</v>
+      </c>
+      <c r="K251">
+        <v>0.99</v>
+      </c>
+      <c r="L251">
+        <v>0.95</v>
+      </c>
+      <c r="M251">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B252">
+        <v>15737</v>
+      </c>
+      <c r="C252">
+        <v>12425</v>
+      </c>
+      <c r="D252">
+        <v>18525</v>
+      </c>
+      <c r="E252">
+        <v>17022</v>
+      </c>
+      <c r="F252">
+        <v>14315</v>
+      </c>
+      <c r="G252">
+        <v>19418</v>
+      </c>
+      <c r="H252">
+        <v>0.92</v>
+      </c>
+      <c r="I252">
+        <v>0.84</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>0.99</v>
+      </c>
+      <c r="L252">
+        <v>0.94</v>
+      </c>
+      <c r="M252">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B253">
+        <v>16729</v>
+      </c>
+      <c r="C253">
+        <v>12290</v>
+      </c>
+      <c r="D253">
+        <v>20840</v>
+      </c>
+      <c r="E253">
+        <v>16541</v>
+      </c>
+      <c r="F253">
+        <v>13322</v>
+      </c>
+      <c r="G253">
+        <v>19490</v>
+      </c>
+      <c r="H253">
+        <v>0.87</v>
+      </c>
+      <c r="I253">
+        <v>0.78</v>
+      </c>
+      <c r="J253">
+        <v>0.96</v>
+      </c>
+      <c r="K253">
+        <v>0.98</v>
+      </c>
+      <c r="L253">
+        <v>0.91</v>
+      </c>
+      <c r="M253">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B254">
+        <v>20413</v>
+      </c>
+      <c r="C254">
+        <v>15450</v>
+      </c>
+      <c r="D254">
+        <v>26552</v>
+      </c>
+      <c r="E254">
+        <v>17360</v>
+      </c>
+      <c r="F254">
+        <v>13450</v>
+      </c>
+      <c r="G254">
+        <v>21274</v>
+      </c>
+      <c r="H254">
+        <v>0.91</v>
+      </c>
+      <c r="I254">
         <v>0.79</v>
       </c>
-      <c r="I246">
-        <v>0.65</v>
-      </c>
-      <c r="J246">
-        <v>0.96</v>
+      <c r="J254">
+        <v>1.03</v>
+      </c>
+      <c r="K254">
+        <v>1.01</v>
+      </c>
+      <c r="L254">
+        <v>0.91</v>
+      </c>
+      <c r="M254">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="A255" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B255">
+        <v>22010</v>
+      </c>
+      <c r="C255">
+        <v>15206</v>
+      </c>
+      <c r="D255">
+        <v>30249</v>
+      </c>
+      <c r="E255">
+        <v>18722</v>
+      </c>
+      <c r="F255">
+        <v>13843</v>
+      </c>
+      <c r="G255">
+        <v>24041</v>
+      </c>
+      <c r="H255">
+        <v>1.04</v>
+      </c>
+      <c r="I255">
+        <v>0.88</v>
+      </c>
+      <c r="J255">
+        <v>1.2</v>
+      </c>
+      <c r="K255">
+        <v>1.03</v>
+      </c>
+      <c r="L255">
+        <v>0.93</v>
+      </c>
+      <c r="M255">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B256">
+        <v>21613</v>
+      </c>
+      <c r="C256">
+        <v>12001</v>
+      </c>
+      <c r="D256">
+        <v>31668</v>
+      </c>
+      <c r="E256">
+        <v>20191</v>
+      </c>
+      <c r="F256">
+        <v>13737</v>
+      </c>
+      <c r="G256">
+        <v>27327</v>
+      </c>
+      <c r="H256">
+        <v>1.19</v>
+      </c>
+      <c r="I256">
+        <v>1.01</v>
+      </c>
+      <c r="J256">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/data/nowcasting-data.xlsx
+++ b/data/nowcasting-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-15\Nowcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2020-11-16\Nowcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6597CC-7B43-42B0-A531-29CACE7D658B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B1D00-46BD-41E0-B01C-768ECADC5228}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Ergebnisse des Nowcastings und der Schätzung der Reproduktionszahl R</t>
   </si>
   <si>
-    <t>Datenstand: 15.11.2020, 00:00 Uhr</t>
+    <t>Datenstand: 16.11.2020, 00:00 Uhr</t>
   </si>
   <si>
     <t>Die Ergebnisse des Nowcastings, also die Schätzung der Anzahl von COVID-19 Neuerkrankungen wird dargestellt mit einem gleitenden 4-Tages-Mittelwert.</t>
@@ -41,7 +41,7 @@
     <t>Dabei wird jeder Wert mit den Werten der 3 vorhergehenden Tage gemittelt.</t>
   </si>
   <si>
-    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 15.11.2020 dargestellten Nowcasting-Kurve.</t>
+    <t>Die Schätzwerte entsprechen der im täglichen Lagebericht des Robert Koch-Instituts vom 16.11.2020 dargestellten Nowcasting-Kurve.</t>
   </si>
   <si>
     <t>Der letzte Schätzwert der Reproduktionszahl R wird ebenfalls im gleichen Lagebericht erwähnt.</t>
@@ -464,7 +464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -563,18 +563,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="19.77734375" customWidth="1"/>
+    <col min="1" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="86.4">
+    <row r="1" spans="1:13" ht="90">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -623,16 +623,16 @@
         <v>304</v>
       </c>
       <c r="C2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>225</v>
       </c>
       <c r="F2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2">
         <v>238</v>
@@ -643,19 +643,19 @@
         <v>43893</v>
       </c>
       <c r="B3">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D3">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>261</v>
       </c>
       <c r="F3">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3">
         <v>276</v>
@@ -666,22 +666,22 @@
         <v>43894</v>
       </c>
       <c r="B4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D4">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -689,22 +689,22 @@
         <v>43895</v>
       </c>
       <c r="B5">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C5">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D5">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E5">
         <v>394</v>
       </c>
       <c r="F5">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G5">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -712,19 +712,19 @@
         <v>43896</v>
       </c>
       <c r="B6">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C6">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D6">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E6">
         <v>508</v>
       </c>
       <c r="F6">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G6">
         <v>529</v>
@@ -736,7 +736,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="J6">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="K6">
         <v>2.34</v>
@@ -753,40 +753,40 @@
         <v>43897</v>
       </c>
       <c r="B7">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C7">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D7">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E7">
         <v>674</v>
       </c>
       <c r="F7">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G7">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H7">
         <v>2.58</v>
       </c>
       <c r="I7">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="K7">
         <v>2.56</v>
       </c>
       <c r="L7">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="M7">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -806,25 +806,25 @@
         <v>896</v>
       </c>
       <c r="F8">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G8">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H8">
         <v>2.75</v>
       </c>
       <c r="I8">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="J8">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="K8">
         <v>2.94</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="M8">
         <v>2.99</v>
@@ -835,37 +835,37 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C9">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="D9">
         <v>2059</v>
       </c>
       <c r="E9">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F9">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G9">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H9">
         <v>3.24</v>
       </c>
       <c r="I9">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="J9">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="K9">
         <v>3.13</v>
       </c>
       <c r="L9">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="M9">
         <v>3.18</v>
@@ -876,19 +876,19 @@
         <v>43900</v>
       </c>
       <c r="B10">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="C10">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="D10">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="E10">
         <v>1728</v>
       </c>
       <c r="F10">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="G10">
         <v>1763</v>
@@ -897,13 +897,13 @@
         <v>3.4</v>
       </c>
       <c r="I10">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="J10">
         <v>3.48</v>
       </c>
       <c r="K10">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
       <c r="L10">
         <v>3.18</v>
@@ -917,22 +917,22 @@
         <v>43901</v>
       </c>
       <c r="B11">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C11">
-        <v>3197</v>
+        <v>3188</v>
       </c>
       <c r="D11">
-        <v>3286</v>
+        <v>3293</v>
       </c>
       <c r="E11">
         <v>2291</v>
       </c>
       <c r="F11">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="G11">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="H11">
         <v>3.4</v>
@@ -944,13 +944,13 @@
         <v>3.46</v>
       </c>
       <c r="K11">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="L11">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="M11">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -958,31 +958,31 @@
         <v>43902</v>
       </c>
       <c r="B12">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C12">
-        <v>3556</v>
+        <v>3539</v>
       </c>
       <c r="D12">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="E12">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="F12">
-        <v>2817</v>
+        <v>2809</v>
       </c>
       <c r="G12">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="H12">
         <v>3.19</v>
       </c>
       <c r="I12">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="J12">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="K12">
         <v>2.84</v>
@@ -999,22 +999,22 @@
         <v>43903</v>
       </c>
       <c r="B13">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="C13">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="D13">
-        <v>4415</v>
+        <v>4419</v>
       </c>
       <c r="E13">
         <v>3442</v>
       </c>
       <c r="F13">
-        <v>3397</v>
+        <v>3390</v>
       </c>
       <c r="G13">
-        <v>3489</v>
+        <v>3493</v>
       </c>
       <c r="H13">
         <v>2.7</v>
@@ -1023,7 +1023,7 @@
         <v>2.66</v>
       </c>
       <c r="J13">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1040,28 +1040,28 @@
         <v>43904</v>
       </c>
       <c r="B14">
-        <v>4434</v>
+        <v>4437</v>
       </c>
       <c r="C14">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="D14">
-        <v>4488</v>
+        <v>4490</v>
       </c>
       <c r="E14">
-        <v>3908</v>
+        <v>3910</v>
       </c>
       <c r="F14">
-        <v>3859</v>
+        <v>3852</v>
       </c>
       <c r="G14">
-        <v>3959</v>
+        <v>3963</v>
       </c>
       <c r="H14">
         <v>2.2599999999999998</v>
       </c>
       <c r="I14">
-        <v>2.23</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J14">
         <v>2.29</v>
@@ -1070,7 +1070,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="L14">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="M14">
         <v>2.2000000000000002</v>
@@ -1081,22 +1081,22 @@
         <v>43905</v>
       </c>
       <c r="B15">
-        <v>4677</v>
+        <v>4674</v>
       </c>
       <c r="C15">
         <v>4617</v>
       </c>
       <c r="D15">
-        <v>4734</v>
+        <v>4738</v>
       </c>
       <c r="E15">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="F15">
-        <v>4214</v>
+        <v>4209</v>
       </c>
       <c r="G15">
-        <v>4321</v>
+        <v>4324</v>
       </c>
       <c r="H15">
         <v>1.86</v>
@@ -1114,7 +1114,7 @@
         <v>1.98</v>
       </c>
       <c r="M15">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1122,10 +1122,10 @@
         <v>43906</v>
       </c>
       <c r="B16">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="C16">
-        <v>5966</v>
+        <v>5960</v>
       </c>
       <c r="D16">
         <v>6082</v>
@@ -1134,10 +1134,10 @@
         <v>4873</v>
       </c>
       <c r="F16">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="G16">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="H16">
         <v>1.71</v>
@@ -1163,22 +1163,22 @@
         <v>43907</v>
       </c>
       <c r="B17">
-        <v>5232</v>
+        <v>5236</v>
       </c>
       <c r="C17">
-        <v>5172</v>
+        <v>5187</v>
       </c>
       <c r="D17">
-        <v>5300</v>
+        <v>5293</v>
       </c>
       <c r="E17">
-        <v>5091</v>
+        <v>5092</v>
       </c>
       <c r="F17">
-        <v>5033</v>
+        <v>5035</v>
       </c>
       <c r="G17">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="H17">
         <v>1.48</v>
@@ -1204,22 +1204,22 @@
         <v>43908</v>
       </c>
       <c r="B18">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C18">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="D18">
-        <v>5356</v>
+        <v>5352</v>
       </c>
       <c r="E18">
         <v>5305</v>
       </c>
       <c r="F18">
-        <v>5248</v>
+        <v>5250</v>
       </c>
       <c r="G18">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="H18">
         <v>1.36</v>
@@ -1245,28 +1245,28 @@
         <v>43909</v>
       </c>
       <c r="B19">
-        <v>4723</v>
+        <v>4727</v>
       </c>
       <c r="C19">
-        <v>4663</v>
+        <v>4671</v>
       </c>
       <c r="D19">
-        <v>4786</v>
+        <v>4790</v>
       </c>
       <c r="E19">
-        <v>5317</v>
+        <v>5318</v>
       </c>
       <c r="F19">
-        <v>5259</v>
+        <v>5263</v>
       </c>
       <c r="G19">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="H19">
         <v>1.25</v>
       </c>
       <c r="I19">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="J19">
         <v>1.26</v>
@@ -1286,19 +1286,19 @@
         <v>43910</v>
       </c>
       <c r="B20">
-        <v>5325</v>
+        <v>5328</v>
       </c>
       <c r="C20">
-        <v>5256</v>
+        <v>5261</v>
       </c>
       <c r="D20">
-        <v>5387</v>
+        <v>5392</v>
       </c>
       <c r="E20">
-        <v>5143</v>
+        <v>5145</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>5088</v>
       </c>
       <c r="G20">
         <v>5207</v>
@@ -1327,22 +1327,22 @@
         <v>43911</v>
       </c>
       <c r="B21">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="C21">
-        <v>4394</v>
+        <v>4390</v>
       </c>
       <c r="D21">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="E21">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="F21">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="G21">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="H21">
         <v>0.97</v>
@@ -1368,28 +1368,28 @@
         <v>43912</v>
       </c>
       <c r="B22">
-        <v>3811</v>
+        <v>3813</v>
       </c>
       <c r="C22">
-        <v>3758</v>
+        <v>3753</v>
       </c>
       <c r="D22">
-        <v>3867</v>
+        <v>3872</v>
       </c>
       <c r="E22">
-        <v>4576</v>
+        <v>4578</v>
       </c>
       <c r="F22">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="G22">
-        <v>4635</v>
+        <v>4638</v>
       </c>
       <c r="H22">
         <v>0.86</v>
       </c>
       <c r="I22">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J22">
         <v>0.87</v>
@@ -1409,22 +1409,22 @@
         <v>43913</v>
       </c>
       <c r="B23">
-        <v>5157</v>
+        <v>5153</v>
       </c>
       <c r="C23">
         <v>5096</v>
       </c>
       <c r="D23">
-        <v>5217</v>
+        <v>5205</v>
       </c>
       <c r="E23">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="F23">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="G23">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="H23">
         <v>0.88</v>
@@ -1450,22 +1450,22 @@
         <v>43914</v>
       </c>
       <c r="B24">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="C24">
         <v>4024</v>
       </c>
       <c r="D24">
-        <v>4134</v>
+        <v>4131</v>
       </c>
       <c r="E24">
         <v>4372</v>
       </c>
       <c r="F24">
-        <v>4318</v>
+        <v>4316</v>
       </c>
       <c r="G24">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="H24">
         <v>0.85</v>
@@ -1491,22 +1491,22 @@
         <v>43915</v>
       </c>
       <c r="B25">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="C25">
-        <v>4347</v>
+        <v>4360</v>
       </c>
       <c r="D25">
-        <v>4488</v>
+        <v>4475</v>
       </c>
       <c r="E25">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="F25">
-        <v>4306</v>
+        <v>4308</v>
       </c>
       <c r="G25">
-        <v>4426</v>
+        <v>4421</v>
       </c>
       <c r="H25">
         <v>0.88</v>
@@ -1535,25 +1535,25 @@
         <v>4000</v>
       </c>
       <c r="C26">
-        <v>3935</v>
+        <v>3946</v>
       </c>
       <c r="D26">
-        <v>4070</v>
+        <v>4067</v>
       </c>
       <c r="E26">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="F26">
-        <v>4350</v>
+        <v>4356</v>
       </c>
       <c r="G26">
-        <v>4477</v>
+        <v>4469</v>
       </c>
       <c r="H26">
         <v>0.96</v>
       </c>
       <c r="I26">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J26">
         <v>0.97</v>
@@ -1573,22 +1573,22 @@
         <v>43917</v>
       </c>
       <c r="B27">
-        <v>4123</v>
+        <v>4125</v>
       </c>
       <c r="C27">
-        <v>4057</v>
+        <v>4075</v>
       </c>
       <c r="D27">
-        <v>4187</v>
+        <v>4176</v>
       </c>
       <c r="E27">
         <v>4155</v>
       </c>
       <c r="F27">
-        <v>4091</v>
+        <v>4101</v>
       </c>
       <c r="G27">
-        <v>4219</v>
+        <v>4212</v>
       </c>
       <c r="H27">
         <v>0.89</v>
@@ -1597,7 +1597,7 @@
         <v>0.88</v>
       </c>
       <c r="J27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K27">
         <v>0.9</v>
@@ -1614,22 +1614,22 @@
         <v>43918</v>
       </c>
       <c r="B28">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="C28">
-        <v>3824</v>
+        <v>3826</v>
       </c>
       <c r="D28">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="E28">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="F28">
-        <v>4041</v>
+        <v>4052</v>
       </c>
       <c r="G28">
-        <v>4175</v>
+        <v>4168</v>
       </c>
       <c r="H28">
         <v>0.94</v>
@@ -1641,7 +1641,7 @@
         <v>0.95</v>
       </c>
       <c r="K28">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L28">
         <v>0.9</v>
@@ -1658,25 +1658,25 @@
         <v>3263</v>
       </c>
       <c r="C29">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="D29">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="E29">
         <v>3818</v>
       </c>
       <c r="F29">
-        <v>3754</v>
+        <v>3763</v>
       </c>
       <c r="G29">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="H29">
         <v>0.87</v>
       </c>
       <c r="I29">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J29">
         <v>0.88</v>
@@ -1696,22 +1696,22 @@
         <v>43920</v>
       </c>
       <c r="B30">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="C30">
-        <v>4331</v>
+        <v>4328</v>
       </c>
       <c r="D30">
-        <v>4463</v>
+        <v>4455</v>
       </c>
       <c r="E30">
         <v>3916</v>
       </c>
       <c r="F30">
-        <v>3853</v>
+        <v>3858</v>
       </c>
       <c r="G30">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="H30">
         <v>0.89</v>
@@ -1726,7 +1726,7 @@
         <v>0.92</v>
       </c>
       <c r="L30">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M30">
         <v>0.93</v>
@@ -1737,22 +1737,22 @@
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="C31">
-        <v>3520</v>
+        <v>3512</v>
       </c>
       <c r="D31">
-        <v>3630</v>
+        <v>3655</v>
       </c>
       <c r="E31">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="F31">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="G31">
-        <v>3843</v>
+        <v>3847</v>
       </c>
       <c r="H31">
         <v>0.91</v>
@@ -1778,22 +1778,22 @@
         <v>43922</v>
       </c>
       <c r="B32">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="C32">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="D32">
-        <v>4103</v>
+        <v>4095</v>
       </c>
       <c r="E32">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="F32">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="G32">
-        <v>3880</v>
+        <v>3882</v>
       </c>
       <c r="H32">
         <v>0.93</v>
@@ -1822,19 +1822,19 @@
         <v>3730</v>
       </c>
       <c r="C33">
-        <v>3663</v>
+        <v>3674</v>
       </c>
       <c r="D33">
-        <v>3787</v>
+        <v>3800</v>
       </c>
       <c r="E33">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="F33">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="G33">
-        <v>3996</v>
+        <v>4001</v>
       </c>
       <c r="H33">
         <v>1.03</v>
@@ -1860,22 +1860,22 @@
         <v>43924</v>
       </c>
       <c r="B34">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="C34">
-        <v>3660</v>
+        <v>3674</v>
       </c>
       <c r="D34">
-        <v>3791</v>
+        <v>3786</v>
       </c>
       <c r="E34">
         <v>3770</v>
       </c>
       <c r="F34">
-        <v>3706</v>
+        <v>3710</v>
       </c>
       <c r="G34">
-        <v>3828</v>
+        <v>3834</v>
       </c>
       <c r="H34">
         <v>0.96</v>
@@ -1890,7 +1890,7 @@
         <v>0.93</v>
       </c>
       <c r="L34">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M34">
         <v>0.94</v>
@@ -1901,19 +1901,19 @@
         <v>43925</v>
       </c>
       <c r="B35">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="C35">
-        <v>2956</v>
+        <v>2951</v>
       </c>
       <c r="D35">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="E35">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="F35">
-        <v>3565</v>
+        <v>3570</v>
       </c>
       <c r="G35">
         <v>3686</v>
@@ -1942,19 +1942,19 @@
         <v>43926</v>
       </c>
       <c r="B36">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C36">
-        <v>2655</v>
+        <v>2641</v>
       </c>
       <c r="D36">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="E36">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="F36">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="G36">
         <v>3349</v>
@@ -1983,22 +1983,22 @@
         <v>43927</v>
       </c>
       <c r="B37">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="C37">
-        <v>3298</v>
+        <v>3293</v>
       </c>
       <c r="D37">
-        <v>3418</v>
+        <v>3400</v>
       </c>
       <c r="E37">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="F37">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="G37">
-        <v>3256</v>
+        <v>3249</v>
       </c>
       <c r="H37">
         <v>0.81</v>
@@ -2024,22 +2024,22 @@
         <v>43928</v>
       </c>
       <c r="B38">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="C38">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="D38">
-        <v>3111</v>
+        <v>3116</v>
       </c>
       <c r="E38">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="F38">
-        <v>2977</v>
+        <v>2971</v>
       </c>
       <c r="G38">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="H38">
         <v>0.8</v>
@@ -2068,19 +2068,19 @@
         <v>2877</v>
       </c>
       <c r="C39">
-        <v>2823</v>
+        <v>2814</v>
       </c>
       <c r="D39">
+        <v>2947</v>
+      </c>
+      <c r="E39">
+        <v>2994</v>
+      </c>
+      <c r="F39">
         <v>2937</v>
       </c>
-      <c r="E39">
-        <v>2995</v>
-      </c>
-      <c r="F39">
-        <v>2943</v>
-      </c>
       <c r="G39">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="H39">
         <v>0.83</v>
@@ -2095,7 +2095,7 @@
         <v>0.85</v>
       </c>
       <c r="L39">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M39">
         <v>0.86</v>
@@ -2109,16 +2109,16 @@
         <v>2696</v>
       </c>
       <c r="C40">
-        <v>2640</v>
+        <v>2633</v>
       </c>
       <c r="D40">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="E40">
         <v>2994</v>
       </c>
       <c r="F40">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="G40">
         <v>3054</v>
@@ -2147,28 +2147,28 @@
         <v>43931</v>
       </c>
       <c r="B41">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C41">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="D41">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E41">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="F41">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="G41">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="H41">
         <v>0.86</v>
       </c>
       <c r="I41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.87</v>
@@ -2188,22 +2188,22 @@
         <v>43932</v>
       </c>
       <c r="B42">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C42">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="D42">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="E42">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F42">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="G42">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="H42">
         <v>0.82</v>
@@ -2229,22 +2229,22 @@
         <v>43933</v>
       </c>
       <c r="B43">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="C43">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D43">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E43">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="F43">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="G43">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="H43">
         <v>0.75</v>
@@ -2256,7 +2256,7 @@
         <v>0.76</v>
       </c>
       <c r="K43">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L43">
         <v>0.78</v>
@@ -2270,22 +2270,22 @@
         <v>43934</v>
       </c>
       <c r="B44">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="C44">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="D44">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E44">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="F44">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G44">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="H44">
         <v>0.68</v>
@@ -2311,22 +2311,22 @@
         <v>43935</v>
       </c>
       <c r="B45">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C45">
         <v>1895</v>
       </c>
       <c r="D45">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E45">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="F45">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="G45">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="H45">
         <v>0.71</v>
@@ -2352,22 +2352,22 @@
         <v>43936</v>
       </c>
       <c r="B46">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C46">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D46">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="E46">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="F46">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="G46">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="H46">
         <v>0.78</v>
@@ -2393,22 +2393,22 @@
         <v>43937</v>
       </c>
       <c r="B47">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C47">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D47">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="E47">
         <v>1880</v>
       </c>
       <c r="F47">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="G47">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="H47">
         <v>0.84</v>
@@ -2434,28 +2434,28 @@
         <v>43938</v>
       </c>
       <c r="B48">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="C48">
         <v>1599</v>
       </c>
       <c r="D48">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E48">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F48">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G48">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="H48">
         <v>0.89</v>
       </c>
       <c r="I48">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J48">
         <v>0.91</v>
@@ -2475,22 +2475,22 @@
         <v>43939</v>
       </c>
       <c r="B49">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="C49">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="D49">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="E49">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F49">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="G49">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="H49">
         <v>0.87</v>
@@ -2499,7 +2499,7 @@
         <v>0.85</v>
       </c>
       <c r="J49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K49">
         <v>0.81</v>
@@ -2519,19 +2519,19 @@
         <v>1308</v>
       </c>
       <c r="C50">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="D50">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="E50">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="F50">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="G50">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="H50">
         <v>0.8</v>
@@ -2560,25 +2560,25 @@
         <v>1575</v>
       </c>
       <c r="C51">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D51">
         <v>1617</v>
       </c>
       <c r="E51">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="F51">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G51">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H51">
         <v>0.79</v>
       </c>
       <c r="I51">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J51">
         <v>0.81</v>
@@ -2598,22 +2598,22 @@
         <v>43942</v>
       </c>
       <c r="B52">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="C52">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="D52">
-        <v>1392</v>
+        <v>1401</v>
       </c>
       <c r="E52">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F52">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="G52">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="H52">
         <v>0.78</v>
@@ -2642,19 +2642,19 @@
         <v>1293</v>
       </c>
       <c r="C53">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="D53">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="E53">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F53">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G53">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H53">
         <v>0.82</v>
@@ -2680,19 +2680,19 @@
         <v>43944</v>
       </c>
       <c r="B54">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C54">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D54">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E54">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F54">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G54">
         <v>1414</v>
@@ -2701,7 +2701,7 @@
         <v>0.89</v>
       </c>
       <c r="I54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J54">
         <v>0.91</v>
@@ -2721,22 +2721,22 @@
         <v>43945</v>
       </c>
       <c r="B55">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C55">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D55">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="E55">
         <v>1264</v>
       </c>
       <c r="F55">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="G55">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H55">
         <v>0.85</v>
@@ -2762,19 +2762,19 @@
         <v>43946</v>
       </c>
       <c r="B56">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C56">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D56">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E56">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F56">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="G56">
         <v>1219</v>
@@ -2803,28 +2803,28 @@
         <v>43947</v>
       </c>
       <c r="B57">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C57">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D57">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="E57">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F57">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G57">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="H57">
         <v>0.78</v>
       </c>
       <c r="I57">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J57">
         <v>0.8</v>
@@ -2844,28 +2844,28 @@
         <v>43948</v>
       </c>
       <c r="B58">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C58">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D58">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E58">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F58">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G58">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="H58">
         <v>0.76</v>
       </c>
       <c r="I58">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J58">
         <v>0.78</v>
@@ -2888,25 +2888,25 @@
         <v>943</v>
       </c>
       <c r="C59">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D59">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="E59">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F59">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G59">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="H59">
         <v>0.78</v>
       </c>
       <c r="I59">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J59">
         <v>0.8</v>
@@ -2929,19 +2929,19 @@
         <v>864</v>
       </c>
       <c r="C60">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D60">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E60">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F60">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G60">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H60">
         <v>0.81</v>
@@ -2967,13 +2967,13 @@
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C61">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D61">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E61">
         <v>962</v>
@@ -2982,19 +2982,19 @@
         <v>926</v>
       </c>
       <c r="G61">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H61">
         <v>0.89</v>
       </c>
       <c r="I61">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J61">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K61">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="L61">
         <v>0.8</v>
@@ -3008,19 +3008,19 @@
         <v>43952</v>
       </c>
       <c r="B62">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C62">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D62">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E62">
         <v>891</v>
       </c>
       <c r="F62">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G62">
         <v>927</v>
@@ -3041,7 +3041,7 @@
         <v>0.81</v>
       </c>
       <c r="M62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3049,22 +3049,22 @@
         <v>43953</v>
       </c>
       <c r="B63">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C63">
         <v>709</v>
       </c>
       <c r="D63">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E63">
         <v>840</v>
       </c>
       <c r="F63">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G63">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="H63">
         <v>0.85</v>
@@ -3082,7 +3082,7 @@
         <v>0.84</v>
       </c>
       <c r="M63">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3090,22 +3090,22 @@
         <v>43954</v>
       </c>
       <c r="B64">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C64">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D64">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E64">
         <v>813</v>
       </c>
       <c r="F64">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G64">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H64">
         <v>0.85</v>
@@ -3131,22 +3131,22 @@
         <v>43955</v>
       </c>
       <c r="B65">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C65">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="D65">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E65">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F65">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G65">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H65">
         <v>0.83</v>
@@ -3155,7 +3155,7 @@
         <v>0.81</v>
       </c>
       <c r="J65">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K65">
         <v>0.89</v>
@@ -3172,19 +3172,19 @@
         <v>43956</v>
       </c>
       <c r="B66">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C66">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D66">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E66">
         <v>801</v>
       </c>
       <c r="F66">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G66">
         <v>834</v>
@@ -3196,7 +3196,7 @@
         <v>0.87</v>
       </c>
       <c r="J66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K66">
         <v>0.9</v>
@@ -3213,19 +3213,19 @@
         <v>43957</v>
       </c>
       <c r="B67">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C67">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D67">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E67">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F67">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G67">
         <v>835</v>
@@ -3234,7 +3234,7 @@
         <v>0.95</v>
       </c>
       <c r="I67">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J67">
         <v>0.98</v>
@@ -3254,19 +3254,19 @@
         <v>43958</v>
       </c>
       <c r="B68">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C68">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="D68">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E68">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F68">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G68">
         <v>823</v>
@@ -3295,10 +3295,10 @@
         <v>43959</v>
       </c>
       <c r="B69">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C69">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D69">
         <v>714</v>
@@ -3307,7 +3307,7 @@
         <v>736</v>
       </c>
       <c r="F69">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G69">
         <v>770</v>
@@ -3339,22 +3339,22 @@
         <v>581</v>
       </c>
       <c r="C70">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D70">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E70">
         <v>677</v>
       </c>
       <c r="F70">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G70">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I70">
         <v>0.82</v>
@@ -3369,7 +3369,7 @@
         <v>0.86</v>
       </c>
       <c r="M70">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3380,19 +3380,19 @@
         <v>554</v>
       </c>
       <c r="C71">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D71">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E71">
         <v>630</v>
       </c>
       <c r="F71">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G71">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -3418,19 +3418,19 @@
         <v>43962</v>
       </c>
       <c r="B72">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C72">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D72">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E72">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F72">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G72">
         <v>653</v>
@@ -3465,13 +3465,13 @@
         <v>590</v>
       </c>
       <c r="D73">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E73">
         <v>606</v>
       </c>
       <c r="F73">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G73">
         <v>638</v>
@@ -3480,7 +3480,7 @@
         <v>0.82</v>
       </c>
       <c r="I73">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J73">
         <v>0.85</v>
@@ -3500,22 +3500,22 @@
         <v>43964</v>
       </c>
       <c r="B74">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C74">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D74">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E74">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F74">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G74">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H74">
         <v>0.9</v>
@@ -3547,16 +3547,16 @@
         <v>497</v>
       </c>
       <c r="D75">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E75">
         <v>600</v>
       </c>
       <c r="F75">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G75">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H75">
         <v>0.95</v>
@@ -3582,22 +3582,22 @@
         <v>43966</v>
       </c>
       <c r="B76">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C76">
         <v>645</v>
       </c>
       <c r="D76">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E76">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F76">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G76">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H76">
         <v>0.97</v>
@@ -3626,28 +3626,28 @@
         <v>558</v>
       </c>
       <c r="C77">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D77">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E77">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F77">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G77">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H77">
         <v>0.97</v>
       </c>
       <c r="I77">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K77">
         <v>0.93</v>
@@ -3664,16 +3664,16 @@
         <v>43968</v>
       </c>
       <c r="B78">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C78">
         <v>413</v>
       </c>
       <c r="D78">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E78">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F78">
         <v>521</v>
@@ -3685,7 +3685,7 @@
         <v>0.91</v>
       </c>
       <c r="I78">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J78">
         <v>0.94</v>
@@ -3705,25 +3705,25 @@
         <v>43969</v>
       </c>
       <c r="B79">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C79">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D79">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E79">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F79">
         <v>543</v>
       </c>
       <c r="G79">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H79">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I79">
         <v>0.92</v>
@@ -3746,22 +3746,22 @@
         <v>43970</v>
       </c>
       <c r="B80">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C80">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D80">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E80">
         <v>521</v>
       </c>
       <c r="F80">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G80">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H80">
         <v>0.86</v>
@@ -3779,7 +3779,7 @@
         <v>0.9</v>
       </c>
       <c r="M80">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3787,16 +3787,16 @@
         <v>43971</v>
       </c>
       <c r="B81">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C81">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D81">
         <v>594</v>
       </c>
       <c r="E81">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F81">
         <v>495</v>
@@ -3808,7 +3808,7 @@
         <v>0.89</v>
       </c>
       <c r="I81">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J81">
         <v>0.92</v>
@@ -3828,19 +3828,19 @@
         <v>43972</v>
       </c>
       <c r="B82">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C82">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D82">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E82">
         <v>509</v>
       </c>
       <c r="F82">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G82">
         <v>538</v>
@@ -3869,22 +3869,22 @@
         <v>43973</v>
       </c>
       <c r="B83">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C83">
         <v>362</v>
       </c>
       <c r="D83">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E83">
         <v>452</v>
       </c>
       <c r="F83">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G83">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H83">
         <v>0.79</v>
@@ -3899,7 +3899,7 @@
         <v>0.83</v>
       </c>
       <c r="L83">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="M83">
         <v>0.85</v>
@@ -3913,25 +3913,25 @@
         <v>364</v>
       </c>
       <c r="C84">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D84">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E84">
         <v>426</v>
       </c>
       <c r="F84">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G84">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H84">
         <v>0.82</v>
       </c>
       <c r="I84">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J84">
         <v>0.85</v>
@@ -3954,28 +3954,28 @@
         <v>372</v>
       </c>
       <c r="C85">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D85">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E85">
         <v>378</v>
       </c>
       <c r="F85">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G85">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H85">
         <v>0.72</v>
       </c>
       <c r="I85">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="J85">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K85">
         <v>0.81</v>
@@ -3992,19 +3992,19 @@
         <v>43976</v>
       </c>
       <c r="B86">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C86">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D86">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E86">
         <v>397</v>
       </c>
       <c r="F86">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G86">
         <v>423</v>
@@ -4039,19 +4039,19 @@
         <v>411</v>
       </c>
       <c r="D87">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E87">
         <v>409</v>
       </c>
       <c r="F87">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G87">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H87">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I87">
         <v>0.87</v>
@@ -4074,22 +4074,22 @@
         <v>43978</v>
       </c>
       <c r="B88">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C88">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D88">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E88">
         <v>432</v>
       </c>
       <c r="F88">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G88">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H88">
         <v>1.01</v>
@@ -4104,10 +4104,10 @@
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M88">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4118,16 +4118,16 @@
         <v>378</v>
       </c>
       <c r="C89">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D89">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E89">
         <v>433</v>
       </c>
       <c r="F89">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G89">
         <v>459</v>
@@ -4139,13 +4139,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J89">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="K89">
         <v>0.94</v>
       </c>
       <c r="L89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M89">
         <v>0.96</v>
@@ -4156,19 +4156,19 @@
         <v>43980</v>
       </c>
       <c r="B90">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C90">
         <v>328</v>
       </c>
       <c r="D90">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E90">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F90">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G90">
         <v>429</v>
@@ -4180,7 +4180,7 @@
         <v>0.97</v>
       </c>
       <c r="J90">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K90">
         <v>0.92</v>
@@ -4197,22 +4197,22 @@
         <v>43981</v>
       </c>
       <c r="B91">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C91">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E91">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F91">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G91">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H91">
         <v>0.9</v>
@@ -4221,7 +4221,7 @@
         <v>0.86</v>
       </c>
       <c r="J91">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K91">
         <v>0.92</v>
@@ -4241,7 +4241,7 @@
         <v>268</v>
       </c>
       <c r="C92">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D92">
         <v>293</v>
@@ -4250,7 +4250,7 @@
         <v>321</v>
       </c>
       <c r="F92">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G92">
         <v>345</v>
@@ -4259,7 +4259,7 @@
         <v>0.74</v>
       </c>
       <c r="I92">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="J92">
         <v>0.78</v>
@@ -4268,10 +4268,10 @@
         <v>0.88</v>
       </c>
       <c r="L92">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M92">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4279,22 +4279,22 @@
         <v>43983</v>
       </c>
       <c r="B93">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C93">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D93">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E93">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G93">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H93">
         <v>0.71</v>
@@ -4320,10 +4320,10 @@
         <v>43984</v>
       </c>
       <c r="B94">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C94">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D94">
         <v>463</v>
@@ -4335,16 +4335,16 @@
         <v>308</v>
       </c>
       <c r="G94">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H94">
         <v>0.82</v>
       </c>
       <c r="I94">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J94">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K94">
         <v>0.89</v>
@@ -4353,7 +4353,7 @@
         <v>0.87</v>
       </c>
       <c r="M94">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4361,28 +4361,28 @@
         <v>43985</v>
       </c>
       <c r="B95">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C95">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D95">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E95">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F95">
         <v>335</v>
       </c>
       <c r="G95">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H95">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I95">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J95">
         <v>1.02</v>
@@ -4394,7 +4394,7 @@
         <v>0.89</v>
       </c>
       <c r="M95">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4402,31 +4402,31 @@
         <v>43986</v>
       </c>
       <c r="B96">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C96">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D96">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E96">
         <v>377</v>
       </c>
       <c r="F96">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G96">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H96">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I96">
         <v>1.1200000000000001</v>
       </c>
       <c r="J96">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K96">
         <v>0.95</v>
@@ -4443,31 +4443,31 @@
         <v>43987</v>
       </c>
       <c r="B97">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C97">
         <v>299</v>
       </c>
       <c r="D97">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E97">
         <v>375</v>
       </c>
       <c r="F97">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G97">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H97">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I97">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J97">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K97">
         <v>0.96</v>
@@ -4484,10 +4484,10 @@
         <v>43988</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C98">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98">
         <v>321</v>
@@ -4499,7 +4499,7 @@
         <v>318</v>
       </c>
       <c r="G98">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H98">
         <v>1.03</v>
@@ -4508,7 +4508,7 @@
         <v>0.98</v>
       </c>
       <c r="J98">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K98">
         <v>0.96</v>
@@ -4525,22 +4525,22 @@
         <v>43989</v>
       </c>
       <c r="B99">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D99">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E99">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F99">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G99">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H99">
         <v>0.83</v>
@@ -4566,22 +4566,22 @@
         <v>43990</v>
       </c>
       <c r="B100">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C100">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D100">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E100">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F100">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G100">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H100">
         <v>0.84</v>
@@ -4590,7 +4590,7 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K100">
         <v>1.03</v>
@@ -4610,16 +4610,16 @@
         <v>448</v>
       </c>
       <c r="C101">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D101">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E101">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F101">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G101">
         <v>372</v>
@@ -4631,7 +4631,7 @@
         <v>0.89</v>
       </c>
       <c r="J101">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K101">
         <v>1.04</v>
@@ -4648,19 +4648,19 @@
         <v>43992</v>
       </c>
       <c r="B102">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C102">
         <v>409</v>
       </c>
       <c r="D102">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E102">
         <v>382</v>
       </c>
       <c r="F102">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G102">
         <v>406</v>
@@ -4675,7 +4675,7 @@
         <v>1.18</v>
       </c>
       <c r="K102">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="L102">
         <v>1.04</v>
@@ -4692,10 +4692,10 @@
         <v>369</v>
       </c>
       <c r="C103">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D103">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E103">
         <v>415</v>
@@ -4710,10 +4710,10 @@
         <v>1.39</v>
       </c>
       <c r="I103">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="J103">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="K103">
         <v>1.05</v>
@@ -4733,28 +4733,28 @@
         <v>371</v>
       </c>
       <c r="C104">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D104">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E104">
         <v>405</v>
       </c>
       <c r="F104">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G104">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H104">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I104">
         <v>1.23</v>
       </c>
       <c r="J104">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="K104">
         <v>1.07</v>
@@ -4771,16 +4771,16 @@
         <v>43995</v>
       </c>
       <c r="B105">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C105">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D105">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E105">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F105">
         <v>360</v>
@@ -4789,7 +4789,7 @@
         <v>409</v>
       </c>
       <c r="H105">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I105">
         <v>1.06</v>
@@ -4801,10 +4801,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="L105">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M105">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4815,16 +4815,16 @@
         <v>356</v>
       </c>
       <c r="C106">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D106">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E106">
         <v>365</v>
       </c>
       <c r="F106">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G106">
         <v>391</v>
@@ -4842,10 +4842,10 @@
         <v>1.19</v>
       </c>
       <c r="L106">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="M106">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4853,40 +4853,40 @@
         <v>43997</v>
       </c>
       <c r="B107">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C107">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D107">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E107">
         <v>434</v>
       </c>
       <c r="F107">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G107">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H107">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I107">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>1.0900000000000001</v>
       </c>
       <c r="K107">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="L107">
         <v>1.39</v>
       </c>
       <c r="M107">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4894,37 +4894,37 @@
         <v>43998</v>
       </c>
       <c r="B108">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C108">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D108">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E108">
         <v>620</v>
       </c>
       <c r="F108">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G108">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H108">
         <v>1.53</v>
       </c>
       <c r="I108">
+        <v>1.47</v>
+      </c>
+      <c r="J108">
+        <v>1.59</v>
+      </c>
+      <c r="K108">
         <v>1.48</v>
       </c>
-      <c r="J108">
-        <v>1.58</v>
-      </c>
-      <c r="K108">
-        <v>1.47</v>
-      </c>
       <c r="L108">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M108">
         <v>1.51</v>
@@ -4935,31 +4935,31 @@
         <v>43999</v>
       </c>
       <c r="B109">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C109">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D109">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E109">
         <v>694</v>
       </c>
       <c r="F109">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G109">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H109">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I109">
         <v>1.74</v>
       </c>
       <c r="J109">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="K109">
         <v>1.47</v>
@@ -4968,7 +4968,7 @@
         <v>1.44</v>
       </c>
       <c r="M109">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4979,7 +4979,7 @@
         <v>535</v>
       </c>
       <c r="C110">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D110">
         <v>564</v>
@@ -4988,7 +4988,7 @@
         <v>739</v>
       </c>
       <c r="F110">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G110">
         <v>771</v>
@@ -4997,19 +4997,19 @@
         <v>2.02</v>
       </c>
       <c r="I110">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J110">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K110">
         <v>1.42</v>
       </c>
       <c r="L110">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M110">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5017,13 +5017,13 @@
         <v>44001</v>
       </c>
       <c r="B111">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C111">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D111">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E111">
         <v>720</v>
@@ -5032,13 +5032,13 @@
         <v>689</v>
       </c>
       <c r="G111">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H111">
         <v>1.66</v>
       </c>
       <c r="I111">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J111">
         <v>1.72</v>
@@ -5050,7 +5050,7 @@
         <v>1.17</v>
       </c>
       <c r="M111">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5064,16 +5064,16 @@
         <v>443</v>
       </c>
       <c r="D112">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E112">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F112">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G112">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H112">
         <v>0.9</v>
@@ -5099,22 +5099,22 @@
         <v>44003</v>
       </c>
       <c r="B113">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C113">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D113">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E113">
         <v>486</v>
       </c>
       <c r="F113">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G113">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H113">
         <v>0.7</v>
@@ -5140,13 +5140,13 @@
         <v>44004</v>
       </c>
       <c r="B114">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C114">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E114">
         <v>471</v>
@@ -5155,7 +5155,7 @@
         <v>442</v>
       </c>
       <c r="G114">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H114">
         <v>0.64</v>
@@ -5173,7 +5173,7 @@
         <v>0.81</v>
       </c>
       <c r="M114">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5181,28 +5181,28 @@
         <v>44005</v>
       </c>
       <c r="B115">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C115">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D115">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E115">
         <v>437</v>
       </c>
       <c r="F115">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G115">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H115">
         <v>0.61</v>
       </c>
       <c r="I115">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J115">
         <v>0.63</v>
@@ -5222,22 +5222,22 @@
         <v>44006</v>
       </c>
       <c r="B116">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C116">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D116">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E116">
         <v>436</v>
       </c>
       <c r="F116">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G116">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H116">
         <v>0.78</v>
@@ -5252,10 +5252,10 @@
         <v>0.73</v>
       </c>
       <c r="L116">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="M116">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5266,19 +5266,19 @@
         <v>407</v>
       </c>
       <c r="C117">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D117">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E117">
         <v>446</v>
       </c>
       <c r="F117">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G117">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H117">
         <v>0.92</v>
@@ -5287,7 +5287,7 @@
         <v>0.88</v>
       </c>
       <c r="J117">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K117">
         <v>0.73</v>
@@ -5304,34 +5304,34 @@
         <v>44008</v>
       </c>
       <c r="B118">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C118">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D118">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E118">
         <v>434</v>
       </c>
       <c r="F118">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G118">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H118">
         <v>0.92</v>
       </c>
       <c r="I118">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J118">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K118">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L118">
         <v>0.82</v>
@@ -5345,28 +5345,28 @@
         <v>44009</v>
       </c>
       <c r="B119">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C119">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D119">
         <v>379</v>
       </c>
       <c r="E119">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F119">
         <v>389</v>
       </c>
       <c r="G119">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H119">
         <v>0.95</v>
       </c>
       <c r="I119">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J119">
         <v>0.99</v>
@@ -5386,28 +5386,28 @@
         <v>44010</v>
       </c>
       <c r="B120">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C120">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D120">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E120">
         <v>376</v>
       </c>
       <c r="F120">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G120">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H120">
         <v>0.86</v>
       </c>
       <c r="I120">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J120">
         <v>0.9</v>
@@ -5416,7 +5416,7 @@
         <v>0.89</v>
       </c>
       <c r="L120">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M120">
         <v>0.91</v>
@@ -5427,10 +5427,10 @@
         <v>44011</v>
       </c>
       <c r="B121">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C121">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D121">
         <v>446</v>
@@ -5442,7 +5442,7 @@
         <v>355</v>
       </c>
       <c r="G121">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H121">
         <v>0.85</v>
@@ -5457,10 +5457,10 @@
         <v>0.93</v>
       </c>
       <c r="L121">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M121">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5471,16 +5471,16 @@
         <v>434</v>
       </c>
       <c r="C122">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D122">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E122">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F122">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G122">
         <v>405</v>
@@ -5509,22 +5509,22 @@
         <v>44013</v>
       </c>
       <c r="B123">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C123">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D123">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E123">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F123">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G123">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H123">
         <v>0.95</v>
@@ -5533,13 +5533,13 @@
         <v>0.91</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K123">
         <v>0.94</v>
       </c>
       <c r="L123">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M123">
         <v>0.96</v>
@@ -5553,28 +5553,28 @@
         <v>336</v>
       </c>
       <c r="C124">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D124">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E124">
         <v>399</v>
       </c>
       <c r="F124">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G124">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H124">
         <v>1.06</v>
       </c>
       <c r="I124">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J124">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K124">
         <v>0.92</v>
@@ -5583,7 +5583,7 @@
         <v>0.9</v>
       </c>
       <c r="M124">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5597,13 +5597,13 @@
         <v>327</v>
       </c>
       <c r="D125">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E125">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F125">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G125">
         <v>406</v>
@@ -5612,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J125">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K125">
         <v>0.9</v>
@@ -5624,7 +5624,7 @@
         <v>0.88</v>
       </c>
       <c r="M125">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5632,13 +5632,13 @@
         <v>44016</v>
       </c>
       <c r="B126">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126">
         <v>276</v>
       </c>
       <c r="D126">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E126">
         <v>346</v>
@@ -5647,7 +5647,7 @@
         <v>323</v>
       </c>
       <c r="G126">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H126">
         <v>0.91</v>
@@ -5662,7 +5662,7 @@
         <v>0.92</v>
       </c>
       <c r="L126">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M126">
         <v>0.94</v>
@@ -5676,28 +5676,28 @@
         <v>293</v>
       </c>
       <c r="C127">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D127">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E127">
         <v>318</v>
       </c>
       <c r="F127">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G127">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H127">
         <v>0.81</v>
       </c>
       <c r="I127">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J127">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K127">
         <v>0.92</v>
@@ -5717,7 +5717,7 @@
         <v>376</v>
       </c>
       <c r="C128">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D128">
         <v>401</v>
@@ -5726,16 +5726,16 @@
         <v>328</v>
       </c>
       <c r="F128">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G128">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H128">
         <v>0.82</v>
       </c>
       <c r="I128">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J128">
         <v>0.86</v>
@@ -5758,19 +5758,19 @@
         <v>373</v>
       </c>
       <c r="C129">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D129">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E129">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F129">
         <v>313</v>
       </c>
       <c r="G129">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H129">
         <v>0.88</v>
@@ -5785,10 +5785,10 @@
         <v>0.93</v>
       </c>
       <c r="L129">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M129">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5796,22 +5796,22 @@
         <v>44020</v>
       </c>
       <c r="B130">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C130">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D130">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E130">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F130">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G130">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H130">
         <v>1.01</v>
@@ -5820,7 +5820,7 @@
         <v>0.96</v>
       </c>
       <c r="J130">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K130">
         <v>0.95</v>
@@ -5837,28 +5837,28 @@
         <v>44021</v>
       </c>
       <c r="B131">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C131">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D131">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E131">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F131">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G131">
         <v>396</v>
       </c>
       <c r="H131">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="I131">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J131">
         <v>1.22</v>
@@ -5878,22 +5878,22 @@
         <v>44022</v>
       </c>
       <c r="B132">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C132">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D132">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E132">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G132">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H132">
         <v>1.17</v>
@@ -5902,7 +5902,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J132">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K132">
         <v>1.07</v>
@@ -5922,16 +5922,16 @@
         <v>388</v>
       </c>
       <c r="C133">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D133">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E133">
         <v>387</v>
       </c>
       <c r="F133">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G133">
         <v>413</v>
@@ -5940,10 +5940,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I133">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J133">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K133">
         <v>1.1200000000000001</v>
@@ -5960,22 +5960,22 @@
         <v>44024</v>
       </c>
       <c r="B134">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C134">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D134">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E134">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F134">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G134">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H134">
         <v>1.1100000000000001</v>
@@ -5993,7 +5993,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M134">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6001,28 +6001,28 @@
         <v>44025</v>
       </c>
       <c r="B135">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C135">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D135">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E135">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F135">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G135">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H135">
         <v>1.1599999999999999</v>
       </c>
       <c r="I135">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J135">
         <v>1.21</v>
@@ -6042,13 +6042,13 @@
         <v>44026</v>
       </c>
       <c r="B136">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C136">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D136">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E136">
         <v>452</v>
@@ -6057,13 +6057,13 @@
         <v>426</v>
       </c>
       <c r="G136">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H136">
         <v>1.18</v>
       </c>
       <c r="I136">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J136">
         <v>1.23</v>
@@ -6072,7 +6072,7 @@
         <v>1.22</v>
       </c>
       <c r="L136">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M136">
         <v>1.25</v>
@@ -6083,31 +6083,31 @@
         <v>44027</v>
       </c>
       <c r="B137">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C137">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D137">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E137">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G137">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H137">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I137">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J137">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K137">
         <v>1.23</v>
@@ -6124,22 +6124,22 @@
         <v>44028</v>
       </c>
       <c r="B138">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C138">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D138">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E138">
         <v>521</v>
       </c>
       <c r="F138">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G138">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H138">
         <v>1.34</v>
@@ -6148,7 +6148,7 @@
         <v>1.28</v>
       </c>
       <c r="J138">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="K138">
         <v>1.19</v>
@@ -6165,25 +6165,25 @@
         <v>44029</v>
       </c>
       <c r="B139">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C139">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D139">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E139">
         <v>518</v>
       </c>
       <c r="F139">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G139">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H139">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I139">
         <v>1.1599999999999999</v>
@@ -6206,19 +6206,19 @@
         <v>44030</v>
       </c>
       <c r="B140">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C140">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D140">
         <v>517</v>
       </c>
       <c r="E140">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F140">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G140">
         <v>542</v>
@@ -6250,19 +6250,19 @@
         <v>517</v>
       </c>
       <c r="C141">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D141">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E141">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F141">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G141">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H141">
         <v>1.02</v>
@@ -6271,10 +6271,10 @@
         <v>0.98</v>
       </c>
       <c r="J141">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K141">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L141">
         <v>1.1299999999999999</v>
@@ -6288,22 +6288,22 @@
         <v>44032</v>
       </c>
       <c r="B142">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C142">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D142">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E142">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F142">
         <v>527</v>
       </c>
       <c r="G142">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H142">
         <v>1.07</v>
@@ -6312,7 +6312,7 @@
         <v>1.03</v>
       </c>
       <c r="J142">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K142">
         <v>1.18</v>
@@ -6329,22 +6329,22 @@
         <v>44033</v>
       </c>
       <c r="B143">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C143">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D143">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="E143">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F143">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G143">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H143">
         <v>1.1599999999999999</v>
@@ -6370,31 +6370,31 @@
         <v>44034</v>
       </c>
       <c r="B144">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C144">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D144">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E144">
         <v>662</v>
       </c>
       <c r="F144">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G144">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="H144">
         <v>1.29</v>
       </c>
       <c r="I144">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J144">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="K144">
         <v>1.2</v>
@@ -6411,31 +6411,31 @@
         <v>44035</v>
       </c>
       <c r="B145">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C145">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D145">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E145">
         <v>703</v>
       </c>
       <c r="F145">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G145">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="H145">
         <v>1.4</v>
       </c>
       <c r="I145">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J145">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="K145">
         <v>1.2</v>
@@ -6452,13 +6452,13 @@
         <v>44036</v>
       </c>
       <c r="B146">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C146">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D146">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E146">
         <v>704</v>
@@ -6467,16 +6467,16 @@
         <v>671</v>
       </c>
       <c r="G146">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H146">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I146">
         <v>1.22</v>
       </c>
       <c r="J146">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K146">
         <v>1.17</v>
@@ -6496,19 +6496,19 @@
         <v>616</v>
       </c>
       <c r="C147">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D147">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E147">
         <v>682</v>
       </c>
       <c r="F147">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G147">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H147">
         <v>1.1399999999999999</v>
@@ -6537,7 +6537,7 @@
         <v>603</v>
       </c>
       <c r="C148">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D148">
         <v>638</v>
@@ -6546,25 +6546,25 @@
         <v>649</v>
       </c>
       <c r="F148">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G148">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H148">
         <v>0.98</v>
       </c>
       <c r="I148">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="J148">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K148">
         <v>1.1200000000000001</v>
       </c>
       <c r="L148">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M148">
         <v>1.1299999999999999</v>
@@ -6575,28 +6575,28 @@
         <v>44039</v>
       </c>
       <c r="B149">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C149">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D149">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E149">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F149">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G149">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H149">
         <v>0.97</v>
       </c>
       <c r="I149">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J149">
         <v>1.01</v>
@@ -6616,28 +6616,28 @@
         <v>44040</v>
       </c>
       <c r="B150">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C150">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D150">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E150">
         <v>702</v>
       </c>
       <c r="F150">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G150">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J150">
         <v>1.03</v>
@@ -6657,13 +6657,13 @@
         <v>44041</v>
       </c>
       <c r="B151">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C151">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D151">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E151">
         <v>734</v>
@@ -6672,7 +6672,7 @@
         <v>699</v>
       </c>
       <c r="G151">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H151">
         <v>1.08</v>
@@ -6698,19 +6698,19 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C152">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="D152">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E152">
         <v>773</v>
       </c>
       <c r="F152">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="G152">
         <v>810</v>
@@ -6719,7 +6719,7 @@
         <v>1.19</v>
       </c>
       <c r="I152">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J152">
         <v>1.23</v>
@@ -6739,22 +6739,22 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C153">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="D153">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="E153">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F153">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="G153">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H153">
         <v>1.1200000000000001</v>
@@ -6763,7 +6763,7 @@
         <v>1.08</v>
       </c>
       <c r="J153">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K153">
         <v>1.08</v>
@@ -6780,40 +6780,40 @@
         <v>44044</v>
       </c>
       <c r="B154">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C154">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D154">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E154">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F154">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G154">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="H154">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I154">
         <v>1.07</v>
       </c>
       <c r="J154">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K154">
         <v>1.1299999999999999</v>
       </c>
       <c r="L154">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M154">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6821,22 +6821,22 @@
         <v>44045</v>
       </c>
       <c r="B155">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C155">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="D155">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E155">
         <v>814</v>
       </c>
       <c r="F155">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G155">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="H155">
         <v>1.1100000000000001</v>
@@ -6862,22 +6862,22 @@
         <v>44046</v>
       </c>
       <c r="B156">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C156">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D156">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E156">
         <v>895</v>
       </c>
       <c r="F156">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G156">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="H156">
         <v>1.1599999999999999</v>
@@ -6903,22 +6903,22 @@
         <v>44047</v>
       </c>
       <c r="B157">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C157">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="D157">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E157">
         <v>944</v>
       </c>
       <c r="F157">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G157">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="H157">
         <v>1.24</v>
@@ -6936,7 +6936,7 @@
         <v>1.17</v>
       </c>
       <c r="M157">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6944,22 +6944,22 @@
         <v>44048</v>
       </c>
       <c r="B158">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C158">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D158">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E158">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F158">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G158">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H158">
         <v>1.27</v>
@@ -6968,7 +6968,7 @@
         <v>1.22</v>
       </c>
       <c r="J158">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="K158">
         <v>1.17</v>
@@ -6985,19 +6985,19 @@
         <v>44049</v>
       </c>
       <c r="B159">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C159">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D159">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E159">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F159">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G159">
         <v>1054</v>
@@ -7009,16 +7009,16 @@
         <v>1.2</v>
       </c>
       <c r="J159">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K159">
         <v>1.1599999999999999</v>
       </c>
       <c r="L159">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M159">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7026,40 +7026,40 @@
         <v>44050</v>
       </c>
       <c r="B160">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="C160">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D160">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E160">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F160">
         <v>959</v>
       </c>
       <c r="G160">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H160">
         <v>1.1200000000000001</v>
       </c>
       <c r="I160">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J160">
         <v>1.1599999999999999</v>
       </c>
       <c r="K160">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L160">
         <v>1.1399999999999999</v>
       </c>
       <c r="M160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7070,28 +7070,28 @@
         <v>1007</v>
       </c>
       <c r="C161">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D161">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="E161">
         <v>1011</v>
       </c>
       <c r="F161">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G161">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H161">
         <v>1.07</v>
       </c>
       <c r="I161">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J161">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K161">
         <v>1.1299999999999999</v>
@@ -7108,22 +7108,22 @@
         <v>44052</v>
       </c>
       <c r="B162">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C162">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="D162">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="E162">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F162">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G162">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H162">
         <v>1.04</v>
@@ -7149,22 +7149,22 @@
         <v>44053</v>
       </c>
       <c r="B163">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C163">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="D163">
         <v>1454</v>
       </c>
       <c r="E163">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F163">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G163">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="H163">
         <v>1.1100000000000001</v>
@@ -7182,7 +7182,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="M163">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7190,28 +7190,28 @@
         <v>44054</v>
       </c>
       <c r="B164">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C164">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D164">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E164">
         <v>1194</v>
       </c>
       <c r="F164">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G164">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="H164">
         <v>1.19</v>
       </c>
       <c r="I164">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J164">
         <v>1.23</v>
@@ -7223,7 +7223,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="M164">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7234,28 +7234,28 @@
         <v>1320</v>
       </c>
       <c r="C165">
-        <v>1268</v>
+        <v>1277</v>
       </c>
       <c r="D165">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="E165">
         <v>1272</v>
       </c>
       <c r="F165">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="G165">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="H165">
         <v>1.26</v>
       </c>
       <c r="I165">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J165">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K165">
         <v>1.19</v>
@@ -7272,19 +7272,19 @@
         <v>44056</v>
       </c>
       <c r="B166">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C166">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="D166">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="E166">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F166">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G166">
         <v>1399</v>
@@ -7296,13 +7296,13 @@
         <v>1.28</v>
       </c>
       <c r="J166">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="K166">
         <v>1.17</v>
       </c>
       <c r="L166">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M166">
         <v>1.19</v>
@@ -7313,19 +7313,19 @@
         <v>44057</v>
       </c>
       <c r="B167">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C167">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="D167">
         <v>1365</v>
       </c>
       <c r="E167">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F167">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="G167">
         <v>1377</v>
@@ -7334,10 +7334,10 @@
         <v>1.18</v>
       </c>
       <c r="I167">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J167">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="K167">
         <v>1.1499999999999999</v>
@@ -7354,10 +7354,10 @@
         <v>44058</v>
       </c>
       <c r="B168">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C168">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="D168">
         <v>1263</v>
@@ -7366,10 +7366,10 @@
         <v>1299</v>
       </c>
       <c r="F168">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="G168">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H168">
         <v>1.0900000000000001</v>
@@ -7395,19 +7395,19 @@
         <v>44059</v>
       </c>
       <c r="B169">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C169">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D169">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="E169">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F169">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G169">
         <v>1312</v>
@@ -7419,7 +7419,7 @@
         <v>0.97</v>
       </c>
       <c r="J169">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K169">
         <v>1.07</v>
@@ -7436,19 +7436,19 @@
         <v>44060</v>
       </c>
       <c r="B170">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="C170">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D170">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="E170">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F170">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="G170">
         <v>1330</v>
@@ -7460,7 +7460,7 @@
         <v>0.93</v>
       </c>
       <c r="J170">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K170">
         <v>1.06</v>
@@ -7477,22 +7477,22 @@
         <v>44061</v>
       </c>
       <c r="B171">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C171">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D171">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="E171">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F171">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G171">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H171">
         <v>0.99</v>
@@ -7507,7 +7507,7 @@
         <v>1.03</v>
       </c>
       <c r="L171">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M171">
         <v>1.04</v>
@@ -7518,28 +7518,28 @@
         <v>44062</v>
       </c>
       <c r="B172">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C172">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="D172">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="E172">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F172">
         <v>1289</v>
       </c>
       <c r="G172">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="H172">
         <v>1.03</v>
       </c>
       <c r="I172">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J172">
         <v>1.06</v>
@@ -7551,7 +7551,7 @@
         <v>0.98</v>
       </c>
       <c r="M172">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7559,22 +7559,22 @@
         <v>44063</v>
       </c>
       <c r="B173">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C173">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="D173">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="E173">
         <v>1328</v>
       </c>
       <c r="F173">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="G173">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="H173">
         <v>1.05</v>
@@ -7592,7 +7592,7 @@
         <v>0.96</v>
       </c>
       <c r="M173">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7600,22 +7600,22 @@
         <v>44064</v>
       </c>
       <c r="B174">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C174">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="D174">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="E174">
         <v>1263</v>
       </c>
       <c r="F174">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="G174">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="H174">
         <v>0.99</v>
@@ -7641,22 +7641,22 @@
         <v>44065</v>
       </c>
       <c r="B175">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C175">
         <v>1067</v>
       </c>
       <c r="D175">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="E175">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F175">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G175">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="H175">
         <v>0.89</v>
@@ -7685,19 +7685,19 @@
         <v>1159</v>
       </c>
       <c r="C176">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="D176">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E176">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F176">
         <v>1095</v>
       </c>
       <c r="G176">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="H176">
         <v>0.85</v>
@@ -7706,7 +7706,7 @@
         <v>0.83</v>
       </c>
       <c r="J176">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K176">
         <v>0.97</v>
@@ -7723,28 +7723,28 @@
         <v>44067</v>
       </c>
       <c r="B177">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C177">
         <v>1393</v>
       </c>
       <c r="D177">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="E177">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F177">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G177">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H177">
         <v>0.92</v>
       </c>
       <c r="I177">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J177">
         <v>0.94</v>
@@ -7753,7 +7753,7 @@
         <v>0.98</v>
       </c>
       <c r="L177">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M177">
         <v>0.99</v>
@@ -7764,28 +7764,28 @@
         <v>44068</v>
       </c>
       <c r="B178">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C178">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="D178">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="E178">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F178">
         <v>1217</v>
       </c>
       <c r="G178">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J178">
         <v>1.03</v>
@@ -7805,22 +7805,22 @@
         <v>44069</v>
       </c>
       <c r="B179">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C179">
         <v>1163</v>
       </c>
       <c r="D179">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E179">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F179">
         <v>1241</v>
       </c>
       <c r="G179">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H179">
         <v>1.1000000000000001</v>
@@ -7829,13 +7829,13 @@
         <v>1.07</v>
       </c>
       <c r="J179">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K179">
         <v>0.99</v>
       </c>
       <c r="L179">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M179">
         <v>1</v>
@@ -7846,28 +7846,28 @@
         <v>44070</v>
       </c>
       <c r="B180">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C180">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D180">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E180">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F180">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G180">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H180">
         <v>1.1399999999999999</v>
       </c>
       <c r="I180">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J180">
         <v>1.18</v>
@@ -7887,28 +7887,28 @@
         <v>44071</v>
       </c>
       <c r="B181">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C181">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D181">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E181">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F181">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="G181">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H181">
         <v>1.01</v>
       </c>
       <c r="I181">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J181">
         <v>1.04</v>
@@ -7920,7 +7920,7 @@
         <v>0.97</v>
       </c>
       <c r="M181">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7928,22 +7928,22 @@
         <v>44072</v>
       </c>
       <c r="B182">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C182">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D182">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E182">
         <v>1133</v>
       </c>
       <c r="F182">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G182">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H182">
         <v>0.9</v>
@@ -7969,22 +7969,22 @@
         <v>44073</v>
       </c>
       <c r="B183">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C183">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D183">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E183">
         <v>1087</v>
       </c>
       <c r="F183">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G183">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H183">
         <v>0.84</v>
@@ -7993,7 +7993,7 @@
         <v>0.82</v>
       </c>
       <c r="J183">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K183">
         <v>0.95</v>
@@ -8013,25 +8013,25 @@
         <v>1354</v>
       </c>
       <c r="C184">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="D184">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="E184">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F184">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G184">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H184">
         <v>0.86</v>
       </c>
       <c r="I184">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J184">
         <v>0.88</v>
@@ -8051,28 +8051,28 @@
         <v>44075</v>
       </c>
       <c r="B185">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C185">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D185">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="E185">
         <v>1206</v>
       </c>
       <c r="F185">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G185">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="H185">
         <v>0.98</v>
       </c>
       <c r="I185">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J185">
         <v>1.01</v>
@@ -8092,22 +8092,22 @@
         <v>44076</v>
       </c>
       <c r="B186">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C186">
         <v>1282</v>
       </c>
       <c r="D186">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="E186">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F186">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G186">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="H186">
         <v>1.1499999999999999</v>
@@ -8133,19 +8133,19 @@
         <v>44077</v>
       </c>
       <c r="B187">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C187">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D187">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="E187">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F187">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="G187">
         <v>1406</v>
@@ -8157,13 +8157,13 @@
         <v>1.21</v>
       </c>
       <c r="J187">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K187">
         <v>1.05</v>
       </c>
       <c r="L187">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="M187">
         <v>1.07</v>
@@ -8174,22 +8174,22 @@
         <v>44078</v>
       </c>
       <c r="B188">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C188">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="D188">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="E188">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F188">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="G188">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="H188">
         <v>1.19</v>
@@ -8198,7 +8198,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J188">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K188">
         <v>1.06</v>
@@ -8215,28 +8215,28 @@
         <v>44079</v>
       </c>
       <c r="B189">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C189">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="D189">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E189">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F189">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G189">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="H189">
         <v>1.04</v>
       </c>
       <c r="I189">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J189">
         <v>1.07</v>
@@ -8256,31 +8256,31 @@
         <v>44080</v>
       </c>
       <c r="B190">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C190">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="D190">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E190">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F190">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="G190">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="H190">
         <v>0.96</v>
       </c>
       <c r="I190">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J190">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="K190">
         <v>1.1000000000000001</v>
@@ -8289,7 +8289,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="M190">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8297,22 +8297,22 @@
         <v>44081</v>
       </c>
       <c r="B191">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="C191">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="D191">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="E191">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F191">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G191">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H191">
         <v>0.98</v>
@@ -8324,7 +8324,7 @@
         <v>1.01</v>
       </c>
       <c r="K191">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L191">
         <v>1.08</v>
@@ -8338,22 +8338,22 @@
         <v>44082</v>
       </c>
       <c r="B192">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="C192">
-        <v>1540</v>
+        <v>1547</v>
       </c>
       <c r="D192">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="E192">
         <v>1412</v>
       </c>
       <c r="F192">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G192">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="H192">
         <v>1.06</v>
@@ -8362,13 +8362,13 @@
         <v>1.03</v>
       </c>
       <c r="J192">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K192">
         <v>1.1000000000000001</v>
       </c>
       <c r="L192">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M192">
         <v>1.1200000000000001</v>
@@ -8379,28 +8379,28 @@
         <v>44083</v>
       </c>
       <c r="B193">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C193">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="D193">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E193">
         <v>1524</v>
       </c>
       <c r="F193">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="G193">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H193">
         <v>1.21</v>
       </c>
       <c r="I193">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J193">
         <v>1.24</v>
@@ -8420,22 +8420,22 @@
         <v>44084</v>
       </c>
       <c r="B194">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C194">
-        <v>1575</v>
+        <v>1587</v>
       </c>
       <c r="D194">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E194">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F194">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="G194">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H194">
         <v>1.29</v>
@@ -8450,10 +8450,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L194">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M194">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8461,25 +8461,25 @@
         <v>44085</v>
       </c>
       <c r="B195">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C195">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="D195">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E195">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F195">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="G195">
         <v>1668</v>
       </c>
       <c r="H195">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I195">
         <v>1.19</v>
@@ -8502,22 +8502,22 @@
         <v>44086</v>
       </c>
       <c r="B196">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C196">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D196">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E196">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F196">
         <v>1554</v>
       </c>
       <c r="G196">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H196">
         <v>1.1399999999999999</v>
@@ -8526,7 +8526,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J196">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K196">
         <v>1.1399999999999999</v>
@@ -8543,28 +8543,28 @@
         <v>44087</v>
       </c>
       <c r="B197">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C197">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D197">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="E197">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F197">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="G197">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H197">
         <v>1.05</v>
       </c>
       <c r="I197">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J197">
         <v>1.07</v>
@@ -8584,13 +8584,13 @@
         <v>44088</v>
       </c>
       <c r="B198">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="C198">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="D198">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="E198">
         <v>1722</v>
@@ -8599,7 +8599,7 @@
         <v>1671</v>
       </c>
       <c r="G198">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H198">
         <v>1.07</v>
@@ -8631,19 +8631,19 @@
         <v>1923</v>
       </c>
       <c r="D199">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="E199">
         <v>1805</v>
       </c>
       <c r="F199">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="G199">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="H199">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I199">
         <v>1.0900000000000001</v>
@@ -8666,22 +8666,22 @@
         <v>44090</v>
       </c>
       <c r="B200">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C200">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D200">
         <v>1925</v>
       </c>
       <c r="E200">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F200">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="G200">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="H200">
         <v>1.18</v>
@@ -8707,22 +8707,22 @@
         <v>44091</v>
       </c>
       <c r="B201">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C201">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="D201">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="E201">
         <v>1924</v>
       </c>
       <c r="F201">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="G201">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="H201">
         <v>1.2</v>
@@ -8748,22 +8748,22 @@
         <v>44092</v>
       </c>
       <c r="B202">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C202">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D202">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="E202">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F202">
         <v>1770</v>
       </c>
       <c r="G202">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="H202">
         <v>1.06</v>
@@ -8792,25 +8792,25 @@
         <v>1500</v>
       </c>
       <c r="C203">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D203">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="E203">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F203">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="G203">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="H203">
         <v>0.94</v>
       </c>
       <c r="I203">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J203">
         <v>0.96</v>
@@ -8822,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="M203">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8830,13 +8830,13 @@
         <v>44094</v>
       </c>
       <c r="B204">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C204">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D204">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="E204">
         <v>1645</v>
@@ -8845,7 +8845,7 @@
         <v>1594</v>
       </c>
       <c r="G204">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H204">
         <v>0.87</v>
@@ -8874,25 +8874,25 @@
         <v>2174</v>
       </c>
       <c r="C205">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="D205">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="E205">
         <v>1756</v>
       </c>
       <c r="F205">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="G205">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="H205">
         <v>0.91</v>
       </c>
       <c r="I205">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J205">
         <v>0.93</v>
@@ -8912,22 +8912,22 @@
         <v>44096</v>
       </c>
       <c r="B206">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C206">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="D206">
-        <v>2190</v>
+        <v>2195</v>
       </c>
       <c r="E206">
         <v>1863</v>
       </c>
       <c r="F206">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="G206">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="H206">
         <v>1.02</v>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="J206">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K206">
         <v>1.04</v>
@@ -8953,22 +8953,22 @@
         <v>44097</v>
       </c>
       <c r="B207">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="C207">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D207">
-        <v>2150</v>
+        <v>2135</v>
       </c>
       <c r="E207">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F207">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="G207">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="H207">
         <v>1.18</v>
@@ -8994,19 +8994,19 @@
         <v>44098</v>
       </c>
       <c r="B208">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C208">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="D208">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="E208">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F208">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="G208">
         <v>2175</v>
@@ -9027,7 +9027,7 @@
         <v>1.08</v>
       </c>
       <c r="M208">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -9035,19 +9035,19 @@
         <v>44099</v>
       </c>
       <c r="B209">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C209">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="D209">
-        <v>2217</v>
+        <v>2222</v>
       </c>
       <c r="E209">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="F209">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G209">
         <v>2171</v>
@@ -9076,22 +9076,22 @@
         <v>44100</v>
       </c>
       <c r="B210">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C210">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="D210">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E210">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="F210">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G210">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="H210">
         <v>1.1100000000000001</v>
@@ -9117,22 +9117,22 @@
         <v>44101</v>
       </c>
       <c r="B211">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C211">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D211">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="E211">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F211">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="G211">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -9158,16 +9158,16 @@
         <v>44102</v>
       </c>
       <c r="B212">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C212">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="D212">
-        <v>2726</v>
+        <v>2720</v>
       </c>
       <c r="E212">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F212">
         <v>2100</v>
@@ -9199,22 +9199,22 @@
         <v>44103</v>
       </c>
       <c r="B213">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="C213">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D213">
-        <v>2839</v>
+        <v>2832</v>
       </c>
       <c r="E213">
         <v>2307</v>
       </c>
       <c r="F213">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="G213">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="H213">
         <v>1.0900000000000001</v>
@@ -9240,25 +9240,25 @@
         <v>44104</v>
       </c>
       <c r="B214">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="C214">
-        <v>2732</v>
+        <v>2720</v>
       </c>
       <c r="D214">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="E214">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F214">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="G214">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="H214">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I214">
         <v>1.2</v>
@@ -9281,22 +9281,22 @@
         <v>44105</v>
       </c>
       <c r="B215">
-        <v>3011</v>
+        <v>3018</v>
       </c>
       <c r="C215">
-        <v>2942</v>
+        <v>2952</v>
       </c>
       <c r="D215">
-        <v>3081</v>
+        <v>3086</v>
       </c>
       <c r="E215">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="F215">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="G215">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="H215">
         <v>1.4</v>
@@ -9322,22 +9322,22 @@
         <v>44106</v>
       </c>
       <c r="B216">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="C216">
-        <v>3308</v>
+        <v>3320</v>
       </c>
       <c r="D216">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="E216">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="F216">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="G216">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="H216">
         <v>1.39</v>
@@ -9352,7 +9352,7 @@
         <v>1.28</v>
       </c>
       <c r="L216">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M216">
         <v>1.29</v>
@@ -9363,22 +9363,22 @@
         <v>44107</v>
       </c>
       <c r="B217">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="C217">
-        <v>3317</v>
+        <v>3296</v>
       </c>
       <c r="D217">
-        <v>3467</v>
+        <v>3455</v>
       </c>
       <c r="E217">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="F217">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="G217">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="H217">
         <v>1.36</v>
@@ -9407,19 +9407,19 @@
         <v>3454</v>
       </c>
       <c r="C218">
-        <v>3374</v>
+        <v>3378</v>
       </c>
       <c r="D218">
         <v>3534</v>
       </c>
       <c r="E218">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="F218">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="G218">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="H218">
         <v>1.31</v>
@@ -9445,28 +9445,28 @@
         <v>44109</v>
       </c>
       <c r="B219">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="C219">
-        <v>4676</v>
+        <v>4687</v>
       </c>
       <c r="D219">
-        <v>4859</v>
+        <v>4837</v>
       </c>
       <c r="E219">
         <v>3745</v>
       </c>
       <c r="F219">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="G219">
-        <v>3830</v>
+        <v>3820</v>
       </c>
       <c r="H219">
         <v>1.33</v>
       </c>
       <c r="I219">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J219">
         <v>1.36</v>
@@ -9486,22 +9486,22 @@
         <v>44110</v>
       </c>
       <c r="B220">
-        <v>4808</v>
+        <v>4797</v>
       </c>
       <c r="C220">
-        <v>4721</v>
+        <v>4705</v>
       </c>
       <c r="D220">
-        <v>4897</v>
+        <v>4884</v>
       </c>
       <c r="E220">
-        <v>4101</v>
+        <v>4098</v>
       </c>
       <c r="F220">
-        <v>4022</v>
+        <v>4016</v>
       </c>
       <c r="G220">
-        <v>4189</v>
+        <v>4177</v>
       </c>
       <c r="H220">
         <v>1.37</v>
@@ -9527,22 +9527,22 @@
         <v>44111</v>
       </c>
       <c r="B221">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="C221">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="D221">
-        <v>5016</v>
+        <v>5023</v>
       </c>
       <c r="E221">
-        <v>4487</v>
+        <v>4485</v>
       </c>
       <c r="F221">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="G221">
-        <v>4576</v>
+        <v>4569</v>
       </c>
       <c r="H221">
         <v>1.43</v>
@@ -9551,7 +9551,7 @@
         <v>1.41</v>
       </c>
       <c r="J221">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K221">
         <v>1.39</v>
@@ -9568,22 +9568,22 @@
         <v>44112</v>
       </c>
       <c r="B222">
-        <v>5011</v>
+        <v>5017</v>
       </c>
       <c r="C222">
-        <v>4920</v>
+        <v>4928</v>
       </c>
       <c r="D222">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="E222">
         <v>4876</v>
       </c>
       <c r="F222">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="G222">
-        <v>4969</v>
+        <v>4962</v>
       </c>
       <c r="H222">
         <v>1.47</v>
@@ -9609,22 +9609,22 @@
         <v>44113</v>
       </c>
       <c r="B223">
-        <v>5409</v>
+        <v>5411</v>
       </c>
       <c r="C223">
-        <v>5297</v>
+        <v>5325</v>
       </c>
       <c r="D223">
-        <v>5508</v>
+        <v>5524</v>
       </c>
       <c r="E223">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="F223">
-        <v>4945</v>
+        <v>4949</v>
       </c>
       <c r="G223">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="H223">
         <v>1.35</v>
@@ -9633,7 +9633,7 @@
         <v>1.33</v>
       </c>
       <c r="J223">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="K223">
         <v>1.32</v>
@@ -9650,22 +9650,22 @@
         <v>44114</v>
       </c>
       <c r="B224">
-        <v>5348</v>
+        <v>5351</v>
       </c>
       <c r="C224">
-        <v>5245</v>
+        <v>5258</v>
       </c>
       <c r="D224">
-        <v>5456</v>
+        <v>5448</v>
       </c>
       <c r="E224">
-        <v>5173</v>
+        <v>5177</v>
       </c>
       <c r="F224">
-        <v>5076</v>
+        <v>5087</v>
       </c>
       <c r="G224">
-        <v>5271</v>
+        <v>5274</v>
       </c>
       <c r="H224">
         <v>1.26</v>
@@ -9691,22 +9691,22 @@
         <v>44115</v>
       </c>
       <c r="B225">
-        <v>5541</v>
+        <v>5547</v>
       </c>
       <c r="C225">
-        <v>5428</v>
+        <v>5452</v>
       </c>
       <c r="D225">
-        <v>5639</v>
+        <v>5657</v>
       </c>
       <c r="E225">
-        <v>5327</v>
+        <v>5332</v>
       </c>
       <c r="F225">
-        <v>5223</v>
+        <v>5240</v>
       </c>
       <c r="G225">
-        <v>5427</v>
+        <v>5433</v>
       </c>
       <c r="H225">
         <v>1.19</v>
@@ -9732,22 +9732,22 @@
         <v>44116</v>
       </c>
       <c r="B226">
-        <v>7529</v>
+        <v>7530</v>
       </c>
       <c r="C226">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="D226">
-        <v>7638</v>
+        <v>7650</v>
       </c>
       <c r="E226">
-        <v>5957</v>
+        <v>5960</v>
       </c>
       <c r="F226">
-        <v>5846</v>
+        <v>5862</v>
       </c>
       <c r="G226">
-        <v>6060</v>
+        <v>6070</v>
       </c>
       <c r="H226">
         <v>1.22</v>
@@ -9762,7 +9762,7 @@
         <v>1.31</v>
       </c>
       <c r="L226">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M226">
         <v>1.32</v>
@@ -9773,22 +9773,22 @@
         <v>44117</v>
       </c>
       <c r="B227">
-        <v>7935</v>
+        <v>7936</v>
       </c>
       <c r="C227">
-        <v>7802</v>
+        <v>7821</v>
       </c>
       <c r="D227">
-        <v>8037</v>
+        <v>8063</v>
       </c>
       <c r="E227">
-        <v>6588</v>
+        <v>6591</v>
       </c>
       <c r="F227">
-        <v>6472</v>
+        <v>6487</v>
       </c>
       <c r="G227">
-        <v>6692</v>
+        <v>6704</v>
       </c>
       <c r="H227">
         <v>1.31</v>
@@ -9797,13 +9797,13 @@
         <v>1.29</v>
       </c>
       <c r="J227">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="K227">
         <v>1.34</v>
       </c>
       <c r="L227">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M227">
         <v>1.35</v>
@@ -9814,22 +9814,22 @@
         <v>44118</v>
       </c>
       <c r="B228">
-        <v>8506</v>
+        <v>8507</v>
       </c>
       <c r="C228">
-        <v>8385</v>
+        <v>8387</v>
       </c>
       <c r="D228">
-        <v>8647</v>
+        <v>8639</v>
       </c>
       <c r="E228">
-        <v>7378</v>
+        <v>7380</v>
       </c>
       <c r="F228">
-        <v>7257</v>
+        <v>7269</v>
       </c>
       <c r="G228">
-        <v>7490</v>
+        <v>7502</v>
       </c>
       <c r="H228">
         <v>1.43</v>
@@ -9855,22 +9855,22 @@
         <v>44119</v>
       </c>
       <c r="B229">
-        <v>8735</v>
+        <v>8719</v>
       </c>
       <c r="C229">
-        <v>8596</v>
+        <v>8582</v>
       </c>
       <c r="D229">
-        <v>8870</v>
+        <v>8838</v>
       </c>
       <c r="E229">
-        <v>8176</v>
+        <v>8173</v>
       </c>
       <c r="F229">
-        <v>8049</v>
+        <v>8051</v>
       </c>
       <c r="G229">
-        <v>8298</v>
+        <v>8297</v>
       </c>
       <c r="H229">
         <v>1.53</v>
@@ -9879,7 +9879,7 @@
         <v>1.52</v>
       </c>
       <c r="J229">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="K229">
         <v>1.38</v>
@@ -9896,22 +9896,22 @@
         <v>44120</v>
       </c>
       <c r="B230">
-        <v>9612</v>
+        <v>9619</v>
       </c>
       <c r="C230">
-        <v>9400</v>
+        <v>9496</v>
       </c>
       <c r="D230">
-        <v>9811</v>
+        <v>9761</v>
       </c>
       <c r="E230">
-        <v>8697</v>
+        <v>8695</v>
       </c>
       <c r="F230">
-        <v>8546</v>
+        <v>8571</v>
       </c>
       <c r="G230">
-        <v>8841</v>
+        <v>8825</v>
       </c>
       <c r="H230">
         <v>1.46</v>
@@ -9920,7 +9920,7 @@
         <v>1.44</v>
       </c>
       <c r="J230">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="K230">
         <v>1.38</v>
@@ -9929,7 +9929,7 @@
         <v>1.37</v>
       </c>
       <c r="M230">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9937,22 +9937,22 @@
         <v>44121</v>
       </c>
       <c r="B231">
-        <v>9526</v>
+        <v>9517</v>
       </c>
       <c r="C231">
-        <v>9322</v>
+        <v>9328</v>
       </c>
       <c r="D231">
-        <v>9726</v>
+        <v>9716</v>
       </c>
       <c r="E231">
-        <v>9095</v>
+        <v>9090</v>
       </c>
       <c r="F231">
-        <v>8926</v>
+        <v>8948</v>
       </c>
       <c r="G231">
-        <v>9263</v>
+        <v>9238</v>
       </c>
       <c r="H231">
         <v>1.38</v>
@@ -9978,31 +9978,31 @@
         <v>44122</v>
       </c>
       <c r="B232">
-        <v>10657</v>
+        <v>10645</v>
       </c>
       <c r="C232">
-        <v>10418</v>
+        <v>10399</v>
       </c>
       <c r="D232">
-        <v>10872</v>
+        <v>10875</v>
       </c>
       <c r="E232">
-        <v>9632</v>
+        <v>9625</v>
       </c>
       <c r="F232">
-        <v>9434</v>
+        <v>9451</v>
       </c>
       <c r="G232">
-        <v>9820</v>
+        <v>9797</v>
       </c>
       <c r="H232">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I232">
         <v>1.29</v>
       </c>
       <c r="J232">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="K232">
         <v>1.41</v>
@@ -10019,22 +10019,22 @@
         <v>44123</v>
       </c>
       <c r="B233">
-        <v>13952</v>
+        <v>13929</v>
       </c>
       <c r="C233">
-        <v>13672</v>
+        <v>13691</v>
       </c>
       <c r="D233">
-        <v>14203</v>
+        <v>14171</v>
       </c>
       <c r="E233">
-        <v>10937</v>
+        <v>10927</v>
       </c>
       <c r="F233">
-        <v>10703</v>
+        <v>10728</v>
       </c>
       <c r="G233">
-        <v>11153</v>
+        <v>11131</v>
       </c>
       <c r="H233">
         <v>1.34</v>
@@ -10043,7 +10043,7 @@
         <v>1.32</v>
       </c>
       <c r="J233">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="K233">
         <v>1.43</v>
@@ -10060,22 +10060,22 @@
         <v>44124</v>
       </c>
       <c r="B234">
-        <v>15013</v>
+        <v>15009</v>
       </c>
       <c r="C234">
-        <v>14750</v>
+        <v>14736</v>
       </c>
       <c r="D234">
-        <v>15303</v>
+        <v>15259</v>
       </c>
       <c r="E234">
-        <v>12287</v>
+        <v>12275</v>
       </c>
       <c r="F234">
-        <v>12040</v>
+        <v>12039</v>
       </c>
       <c r="G234">
-        <v>12526</v>
+        <v>12505</v>
       </c>
       <c r="H234">
         <v>1.41</v>
@@ -10101,22 +10101,22 @@
         <v>44125</v>
       </c>
       <c r="B235">
-        <v>15595</v>
+        <v>15562</v>
       </c>
       <c r="C235">
-        <v>15263</v>
+        <v>15281</v>
       </c>
       <c r="D235">
-        <v>15998</v>
+        <v>15840</v>
       </c>
       <c r="E235">
-        <v>13804</v>
+        <v>13786</v>
       </c>
       <c r="F235">
-        <v>13526</v>
+        <v>13527</v>
       </c>
       <c r="G235">
-        <v>14094</v>
+        <v>14036</v>
       </c>
       <c r="H235">
         <v>1.52</v>
@@ -10142,22 +10142,22 @@
         <v>44126</v>
       </c>
       <c r="B236">
-        <v>15130</v>
+        <v>15108</v>
       </c>
       <c r="C236">
-        <v>14823</v>
+        <v>14749</v>
       </c>
       <c r="D236">
-        <v>15498</v>
+        <v>15483</v>
       </c>
       <c r="E236">
-        <v>14923</v>
+        <v>14902</v>
       </c>
       <c r="F236">
-        <v>14627</v>
+        <v>14614</v>
       </c>
       <c r="G236">
-        <v>15250</v>
+        <v>15188</v>
       </c>
       <c r="H236">
         <v>1.55</v>
@@ -10183,22 +10183,22 @@
         <v>44127</v>
       </c>
       <c r="B237">
-        <v>15913</v>
+        <v>15886</v>
       </c>
       <c r="C237">
-        <v>15477</v>
+        <v>15486</v>
       </c>
       <c r="D237">
-        <v>16297</v>
+        <v>16215</v>
       </c>
       <c r="E237">
-        <v>15413</v>
+        <v>15392</v>
       </c>
       <c r="F237">
-        <v>15078</v>
+        <v>15063</v>
       </c>
       <c r="G237">
-        <v>15774</v>
+        <v>15699</v>
       </c>
       <c r="H237">
         <v>1.41</v>
@@ -10224,25 +10224,25 @@
         <v>44128</v>
       </c>
       <c r="B238">
-        <v>15063</v>
+        <v>15040</v>
       </c>
       <c r="C238">
-        <v>14591</v>
+        <v>14622</v>
       </c>
       <c r="D238">
-        <v>15534</v>
+        <v>15520</v>
       </c>
       <c r="E238">
-        <v>15425</v>
+        <v>15399</v>
       </c>
       <c r="F238">
-        <v>15038</v>
+        <v>15034</v>
       </c>
       <c r="G238">
-        <v>15832</v>
+        <v>15765</v>
       </c>
       <c r="H238">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I238">
         <v>1.23</v>
@@ -10265,22 +10265,22 @@
         <v>44129</v>
       </c>
       <c r="B239">
-        <v>15814</v>
+        <v>15767</v>
       </c>
       <c r="C239">
-        <v>15359</v>
+        <v>15352</v>
       </c>
       <c r="D239">
-        <v>16396</v>
+        <v>16167</v>
       </c>
       <c r="E239">
-        <v>15480</v>
+        <v>15450</v>
       </c>
       <c r="F239">
-        <v>15062</v>
+        <v>15052</v>
       </c>
       <c r="G239">
-        <v>15931</v>
+        <v>15846</v>
       </c>
       <c r="H239">
         <v>1.1200000000000001</v>
@@ -10295,7 +10295,7 @@
         <v>1.25</v>
       </c>
       <c r="L239">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M239">
         <v>1.26</v>
@@ -10306,22 +10306,22 @@
         <v>44130</v>
       </c>
       <c r="B240">
-        <v>19099</v>
+        <v>19038</v>
       </c>
       <c r="C240">
-        <v>18436</v>
+        <v>18547</v>
       </c>
       <c r="D240">
-        <v>19714</v>
+        <v>19688</v>
       </c>
       <c r="E240">
-        <v>16472</v>
+        <v>16433</v>
       </c>
       <c r="F240">
-        <v>15966</v>
+        <v>16002</v>
       </c>
       <c r="G240">
-        <v>16985</v>
+        <v>16898</v>
       </c>
       <c r="H240">
         <v>1.1000000000000001</v>
@@ -10347,22 +10347,22 @@
         <v>44131</v>
       </c>
       <c r="B241">
-        <v>18474</v>
+        <v>18426</v>
       </c>
       <c r="C241">
-        <v>17789</v>
+        <v>17896</v>
       </c>
       <c r="D241">
-        <v>19112</v>
+        <v>19008</v>
       </c>
       <c r="E241">
-        <v>17113</v>
+        <v>17068</v>
       </c>
       <c r="F241">
-        <v>16544</v>
+        <v>16604</v>
       </c>
       <c r="G241">
-        <v>17689</v>
+        <v>17596</v>
       </c>
       <c r="H241">
         <v>1.1100000000000001</v>
@@ -10371,7 +10371,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J241">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K241">
         <v>1.1599999999999999</v>
@@ -10380,7 +10380,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="M241">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10388,31 +10388,31 @@
         <v>44132</v>
       </c>
       <c r="B242">
-        <v>18162</v>
+        <v>18144</v>
       </c>
       <c r="C242">
-        <v>17430</v>
+        <v>17400</v>
       </c>
       <c r="D242">
-        <v>18864</v>
+        <v>18705</v>
       </c>
       <c r="E242">
-        <v>17887</v>
+        <v>17844</v>
       </c>
       <c r="F242">
-        <v>17253</v>
+        <v>17299</v>
       </c>
       <c r="G242">
-        <v>18521</v>
+        <v>18392</v>
       </c>
       <c r="H242">
         <v>1.1599999999999999</v>
       </c>
       <c r="I242">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J242">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K242">
         <v>1.1200000000000001</v>
@@ -10429,22 +10429,22 @@
         <v>44133</v>
       </c>
       <c r="B243">
-        <v>17088</v>
+        <v>17067</v>
       </c>
       <c r="C243">
-        <v>16365</v>
+        <v>16372</v>
       </c>
       <c r="D243">
-        <v>17825</v>
+        <v>17790</v>
       </c>
       <c r="E243">
-        <v>18206</v>
+        <v>18169</v>
       </c>
       <c r="F243">
-        <v>17505</v>
+        <v>17554</v>
       </c>
       <c r="G243">
-        <v>18879</v>
+        <v>18798</v>
       </c>
       <c r="H243">
         <v>1.18</v>
@@ -10453,7 +10453,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J243">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K243">
         <v>1.08</v>
@@ -10470,22 +10470,22 @@
         <v>44134</v>
       </c>
       <c r="B244">
-        <v>17371</v>
+        <v>17272</v>
       </c>
       <c r="C244">
-        <v>16513</v>
+        <v>16477</v>
       </c>
       <c r="D244">
-        <v>18103</v>
+        <v>18026</v>
       </c>
       <c r="E244">
-        <v>17774</v>
+        <v>17727</v>
       </c>
       <c r="F244">
-        <v>17024</v>
+        <v>17036</v>
       </c>
       <c r="G244">
-        <v>18476</v>
+        <v>18382</v>
       </c>
       <c r="H244">
         <v>1.08</v>
@@ -10494,16 +10494,16 @@
         <v>1.05</v>
       </c>
       <c r="J244">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K244">
         <v>1.06</v>
       </c>
       <c r="L244">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M244">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10511,31 +10511,31 @@
         <v>44135</v>
       </c>
       <c r="B245">
-        <v>16130</v>
+        <v>15939</v>
       </c>
       <c r="C245">
-        <v>15256</v>
+        <v>15283</v>
       </c>
       <c r="D245">
-        <v>17092</v>
+        <v>16767</v>
       </c>
       <c r="E245">
-        <v>17188</v>
+        <v>17105</v>
       </c>
       <c r="F245">
-        <v>16391</v>
+        <v>16383</v>
       </c>
       <c r="G245">
-        <v>17971</v>
+        <v>17822</v>
       </c>
       <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J245">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K245">
         <v>1.05</v>
@@ -10544,7 +10544,7 @@
         <v>1.03</v>
       </c>
       <c r="M245">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10552,40 +10552,40 @@
         <v>44136</v>
       </c>
       <c r="B246">
-        <v>17132</v>
+        <v>16994</v>
       </c>
       <c r="C246">
-        <v>15741</v>
+        <v>15972</v>
       </c>
       <c r="D246">
-        <v>18656</v>
+        <v>18070</v>
       </c>
       <c r="E246">
-        <v>16930</v>
+        <v>16818</v>
       </c>
       <c r="F246">
-        <v>15969</v>
+        <v>16026</v>
       </c>
       <c r="G246">
-        <v>17919</v>
+        <v>17663</v>
       </c>
       <c r="H246">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I246">
         <v>0.92</v>
       </c>
       <c r="J246">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="K246">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="L246">
         <v>1.03</v>
       </c>
       <c r="M246">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10593,22 +10593,22 @@
         <v>44137</v>
       </c>
       <c r="B247">
-        <v>21029</v>
+        <v>20817</v>
       </c>
       <c r="C247">
-        <v>19162</v>
+        <v>19178</v>
       </c>
       <c r="D247">
-        <v>22530</v>
+        <v>22310</v>
       </c>
       <c r="E247">
-        <v>17915</v>
+        <v>17755</v>
       </c>
       <c r="F247">
-        <v>16668</v>
+        <v>16727</v>
       </c>
       <c r="G247">
-        <v>19095</v>
+        <v>18793</v>
       </c>
       <c r="H247">
         <v>0.98</v>
@@ -10617,7 +10617,7 @@
         <v>0.94</v>
       </c>
       <c r="J247">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K247">
         <v>1.04</v>
@@ -10626,7 +10626,7 @@
         <v>1.02</v>
       </c>
       <c r="M247">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10634,40 +10634,40 @@
         <v>44138</v>
       </c>
       <c r="B248">
-        <v>19582</v>
+        <v>19231</v>
       </c>
       <c r="C248">
-        <v>17522</v>
+        <v>17684</v>
       </c>
       <c r="D248">
-        <v>21481</v>
+        <v>20848</v>
       </c>
       <c r="E248">
-        <v>18468</v>
+        <v>18245</v>
       </c>
       <c r="F248">
-        <v>16920</v>
+        <v>17029</v>
       </c>
       <c r="G248">
-        <v>19940</v>
+        <v>19499</v>
       </c>
       <c r="H248">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="I248">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J248">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="K248">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L248">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="M248">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10675,40 +10675,40 @@
         <v>44139</v>
       </c>
       <c r="B249">
-        <v>18651</v>
+        <v>18353</v>
       </c>
       <c r="C249">
-        <v>16262</v>
+        <v>16561</v>
       </c>
       <c r="D249">
-        <v>20550</v>
+        <v>20330</v>
       </c>
       <c r="E249">
-        <v>19098</v>
+        <v>18849</v>
       </c>
       <c r="F249">
-        <v>17172</v>
+        <v>17349</v>
       </c>
       <c r="G249">
-        <v>20804</v>
+        <v>20390</v>
       </c>
       <c r="H249">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I249">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J249">
-        <v>1.17</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K249">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L249">
         <v>0.99</v>
       </c>
       <c r="M249">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10716,25 +10716,25 @@
         <v>44140</v>
       </c>
       <c r="B250">
-        <v>17136</v>
+        <v>16817</v>
       </c>
       <c r="C250">
-        <v>14939</v>
+        <v>14745</v>
       </c>
       <c r="D250">
-        <v>19419</v>
+        <v>18770</v>
       </c>
       <c r="E250">
-        <v>19100</v>
+        <v>18804</v>
       </c>
       <c r="F250">
-        <v>16971</v>
+        <v>17042</v>
       </c>
       <c r="G250">
-        <v>20995</v>
+        <v>20565</v>
       </c>
       <c r="H250">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I250">
         <v>1.06</v>
@@ -10743,13 +10743,13 @@
         <v>1.18</v>
       </c>
       <c r="K250">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L250">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M250">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10757,40 +10757,40 @@
         <v>44141</v>
       </c>
       <c r="B251">
-        <v>16562</v>
+        <v>15980</v>
       </c>
       <c r="C251">
-        <v>13634</v>
+        <v>13914</v>
       </c>
       <c r="D251">
-        <v>19178</v>
+        <v>17937</v>
       </c>
       <c r="E251">
-        <v>17983</v>
+        <v>17595</v>
       </c>
       <c r="F251">
-        <v>15589</v>
+        <v>15726</v>
       </c>
       <c r="G251">
-        <v>20157</v>
+        <v>19471</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I251">
         <v>0.94</v>
       </c>
       <c r="J251">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K251">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L251">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="M251">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10798,40 +10798,40 @@
         <v>44142</v>
       </c>
       <c r="B252">
-        <v>15737</v>
+        <v>15203</v>
       </c>
       <c r="C252">
-        <v>12425</v>
+        <v>13093</v>
       </c>
       <c r="D252">
-        <v>18525</v>
+        <v>17348</v>
       </c>
       <c r="E252">
-        <v>17022</v>
+        <v>16588</v>
       </c>
       <c r="F252">
-        <v>14315</v>
+        <v>14578</v>
       </c>
       <c r="G252">
-        <v>19418</v>
+        <v>18596</v>
       </c>
       <c r="H252">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I252">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K252">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L252">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="M252">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10839,40 +10839,40 @@
         <v>44143</v>
       </c>
       <c r="B253">
-        <v>16729</v>
+        <v>15728</v>
       </c>
       <c r="C253">
-        <v>12290</v>
+        <v>12584</v>
       </c>
       <c r="D253">
-        <v>20840</v>
+        <v>18775</v>
       </c>
       <c r="E253">
-        <v>16541</v>
+        <v>15932</v>
       </c>
       <c r="F253">
-        <v>13322</v>
+        <v>13584</v>
       </c>
       <c r="G253">
-        <v>19490</v>
+        <v>18207</v>
       </c>
       <c r="H253">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="I253">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J253">
+        <v>0.91</v>
+      </c>
+      <c r="K253">
         <v>0.96</v>
       </c>
-      <c r="K253">
-        <v>0.98</v>
-      </c>
       <c r="L253">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M253">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10880,40 +10880,40 @@
         <v>44144</v>
       </c>
       <c r="B254">
-        <v>20413</v>
+        <v>18608</v>
       </c>
       <c r="C254">
-        <v>15450</v>
+        <v>14138</v>
       </c>
       <c r="D254">
-        <v>26552</v>
+        <v>22732</v>
       </c>
       <c r="E254">
-        <v>17360</v>
+        <v>16379</v>
       </c>
       <c r="F254">
-        <v>13450</v>
+        <v>13432</v>
       </c>
       <c r="G254">
-        <v>21274</v>
+        <v>19198</v>
       </c>
       <c r="H254">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="I254">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J254">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="K254">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="L254">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M254">
-        <v>1.1000000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10921,40 +10921,40 @@
         <v>44145</v>
       </c>
       <c r="B255">
-        <v>22010</v>
+        <v>19376</v>
       </c>
       <c r="C255">
-        <v>15206</v>
+        <v>14027</v>
       </c>
       <c r="D255">
-        <v>30249</v>
+        <v>24275</v>
       </c>
       <c r="E255">
-        <v>18722</v>
+        <v>17228</v>
       </c>
       <c r="F255">
-        <v>13843</v>
+        <v>13460</v>
       </c>
       <c r="G255">
-        <v>24041</v>
+        <v>20783</v>
       </c>
       <c r="H255">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="I255">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="J255">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K255">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="L255">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="M255">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10962,31 +10962,72 @@
         <v>44146</v>
       </c>
       <c r="B256">
-        <v>21613</v>
+        <v>17524</v>
       </c>
       <c r="C256">
-        <v>12001</v>
+        <v>11122</v>
       </c>
       <c r="D256">
-        <v>31668</v>
+        <v>23962</v>
       </c>
       <c r="E256">
-        <v>20191</v>
+        <v>17809</v>
       </c>
       <c r="F256">
-        <v>13737</v>
+        <v>12968</v>
       </c>
       <c r="G256">
-        <v>27327</v>
+        <v>22436</v>
       </c>
       <c r="H256">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="I256">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
       <c r="J256">
-        <v>1.43</v>
+        <v>1.26</v>
+      </c>
+      <c r="K256">
+        <v>0.97</v>
+      </c>
+      <c r="L256">
+        <v>0.87</v>
+      </c>
+      <c r="M256">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B257">
+        <v>16066</v>
+      </c>
+      <c r="C257">
+        <v>9923</v>
+      </c>
+      <c r="D257">
+        <v>23815</v>
+      </c>
+      <c r="E257">
+        <v>17893</v>
+      </c>
+      <c r="F257">
+        <v>12302</v>
+      </c>
+      <c r="G257">
+        <v>23696</v>
+      </c>
+      <c r="H257">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I257">
+        <v>0.92</v>
+      </c>
+      <c r="J257">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
